--- a/run.xlsx
+++ b/run.xlsx
@@ -433,7 +433,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>treasury_balance</t>
+          <t>number_of_traders</t>
         </is>
       </c>
     </row>
@@ -443,7 +443,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pool_balance_usdT</t>
+          <t>number_of_liquidations</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>volume_sol</t>
+          <t>cum_apy_providers</t>
         </is>
       </c>
     </row>
@@ -463,7 +463,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>oi_long</t>
+          <t>volume_sol</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>max_pnl_traders</t>
+          <t>volume_btc</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cum_apy_providers</t>
+          <t>treasury_balance</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pool_balance_usdc</t>
+          <t>pool_balance_usdT</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>number_of_liquidations</t>
+          <t>pool_balance_sol</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>fees_collected</t>
+          <t>oi_long</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cum_pnl_traders</t>
+          <t>pool_balance_usdc</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>volume_btc</t>
+          <t>fees_collected</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pool_balance_btc</t>
+          <t>number_of_liquidity_providers</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>min_pnl_traders</t>
+          <t>max_pnl_traders</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pool_balance_sol</t>
+          <t>cum_pnl_traders</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>oi_short</t>
+          <t>min_pnl_traders</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>number_of_traders</t>
+          <t>pool_balance_btc</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>number_of_liquidity_providers</t>
+          <t>oi_short</t>
         </is>
       </c>
     </row>

--- a/run.xlsx
+++ b/run.xlsx
@@ -433,7 +433,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>number_of_traders</t>
+          <t>oi_short</t>
         </is>
       </c>
     </row>
@@ -443,7 +443,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>number_of_liquidations</t>
+          <t>pool_balance_btc</t>
         </is>
       </c>
     </row>
@@ -463,7 +463,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>volume_sol</t>
+          <t>volume_eth</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>volume_btc</t>
+          <t>number_of_liquidations</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>treasury_balance</t>
+          <t>volume_sol</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pool_balance_usdT</t>
+          <t>treasury_balance</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pool_balance_sol</t>
+          <t>pool_balance_usdc</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>oi_long</t>
+          <t>min_pnl_traders</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pool_balance_usdc</t>
+          <t>number_of_traders</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>fees_collected</t>
+          <t>pool_balance_usdT</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>number_of_liquidity_providers</t>
+          <t>fees_collected</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>max_pnl_traders</t>
+          <t>cum_pnl_traders</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cum_pnl_traders</t>
+          <t>volume_btc</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>min_pnl_traders</t>
+          <t>pool_balance_eth</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pool_balance_eth</t>
+          <t>oi_long</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>volume_eth</t>
+          <t>pool_balance_sol</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pool_balance_btc</t>
+          <t>max_pnl_traders</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>oi_short</t>
+          <t>number_of_liquidity_providers</t>
         </is>
       </c>
     </row>

--- a/run.xlsx
+++ b/run.xlsx
@@ -433,7 +433,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>oi_short</t>
+          <t>pool_balance_sol</t>
         </is>
       </c>
     </row>
@@ -443,7 +443,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pool_balance_btc</t>
+          <t>number_of_liquidations</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cum_apy_providers</t>
+          <t>volume_eth</t>
         </is>
       </c>
     </row>
@@ -463,7 +463,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>volume_eth</t>
+          <t>treasury_balance</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>number_of_liquidations</t>
+          <t>oi_short</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>volume_sol</t>
+          <t>pool_balance_usdT</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>treasury_balance</t>
+          <t>cum_apy_providers</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pool_balance_usdc</t>
+          <t>oi_long</t>
         </is>
       </c>
     </row>
@@ -523,7 +523,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>number_of_traders</t>
+          <t>fees_collected</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pool_balance_usdT</t>
+          <t>pool_balance_btc</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>fees_collected</t>
+          <t>pool_balance_eth</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>volume_btc</t>
+          <t>number_of_traders</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pool_balance_eth</t>
+          <t>volume_sol</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>oi_long</t>
+          <t>volume_btc</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pool_balance_sol</t>
+          <t>max_pnl_traders</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>max_pnl_traders</t>
+          <t>number_of_liquidity_providers</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>number_of_liquidity_providers</t>
+          <t>pool_balance_usdc</t>
         </is>
       </c>
     </row>

--- a/run.xlsx
+++ b/run.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,8 +422,175 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="n">
-        <v>0</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>number_of_traders</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>number_of_liquidity_providers</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>pool_balance_btc</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>pool_balance_eth</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>pool_balance_sol</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>pool_balance_usdc</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pool_balance_usdt</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>cum_pnl_traders</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>max_pnl_traders</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>min_pnl_traders</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>oi_long_btc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>oi_long_eth</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>oi_long_sol</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>oi_short_btc</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>oi_short_eth</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>oi_short_sol</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>volume_btc</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>volume_eth</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>volume_sol</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>num_of_trades</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>num_of_swaps</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>number_of_liquidations</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>fees_collected</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>treasury_balance_btc</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>treasury_balance_eth</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>treasury_balance_sol</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>treasury_balance_usdc</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>treasury_balance_usdt</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>pool_pnl_btc</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>pool_pnl_eth</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>pool_pnl_sol</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>nominal_exposure_btc</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>nominal_exposure_eth</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>nominal_exposure_sol</t>
+        </is>
       </c>
     </row>
     <row r="2"/>
@@ -431,190 +598,4387 @@
       <c r="A3" t="n">
         <v>0</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>pool_balance_sol</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>110</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G3" t="n">
+        <v>450000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>450000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>number_of_liquidations</t>
-        </is>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>110</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G4" t="n">
+        <v>450000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>450000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>volume_eth</t>
-        </is>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.01003949404379</v>
+      </c>
+      <c r="E5" t="n">
+        <v>110</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2497.340245797123</v>
+      </c>
+      <c r="G5" t="n">
+        <v>451356.565507693</v>
+      </c>
+      <c r="H5" t="n">
+        <v>448645.3738817211</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.03084603303462075</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.001558687734908661</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.004635017637930755</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.00152999776331258</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.00153010677423423</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>treasury_balance</t>
-        </is>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.01003949404379</v>
+      </c>
+      <c r="E6" t="n">
+        <v>110</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2497.340245797123</v>
+      </c>
+      <c r="G6" t="n">
+        <v>451356.565507693</v>
+      </c>
+      <c r="H6" t="n">
+        <v>448645.3738817211</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.03084603303462075</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.001558687734908661</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.004635017637930755</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.00152999776331258</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.00153010677423423</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>4</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>oi_short</t>
-        </is>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.973093468114753</v>
+      </c>
+      <c r="E7" t="n">
+        <v>109.344429027126</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2493.863248885385</v>
+      </c>
+      <c r="G7" t="n">
+        <v>451356.565507693</v>
+      </c>
+      <c r="H7" t="n">
+        <v>453466.3481028817</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>7</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0722875420339829</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.006293277141840933</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.00156154030457871</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.006179752624097776</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.004591585701158199</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.00306010683851925</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>pool_balance_usdT</t>
-        </is>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.973093468114753</v>
+      </c>
+      <c r="E8" t="n">
+        <v>109.344429027126</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2493.863248885385</v>
+      </c>
+      <c r="G8" t="n">
+        <v>451356.565507693</v>
+      </c>
+      <c r="H8" t="n">
+        <v>453466.3481028817</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.0722875420339829</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.006293277141840933</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.00156154030457871</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.006179752624097776</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.004591585701158199</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.00306010683851925</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>cum_apy_providers</t>
-        </is>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.970471150932532</v>
+      </c>
+      <c r="E9" t="n">
+        <v>109.524437738273</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2487.570835224308</v>
+      </c>
+      <c r="G9" t="n">
+        <v>451862.7953467346</v>
+      </c>
+      <c r="H9" t="n">
+        <v>453466.3481028817</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>10</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.1072228317855425</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.008948419918762628</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.006321539595842425</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.007716191455963528</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.006120591726574916</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.00306010683851925</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>oi_long</t>
-        </is>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.970471150932532</v>
+      </c>
+      <c r="E10" t="n">
+        <v>109.524437738273</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2487.570835224308</v>
+      </c>
+      <c r="G10" t="n">
+        <v>451862.7953467346</v>
+      </c>
+      <c r="H10" t="n">
+        <v>453466.3481028817</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>10</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.1072228317855425</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.008948419918762628</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.006321539595842425</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.007716191455963528</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.006120591726574916</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.00306010683851925</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>8</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>min_pnl_traders</t>
-        </is>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.04459076654763</v>
+      </c>
+      <c r="E11" t="n">
+        <v>111.2779433733329</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2487.570835224308</v>
+      </c>
+      <c r="G11" t="n">
+        <v>448494.7474570213</v>
+      </c>
+      <c r="H11" t="n">
+        <v>447503.3841271785</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-440.0354272447158</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-440.0354272447158</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-440.0354272447158</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>14</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.1534914613219356</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.0131548524831716</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.01136507516103109</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.007716191455963528</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.00766284852832657</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.006148470768087898</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>9</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>fees_collected</t>
-        </is>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10.04459076654763</v>
+      </c>
+      <c r="E12" t="n">
+        <v>111.2779433733329</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2487.570835224308</v>
+      </c>
+      <c r="G12" t="n">
+        <v>448494.7474570213</v>
+      </c>
+      <c r="H12" t="n">
+        <v>447503.3841271785</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-440.0354272447158</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-440.0354272447158</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-440.0354272447158</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>14</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.1534914613219356</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.0131548524831716</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.01136507516103109</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.007716191455963528</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.00766284852832657</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.006148470768087898</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>pool_balance_btc</t>
-        </is>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.04459076654763</v>
+      </c>
+      <c r="E13" t="n">
+        <v>111.2772185745058</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2487.570835224308</v>
+      </c>
+      <c r="G13" t="n">
+        <v>448494.7474570213</v>
+      </c>
+      <c r="H13" t="n">
+        <v>447503.3841271785</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>15</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.1646622945103897</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.0131548524831716</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.01162078508761589</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.01081173148591496</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.00766284852832657</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.006148470768087898</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>pool_balance_eth</t>
-        </is>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.04459076654763</v>
+      </c>
+      <c r="E14" t="n">
+        <v>111.2772185745058</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2487.570835224308</v>
+      </c>
+      <c r="G14" t="n">
+        <v>448494.7474570213</v>
+      </c>
+      <c r="H14" t="n">
+        <v>447503.3841271785</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>15</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.1646622945103897</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.0131548524831716</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.01162078508761589</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.01081173148591496</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.00766284852832657</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.006148470768087898</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>12</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>cum_pnl_traders</t>
-        </is>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10.04459076654763</v>
+      </c>
+      <c r="E15" t="n">
+        <v>111.2772185745058</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2487.570835224308</v>
+      </c>
+      <c r="G15" t="n">
+        <v>448494.7474570213</v>
+      </c>
+      <c r="H15" t="n">
+        <v>447503.3841271785</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>16</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.1749378204931825</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.0131548524831716</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.01162078508761589</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.01081173148591496</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.00766284852832657</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.009231128562925729</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>13</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>number_of_traders</t>
-        </is>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.04459076654763</v>
+      </c>
+      <c r="E16" t="n">
+        <v>111.2772185745058</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2487.570835224308</v>
+      </c>
+      <c r="G16" t="n">
+        <v>448494.7474570213</v>
+      </c>
+      <c r="H16" t="n">
+        <v>447503.3841271785</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>16</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.1749378204931825</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.0131548524831716</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.01162078508761589</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.01081173148591496</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.00766284852832657</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.009231128562925729</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>14</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>volume_sol</t>
-        </is>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10.04459076654763</v>
+      </c>
+      <c r="E17" t="n">
+        <v>111.2772185745058</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2487.570835224308</v>
+      </c>
+      <c r="G17" t="n">
+        <v>448494.7474570213</v>
+      </c>
+      <c r="H17" t="n">
+        <v>447503.3841271785</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>17</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.1851919326879622</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.0131548524831716</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.01162078508761589</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.01081173148591496</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.00766284852832657</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.01230736222135963</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>15</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>volume_btc</t>
-        </is>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10.04459076654763</v>
+      </c>
+      <c r="E18" t="n">
+        <v>111.2772185745058</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2487.570835224308</v>
+      </c>
+      <c r="G18" t="n">
+        <v>448494.7474570213</v>
+      </c>
+      <c r="H18" t="n">
+        <v>447503.3841271785</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>17</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.1851919326879622</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.0131548524831716</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.01162078508761589</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.01081173148591496</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.00766284852832657</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.01230736222135963</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>16</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>max_pnl_traders</t>
-        </is>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9.934514359651642</v>
+      </c>
+      <c r="E19" t="n">
+        <v>111.2772185745058</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2487.570835224308</v>
+      </c>
+      <c r="G19" t="n">
+        <v>453167.3359840115</v>
+      </c>
+      <c r="H19" t="n">
+        <v>447503.3841271785</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>18</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.1953471006931808</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.01475497173550951</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.01162078508761589</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.01081173148591496</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.009109279677554262</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.01230736222135963</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>17</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>number_of_liquidity_providers</t>
-        </is>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9.934514359651642</v>
+      </c>
+      <c r="E20" t="n">
+        <v>111.2772185745058</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2487.570835224308</v>
+      </c>
+      <c r="G20" t="n">
+        <v>453167.3359840115</v>
+      </c>
+      <c r="H20" t="n">
+        <v>447503.3841271785</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.3520423332118753</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>18</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.1953471006931808</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.01475497173550951</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.01162078508761589</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.01081173148591496</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.009109279677554262</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.01230736222135963</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>18</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>pool_balance_usdc</t>
-        </is>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9.941107077606285</v>
+      </c>
+      <c r="E21" t="n">
+        <v>111.184889376806</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2487.570835224308</v>
+      </c>
+      <c r="G21" t="n">
+        <v>453167.3359840115</v>
+      </c>
+      <c r="H21" t="n">
+        <v>447503.3841271785</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.001314990729519657</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.353357323941395</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>20</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.2145837507256479</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.01632925504674202</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.01272600575995961</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.01390322251207885</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.009109279677554262</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.01230736222135963</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.001314990729519657</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.941107077606285</v>
+      </c>
+      <c r="E22" t="n">
+        <v>111.184889376806</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2487.570835224308</v>
+      </c>
+      <c r="G22" t="n">
+        <v>453167.3359840115</v>
+      </c>
+      <c r="H22" t="n">
+        <v>447503.3841271785</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-437.471099866318</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.001314990729519657</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.353357323941395</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>20</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2145837507256479</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.01632925504674202</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.01272600575995961</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.01390322251207885</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.009109279677554262</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.01230736222135963</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.001314990729519657</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9.941070601379431</v>
+      </c>
+      <c r="E23" t="n">
+        <v>111.184889376806</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2488.703266143547</v>
+      </c>
+      <c r="G23" t="n">
+        <v>453011.0280445975</v>
+      </c>
+      <c r="H23" t="n">
+        <v>447503.3841271785</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-435.9276050196282</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-435.9276050196282</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-435.9276050196282</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11.89754182370188</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.353357323941395</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T23" t="n">
+        <v>11.89754182370188</v>
+      </c>
+      <c r="U23" t="n">
+        <v>7</v>
+      </c>
+      <c r="V23" t="n">
+        <v>21</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.4822825608341118</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.01633320001893058</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.01272600575995961</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.09248712271356063</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.01083107753642307</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.01230736222135963</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>11.89754182370188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9.941070601379431</v>
+      </c>
+      <c r="E24" t="n">
+        <v>111.184889376806</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2488.703266143547</v>
+      </c>
+      <c r="G24" t="n">
+        <v>453011.0280445975</v>
+      </c>
+      <c r="H24" t="n">
+        <v>447503.3841271785</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-435.9276050196282</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-435.9276050196282</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-435.9276050196282</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11.89754182370188</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.353357323941395</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T24" t="n">
+        <v>11.89754182370188</v>
+      </c>
+      <c r="U24" t="n">
+        <v>7</v>
+      </c>
+      <c r="V24" t="n">
+        <v>21</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.4822825608341118</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.01633320001893058</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.01272600575995961</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.09248712271356063</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.01083107753642307</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.01230736222135963</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>11.89754182370188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9.941070601379431</v>
+      </c>
+      <c r="E25" t="n">
+        <v>111.184889376806</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2488.511515715455</v>
+      </c>
+      <c r="G25" t="n">
+        <v>453621.9804561206</v>
+      </c>
+      <c r="H25" t="n">
+        <v>446892.412412689</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-408.9748149368662</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-408.9748149368662</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-408.9748149368662</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.353357323941395</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T25" t="n">
+        <v>11.89754182370188</v>
+      </c>
+      <c r="U25" t="n">
+        <v>8</v>
+      </c>
+      <c r="V25" t="n">
+        <v>22</v>
+      </c>
+      <c r="W25" t="n">
+        <v>4</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.6113782820154343</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.01633320001893058</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.01272600575995961</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.1281797481846663</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.01228010277192983</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.01389442786914396</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9.941070601379431</v>
+      </c>
+      <c r="E26" t="n">
+        <v>111.184889376806</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2488.511515715455</v>
+      </c>
+      <c r="G26" t="n">
+        <v>453621.9804561206</v>
+      </c>
+      <c r="H26" t="n">
+        <v>446892.412412689</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-408.9748149368662</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-408.9748149368662</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-408.9748149368662</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.353357323941395</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T26" t="n">
+        <v>11.89754182370188</v>
+      </c>
+      <c r="U26" t="n">
+        <v>8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>22</v>
+      </c>
+      <c r="W26" t="n">
+        <v>4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.6113782820154343</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.01633320001893058</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.01272600575995961</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1281797481846663</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.01228010277192983</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.01389442786914396</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9.941070601379431</v>
+      </c>
+      <c r="E27" t="n">
+        <v>111.184889376806</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2488.511515715455</v>
+      </c>
+      <c r="G27" t="n">
+        <v>453621.9804561206</v>
+      </c>
+      <c r="H27" t="n">
+        <v>446892.412412689</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-408.9748149368662</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-408.9748149368662</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-408.9748149368662</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.355191048389313</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T27" t="n">
+        <v>11.89754182370188</v>
+      </c>
+      <c r="U27" t="n">
+        <v>9</v>
+      </c>
+      <c r="V27" t="n">
+        <v>23</v>
+      </c>
+      <c r="W27" t="n">
+        <v>4</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.6254489745386255</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.01739877316409852</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.01272600575995961</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.1281797481846663</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.01543573738371926</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.01389442786914396</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.355191048389313</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9.941070601379431</v>
+      </c>
+      <c r="E28" t="n">
+        <v>111.184889376806</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2488.511515715455</v>
+      </c>
+      <c r="G28" t="n">
+        <v>453621.9804561206</v>
+      </c>
+      <c r="H28" t="n">
+        <v>446892.412412689</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-408.9748149368662</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-408.9748149368662</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-408.9748149368662</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.355191048389313</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T28" t="n">
+        <v>11.89754182370188</v>
+      </c>
+      <c r="U28" t="n">
+        <v>9</v>
+      </c>
+      <c r="V28" t="n">
+        <v>23</v>
+      </c>
+      <c r="W28" t="n">
+        <v>4</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.6254489745386255</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.01739877316409852</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.01272600575995961</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.1281797481846663</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.01543573738371926</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.01389442786914396</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.355191048389313</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9.940288908556708</v>
+      </c>
+      <c r="E29" t="n">
+        <v>111.184889376806</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2491.427533030906</v>
+      </c>
+      <c r="G29" t="n">
+        <v>453621.9804561206</v>
+      </c>
+      <c r="H29" t="n">
+        <v>446651.587833196</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T29" t="n">
+        <v>11.89754182370188</v>
+      </c>
+      <c r="U29" t="n">
+        <v>10</v>
+      </c>
+      <c r="V29" t="n">
+        <v>25</v>
+      </c>
+      <c r="W29" t="n">
+        <v>5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.6502379675478345</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.02004078160575924</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.01272600575995961</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.1299092656252945</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.01543573738371926</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.01695959988961769</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.940288908556708</v>
+      </c>
+      <c r="E30" t="n">
+        <v>111.184889376806</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2491.427533030906</v>
+      </c>
+      <c r="G30" t="n">
+        <v>453621.9804561206</v>
+      </c>
+      <c r="H30" t="n">
+        <v>446651.587833196</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T30" t="n">
+        <v>11.89754182370188</v>
+      </c>
+      <c r="U30" t="n">
+        <v>10</v>
+      </c>
+      <c r="V30" t="n">
+        <v>25</v>
+      </c>
+      <c r="W30" t="n">
+        <v>5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6502379675478345</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.02004078160575924</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.01272600575995961</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.1299092656252945</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.01543573738371926</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.01695959988961769</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9.940288908556708</v>
+      </c>
+      <c r="E31" t="n">
+        <v>111.893628933903</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2523.426357140595</v>
+      </c>
+      <c r="G31" t="n">
+        <v>446649.3027707326</v>
+      </c>
+      <c r="H31" t="n">
+        <v>446651.587833196</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T31" t="n">
+        <v>11.89754182370188</v>
+      </c>
+      <c r="U31" t="n">
+        <v>10</v>
+      </c>
+      <c r="V31" t="n">
+        <v>28</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.6833932378009003</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.02319081646359236</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.01443259996571591</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.1316798433911429</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.01875511163020118</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.01695959988961769</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9.940288908556708</v>
+      </c>
+      <c r="E32" t="n">
+        <v>111.893628933903</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2523.426357140595</v>
+      </c>
+      <c r="G32" t="n">
+        <v>446649.3027707326</v>
+      </c>
+      <c r="H32" t="n">
+        <v>446651.587833196</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T32" t="n">
+        <v>11.89754182370188</v>
+      </c>
+      <c r="U32" t="n">
+        <v>10</v>
+      </c>
+      <c r="V32" t="n">
+        <v>28</v>
+      </c>
+      <c r="W32" t="n">
+        <v>5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.6833932378009003</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.02319081646359236</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.01443259996571591</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.1316798433911429</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.01875511163020118</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.01695959988961769</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9.940288908556708</v>
+      </c>
+      <c r="E33" t="n">
+        <v>110.3442699511077</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2558.38432262499</v>
+      </c>
+      <c r="G33" t="n">
+        <v>445670.9441175979</v>
+      </c>
+      <c r="H33" t="n">
+        <v>447628.8838493317</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>41.16268804653836</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T33" t="n">
+        <v>53.06022987024024</v>
+      </c>
+      <c r="U33" t="n">
+        <v>11</v>
+      </c>
+      <c r="V33" t="n">
+        <v>31</v>
+      </c>
+      <c r="W33" t="n">
+        <v>5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.804250460261521</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.02634089482836341</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.01596057745879392</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7601927716234319</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.02033354973995329</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.01844734442791375</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>41.16268804653836</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9.940288908556708</v>
+      </c>
+      <c r="E34" t="n">
+        <v>110.3442699511077</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2558.38432262499</v>
+      </c>
+      <c r="G34" t="n">
+        <v>445670.9441175979</v>
+      </c>
+      <c r="H34" t="n">
+        <v>447628.8838493317</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-556.3395338430239</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>41.16268804653836</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T34" t="n">
+        <v>53.06022987024024</v>
+      </c>
+      <c r="U34" t="n">
+        <v>11</v>
+      </c>
+      <c r="V34" t="n">
+        <v>31</v>
+      </c>
+      <c r="W34" t="n">
+        <v>5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.804250460261521</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.02634089482836341</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.01596057745879392</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.7601927716234319</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.02033354973995329</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.01844734442791375</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>41.16268804653836</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9.940288908556708</v>
+      </c>
+      <c r="E35" t="n">
+        <v>110.3442699511077</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2548.270665467356</v>
+      </c>
+      <c r="G35" t="n">
+        <v>445670.9441175979</v>
+      </c>
+      <c r="H35" t="n">
+        <v>449263.9736295015</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T35" t="n">
+        <v>53.06022987024024</v>
+      </c>
+      <c r="U35" t="n">
+        <v>12</v>
+      </c>
+      <c r="V35" t="n">
+        <v>33</v>
+      </c>
+      <c r="W35" t="n">
+        <v>6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.236234225061722</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.02949095386140562</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.01596057745879392</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8851823938953498</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.02033354973995329</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.01990279256301412</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.940288908556708</v>
+      </c>
+      <c r="E36" t="n">
+        <v>110.3442699511077</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2548.270665467356</v>
+      </c>
+      <c r="G36" t="n">
+        <v>445670.9441175979</v>
+      </c>
+      <c r="H36" t="n">
+        <v>449263.9736295015</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T36" t="n">
+        <v>53.06022987024024</v>
+      </c>
+      <c r="U36" t="n">
+        <v>12</v>
+      </c>
+      <c r="V36" t="n">
+        <v>33</v>
+      </c>
+      <c r="W36" t="n">
+        <v>6</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.236234225061722</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.02949095386140562</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.01596057745879392</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.8851823938953498</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.02033354973995329</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.01990279256301412</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.940288908556708</v>
+      </c>
+      <c r="E37" t="n">
+        <v>110.3442699511077</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2548.270665467356</v>
+      </c>
+      <c r="G37" t="n">
+        <v>445670.9441175979</v>
+      </c>
+      <c r="H37" t="n">
+        <v>449263.9736295015</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T37" t="n">
+        <v>53.06022987024024</v>
+      </c>
+      <c r="U37" t="n">
+        <v>12</v>
+      </c>
+      <c r="V37" t="n">
+        <v>34</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3.246469136345045</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.02949095386140562</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.01596057745879392</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.8851823938953498</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.02033354973995329</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.02297326594801106</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.940288908556708</v>
+      </c>
+      <c r="E38" t="n">
+        <v>110.3442699511077</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2548.270665467356</v>
+      </c>
+      <c r="G38" t="n">
+        <v>445670.9441175979</v>
+      </c>
+      <c r="H38" t="n">
+        <v>449263.9736295015</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T38" t="n">
+        <v>53.06022987024024</v>
+      </c>
+      <c r="U38" t="n">
+        <v>12</v>
+      </c>
+      <c r="V38" t="n">
+        <v>34</v>
+      </c>
+      <c r="W38" t="n">
+        <v>6</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3.246469136345045</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.02949095386140562</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.01596057745879392</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.8851823938953498</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.02033354973995329</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.02297326594801106</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9.944849962994249</v>
+      </c>
+      <c r="E39" t="n">
+        <v>110.2829699509824</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2548.902006282849</v>
+      </c>
+      <c r="G39" t="n">
+        <v>445584.6789642543</v>
+      </c>
+      <c r="H39" t="n">
+        <v>449263.9736295015</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T39" t="n">
+        <v>53.06022987024024</v>
+      </c>
+      <c r="U39" t="n">
+        <v>12</v>
+      </c>
+      <c r="V39" t="n">
+        <v>36</v>
+      </c>
+      <c r="W39" t="n">
+        <v>6</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.26739242153511</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.0310624902304367</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.01723749808019774</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.8869297333330971</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.02201473886879038</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.02297326594801106</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.944849962994249</v>
+      </c>
+      <c r="E40" t="n">
+        <v>110.2829699509824</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2548.902006282849</v>
+      </c>
+      <c r="G40" t="n">
+        <v>445584.6789642543</v>
+      </c>
+      <c r="H40" t="n">
+        <v>449263.9736295015</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T40" t="n">
+        <v>53.06022987024024</v>
+      </c>
+      <c r="U40" t="n">
+        <v>12</v>
+      </c>
+      <c r="V40" t="n">
+        <v>36</v>
+      </c>
+      <c r="W40" t="n">
+        <v>6</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.26739242153511</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.0310624902304367</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.01723749808019774</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.8869297333330971</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.02201473886879038</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.02297326594801106</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9.944849962994249</v>
+      </c>
+      <c r="E41" t="n">
+        <v>110.2829699509824</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2548.902006282849</v>
+      </c>
+      <c r="G41" t="n">
+        <v>445799.7810061803</v>
+      </c>
+      <c r="H41" t="n">
+        <v>449048.838965239</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T41" t="n">
+        <v>53.06022987024024</v>
+      </c>
+      <c r="U41" t="n">
+        <v>12</v>
+      </c>
+      <c r="V41" t="n">
+        <v>37</v>
+      </c>
+      <c r="W41" t="n">
+        <v>6</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3.277704491913036</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.0310624902304367</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.01723749808019774</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.8869297333330971</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.02343996624061243</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.02464165968956681</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9.944849962994249</v>
+      </c>
+      <c r="E42" t="n">
+        <v>110.2829699509824</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2548.902006282849</v>
+      </c>
+      <c r="G42" t="n">
+        <v>445799.7810061803</v>
+      </c>
+      <c r="H42" t="n">
+        <v>449048.838965239</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T42" t="n">
+        <v>53.06022987024024</v>
+      </c>
+      <c r="U42" t="n">
+        <v>12</v>
+      </c>
+      <c r="V42" t="n">
+        <v>37</v>
+      </c>
+      <c r="W42" t="n">
+        <v>6</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.277704491913036</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.0310624902304367</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.01723749808019774</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.8869297333330971</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.02343996624061243</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.02464165968956681</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9.944849962994249</v>
+      </c>
+      <c r="E43" t="n">
+        <v>110.2829699509824</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2537.701370873694</v>
+      </c>
+      <c r="G43" t="n">
+        <v>445799.7810061803</v>
+      </c>
+      <c r="H43" t="n">
+        <v>450325.6052309144</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-705.7224107523067</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.708548372330708</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.08523664219493264</v>
+      </c>
+      <c r="T43" t="n">
+        <v>53.06022987024024</v>
+      </c>
+      <c r="U43" t="n">
+        <v>12</v>
+      </c>
+      <c r="V43" t="n">
+        <v>39</v>
+      </c>
+      <c r="W43" t="n">
+        <v>6</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.29356737848561</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.0310624902304367</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.01723749808019774</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.8907764964405515</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.02343996624061243</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.02555376255388501</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/run.xlsx
+++ b/run.xlsx
@@ -819,19 +819,19 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>10.01003949404379</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>110</v>
       </c>
       <c r="F5" t="n">
-        <v>2497.340245797123</v>
+        <v>2500</v>
       </c>
       <c r="G5" t="n">
-        <v>451356.565507693</v>
+        <v>450000</v>
       </c>
       <c r="H5" t="n">
-        <v>448645.3738817211</v>
+        <v>450000</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -864,37 +864,37 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03084603303462075</v>
+        <v>0.008161764201742479</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001558687734908661</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.002448529260522744</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.004635017637930755</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.00152999776331258</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.00153010677423423</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>10.01003949404379</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>110</v>
       </c>
       <c r="F6" t="n">
-        <v>2497.340245797123</v>
+        <v>2500</v>
       </c>
       <c r="G6" t="n">
-        <v>451356.565507693</v>
+        <v>450000</v>
       </c>
       <c r="H6" t="n">
-        <v>448645.3738817211</v>
+        <v>450000</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -971,37 +971,37 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03084603303462075</v>
+        <v>0.008161764201742479</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001558687734908661</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.002448529260522744</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.004635017637930755</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.00152999776331258</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.00153010677423423</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -1033,19 +1033,19 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>9.973093468114753</v>
+        <v>9.952012308474941</v>
       </c>
       <c r="E7" t="n">
-        <v>109.344429027126</v>
+        <v>110</v>
       </c>
       <c r="F7" t="n">
-        <v>2493.863248885385</v>
+        <v>2507.221595856023</v>
       </c>
       <c r="G7" t="n">
-        <v>451356.565507693</v>
+        <v>451126.8423264105</v>
       </c>
       <c r="H7" t="n">
-        <v>453466.3481028817</v>
+        <v>449845.8003643745</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1072,43 +1072,43 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>4.716014480118543</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>4.716014480118543</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0722875420339829</v>
+        <v>0.03918773730027794</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.006293277141840933</v>
+        <v>0.003171883362531667</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.00156154030457871</v>
+        <v>0.002448529260522744</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.006179752624097776</v>
+        <v>0.001546299491078141</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.004591585701158199</v>
+        <v>0.003059156421594817</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.00306010683851925</v>
+        <v>0.001530452654356013</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-4.716014480118543</v>
       </c>
     </row>
     <row r="8">
@@ -1140,19 +1140,19 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>9.973093468114753</v>
+        <v>9.952012308474941</v>
       </c>
       <c r="E8" t="n">
-        <v>109.344429027126</v>
+        <v>110</v>
       </c>
       <c r="F8" t="n">
-        <v>2493.863248885385</v>
+        <v>2507.221595856023</v>
       </c>
       <c r="G8" t="n">
-        <v>451356.565507693</v>
+        <v>451126.8423264105</v>
       </c>
       <c r="H8" t="n">
-        <v>453466.3481028817</v>
+        <v>449845.8003643745</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1179,43 +1179,43 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>4.716014480118543</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>4.716014480118543</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0722875420339829</v>
+        <v>0.03918773730027794</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.006293277141840933</v>
+        <v>0.003171883362531667</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.00156154030457871</v>
+        <v>0.002448529260522744</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.006179752624097776</v>
+        <v>0.001546299491078141</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.004591585701158199</v>
+        <v>0.003059156421594817</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.00306010683851925</v>
+        <v>0.001530452654356013</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>-4.716014480118543</v>
       </c>
     </row>
     <row r="9">
@@ -1247,19 +1247,19 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>9.970471150932532</v>
+        <v>9.927592572308125</v>
       </c>
       <c r="E9" t="n">
-        <v>109.524437738273</v>
+        <v>110.2938377365662</v>
       </c>
       <c r="F9" t="n">
-        <v>2487.570835224308</v>
+        <v>2507.221595856023</v>
       </c>
       <c r="G9" t="n">
-        <v>451862.7953467346</v>
+        <v>451126.8423264105</v>
       </c>
       <c r="H9" t="n">
-        <v>453466.3481028817</v>
+        <v>449845.8003643745</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3520423332118753</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1283,46 +1283,46 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.03797181152499512</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>23.36555975972203</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3520423332118753</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.8238257481887957</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>23.36555975972203</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1072228317855425</v>
+        <v>0.04974599627813001</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.008948419918762628</v>
+        <v>0.004754654151732103</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.006321539595842425</v>
+        <v>0.004033236164677929</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.007716191455963528</v>
+        <v>0.001546299491078141</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.006120591726574916</v>
+        <v>0.003059156421594817</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.00306010683851925</v>
+        <v>0.001530452654356013</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.3520423332118753</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>0.7478821251388056</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>-23.36555975972203</v>
       </c>
     </row>
     <row r="10">
@@ -1354,19 +1354,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>9.970471150932532</v>
+        <v>9.927592572308125</v>
       </c>
       <c r="E10" t="n">
-        <v>109.524437738273</v>
+        <v>110.2938377365662</v>
       </c>
       <c r="F10" t="n">
-        <v>2487.570835224308</v>
+        <v>2507.221595856023</v>
       </c>
       <c r="G10" t="n">
-        <v>451862.7953467346</v>
+        <v>451126.8423264105</v>
       </c>
       <c r="H10" t="n">
-        <v>453466.3481028817</v>
+        <v>449845.8003643745</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3520423332118753</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1390,46 +1390,46 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.03797181152499512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>23.36555975972203</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3520423332118753</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.8238257481887957</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>23.36555975972203</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1072228317855425</v>
+        <v>0.04974599627813001</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.008948419918762628</v>
+        <v>0.004754654151732103</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.006321539595842425</v>
+        <v>0.004033236164677929</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.007716191455963528</v>
+        <v>0.001546299491078141</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.006120591726574916</v>
+        <v>0.003059156421594817</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.00306010683851925</v>
+        <v>0.001530452654356013</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.3520423332118753</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.7478821251388056</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-23.36555975972203</v>
       </c>
     </row>
     <row r="11">
@@ -1461,82 +1461,82 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>10.04459076654763</v>
+        <v>9.927592572308125</v>
       </c>
       <c r="E11" t="n">
-        <v>111.2779433733329</v>
+        <v>110.2938377365662</v>
       </c>
       <c r="F11" t="n">
-        <v>2487.570835224308</v>
+        <v>2507.221595856023</v>
       </c>
       <c r="G11" t="n">
-        <v>448494.7474570213</v>
+        <v>451134.8114145231</v>
       </c>
       <c r="H11" t="n">
-        <v>447503.3841271785</v>
+        <v>449837.8286230432</v>
       </c>
       <c r="I11" t="n">
-        <v>-440.0354272447158</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-440.0354272447158</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-440.0354272447158</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.007400726221988298</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.03797181152499512</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3520423332118753</v>
+        <v>0.007400726221988298</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.8238257481887957</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V11" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1534914613219356</v>
+        <v>0.0599401107625509</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0131548524831716</v>
+        <v>0.004754654151732103</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01136507516103109</v>
+        <v>0.004033236164677929</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.007716191455963528</v>
+        <v>0.001546299491078141</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.00766284852832657</v>
+        <v>0.004580477483712365</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.006148470768087898</v>
+        <v>0.003067365937564734</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>-0.007400726221988298</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.7478821251388056</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-24.40625446512856</v>
       </c>
     </row>
     <row r="12">
@@ -1568,82 +1568,82 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>10.04459076654763</v>
+        <v>9.927592572308125</v>
       </c>
       <c r="E12" t="n">
-        <v>111.2779433733329</v>
+        <v>110.2938377365662</v>
       </c>
       <c r="F12" t="n">
-        <v>2487.570835224308</v>
+        <v>2507.221595856023</v>
       </c>
       <c r="G12" t="n">
-        <v>448494.7474570213</v>
+        <v>451134.8114145231</v>
       </c>
       <c r="H12" t="n">
-        <v>447503.3841271785</v>
+        <v>449837.8286230432</v>
       </c>
       <c r="I12" t="n">
-        <v>-440.0354272447158</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-440.0354272447158</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-440.0354272447158</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>0.007400726221988298</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.03797181152499512</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3520423332118753</v>
+        <v>0.007400726221988298</v>
       </c>
       <c r="S12" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.8238257481887957</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V12" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1534914613219356</v>
+        <v>0.0599401107625509</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.0131548524831716</v>
+        <v>0.004754654151732103</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.01136507516103109</v>
+        <v>0.004033236164677929</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.007716191455963528</v>
+        <v>0.001546299491078141</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.00766284852832657</v>
+        <v>0.004580477483712365</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.006148470768087898</v>
+        <v>0.003067365937564734</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>-0.007400726221988298</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.7478821251388056</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-24.40625446512856</v>
       </c>
     </row>
     <row r="13">
@@ -1675,82 +1675,82 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>10.04459076654763</v>
+        <v>9.923021202883046</v>
       </c>
       <c r="E13" t="n">
-        <v>111.2772185745058</v>
+        <v>110.3498261031847</v>
       </c>
       <c r="F13" t="n">
-        <v>2487.570835224308</v>
+        <v>2507.221595856023</v>
       </c>
       <c r="G13" t="n">
-        <v>448494.7474570213</v>
+        <v>451134.8114145231</v>
       </c>
       <c r="H13" t="n">
-        <v>447503.3841271785</v>
+        <v>449837.8286230432</v>
       </c>
       <c r="I13" t="n">
-        <v>-437.471099866318</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-437.471099866318</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-437.471099866318</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.007400726221988298</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.03797181152499512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3520423332118753</v>
+        <v>0.007400726221988298</v>
       </c>
       <c r="S13" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.8238257481887957</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V13" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1646622945103897</v>
+        <v>0.0705702789282852</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0131548524831716</v>
+        <v>0.006330745892397074</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01162078508761589</v>
+        <v>0.005646194873733246</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01081173148591496</v>
+        <v>0.001546299491078141</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.00766284852832657</v>
+        <v>0.004580477483712365</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.006148470768087898</v>
+        <v>0.003067365937564734</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>-0.007400726221988298</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>0.7478821251388056</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-24.40625446512856</v>
       </c>
     </row>
     <row r="14">
@@ -1782,82 +1782,82 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>10.04459076654763</v>
+        <v>9.923021202883046</v>
       </c>
       <c r="E14" t="n">
-        <v>111.2772185745058</v>
+        <v>110.3498261031847</v>
       </c>
       <c r="F14" t="n">
-        <v>2487.570835224308</v>
+        <v>2507.221595856023</v>
       </c>
       <c r="G14" t="n">
-        <v>448494.7474570213</v>
+        <v>451134.8114145231</v>
       </c>
       <c r="H14" t="n">
-        <v>447503.3841271785</v>
+        <v>449837.8286230432</v>
       </c>
       <c r="I14" t="n">
-        <v>-437.471099866318</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-437.471099866318</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-437.471099866318</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.7858539366638007</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.007400726221988298</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.03797181152499512</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3520423332118753</v>
+        <v>0.007400726221988298</v>
       </c>
       <c r="S14" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.8238257481887957</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1646622945103897</v>
+        <v>0.0705702789282852</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0131548524831716</v>
+        <v>0.006330745892397074</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.01162078508761589</v>
+        <v>0.005646194873733246</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01081173148591496</v>
+        <v>0.001546299491078141</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.00766284852832657</v>
+        <v>0.004580477483712365</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.006148470768087898</v>
+        <v>0.003067365937564734</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -1869,13 +1869,13 @@
         <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>-0.007400726221988298</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>0.7478821251388056</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>-24.40625446512856</v>
       </c>
     </row>
     <row r="15">
@@ -1889,28 +1889,28 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>10.04459076654763</v>
+        <v>9.923804706719947</v>
       </c>
       <c r="E15" t="n">
-        <v>111.2772185745058</v>
+        <v>109.6954693175245</v>
       </c>
       <c r="F15" t="n">
-        <v>2487.570835224308</v>
+        <v>2524.743633547097</v>
       </c>
       <c r="G15" t="n">
-        <v>448494.7474570213</v>
+        <v>451134.8114145231</v>
       </c>
       <c r="H15" t="n">
-        <v>447503.3841271785</v>
+        <v>449804.923651695</v>
       </c>
       <c r="I15" t="n">
-        <v>-437.471099866318</v>
+        <v>-424.0557340696678</v>
       </c>
       <c r="J15" t="n">
-        <v>-437.471099866318</v>
+        <v>-424.0557340696678</v>
       </c>
       <c r="K15" t="n">
-        <v>-437.471099866318</v>
+        <v>-424.0557340696678</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1922,49 +1922,49 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.007400726221988298</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.03797181152499512</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3520423332118753</v>
+        <v>0.007400726221988298</v>
       </c>
       <c r="S15" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.8238257481887957</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V15" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1749378204931825</v>
+        <v>0.09965899571287148</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0131548524831716</v>
+        <v>0.00790196168402147</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.01162078508761589</v>
+        <v>0.009339395665117078</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01081173148591496</v>
+        <v>0.003327373817330791</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.00766284852832657</v>
+        <v>0.004580477483712365</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.009231128562925729</v>
+        <v>0.004748490063679736</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -1976,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>-0.007400726221988298</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>-0.03797181152499512</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>-24.40625446512856</v>
       </c>
     </row>
     <row r="16">
@@ -1996,28 +1996,28 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>10.04459076654763</v>
+        <v>9.923804706719947</v>
       </c>
       <c r="E16" t="n">
-        <v>111.2772185745058</v>
+        <v>109.6954693175245</v>
       </c>
       <c r="F16" t="n">
-        <v>2487.570835224308</v>
+        <v>2524.743633547097</v>
       </c>
       <c r="G16" t="n">
-        <v>448494.7474570213</v>
+        <v>451134.8114145231</v>
       </c>
       <c r="H16" t="n">
-        <v>447503.3841271785</v>
+        <v>449804.923651695</v>
       </c>
       <c r="I16" t="n">
-        <v>-437.471099866318</v>
+        <v>-424.0557340696678</v>
       </c>
       <c r="J16" t="n">
-        <v>-437.471099866318</v>
+        <v>-424.0557340696678</v>
       </c>
       <c r="K16" t="n">
-        <v>-437.471099866318</v>
+        <v>-424.0557340696678</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2029,49 +2029,49 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.007400726221988298</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.03797181152499512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3520423332118753</v>
+        <v>0.007400726221988298</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.8238257481887957</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V16" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1749378204931825</v>
+        <v>0.09965899571287148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0131548524831716</v>
+        <v>0.00790196168402147</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.01162078508761589</v>
+        <v>0.009339395665117078</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01081173148591496</v>
+        <v>0.003327373817330791</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.00766284852832657</v>
+        <v>0.004580477483712365</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.009231128562925729</v>
+        <v>0.004748490063679736</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>-0.007400726221988298</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>-0.03797181152499512</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>-24.40625446512856</v>
       </c>
     </row>
     <row r="17">
@@ -2103,28 +2103,28 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>10.04459076654763</v>
+        <v>9.923804706719947</v>
       </c>
       <c r="E17" t="n">
-        <v>111.2772185745058</v>
+        <v>109.2148018306021</v>
       </c>
       <c r="F17" t="n">
-        <v>2487.570835224308</v>
+        <v>2524.743633547097</v>
       </c>
       <c r="G17" t="n">
-        <v>448494.7474570213</v>
+        <v>452626.9081982066</v>
       </c>
       <c r="H17" t="n">
-        <v>447503.3841271785</v>
+        <v>449804.923651695</v>
       </c>
       <c r="I17" t="n">
-        <v>-437.471099866318</v>
+        <v>-424.0557340696678</v>
       </c>
       <c r="J17" t="n">
-        <v>-437.471099866318</v>
+        <v>-424.0557340696678</v>
       </c>
       <c r="K17" t="n">
-        <v>-437.471099866318</v>
+        <v>-424.0557340696678</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2136,67 +2136,67 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.008905804457888288</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.03797181152499512</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3520423332118753</v>
+        <v>0.008905804457888288</v>
       </c>
       <c r="S17" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.8238257481887957</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V17" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1851919326879622</v>
+        <v>0.1083945960163406</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0131548524831716</v>
+        <v>0.00790196168402147</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01162078508761589</v>
+        <v>0.01057084028497358</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.01081173148591496</v>
+        <v>0.003327373817330791</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.00766284852832657</v>
+        <v>0.005969712954896607</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.01230736222135963</v>
+        <v>0.004748490063679736</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>-0.008905804457888288</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>-0.03797181152499512</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>-24.40625446512856</v>
       </c>
     </row>
     <row r="18">
@@ -2210,28 +2210,28 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>10.04459076654763</v>
+        <v>9.923804706719947</v>
       </c>
       <c r="E18" t="n">
-        <v>111.2772185745058</v>
+        <v>109.2148018306021</v>
       </c>
       <c r="F18" t="n">
-        <v>2487.570835224308</v>
+        <v>2524.743633547097</v>
       </c>
       <c r="G18" t="n">
-        <v>448494.7474570213</v>
+        <v>452626.9081982066</v>
       </c>
       <c r="H18" t="n">
-        <v>447503.3841271785</v>
+        <v>449804.923651695</v>
       </c>
       <c r="I18" t="n">
-        <v>-437.471099866318</v>
+        <v>-424.0557340696678</v>
       </c>
       <c r="J18" t="n">
-        <v>-437.471099866318</v>
+        <v>-424.0557340696678</v>
       </c>
       <c r="K18" t="n">
-        <v>-437.471099866318</v>
+        <v>-424.0557340696678</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2243,67 +2243,67 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.008905804457888288</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.03797181152499512</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3520423332118753</v>
+        <v>0.008905804457888288</v>
       </c>
       <c r="S18" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.8238257481887957</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V18" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>0.1851919326879622</v>
+        <v>0.1083945960163406</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0131548524831716</v>
+        <v>0.00790196168402147</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01162078508761589</v>
+        <v>0.01057084028497358</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01081173148591496</v>
+        <v>0.003327373817330791</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.00766284852832657</v>
+        <v>0.005969712954896607</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.01230736222135963</v>
+        <v>0.004748490063679736</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>-0.008905804457888288</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>-0.03797181152499512</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>-24.40625446512856</v>
       </c>
     </row>
     <row r="19">
@@ -2317,28 +2317,28 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>9.934514359651642</v>
+        <v>9.932803303958034</v>
       </c>
       <c r="E19" t="n">
-        <v>111.2772185745058</v>
+        <v>109.2148018306021</v>
       </c>
       <c r="F19" t="n">
-        <v>2487.570835224308</v>
+        <v>2524.743633547097</v>
       </c>
       <c r="G19" t="n">
-        <v>453167.3359840115</v>
+        <v>452223.09562382</v>
       </c>
       <c r="H19" t="n">
-        <v>447503.3841271785</v>
+        <v>449804.923651695</v>
       </c>
       <c r="I19" t="n">
-        <v>-437.471099866318</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="J19" t="n">
-        <v>-437.471099866318</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="K19" t="n">
-        <v>-437.471099866318</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2350,67 +2350,67 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.1081128836816244</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3520423332118753</v>
+        <v>0.1081128836816244</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.8238257481887957</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>0.1953471006931808</v>
+        <v>0.1197175256811012</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01475497173550951</v>
+        <v>0.009475358629791238</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.01162078508761589</v>
+        <v>0.01057084028497358</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01081173148591496</v>
+        <v>0.003327373817330791</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.009109279677554262</v>
+        <v>0.007793194908555012</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01230736222135963</v>
+        <v>0.004748490063679736</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>-0.1081128836816244</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>-24.40625446512856</v>
       </c>
     </row>
     <row r="20">
@@ -2424,28 +2424,28 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>9.934514359651642</v>
+        <v>9.932803303958034</v>
       </c>
       <c r="E20" t="n">
-        <v>111.2772185745058</v>
+        <v>109.2148018306021</v>
       </c>
       <c r="F20" t="n">
-        <v>2487.570835224308</v>
+        <v>2524.743633547097</v>
       </c>
       <c r="G20" t="n">
-        <v>453167.3359840115</v>
+        <v>452223.09562382</v>
       </c>
       <c r="H20" t="n">
-        <v>447503.3841271785</v>
+        <v>449804.923651695</v>
       </c>
       <c r="I20" t="n">
-        <v>-437.471099866318</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="J20" t="n">
-        <v>-437.471099866318</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="K20" t="n">
-        <v>-437.471099866318</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2457,67 +2457,67 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>0.1081128836816244</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3520423332118753</v>
+        <v>0.1081128836816244</v>
       </c>
       <c r="S20" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.8238257481887957</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1953471006931808</v>
+        <v>0.1197175256811012</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.01475497173550951</v>
+        <v>0.009475358629791238</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.01162078508761589</v>
+        <v>0.01057084028497358</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01081173148591496</v>
+        <v>0.003327373817330791</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.009109279677554262</v>
+        <v>0.007793194908555012</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.01230736222135963</v>
+        <v>0.004748490063679736</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>-0.1081128836816244</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>-24.40625446512856</v>
       </c>
     </row>
     <row r="21">
@@ -2531,100 +2531,100 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>9.941107077606285</v>
+        <v>9.932596085307081</v>
       </c>
       <c r="E21" t="n">
-        <v>111.184889376806</v>
+        <v>109.2175520736144</v>
       </c>
       <c r="F21" t="n">
-        <v>2487.570835224308</v>
+        <v>2541.59792883567</v>
       </c>
       <c r="G21" t="n">
-        <v>453167.3359840115</v>
+        <v>449938.2170230591</v>
       </c>
       <c r="H21" t="n">
-        <v>447503.3841271785</v>
+        <v>449798.1704235579</v>
       </c>
       <c r="I21" t="n">
-        <v>-437.471099866318</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="J21" t="n">
-        <v>-437.471099866318</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="K21" t="n">
-        <v>-437.471099866318</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001314990729519657</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.2022937416699535</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="R21" t="n">
-        <v>0.353357323941395</v>
+        <v>0.2022937416699535</v>
       </c>
       <c r="S21" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9065840741145468</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="V21" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2145837507256479</v>
+        <v>0.1558640040696549</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01632925504674202</v>
+        <v>0.01105248000238956</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01272600575995961</v>
+        <v>0.01270747201495893</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01390322251207885</v>
+        <v>0.006944174061648009</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.009109279677554262</v>
+        <v>0.009580860541802317</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.01230736222135963</v>
+        <v>0.00647421460009766</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF21" t="n">
         <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.001314990729519657</v>
+        <v>-0.2022937416699535</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>-24.40625446512856</v>
       </c>
     </row>
     <row r="22">
@@ -2638,100 +2638,100 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>9.941107077606285</v>
+        <v>9.932596085307081</v>
       </c>
       <c r="E22" t="n">
-        <v>111.184889376806</v>
+        <v>109.2175520736144</v>
       </c>
       <c r="F22" t="n">
-        <v>2487.570835224308</v>
+        <v>2541.59792883567</v>
       </c>
       <c r="G22" t="n">
-        <v>453167.3359840115</v>
+        <v>449938.2170230591</v>
       </c>
       <c r="H22" t="n">
-        <v>447503.3841271785</v>
+        <v>449798.1704235579</v>
       </c>
       <c r="I22" t="n">
-        <v>-437.471099866318</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="J22" t="n">
-        <v>-437.471099866318</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="K22" t="n">
-        <v>-437.471099866318</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001314990729519657</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.2022937416699535</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="R22" t="n">
-        <v>0.353357323941395</v>
+        <v>0.2022937416699535</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9065840741145468</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="V22" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>0.2145837507256479</v>
+        <v>0.1558640040696549</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.01632925504674202</v>
+        <v>0.01105248000238956</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01272600575995961</v>
+        <v>0.01270747201495893</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.01390322251207885</v>
+        <v>0.006944174061648009</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.009109279677554262</v>
+        <v>0.009580860541802317</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.01230736222135963</v>
+        <v>0.00647421460009766</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.001314990729519657</v>
+        <v>-0.2022937416699535</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>-24.40625446512856</v>
       </c>
     </row>
     <row r="23">
@@ -2745,100 +2745,100 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>9.941070601379431</v>
+        <v>9.932388190745478</v>
       </c>
       <c r="E23" t="n">
-        <v>111.184889376806</v>
+        <v>109.2175520736144</v>
       </c>
       <c r="F23" t="n">
-        <v>2488.703266143547</v>
+        <v>2541.59792883567</v>
       </c>
       <c r="G23" t="n">
-        <v>453011.0280445975</v>
+        <v>449947.0217928558</v>
       </c>
       <c r="H23" t="n">
-        <v>447503.3841271785</v>
+        <v>449798.1704235579</v>
       </c>
       <c r="I23" t="n">
-        <v>-435.9276050196282</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="J23" t="n">
-        <v>-435.9276050196282</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="K23" t="n">
-        <v>-435.9276050196282</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="N23" t="n">
-        <v>11.89754182370188</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.204103545786913</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="R23" t="n">
-        <v>0.353357323941395</v>
+        <v>0.204103545786913</v>
       </c>
       <c r="S23" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9065840741145468</v>
       </c>
       <c r="T23" t="n">
-        <v>11.89754182370188</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U23" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="V23" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0.4822825608341118</v>
+        <v>0.1657660950195598</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.01633320001893058</v>
+        <v>0.01263423942905077</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.01272600575995961</v>
+        <v>0.01270747201495893</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.09248712271356063</v>
+        <v>0.006944174061648009</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.01083107753642307</v>
+        <v>0.01096972840011257</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.01230736222135963</v>
+        <v>0.00647421460009766</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>-0.204103545786913</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="AI23" t="n">
-        <v>11.89754182370188</v>
+        <v>-24.40625446512856</v>
       </c>
     </row>
     <row r="24">
@@ -2852,100 +2852,100 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>9.941070601379431</v>
+        <v>9.932388190745478</v>
       </c>
       <c r="E24" t="n">
-        <v>111.184889376806</v>
+        <v>109.2175520736144</v>
       </c>
       <c r="F24" t="n">
-        <v>2488.703266143547</v>
+        <v>2541.59792883567</v>
       </c>
       <c r="G24" t="n">
-        <v>453011.0280445975</v>
+        <v>449947.0217928558</v>
       </c>
       <c r="H24" t="n">
-        <v>447503.3841271785</v>
+        <v>449798.1704235579</v>
       </c>
       <c r="I24" t="n">
-        <v>-435.9276050196282</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="J24" t="n">
-        <v>-435.9276050196282</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="K24" t="n">
-        <v>-435.9276050196282</v>
+        <v>-395.6162909681527</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="N24" t="n">
-        <v>11.89754182370188</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>0.204103545786913</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="R24" t="n">
-        <v>0.353357323941395</v>
+        <v>0.204103545786913</v>
       </c>
       <c r="S24" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9065840741145468</v>
       </c>
       <c r="T24" t="n">
-        <v>11.89754182370188</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U24" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="V24" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="W24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>0.4822825608341118</v>
+        <v>0.1657660950195598</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01633320001893058</v>
+        <v>0.01263423942905077</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01272600575995961</v>
+        <v>0.01270747201495893</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.09248712271356063</v>
+        <v>0.006944174061648009</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01083107753642307</v>
+        <v>0.01096972840011257</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01230736222135963</v>
+        <v>0.00647421460009766</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>-0.204103545786913</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="AI24" t="n">
-        <v>11.89754182370188</v>
+        <v>-24.40625446512856</v>
       </c>
     </row>
     <row r="25">
@@ -2959,40 +2959,40 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>9.941070601379431</v>
+        <v>9.932388190745478</v>
       </c>
       <c r="E25" t="n">
-        <v>111.184889376806</v>
+        <v>109.2175520736144</v>
       </c>
       <c r="F25" t="n">
-        <v>2488.511515715455</v>
+        <v>2541.59792883567</v>
       </c>
       <c r="G25" t="n">
-        <v>453621.9804561206</v>
+        <v>449386.734432405</v>
       </c>
       <c r="H25" t="n">
-        <v>446892.412412689</v>
+        <v>449798.1704235579</v>
       </c>
       <c r="I25" t="n">
-        <v>-408.9748149368662</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="J25" t="n">
-        <v>-408.9748149368662</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="K25" t="n">
-        <v>-408.9748149368662</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.007612390878211048</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.204103545786913</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -3001,55 +3001,55 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.353357323941395</v>
+        <v>0.211715936665124</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9065840741145468</v>
       </c>
       <c r="T25" t="n">
-        <v>11.89754182370188</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U25" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="V25" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="W25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>0.6113782820154343</v>
+        <v>0.4201050485547848</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.01633320001893058</v>
+        <v>0.0126570766016854</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.01272600575995961</v>
+        <v>0.01270747201495893</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.1281797481846663</v>
+        <v>0.006944174061648009</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01228010277192983</v>
+        <v>0.08418849179549825</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.01389442786914396</v>
+        <v>0.009534300092644863</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF25" t="n">
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>-0.1964911549087019</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="AI25" t="n">
         <v>0</v>
@@ -3066,40 +3066,40 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>9.941070601379431</v>
+        <v>9.932388190745478</v>
       </c>
       <c r="E26" t="n">
-        <v>111.184889376806</v>
+        <v>109.2175520736144</v>
       </c>
       <c r="F26" t="n">
-        <v>2488.511515715455</v>
+        <v>2541.59792883567</v>
       </c>
       <c r="G26" t="n">
-        <v>453621.9804561206</v>
+        <v>449386.734432405</v>
       </c>
       <c r="H26" t="n">
-        <v>446892.412412689</v>
+        <v>449798.1704235579</v>
       </c>
       <c r="I26" t="n">
-        <v>-408.9748149368662</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="J26" t="n">
-        <v>-408.9748149368662</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="K26" t="n">
-        <v>-408.9748149368662</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.007612390878211048</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>0.204103545786913</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -3108,55 +3108,55 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.353357323941395</v>
+        <v>0.211715936665124</v>
       </c>
       <c r="S26" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9065840741145468</v>
       </c>
       <c r="T26" t="n">
-        <v>11.89754182370188</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U26" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="V26" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="W26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>0.6113782820154343</v>
+        <v>0.4201050485547848</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01633320001893058</v>
+        <v>0.0126570766016854</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01272600575995961</v>
+        <v>0.01270747201495893</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.1281797481846663</v>
+        <v>0.006944174061648009</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.01228010277192983</v>
+        <v>0.08418849179549825</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01389442786914396</v>
+        <v>0.009534300092644863</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>-0.1964911549087019</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
@@ -3173,97 +3173,97 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>9.941070601379431</v>
+        <v>9.932388190745478</v>
       </c>
       <c r="E27" t="n">
-        <v>111.184889376806</v>
+        <v>109.2346726602747</v>
       </c>
       <c r="F27" t="n">
-        <v>2488.511515715455</v>
+        <v>2541.59792883567</v>
       </c>
       <c r="G27" t="n">
-        <v>453621.9804561206</v>
+        <v>449330.6454754928</v>
       </c>
       <c r="H27" t="n">
-        <v>446892.412412689</v>
+        <v>449798.1704235579</v>
       </c>
       <c r="I27" t="n">
-        <v>-408.9748149368662</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="J27" t="n">
-        <v>-408.9748149368662</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="K27" t="n">
-        <v>-408.9748149368662</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="L27" t="n">
-        <v>0.355191048389313</v>
+        <v>0.007612390878211048</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>0.2189689898748548</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>0.006455626124561932</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2265813807530659</v>
       </c>
       <c r="S27" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9130397002391087</v>
       </c>
       <c r="T27" t="n">
-        <v>11.89754182370188</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U27" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="V27" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="W27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>0.6254489745386255</v>
+        <v>0.4523480016766298</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01739877316409852</v>
+        <v>0.01580834759698119</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.01272600575995961</v>
+        <v>0.0145272937408192</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.1281797481846663</v>
+        <v>0.0100577270501173</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01543573738371926</v>
+        <v>0.0857767320224264</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.01389442786914396</v>
+        <v>0.009534300092644863</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.355191048389313</v>
+        <v>-0.2113565989966437</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>0.07630269980118909</v>
       </c>
       <c r="AI27" t="n">
         <v>0</v>
@@ -3280,97 +3280,97 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>9.941070601379431</v>
+        <v>9.932388190745478</v>
       </c>
       <c r="E28" t="n">
-        <v>111.184889376806</v>
+        <v>109.2346726602747</v>
       </c>
       <c r="F28" t="n">
-        <v>2488.511515715455</v>
+        <v>2541.59792883567</v>
       </c>
       <c r="G28" t="n">
-        <v>453621.9804561206</v>
+        <v>449330.6454754928</v>
       </c>
       <c r="H28" t="n">
-        <v>446892.412412689</v>
+        <v>449798.1704235579</v>
       </c>
       <c r="I28" t="n">
-        <v>-408.9748149368662</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="J28" t="n">
-        <v>-408.9748149368662</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="K28" t="n">
-        <v>-408.9748149368662</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="L28" t="n">
-        <v>0.355191048389313</v>
+        <v>0.007612390878211048</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.2189689898748548</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.006455626124561932</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2265813807530659</v>
       </c>
       <c r="S28" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9130397002391087</v>
       </c>
       <c r="T28" t="n">
-        <v>11.89754182370188</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U28" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="V28" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="W28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X28" t="n">
-        <v>0.6254489745386255</v>
+        <v>0.4523480016766298</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.01739877316409852</v>
+        <v>0.01580834759698119</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.01272600575995961</v>
+        <v>0.0145272937408192</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.1281797481846663</v>
+        <v>0.0100577270501173</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01543573738371926</v>
+        <v>0.0857767320224264</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.01389442786914396</v>
+        <v>0.009534300092644863</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.355191048389313</v>
+        <v>-0.2113565989966437</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>0.07630269980118909</v>
       </c>
       <c r="AI28" t="n">
         <v>0</v>
@@ -3387,97 +3387,97 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>9.940288908556708</v>
+        <v>9.932388190745478</v>
       </c>
       <c r="E29" t="n">
-        <v>111.184889376806</v>
+        <v>109.2346726602747</v>
       </c>
       <c r="F29" t="n">
-        <v>2491.427533030906</v>
+        <v>2541.695285149893</v>
       </c>
       <c r="G29" t="n">
-        <v>453621.9804561206</v>
+        <v>449330.6454754928</v>
       </c>
       <c r="H29" t="n">
-        <v>446651.587833196</v>
+        <v>449783.917062412</v>
       </c>
       <c r="I29" t="n">
-        <v>-556.3395338430239</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="J29" t="n">
-        <v>-556.3395338430239</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="K29" t="n">
-        <v>-556.3395338430239</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.02920256954713303</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>0.2189689898748548</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>0.006455626124561932</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2481715594219878</v>
       </c>
       <c r="S29" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9130397002391087</v>
       </c>
       <c r="T29" t="n">
-        <v>11.89754182370188</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U29" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="V29" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="W29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>0.6502379675478345</v>
+        <v>0.4633622741021451</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.02004078160575924</v>
+        <v>0.01587311813298796</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01272600575995961</v>
+        <v>0.0145272937408192</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.1299092656252945</v>
+        <v>0.01167668325763753</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.01543573738371926</v>
+        <v>0.0857767320224264</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.01695959988961769</v>
+        <v>0.01115485507677245</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>-0.1897664203277218</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>0.07630269980118909</v>
       </c>
       <c r="AI29" t="n">
         <v>0</v>
@@ -3494,97 +3494,97 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>9.940288908556708</v>
+        <v>9.932388190745478</v>
       </c>
       <c r="E30" t="n">
-        <v>111.184889376806</v>
+        <v>109.2346726602747</v>
       </c>
       <c r="F30" t="n">
-        <v>2491.427533030906</v>
+        <v>2541.695285149893</v>
       </c>
       <c r="G30" t="n">
-        <v>453621.9804561206</v>
+        <v>449330.6454754928</v>
       </c>
       <c r="H30" t="n">
-        <v>446651.587833196</v>
+        <v>449783.917062412</v>
       </c>
       <c r="I30" t="n">
-        <v>-556.3395338430239</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="J30" t="n">
-        <v>-556.3395338430239</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="K30" t="n">
-        <v>-556.3395338430239</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.02920256954713303</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>0.2189689898748548</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.006455626124561932</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2481715594219878</v>
       </c>
       <c r="S30" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9130397002391087</v>
       </c>
       <c r="T30" t="n">
-        <v>11.89754182370188</v>
+        <v>24.40625446512856</v>
       </c>
       <c r="U30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="V30" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="W30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>0.6502379675478345</v>
+        <v>0.4633622741021451</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.02004078160575924</v>
+        <v>0.01587311813298796</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.01272600575995961</v>
+        <v>0.0145272937408192</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.1299092656252945</v>
+        <v>0.01167668325763753</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.01543573738371926</v>
+        <v>0.0857767320224264</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.01695959988961769</v>
+        <v>0.01115485507677245</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>-0.1897664203277218</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>0.07630269980118909</v>
       </c>
       <c r="AI30" t="n">
         <v>0</v>
@@ -3601,100 +3601,100 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>9.940288908556708</v>
+        <v>9.932388190745478</v>
       </c>
       <c r="E31" t="n">
-        <v>111.893628933903</v>
+        <v>109.2074477395399</v>
       </c>
       <c r="F31" t="n">
-        <v>2523.426357140595</v>
+        <v>2541.695285149893</v>
       </c>
       <c r="G31" t="n">
-        <v>446649.3027707326</v>
+        <v>449420.7744118353</v>
       </c>
       <c r="H31" t="n">
-        <v>446651.587833196</v>
+        <v>449783.917062412</v>
       </c>
       <c r="I31" t="n">
-        <v>-556.3395338430239</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="J31" t="n">
-        <v>-556.3395338430239</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="K31" t="n">
-        <v>-556.3395338430239</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.02920256954713303</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>59.4924179028753</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.2189689898748548</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.006455626124561932</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2481715594219878</v>
       </c>
       <c r="S31" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9130397002391087</v>
       </c>
       <c r="T31" t="n">
-        <v>11.89754182370188</v>
+        <v>83.89867236800386</v>
       </c>
       <c r="U31" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="V31" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="W31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>0.6833932378009003</v>
+        <v>4.593863068673279</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.02319081646359236</v>
+        <v>0.01902329632814332</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.01443259996571591</v>
+        <v>0.01592184590735177</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.1316798433911429</v>
+        <v>1.244819183197026</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.01875511163020118</v>
+        <v>0.08723974009269038</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.01695959988961769</v>
+        <v>0.01115485507677245</v>
       </c>
       <c r="AD31" t="n">
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>-0.1897664203277218</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>0.07630269980118909</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>59.4924179028753</v>
       </c>
     </row>
     <row r="32">
@@ -3708,100 +3708,100 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>9.940288908556708</v>
+        <v>9.932388190745478</v>
       </c>
       <c r="E32" t="n">
-        <v>111.893628933903</v>
+        <v>109.2074477395399</v>
       </c>
       <c r="F32" t="n">
-        <v>2523.426357140595</v>
+        <v>2541.695285149893</v>
       </c>
       <c r="G32" t="n">
-        <v>446649.3027707326</v>
+        <v>449420.7744118353</v>
       </c>
       <c r="H32" t="n">
-        <v>446651.587833196</v>
+        <v>449783.917062412</v>
       </c>
       <c r="I32" t="n">
-        <v>-556.3395338430239</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="J32" t="n">
-        <v>-556.3395338430239</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="K32" t="n">
-        <v>-556.3395338430239</v>
+        <v>164.6710694826038</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.02920256954713303</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.08275832592575103</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>59.4924179028753</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>0.2189689898748548</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>0.006455626124561932</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2481715594219878</v>
       </c>
       <c r="S32" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9130397002391087</v>
       </c>
       <c r="T32" t="n">
-        <v>11.89754182370188</v>
+        <v>83.89867236800386</v>
       </c>
       <c r="U32" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="V32" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="W32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X32" t="n">
-        <v>0.6833932378009003</v>
+        <v>4.593863068673279</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.02319081646359236</v>
+        <v>0.01902329632814332</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.01443259996571591</v>
+        <v>0.01592184590735177</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.1316798433911429</v>
+        <v>1.244819183197026</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.01875511163020118</v>
+        <v>0.08723974009269038</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.01695959988961769</v>
+        <v>0.01115485507677245</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>-0.1897664203277218</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>0.07630269980118909</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>59.4924179028753</v>
       </c>
     </row>
     <row r="33">
@@ -3815,100 +3815,100 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>9.940288908556708</v>
+        <v>9.931957967666859</v>
       </c>
       <c r="E33" t="n">
-        <v>110.3442699511077</v>
+        <v>109.2016740255957</v>
       </c>
       <c r="F33" t="n">
-        <v>2558.38432262499</v>
+        <v>2541.821094286912</v>
       </c>
       <c r="G33" t="n">
-        <v>445670.9441175979</v>
+        <v>449420.7744118353</v>
       </c>
       <c r="H33" t="n">
-        <v>447628.8838493317</v>
+        <v>449783.917062412</v>
       </c>
       <c r="I33" t="n">
-        <v>-556.3395338430239</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="J33" t="n">
-        <v>-556.3395338430239</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="K33" t="n">
-        <v>-556.3395338430239</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.02920256954713303</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>41.16268804653836</v>
+        <v>59.4924179028753</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.2189689898748548</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>0.006455626124561932</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.04526276504436452</v>
       </c>
       <c r="R33" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2481715594219878</v>
       </c>
       <c r="S33" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9130397002391087</v>
       </c>
       <c r="T33" t="n">
-        <v>53.06022987024024</v>
+        <v>83.94393513304823</v>
       </c>
       <c r="U33" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="V33" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="W33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>2.804250460261521</v>
+        <v>4.605395889180572</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.02634089482836341</v>
+        <v>0.02060132689412228</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.01596057745879392</v>
+        <v>0.01617012088512903</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.7601927716234319</v>
+        <v>1.246452723805457</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.02033354973995329</v>
+        <v>0.08723974009269038</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.01844734442791375</v>
+        <v>0.01115485507677245</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF33" t="n">
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>-0.1897664203277218</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>-0.006455626124561932</v>
       </c>
       <c r="AI33" t="n">
-        <v>41.16268804653836</v>
+        <v>59.44715513783093</v>
       </c>
     </row>
     <row r="34">
@@ -3922,100 +3922,100 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>9.940288908556708</v>
+        <v>9.931957967666859</v>
       </c>
       <c r="E34" t="n">
-        <v>110.3442699511077</v>
+        <v>109.2016740255957</v>
       </c>
       <c r="F34" t="n">
-        <v>2558.38432262499</v>
+        <v>2541.821094286912</v>
       </c>
       <c r="G34" t="n">
-        <v>445670.9441175979</v>
+        <v>449420.7744118353</v>
       </c>
       <c r="H34" t="n">
-        <v>447628.8838493317</v>
+        <v>449783.917062412</v>
       </c>
       <c r="I34" t="n">
-        <v>-556.3395338430239</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="J34" t="n">
-        <v>-556.3395338430239</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="K34" t="n">
-        <v>-556.3395338430239</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.02920256954713303</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>41.16268804653836</v>
+        <v>59.4924179028753</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.2189689898748548</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.006455626124561932</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.04526276504436452</v>
       </c>
       <c r="R34" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2481715594219878</v>
       </c>
       <c r="S34" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9130397002391087</v>
       </c>
       <c r="T34" t="n">
-        <v>53.06022987024024</v>
+        <v>83.94393513304823</v>
       </c>
       <c r="U34" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="V34" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="W34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>2.804250460261521</v>
+        <v>4.605395889180572</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.02634089482836341</v>
+        <v>0.02060132689412228</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.01596057745879392</v>
+        <v>0.01617012088512903</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.7601927716234319</v>
+        <v>1.246452723805457</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.02033354973995329</v>
+        <v>0.08723974009269038</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.01844734442791375</v>
+        <v>0.01115485507677245</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>-0.1897664203277218</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>-0.006455626124561932</v>
       </c>
       <c r="AI34" t="n">
-        <v>41.16268804653836</v>
+        <v>59.44715513783093</v>
       </c>
     </row>
     <row r="35">
@@ -4029,100 +4029,100 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>9.940288908556708</v>
+        <v>9.931957967666859</v>
       </c>
       <c r="E35" t="n">
-        <v>110.3442699511077</v>
+        <v>109.2016740255957</v>
       </c>
       <c r="F35" t="n">
-        <v>2548.270665467356</v>
+        <v>2541.821094286912</v>
       </c>
       <c r="G35" t="n">
-        <v>445670.9441175979</v>
+        <v>449420.7744118353</v>
       </c>
       <c r="H35" t="n">
-        <v>449263.9736295015</v>
+        <v>449783.917062412</v>
       </c>
       <c r="I35" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="J35" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="K35" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.02920256954713303</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>59.4924179028753</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>0.2218186181169236</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>0.006455626124561932</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>0.04526276504436452</v>
       </c>
       <c r="R35" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2510211876640567</v>
       </c>
       <c r="S35" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9130397002391087</v>
       </c>
       <c r="T35" t="n">
-        <v>53.06022987024024</v>
+        <v>83.94393513304823</v>
       </c>
       <c r="U35" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="V35" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="W35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
-        <v>3.236234225061722</v>
+        <v>4.615896438618727</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.02949095386140562</v>
+        <v>0.02375149172556893</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01596057745879392</v>
+        <v>0.01617012088512903</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.8851823938953498</v>
+        <v>1.246452723805457</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.02033354973995329</v>
+        <v>0.08723974009269038</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.01990279256301412</v>
+        <v>0.01115485507677245</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>-0.1926160485697906</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>-0.006455626124561932</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>59.44715513783093</v>
       </c>
     </row>
     <row r="36">
@@ -4136,100 +4136,100 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>9.940288908556708</v>
+        <v>9.931957967666859</v>
       </c>
       <c r="E36" t="n">
-        <v>110.3442699511077</v>
+        <v>109.2016740255957</v>
       </c>
       <c r="F36" t="n">
-        <v>2548.270665467356</v>
+        <v>2541.821094286912</v>
       </c>
       <c r="G36" t="n">
-        <v>445670.9441175979</v>
+        <v>449420.7744118353</v>
       </c>
       <c r="H36" t="n">
-        <v>449263.9736295015</v>
+        <v>449783.917062412</v>
       </c>
       <c r="I36" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="J36" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="K36" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.02920256954713303</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>59.4924179028753</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>0.2218186181169236</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.006455626124561932</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>0.04526276504436452</v>
       </c>
       <c r="R36" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2510211876640567</v>
       </c>
       <c r="S36" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9130397002391087</v>
       </c>
       <c r="T36" t="n">
-        <v>53.06022987024024</v>
+        <v>83.94393513304823</v>
       </c>
       <c r="U36" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="V36" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="W36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X36" t="n">
-        <v>3.236234225061722</v>
+        <v>4.615896438618727</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.02949095386140562</v>
+        <v>0.02375149172556893</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.01596057745879392</v>
+        <v>0.01617012088512903</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.8851823938953498</v>
+        <v>1.246452723805457</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.02033354973995329</v>
+        <v>0.08723974009269038</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.01990279256301412</v>
+        <v>0.01115485507677245</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF36" t="n">
         <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>-0.1926160485697906</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>-0.006455626124561932</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>59.44715513783093</v>
       </c>
     </row>
     <row r="37">
@@ -4243,100 +4243,100 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>9.940288908556708</v>
+        <v>9.932066785138028</v>
       </c>
       <c r="E37" t="n">
-        <v>110.3442699511077</v>
+        <v>109.2016740255957</v>
       </c>
       <c r="F37" t="n">
-        <v>2548.270665467356</v>
+        <v>2541.821094286912</v>
       </c>
       <c r="G37" t="n">
-        <v>445670.9441175979</v>
+        <v>449420.7744118353</v>
       </c>
       <c r="H37" t="n">
-        <v>449263.9736295015</v>
+        <v>449779.3104759637</v>
       </c>
       <c r="I37" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="J37" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="K37" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.02920256954713303</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>59.4924179028753</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.2218186181169236</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.006455626124561932</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.04526276504436452</v>
       </c>
       <c r="R37" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2510211876640567</v>
       </c>
       <c r="S37" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9130397002391087</v>
       </c>
       <c r="T37" t="n">
-        <v>53.06022987024024</v>
+        <v>83.94393513304823</v>
       </c>
       <c r="U37" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="V37" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="W37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>3.246469136345045</v>
+        <v>4.626636080788884</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02949095386140562</v>
+        <v>0.02532207840258646</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01596057745879392</v>
+        <v>0.01617012088512903</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.8851823938953498</v>
+        <v>1.246452723805457</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.02033354973995329</v>
+        <v>0.08723974009269038</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.02297326594801106</v>
+        <v>0.01280616105080183</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF37" t="n">
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>-0.1926160485697906</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>-0.006455626124561932</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>59.44715513783093</v>
       </c>
     </row>
     <row r="38">
@@ -4350,100 +4350,100 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>9.940288908556708</v>
+        <v>9.932066785138028</v>
       </c>
       <c r="E38" t="n">
-        <v>110.3442699511077</v>
+        <v>109.2016740255957</v>
       </c>
       <c r="F38" t="n">
-        <v>2548.270665467356</v>
+        <v>2541.821094286912</v>
       </c>
       <c r="G38" t="n">
-        <v>445670.9441175979</v>
+        <v>449420.7744118353</v>
       </c>
       <c r="H38" t="n">
-        <v>449263.9736295015</v>
+        <v>449779.3104759637</v>
       </c>
       <c r="I38" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="J38" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="K38" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.02920256954713303</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>59.4924179028753</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>0.2218186181169236</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>0.006455626124561932</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>0.04526276504436452</v>
       </c>
       <c r="R38" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2510211876640567</v>
       </c>
       <c r="S38" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9130397002391087</v>
       </c>
       <c r="T38" t="n">
-        <v>53.06022987024024</v>
+        <v>83.94393513304823</v>
       </c>
       <c r="U38" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="V38" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="W38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>3.246469136345045</v>
+        <v>4.626636080788884</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.02949095386140562</v>
+        <v>0.02532207840258646</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.01596057745879392</v>
+        <v>0.01617012088512903</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.8851823938953498</v>
+        <v>1.246452723805457</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.02033354973995329</v>
+        <v>0.08723974009269038</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.02297326594801106</v>
+        <v>0.01280616105080183</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF38" t="n">
         <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>-0.1926160485697906</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>-0.006455626124561932</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>59.44715513783093</v>
       </c>
     </row>
     <row r="39">
@@ -4457,100 +4457,100 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>9.944849962994249</v>
+        <v>9.932066785138028</v>
       </c>
       <c r="E39" t="n">
-        <v>110.2829699509824</v>
+        <v>109.2016740255957</v>
       </c>
       <c r="F39" t="n">
-        <v>2548.902006282849</v>
+        <v>2535.987289686373</v>
       </c>
       <c r="G39" t="n">
-        <v>445584.6789642543</v>
+        <v>450215.1535063742</v>
       </c>
       <c r="H39" t="n">
-        <v>449263.9736295015</v>
+        <v>449779.3104759637</v>
       </c>
       <c r="I39" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="J39" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="K39" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.02920256954713303</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>59.4924179028753</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>0.2218186181169236</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>0.006455626124561932</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.1876553677220388</v>
       </c>
       <c r="R39" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2510211876640567</v>
       </c>
       <c r="S39" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9130397002391087</v>
       </c>
       <c r="T39" t="n">
-        <v>53.06022987024024</v>
+        <v>84.0863277357259</v>
       </c>
       <c r="U39" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="V39" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="W39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>3.26739242153511</v>
+        <v>4.646063654522647</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.0310624902304367</v>
+        <v>0.02532207840258646</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.01723749808019774</v>
+        <v>0.01932054319225331</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.8869297333330971</v>
+        <v>1.247775649221221</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.02201473886879038</v>
+        <v>0.08859466448993168</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.02297326594801106</v>
+        <v>0.01280616105080183</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF39" t="n">
         <v>0</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>-0.1926160485697906</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>-0.006455626124561932</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>59.30476253515326</v>
       </c>
     </row>
     <row r="40">
@@ -4564,100 +4564,100 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>9.944849962994249</v>
+        <v>9.932066785138028</v>
       </c>
       <c r="E40" t="n">
-        <v>110.2829699509824</v>
+        <v>109.2016740255957</v>
       </c>
       <c r="F40" t="n">
-        <v>2548.902006282849</v>
+        <v>2535.987289686373</v>
       </c>
       <c r="G40" t="n">
-        <v>445584.6789642543</v>
+        <v>450215.1535063742</v>
       </c>
       <c r="H40" t="n">
-        <v>449263.9736295015</v>
+        <v>449779.3104759637</v>
       </c>
       <c r="I40" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="J40" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="K40" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.02920256954713303</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>59.4924179028753</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.2218186181169236</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.006455626124561932</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.1876553677220388</v>
       </c>
       <c r="R40" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2510211876640567</v>
       </c>
       <c r="S40" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9130397002391087</v>
       </c>
       <c r="T40" t="n">
-        <v>53.06022987024024</v>
+        <v>84.0863277357259</v>
       </c>
       <c r="U40" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="V40" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="W40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X40" t="n">
-        <v>3.26739242153511</v>
+        <v>4.646063654522647</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.0310624902304367</v>
+        <v>0.02532207840258646</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.01723749808019774</v>
+        <v>0.01932054319225331</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.8869297333330971</v>
+        <v>1.247775649221221</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.02201473886879038</v>
+        <v>0.08859466448993168</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.02297326594801106</v>
+        <v>0.01280616105080183</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF40" t="n">
         <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>-0.1926160485697906</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>-0.006455626124561932</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>59.30476253515326</v>
       </c>
     </row>
     <row r="41">
@@ -4671,100 +4671,100 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>9.944849962994249</v>
+        <v>9.931066122855443</v>
       </c>
       <c r="E41" t="n">
-        <v>110.2829699509824</v>
+        <v>109.2128448101583</v>
       </c>
       <c r="F41" t="n">
-        <v>2548.902006282849</v>
+        <v>2535.987289686373</v>
       </c>
       <c r="G41" t="n">
-        <v>445799.7810061803</v>
+        <v>450221.0739956938</v>
       </c>
       <c r="H41" t="n">
-        <v>449048.838965239</v>
+        <v>449779.1238194008</v>
       </c>
       <c r="I41" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="J41" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="K41" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.02920256954713303</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>59.4924179028753</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>0.2218186181169236</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>0.008144068771714582</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>0.1876553677220388</v>
       </c>
       <c r="R41" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2510211876640567</v>
       </c>
       <c r="S41" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9147281428862614</v>
       </c>
       <c r="T41" t="n">
-        <v>53.06022987024024</v>
+        <v>84.0863277357259</v>
       </c>
       <c r="U41" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="V41" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="W41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X41" t="n">
-        <v>3.277704491913036</v>
+        <v>4.677447087514342</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0310624902304367</v>
+        <v>0.0269048454502881</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.01723749808019774</v>
+        <v>0.0210347273254011</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.8869297333330971</v>
+        <v>1.247775649221221</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.02343996624061243</v>
+        <v>0.09298269197141902</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.02464165968956681</v>
+        <v>0.01453621228597342</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF41" t="n">
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>-0.1926160485697906</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>-0.008144068771714582</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>59.30476253515326</v>
       </c>
     </row>
     <row r="42">
@@ -4778,100 +4778,100 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9.944849962994249</v>
+        <v>9.931066122855443</v>
       </c>
       <c r="E42" t="n">
-        <v>110.2829699509824</v>
+        <v>109.2128448101583</v>
       </c>
       <c r="F42" t="n">
-        <v>2548.902006282849</v>
+        <v>2535.987289686373</v>
       </c>
       <c r="G42" t="n">
-        <v>445799.7810061803</v>
+        <v>450221.0739956938</v>
       </c>
       <c r="H42" t="n">
-        <v>449048.838965239</v>
+        <v>449779.1238194008</v>
       </c>
       <c r="I42" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="J42" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="K42" t="n">
-        <v>-705.7224107523067</v>
+        <v>183.9287139812832</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.02920256954713303</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>59.4924179028753</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>0.2218186181169236</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.008144068771714582</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>0.1876553677220388</v>
       </c>
       <c r="R42" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2510211876640567</v>
       </c>
       <c r="S42" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9147281428862614</v>
       </c>
       <c r="T42" t="n">
-        <v>53.06022987024024</v>
+        <v>84.0863277357259</v>
       </c>
       <c r="U42" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="V42" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="W42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X42" t="n">
-        <v>3.277704491913036</v>
+        <v>4.677447087514342</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.0310624902304367</v>
+        <v>0.0269048454502881</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.01723749808019774</v>
+        <v>0.0210347273254011</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.8869297333330971</v>
+        <v>1.247775649221221</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.02343996624061243</v>
+        <v>0.09298269197141902</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.02464165968956681</v>
+        <v>0.01453621228597342</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF42" t="n">
         <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>-0.1926160485697906</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>-0.008144068771714582</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>59.30476253515326</v>
       </c>
     </row>
     <row r="43">
@@ -4885,28 +4885,28 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>9.944849962994249</v>
+        <v>9.933046870866811</v>
       </c>
       <c r="E43" t="n">
-        <v>110.2829699509824</v>
+        <v>109.2375335622838</v>
       </c>
       <c r="F43" t="n">
-        <v>2537.701370873694</v>
+        <v>2535.987289686373</v>
       </c>
       <c r="G43" t="n">
-        <v>445799.7810061803</v>
+        <v>450154.5863575673</v>
       </c>
       <c r="H43" t="n">
-        <v>450325.6052309144</v>
+        <v>449779.1238194008</v>
       </c>
       <c r="I43" t="n">
-        <v>-705.7224107523067</v>
+        <v>105.4341854007644</v>
       </c>
       <c r="J43" t="n">
-        <v>-705.7224107523067</v>
+        <v>105.4341854007644</v>
       </c>
       <c r="K43" t="n">
-        <v>-705.7224107523067</v>
+        <v>105.4341854007644</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4915,70 +4915,70 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>59.4924179028753</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.2218186181169236</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.008144068771714582</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.1876553677220388</v>
       </c>
       <c r="R43" t="n">
-        <v>0.708548372330708</v>
+        <v>0.2510211876640567</v>
       </c>
       <c r="S43" t="n">
-        <v>0.08523664219493264</v>
+        <v>0.9147281428862614</v>
       </c>
       <c r="T43" t="n">
-        <v>53.06022987024024</v>
+        <v>84.0863277357259</v>
       </c>
       <c r="U43" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="V43" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="W43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X43" t="n">
-        <v>3.29356737848561</v>
+        <v>4.693869623294643</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0310624902304367</v>
+        <v>0.0269924531589295</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.01723749808019774</v>
+        <v>0.02360473077419016</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.8907764964405515</v>
+        <v>1.247775649221221</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.02343996624061243</v>
+        <v>0.09525184154807874</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.02555376255388501</v>
+        <v>0.01453621228597342</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>-24.80589667011246</v>
       </c>
       <c r="AF43" t="n">
         <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>-0.2218186181169236</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>-0.008144068771714582</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>59.30476253515326</v>
       </c>
     </row>
   </sheetData>

--- a/run.xlsx
+++ b/run.xlsx
@@ -599,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -706,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -813,25 +813,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>9.843431739102003</v>
       </c>
       <c r="E5" t="n">
-        <v>110</v>
+        <v>110.4230247487018</v>
       </c>
       <c r="F5" t="n">
-        <v>2500</v>
+        <v>2494.274134427539</v>
       </c>
       <c r="G5" t="n">
-        <v>450000</v>
+        <v>448845.1173645669</v>
       </c>
       <c r="H5" t="n">
-        <v>450000</v>
+        <v>458055.8918678621</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -843,58 +843,58 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.931436634837287</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7858539366638007</v>
+        <v>5.466311500889892</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>102.068199064828</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.89817714692128</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>62.27087628193496</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>783.0681516867006</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>4.829613781758567</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7858539366638007</v>
+        <v>67.73718778282486</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>885.1363507515287</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.008161764201742479</v>
+        <v>8.203797569607779</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.04599582198174769</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.002448529260522744</v>
+        <v>0.05201209937397393</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>2.285094018068153</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>0.03825083811580921</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.03978649334265045</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1.033259487916006</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.7858539366638007</v>
+        <v>-56.80456478104507</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-680.9999526218726</v>
       </c>
     </row>
     <row r="6">
@@ -920,25 +920,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>9.843431739102003</v>
       </c>
       <c r="E6" t="n">
-        <v>110</v>
+        <v>110.4230247487018</v>
       </c>
       <c r="F6" t="n">
-        <v>2500</v>
+        <v>2494.274134427539</v>
       </c>
       <c r="G6" t="n">
-        <v>450000</v>
+        <v>448986.8155769293</v>
       </c>
       <c r="H6" t="n">
-        <v>450000</v>
+        <v>458055.8918678621</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -950,58 +950,58 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2.931436634837287</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7858539366638007</v>
+        <v>5.466311500889892</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>102.068199064828</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.89817714692128</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>62.27087628193496</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>783.0681516867006</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.829613781758567</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7858539366638007</v>
+        <v>67.73718778282486</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>885.1363507515287</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.008161764201742479</v>
+        <v>8.203797569607779</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.04599582198174769</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.002448529260522744</v>
+        <v>0.05201209937397393</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>2.285094018068153</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>3.671538334588626</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.03978649334265045</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1013,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1.033259487916006</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.7858539366638007</v>
+        <v>-56.80456478104507</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-680.9999526218726</v>
       </c>
     </row>
     <row r="7">
@@ -1027,106 +1027,106 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>9.952012308474941</v>
+        <v>9.942011308667622</v>
       </c>
       <c r="E7" t="n">
+        <v>107.785423501005</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2525.940549833143</v>
+      </c>
+      <c r="G7" t="n">
+        <v>444813.3501497665</v>
+      </c>
+      <c r="H7" t="n">
+        <v>464119.0661821073</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2012.462876451146</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-1721.965564482371</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.589410308288805</v>
+      </c>
+      <c r="M7" t="n">
+        <v>30.73741338141055</v>
+      </c>
+      <c r="N7" t="n">
+        <v>47.15479178148505</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.484848482906291</v>
+      </c>
+      <c r="P7" t="n">
+        <v>66.37648065983632</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1360.247935740992</v>
+      </c>
+      <c r="R7" t="n">
+        <v>8.946929884579498</v>
+      </c>
+      <c r="S7" t="n">
+        <v>97.11389404124687</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1475.90791571263</v>
+      </c>
+      <c r="U7" t="n">
+        <v>60</v>
+      </c>
+      <c r="V7" t="n">
         <v>110</v>
       </c>
-      <c r="F7" t="n">
-        <v>2507.221595856023</v>
-      </c>
-      <c r="G7" t="n">
-        <v>451126.8423264105</v>
-      </c>
-      <c r="H7" t="n">
-        <v>449845.8003643745</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.7858539366638007</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4.716014480118543</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.7858539366638007</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4.716014480118543</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>2</v>
       </c>
-      <c r="V7" t="n">
-        <v>3</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
-        <v>0.03918773730027794</v>
+        <v>10.81915380917432</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.003171883362531667</v>
+        <v>0.102318612570884</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.002448529260522744</v>
+        <v>0.3013203673320758</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.001546299491078141</v>
+        <v>2.684507799450118</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.003059156421594817</v>
+        <v>3.714383613504573</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.001530452654356013</v>
+        <v>0.07650324636746274</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>-12.62026419557878</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-93.58071500868573</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>-2900.940533800289</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>-2.895438174617486</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.7858539366638007</v>
+        <v>-35.63906727842576</v>
       </c>
       <c r="AI7" t="n">
-        <v>-4.716014480118543</v>
+        <v>-1313.093143959507</v>
       </c>
     </row>
     <row r="8">
@@ -1134,106 +1134,106 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>9.952012308474941</v>
+        <v>9.942011308667622</v>
       </c>
       <c r="E8" t="n">
+        <v>107.785423501005</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2525.940549833143</v>
+      </c>
+      <c r="G8" t="n">
+        <v>444809.605989003</v>
+      </c>
+      <c r="H8" t="n">
+        <v>464119.0661821073</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-2012.462876451146</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-1721.965564482371</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.589410308288805</v>
+      </c>
+      <c r="M8" t="n">
+        <v>30.73741338141055</v>
+      </c>
+      <c r="N8" t="n">
+        <v>47.15479178148505</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.484848482906291</v>
+      </c>
+      <c r="P8" t="n">
+        <v>66.37648065983632</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1360.247935740992</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8.946929884579498</v>
+      </c>
+      <c r="S8" t="n">
+        <v>97.11389404124687</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1475.90791571263</v>
+      </c>
+      <c r="U8" t="n">
+        <v>60</v>
+      </c>
+      <c r="V8" t="n">
         <v>110</v>
       </c>
-      <c r="F8" t="n">
-        <v>2507.221595856023</v>
-      </c>
-      <c r="G8" t="n">
-        <v>451126.8423264105</v>
-      </c>
-      <c r="H8" t="n">
-        <v>449845.8003643745</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.7858539366638007</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4.716014480118543</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.7858539366638007</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4.716014480118543</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>2</v>
       </c>
-      <c r="V8" t="n">
-        <v>3</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>0.03918773730027794</v>
+        <v>10.81915380917432</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.003171883362531667</v>
+        <v>0.102318612570884</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.002448529260522744</v>
+        <v>0.3013203673320758</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.001546299491078141</v>
+        <v>2.684507799450118</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.003059156421594817</v>
+        <v>143.777180704244</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.001530452654356013</v>
+        <v>0.07650324636746274</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>-12.62026419557878</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>-93.58071500868573</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>-2900.940533800289</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>-2.895438174617486</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.7858539366638007</v>
+        <v>-35.63906727842576</v>
       </c>
       <c r="AI8" t="n">
-        <v>-4.716014480118543</v>
+        <v>-1313.093143959507</v>
       </c>
     </row>
     <row r="9">
@@ -1241,106 +1241,106 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>9.927592572308125</v>
+        <v>10.05022961790274</v>
       </c>
       <c r="E9" t="n">
-        <v>110.2938377365662</v>
+        <v>106.25916709291</v>
       </c>
       <c r="F9" t="n">
-        <v>2507.221595856023</v>
+        <v>2568.52343292099</v>
       </c>
       <c r="G9" t="n">
-        <v>451126.8423264105</v>
+        <v>442118.0542207045</v>
       </c>
       <c r="H9" t="n">
-        <v>449845.8003643745</v>
+        <v>461425.2066577948</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-3095.877295170013</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>259.3289928985826</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-1721.965564482371</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2.189704360352939</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7858539366638007</v>
+        <v>39.0405740109759</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>105.0525011273568</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>5.983900121506616</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03797181152499512</v>
+        <v>66.41699459038543</v>
       </c>
       <c r="Q9" t="n">
-        <v>23.36555975972203</v>
+        <v>2046.00165750179</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>10.04404965941407</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8238257481887957</v>
+        <v>120.4628439167821</v>
       </c>
       <c r="T9" t="n">
-        <v>23.36555975972203</v>
+        <v>2234.018896622646</v>
       </c>
       <c r="U9" t="n">
+        <v>90</v>
+      </c>
+      <c r="V9" t="n">
+        <v>157</v>
+      </c>
+      <c r="W9" t="n">
         <v>4</v>
       </c>
-      <c r="V9" t="n">
-        <v>4</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
-        <v>0.04974599627813001</v>
+        <v>16.43118209328781</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.004754654151732103</v>
+        <v>0.1308258170780313</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.004033236164677929</v>
+        <v>0.4055248035010051</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.001546299491078141</v>
+        <v>4.13367101945432</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.003059156421594817</v>
+        <v>143.8527972139894</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.001530452654356013</v>
+        <v>0.1026203611758296</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>-867.3593302340689</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>-661.4007412496794</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>49.67523239241382</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>-3.794195761153676</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.7478821251388056</v>
+        <v>-27.37642057940951</v>
       </c>
       <c r="AI9" t="n">
-        <v>-23.36555975972203</v>
+        <v>-1940.949156374433</v>
       </c>
     </row>
     <row r="10">
@@ -1348,106 +1348,106 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>9.927592572308125</v>
+        <v>10.05022961790274</v>
       </c>
       <c r="E10" t="n">
-        <v>110.2938377365662</v>
+        <v>106.25916709291</v>
       </c>
       <c r="F10" t="n">
-        <v>2507.221595856023</v>
+        <v>2568.52343292099</v>
       </c>
       <c r="G10" t="n">
-        <v>451126.8423264105</v>
+        <v>442871.7471257386</v>
       </c>
       <c r="H10" t="n">
-        <v>449845.8003643745</v>
+        <v>461425.2066577948</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-3095.877295170013</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>259.3289928985826</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-1721.965564482371</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2.189704360352939</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7858539366638007</v>
+        <v>39.0405740109759</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>105.0525011273568</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.983900121506616</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03797181152499512</v>
+        <v>66.41699459038543</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.36555975972203</v>
+        <v>2046.00165750179</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>10.04404965941407</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8238257481887957</v>
+        <v>120.4628439167821</v>
       </c>
       <c r="T10" t="n">
-        <v>23.36555975972203</v>
+        <v>2234.018896622646</v>
       </c>
       <c r="U10" t="n">
+        <v>90</v>
+      </c>
+      <c r="V10" t="n">
+        <v>157</v>
+      </c>
+      <c r="W10" t="n">
         <v>4</v>
       </c>
-      <c r="V10" t="n">
-        <v>4</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
-        <v>0.04974599627813001</v>
+        <v>16.43118209328781</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004754654151732103</v>
+        <v>0.1308258170780313</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.004033236164677929</v>
+        <v>0.4055248035010051</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001546299491078141</v>
+        <v>4.13367101945432</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.003059156421594817</v>
+        <v>163.1782563174273</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.001530452654356013</v>
+        <v>0.1026203611758296</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-867.3593302340689</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>-661.4007412496794</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>49.67523239241382</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>-3.794195761153676</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.7478821251388056</v>
+        <v>-27.37642057940951</v>
       </c>
       <c r="AI10" t="n">
-        <v>-23.36555975972203</v>
+        <v>-1940.949156374433</v>
       </c>
     </row>
     <row r="11">
@@ -1455,106 +1455,106 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>9.927592572308125</v>
+        <v>10.10135946723163</v>
       </c>
       <c r="E11" t="n">
-        <v>110.2938377365662</v>
+        <v>106.3904613494421</v>
       </c>
       <c r="F11" t="n">
-        <v>2507.221595856023</v>
+        <v>2546.581379893723</v>
       </c>
       <c r="G11" t="n">
-        <v>451134.8114145231</v>
+        <v>452611.2631934872</v>
       </c>
       <c r="H11" t="n">
-        <v>449837.8286230432</v>
+        <v>459194.8068929985</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-9635.689263280612</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>259.3289928985826</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-3718.050808810182</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.764066137137765</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7858539366638007</v>
+        <v>33.47406905113493</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>78.92682346694185</v>
       </c>
       <c r="O11" t="n">
-        <v>0.007400726221988298</v>
+        <v>7.855301347484646</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03797181152499512</v>
+        <v>65.65101806600609</v>
       </c>
       <c r="Q11" t="n">
-        <v>24.40625446512856</v>
+        <v>2435.415860391921</v>
       </c>
       <c r="R11" t="n">
-        <v>0.007400726221988298</v>
+        <v>12.56252775912194</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8238257481887957</v>
+        <v>127.2383216092635</v>
       </c>
       <c r="T11" t="n">
-        <v>24.40625446512856</v>
+        <v>2630.002663830502</v>
       </c>
       <c r="U11" t="n">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0599401107625509</v>
+        <v>17.87954950956315</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.004754654151732103</v>
+        <v>0.1566877471516216</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.004033236164677929</v>
+        <v>0.4841660481112962</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.001546299491078141</v>
+        <v>4.381801668863203</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.004580477483712365</v>
+        <v>163.2140225588581</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.003067365937564734</v>
+        <v>0.148730520534753</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>3630.229544165223</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>924.6964557047195</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>-373.4566227445665</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.007400726221988298</v>
+        <v>-6.091235210346881</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.7478821251388056</v>
+        <v>-32.17694901487113</v>
       </c>
       <c r="AI11" t="n">
-        <v>-24.40625446512856</v>
+        <v>-2356.489036924979</v>
       </c>
     </row>
     <row r="12">
@@ -1562,106 +1562,106 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>9.927592572308125</v>
+        <v>10.10135946723163</v>
       </c>
       <c r="E12" t="n">
-        <v>110.2938377365662</v>
+        <v>106.3904613494421</v>
       </c>
       <c r="F12" t="n">
-        <v>2507.221595856023</v>
+        <v>2546.581379893723</v>
       </c>
       <c r="G12" t="n">
-        <v>451134.8114145231</v>
+        <v>452287.0273109827</v>
       </c>
       <c r="H12" t="n">
-        <v>449837.8286230432</v>
+        <v>459194.8068929985</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-9635.689263280612</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>259.3289928985826</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-3718.050808810182</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.764066137137765</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7858539366638007</v>
+        <v>33.47406905113493</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>78.92682346694185</v>
       </c>
       <c r="O12" t="n">
-        <v>0.007400726221988298</v>
+        <v>7.855301347484646</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03797181152499512</v>
+        <v>65.65101806600609</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.40625446512856</v>
+        <v>2435.415860391921</v>
       </c>
       <c r="R12" t="n">
-        <v>0.007400726221988298</v>
+        <v>12.56252775912194</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8238257481887957</v>
+        <v>127.2383216092635</v>
       </c>
       <c r="T12" t="n">
-        <v>24.40625446512856</v>
+        <v>2630.002663830502</v>
       </c>
       <c r="U12" t="n">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="V12" t="n">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0599401107625509</v>
+        <v>17.87954950956315</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.004754654151732103</v>
+        <v>0.1566877471516216</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.004033236164677929</v>
+        <v>0.4841660481112962</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.001546299491078141</v>
+        <v>4.381801668863203</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.004580477483712365</v>
+        <v>1211.257343797968</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.003067365937564734</v>
+        <v>0.148730520534753</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>3630.229544165223</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>924.6964557047195</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>-373.4566227445665</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.007400726221988298</v>
+        <v>-6.091235210346881</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.7478821251388056</v>
+        <v>-32.17694901487113</v>
       </c>
       <c r="AI12" t="n">
-        <v>-24.40625446512856</v>
+        <v>-2356.489036924979</v>
       </c>
     </row>
     <row r="13">
@@ -1669,106 +1669,106 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>9.923021202883046</v>
+        <v>10.21484236709439</v>
       </c>
       <c r="E13" t="n">
-        <v>110.3498261031847</v>
+        <v>108.0793671982812</v>
       </c>
       <c r="F13" t="n">
-        <v>2507.221595856023</v>
+        <v>2593.760383723056</v>
       </c>
       <c r="G13" t="n">
-        <v>451134.8114145231</v>
+        <v>442692.9625041437</v>
       </c>
       <c r="H13" t="n">
-        <v>449837.8286230432</v>
+        <v>447613.9569775097</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-6012.931670070925</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>5249.947262972824</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-3718.050808810182</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.713094314362787</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7858539366638007</v>
+        <v>29.54887087876645</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>186.3044255197823</v>
       </c>
       <c r="O13" t="n">
-        <v>0.007400726221988298</v>
+        <v>6.958050346438795</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03797181152499512</v>
+        <v>67.98320423136924</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.40625446512856</v>
+        <v>2262.812606146733</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007400726221988298</v>
+        <v>13.86518062543241</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8238257481887957</v>
+        <v>138.5529129656768</v>
       </c>
       <c r="T13" t="n">
-        <v>24.40625446512856</v>
+        <v>2771.715841651383</v>
       </c>
       <c r="U13" t="n">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="V13" t="n">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0705702789282852</v>
+        <v>33.51033108715487</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.006330745892397074</v>
+        <v>0.1833197333906917</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.005646194873733246</v>
+        <v>0.584731725660023</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.001546299491078141</v>
+        <v>8.283409825216118</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.004580477483712365</v>
+        <v>1211.886161146797</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.003067365937564734</v>
+        <v>0.1803418248428608</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>-158.8794166822954</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>-324.0861077667383</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>-2164.183454705832</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.007400726221988298</v>
+        <v>-5.24495603207601</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.7478821251388056</v>
+        <v>-38.43433335260275</v>
       </c>
       <c r="AI13" t="n">
-        <v>-24.40625446512856</v>
+        <v>-2076.508180626951</v>
       </c>
     </row>
     <row r="14">
@@ -1776,106 +1776,106 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>9.923021202883046</v>
+        <v>10.21484236709439</v>
       </c>
       <c r="E14" t="n">
-        <v>110.3498261031847</v>
+        <v>108.0793671982812</v>
       </c>
       <c r="F14" t="n">
-        <v>2507.221595856023</v>
+        <v>2593.760383723056</v>
       </c>
       <c r="G14" t="n">
-        <v>451134.8114145231</v>
+        <v>442397.6329939531</v>
       </c>
       <c r="H14" t="n">
-        <v>449837.8286230432</v>
+        <v>447613.9569775097</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-6012.931670070925</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5249.947262972824</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-3718.050808810182</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.713094314362787</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7858539366638007</v>
+        <v>29.54887087876645</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>186.3044255197823</v>
       </c>
       <c r="O14" t="n">
-        <v>0.007400726221988298</v>
+        <v>6.958050346438795</v>
       </c>
       <c r="P14" t="n">
-        <v>0.03797181152499512</v>
+        <v>67.98320423136924</v>
       </c>
       <c r="Q14" t="n">
-        <v>24.40625446512856</v>
+        <v>2262.812606146733</v>
       </c>
       <c r="R14" t="n">
-        <v>0.007400726221988298</v>
+        <v>13.86518062543241</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8238257481887957</v>
+        <v>138.5529129656768</v>
       </c>
       <c r="T14" t="n">
-        <v>24.40625446512856</v>
+        <v>2771.715841651383</v>
       </c>
       <c r="U14" t="n">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="V14" t="n">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0705702789282852</v>
+        <v>33.51033108715487</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.006330745892397074</v>
+        <v>0.1833197333906917</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.005646194873733246</v>
+        <v>0.584731725660023</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.001546299491078141</v>
+        <v>8.283409825216118</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.004580477483712365</v>
+        <v>2180.834115005642</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.003067365937564734</v>
+        <v>0.1803418248428608</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>-158.8794166822954</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>-324.0861077667383</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>-2164.183454705832</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.007400726221988298</v>
+        <v>-5.24495603207601</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.7478821251388056</v>
+        <v>-38.43433335260275</v>
       </c>
       <c r="AI14" t="n">
-        <v>-24.40625446512856</v>
+        <v>-2076.508180626951</v>
       </c>
     </row>
     <row r="15">
@@ -1883,106 +1883,106 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>9.923804706719947</v>
+        <v>10.35448846930852</v>
       </c>
       <c r="E15" t="n">
-        <v>109.6954693175245</v>
+        <v>111.8644816397852</v>
       </c>
       <c r="F15" t="n">
-        <v>2524.743633547097</v>
+        <v>2577.316304354341</v>
       </c>
       <c r="G15" t="n">
-        <v>451134.8114145231</v>
+        <v>432387.0629867544</v>
       </c>
       <c r="H15" t="n">
-        <v>449804.923651695</v>
+        <v>427840.2274599742</v>
       </c>
       <c r="I15" t="n">
-        <v>-424.0557340696678</v>
+        <v>8152.050702452073</v>
       </c>
       <c r="J15" t="n">
-        <v>-424.0557340696678</v>
+        <v>17419.57836276784</v>
       </c>
       <c r="K15" t="n">
-        <v>-424.0557340696678</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2.089887349714714</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>12.54681361258973</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>287.1884855745684</v>
       </c>
       <c r="O15" t="n">
-        <v>0.007400726221988298</v>
+        <v>6.511720479073131</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03797181152499512</v>
+        <v>76.15855100726436</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.40625446512856</v>
+        <v>1854.925977779084</v>
       </c>
       <c r="R15" t="n">
-        <v>0.007400726221988298</v>
+        <v>15.68906678184133</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8238257481887957</v>
+        <v>147.1344992003613</v>
       </c>
       <c r="T15" t="n">
-        <v>24.40625446512856</v>
+        <v>3147.872351327647</v>
       </c>
       <c r="U15" t="n">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="V15" t="n">
-        <v>8</v>
+        <v>278</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="X15" t="n">
-        <v>0.09965899571287148</v>
+        <v>277.5893643532232</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.00790196168402147</v>
+        <v>0.2069790186326892</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.009339395665117078</v>
+        <v>0.6541673233208515</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.003327373817330791</v>
+        <v>79.31619651087459</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.004580477483712365</v>
+        <v>2180.871644003774</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.004748490063679736</v>
+        <v>2.240641237970606</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>-265.2154448024653</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>10071.4188051418</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>-920.3318799055849</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.007400726221988298</v>
+        <v>-4.421833129358419</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.03797181152499512</v>
+        <v>-63.61173739467461</v>
       </c>
       <c r="AI15" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1567.737492204516</v>
       </c>
     </row>
     <row r="16">
@@ -1990,106 +1990,106 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>9.923804706719947</v>
+        <v>10.35448846930852</v>
       </c>
       <c r="E16" t="n">
-        <v>109.6954693175245</v>
+        <v>111.8644816397852</v>
       </c>
       <c r="F16" t="n">
-        <v>2524.743633547097</v>
+        <v>2577.316304354341</v>
       </c>
       <c r="G16" t="n">
-        <v>451134.8114145231</v>
+        <v>432335.5204872603</v>
       </c>
       <c r="H16" t="n">
-        <v>449804.923651695</v>
+        <v>427840.2274599742</v>
       </c>
       <c r="I16" t="n">
-        <v>-424.0557340696678</v>
+        <v>8152.050702452073</v>
       </c>
       <c r="J16" t="n">
-        <v>-424.0557340696678</v>
+        <v>17419.57836276784</v>
       </c>
       <c r="K16" t="n">
-        <v>-424.0557340696678</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2.089887349714714</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>12.54681361258973</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>287.1884855745684</v>
       </c>
       <c r="O16" t="n">
-        <v>0.007400726221988298</v>
+        <v>6.511720479073131</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03797181152499512</v>
+        <v>76.15855100726436</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.40625446512856</v>
+        <v>1854.925977779084</v>
       </c>
       <c r="R16" t="n">
-        <v>0.007400726221988298</v>
+        <v>15.68906678184133</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8238257481887957</v>
+        <v>147.1344992003613</v>
       </c>
       <c r="T16" t="n">
-        <v>24.40625446512856</v>
+        <v>3147.872351327647</v>
       </c>
       <c r="U16" t="n">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="V16" t="n">
-        <v>8</v>
+        <v>278</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="X16" t="n">
-        <v>0.09965899571287148</v>
+        <v>277.5893643532232</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.00790196168402147</v>
+        <v>0.2069790186326892</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.009339395665117078</v>
+        <v>0.6541673233208515</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.003327373817330791</v>
+        <v>79.31619651087459</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.004580477483712365</v>
+        <v>2333.976169942221</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.004748490063679736</v>
+        <v>2.240641237970606</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>-265.2154448024653</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>10071.4188051418</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>-920.3318799055849</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.007400726221988298</v>
+        <v>-4.421833129358419</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0.03797181152499512</v>
+        <v>-63.61173739467461</v>
       </c>
       <c r="AI16" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1567.737492204516</v>
       </c>
     </row>
     <row r="17">
@@ -2097,106 +2097,106 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>9.923804706719947</v>
+        <v>10.44817209199018</v>
       </c>
       <c r="E17" t="n">
-        <v>109.2148018306021</v>
+        <v>113.9202034035437</v>
       </c>
       <c r="F17" t="n">
-        <v>2524.743633547097</v>
+        <v>2591.580975062121</v>
       </c>
       <c r="G17" t="n">
-        <v>452626.9081982066</v>
+        <v>415094.0493144891</v>
       </c>
       <c r="H17" t="n">
-        <v>449804.923651695</v>
+        <v>423264.6915800727</v>
       </c>
       <c r="I17" t="n">
-        <v>-424.0557340696678</v>
+        <v>17565.85311104178</v>
       </c>
       <c r="J17" t="n">
-        <v>-424.0557340696678</v>
+        <v>17531.99204073843</v>
       </c>
       <c r="K17" t="n">
-        <v>-424.0557340696678</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2.357086327169701</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>15.72003093829028</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>305.850414620586</v>
       </c>
       <c r="O17" t="n">
-        <v>0.008905804457888288</v>
+        <v>6.758998085571286</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03797181152499512</v>
+        <v>58.45045275006646</v>
       </c>
       <c r="Q17" t="n">
-        <v>24.40625446512856</v>
+        <v>2188.60291486007</v>
       </c>
       <c r="R17" t="n">
-        <v>0.008905804457888288</v>
+        <v>16.66954341224413</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8238257481887957</v>
+        <v>153.5516587831245</v>
       </c>
       <c r="T17" t="n">
-        <v>24.40625446512856</v>
+        <v>3683.993137493906</v>
       </c>
       <c r="U17" t="n">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="V17" t="n">
-        <v>9</v>
+        <v>307</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1083945960163406</v>
+        <v>286.9163752882691</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.00790196168402147</v>
+        <v>0.2218130893040787</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01057084028497358</v>
+        <v>0.7145310406459426</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.003327373817330791</v>
+        <v>81.44903252169857</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.005969712954896607</v>
+        <v>2334.533859010729</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.004748490063679736</v>
+        <v>2.273021651157655</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>-3968.739298500612</v>
       </c>
       <c r="AE17" t="n">
-        <v>-24.80589667011246</v>
+        <v>-97.91971751881113</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>-8161.233355277975</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.008905804457888288</v>
+        <v>-4.401911758401586</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.03797181152499512</v>
+        <v>-42.73042181177615</v>
       </c>
       <c r="AI17" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1882.752500239483</v>
       </c>
     </row>
     <row r="18">
@@ -2204,106 +2204,106 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>9.923804706719947</v>
+        <v>10.44817209199018</v>
       </c>
       <c r="E18" t="n">
-        <v>109.2148018306021</v>
+        <v>113.9202034035437</v>
       </c>
       <c r="F18" t="n">
-        <v>2524.743633547097</v>
+        <v>2591.580975062121</v>
       </c>
       <c r="G18" t="n">
-        <v>452626.9081982066</v>
+        <v>415009.4351793636</v>
       </c>
       <c r="H18" t="n">
-        <v>449804.923651695</v>
+        <v>423264.6915800727</v>
       </c>
       <c r="I18" t="n">
-        <v>-424.0557340696678</v>
+        <v>17565.85311104178</v>
       </c>
       <c r="J18" t="n">
-        <v>-424.0557340696678</v>
+        <v>17531.99204073843</v>
       </c>
       <c r="K18" t="n">
-        <v>-424.0557340696678</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2.357086327169701</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>15.72003093829028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>305.850414620586</v>
       </c>
       <c r="O18" t="n">
-        <v>0.008905804457888288</v>
+        <v>6.758998085571286</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03797181152499512</v>
+        <v>58.45045275006646</v>
       </c>
       <c r="Q18" t="n">
-        <v>24.40625446512856</v>
+        <v>2188.60291486007</v>
       </c>
       <c r="R18" t="n">
-        <v>0.008905804457888288</v>
+        <v>16.66954341224413</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8238257481887957</v>
+        <v>153.5516587831245</v>
       </c>
       <c r="T18" t="n">
-        <v>24.40625446512856</v>
+        <v>3683.993137493906</v>
       </c>
       <c r="U18" t="n">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>307</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X18" t="n">
-        <v>0.1083945960163406</v>
+        <v>286.9163752882691</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.00790196168402147</v>
+        <v>0.2218130893040787</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01057084028497358</v>
+        <v>0.7145310406459426</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.003327373817330791</v>
+        <v>81.44903252169857</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.005969712954896607</v>
+        <v>2684.553171994336</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.004748490063679736</v>
+        <v>2.273021651157655</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>-3968.739298500612</v>
       </c>
       <c r="AE18" t="n">
-        <v>-24.80589667011246</v>
+        <v>-97.91971751881113</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>-8161.233355277975</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.008905804457888288</v>
+        <v>-4.401911758401586</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.03797181152499512</v>
+        <v>-42.73042181177615</v>
       </c>
       <c r="AI18" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1882.752500239483</v>
       </c>
     </row>
     <row r="19">
@@ -2311,106 +2311,106 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>9.932803303958034</v>
+        <v>10.46532787138565</v>
       </c>
       <c r="E19" t="n">
-        <v>109.2148018306021</v>
+        <v>114.179819450169</v>
       </c>
       <c r="F19" t="n">
-        <v>2524.743633547097</v>
+        <v>2600.533046284677</v>
       </c>
       <c r="G19" t="n">
-        <v>452223.09562382</v>
+        <v>410184.5887233535</v>
       </c>
       <c r="H19" t="n">
-        <v>449804.923651695</v>
+        <v>419580.4683955502</v>
       </c>
       <c r="I19" t="n">
-        <v>-395.6162909681527</v>
+        <v>23279.34220534558</v>
       </c>
       <c r="J19" t="n">
-        <v>-395.6162909681527</v>
+        <v>17531.99204073843</v>
       </c>
       <c r="K19" t="n">
-        <v>-395.6162909681527</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.985856853924677</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>16.98179373800409</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>364.6082943140486</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1081128836816244</v>
+        <v>7.054883825448607</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>55.62857978306469</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.40625446512856</v>
+        <v>2087.70564266138</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1081128836816244</v>
+        <v>17.44986230025173</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8238257481887957</v>
+        <v>162.9106757910372</v>
       </c>
       <c r="T19" t="n">
-        <v>24.40625446512856</v>
+        <v>3911.690187579643</v>
       </c>
       <c r="U19" t="n">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="X19" t="n">
-        <v>0.1197175256811012</v>
+        <v>320.8615804293453</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.009475358629791238</v>
+        <v>0.2422974815653993</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.01057084028497358</v>
+        <v>0.7602139781430955</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.003327373817330791</v>
+        <v>90.88084567894522</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.007793194908555012</v>
+        <v>2684.608928886793</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.004748490063679736</v>
+        <v>2.902845814020194</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>-3517.58066550584</v>
       </c>
       <c r="AE19" t="n">
-        <v>-24.80589667011246</v>
+        <v>-138.9667064044488</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>-7886.294928267356</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.1081128836816244</v>
+        <v>-5.069026971523932</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>-38.64678604506057</v>
       </c>
       <c r="AI19" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1723.097348347331</v>
       </c>
     </row>
     <row r="20">
@@ -2418,106 +2418,106 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>9.932803303958034</v>
+        <v>10.46532787138565</v>
       </c>
       <c r="E20" t="n">
-        <v>109.2148018306021</v>
+        <v>114.179819450169</v>
       </c>
       <c r="F20" t="n">
-        <v>2524.743633547097</v>
+        <v>2600.533046284677</v>
       </c>
       <c r="G20" t="n">
-        <v>452223.09562382</v>
+        <v>410133.7147020829</v>
       </c>
       <c r="H20" t="n">
-        <v>449804.923651695</v>
+        <v>419580.4683955502</v>
       </c>
       <c r="I20" t="n">
-        <v>-395.6162909681527</v>
+        <v>23279.34220534558</v>
       </c>
       <c r="J20" t="n">
-        <v>-395.6162909681527</v>
+        <v>17531.99204073843</v>
       </c>
       <c r="K20" t="n">
-        <v>-395.6162909681527</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.985856853924677</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>16.98179373800409</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>364.6082943140486</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1081128836816244</v>
+        <v>7.054883825448607</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>55.62857978306469</v>
       </c>
       <c r="Q20" t="n">
-        <v>24.40625446512856</v>
+        <v>2087.70564266138</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1081128836816244</v>
+        <v>17.44986230025173</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8238257481887957</v>
+        <v>162.9106757910372</v>
       </c>
       <c r="T20" t="n">
-        <v>24.40625446512856</v>
+        <v>3911.690187579643</v>
       </c>
       <c r="U20" t="n">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="V20" t="n">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1197175256811012</v>
+        <v>320.8615804293453</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.009475358629791238</v>
+        <v>0.2422974815653993</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.01057084028497358</v>
+        <v>0.7602139781430955</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.003327373817330791</v>
+        <v>90.88084567894522</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.007793194908555012</v>
+        <v>2976.253010005516</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.004748490063679736</v>
+        <v>2.902845814020194</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>-3517.58066550584</v>
       </c>
       <c r="AE20" t="n">
-        <v>-24.80589667011246</v>
+        <v>-138.9667064044488</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>-7886.294928267356</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.1081128836816244</v>
+        <v>-5.069026971523932</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>-38.64678604506057</v>
       </c>
       <c r="AI20" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1723.097348347331</v>
       </c>
     </row>
     <row r="21">
@@ -2525,106 +2525,106 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>9.932596085307081</v>
+        <v>10.50394224736602</v>
       </c>
       <c r="E21" t="n">
-        <v>109.2175520736144</v>
+        <v>117.3273738181994</v>
       </c>
       <c r="F21" t="n">
-        <v>2541.59792883567</v>
+        <v>2607.44798005299</v>
       </c>
       <c r="G21" t="n">
-        <v>449938.2170230591</v>
+        <v>392462.090460124</v>
       </c>
       <c r="H21" t="n">
-        <v>449798.1704235579</v>
+        <v>409717.3532928825</v>
       </c>
       <c r="I21" t="n">
-        <v>-395.6162909681527</v>
+        <v>38569.90593126529</v>
       </c>
       <c r="J21" t="n">
-        <v>-395.6162909681527</v>
+        <v>17531.99204073843</v>
       </c>
       <c r="K21" t="n">
-        <v>-395.6162909681527</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.528866563554375</v>
       </c>
       <c r="M21" t="n">
-        <v>0.08275832592575103</v>
+        <v>20.40522803422638</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>364.6082943140486</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2022937416699535</v>
+        <v>8.675199889657796</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>72.23711779806096</v>
       </c>
       <c r="Q21" t="n">
-        <v>24.40625446512856</v>
+        <v>1651.674696256777</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2022937416699535</v>
+        <v>19.52527426848709</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9065840741145468</v>
+        <v>198.3570188751589</v>
       </c>
       <c r="T21" t="n">
-        <v>24.40625446512856</v>
+        <v>4088.812412962917</v>
       </c>
       <c r="U21" t="n">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="V21" t="n">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="X21" t="n">
-        <v>0.1558640040696549</v>
+        <v>327.6822675593097</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01105248000238956</v>
+        <v>0.2779500790995986</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01270747201495893</v>
+        <v>0.8154539447115674</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.006944174061648009</v>
+        <v>90.90740065679044</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.009580860541802317</v>
+        <v>2976.317537982051</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.00647421460009766</v>
+        <v>4.76707643452636</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>-836.1612567545649</v>
       </c>
       <c r="AE21" t="n">
-        <v>-24.80589667011246</v>
+        <v>-1808.290643948916</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>-7823.927648286389</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.2022937416699535</v>
+        <v>-7.146333326103424</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.08275832592575103</v>
+        <v>-51.83188976383457</v>
       </c>
       <c r="AI21" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1287.066401942728</v>
       </c>
     </row>
     <row r="22">
@@ -2632,106 +2632,106 @@
         <v>19</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>9.932596085307081</v>
+        <v>10.50394224736602</v>
       </c>
       <c r="E22" t="n">
-        <v>109.2175520736144</v>
+        <v>117.3273738181994</v>
       </c>
       <c r="F22" t="n">
-        <v>2541.59792883567</v>
+        <v>2607.44798005299</v>
       </c>
       <c r="G22" t="n">
-        <v>449938.2170230591</v>
+        <v>392459.881536991</v>
       </c>
       <c r="H22" t="n">
-        <v>449798.1704235579</v>
+        <v>409717.3532928825</v>
       </c>
       <c r="I22" t="n">
-        <v>-395.6162909681527</v>
+        <v>38569.90593126529</v>
       </c>
       <c r="J22" t="n">
-        <v>-395.6162909681527</v>
+        <v>17531.99204073843</v>
       </c>
       <c r="K22" t="n">
-        <v>-395.6162909681527</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.528866563554375</v>
       </c>
       <c r="M22" t="n">
-        <v>0.08275832592575103</v>
+        <v>20.40522803422638</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>364.6082943140486</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2022937416699535</v>
+        <v>8.675199889657796</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>72.23711779806096</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.40625446512856</v>
+        <v>1651.674696256777</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2022937416699535</v>
+        <v>19.52527426848709</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9065840741145468</v>
+        <v>198.3570188751589</v>
       </c>
       <c r="T22" t="n">
-        <v>24.40625446512856</v>
+        <v>4088.812412962917</v>
       </c>
       <c r="U22" t="n">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="V22" t="n">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="X22" t="n">
-        <v>0.1558640040696549</v>
+        <v>327.6822675593097</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.01105248000238956</v>
+        <v>0.2779500790995986</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01270747201495893</v>
+        <v>0.8154539447115674</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.006944174061648009</v>
+        <v>90.90740065679044</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.009580860541802317</v>
+        <v>3062.316047016877</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.00647421460009766</v>
+        <v>4.76707643452636</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>-836.1612567545649</v>
       </c>
       <c r="AE22" t="n">
-        <v>-24.80589667011246</v>
+        <v>-1808.290643948916</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>-7823.927648286389</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.2022937416699535</v>
+        <v>-7.146333326103424</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.08275832592575103</v>
+        <v>-51.83188976383457</v>
       </c>
       <c r="AI22" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1287.066401942728</v>
       </c>
     </row>
     <row r="23">
@@ -2739,106 +2739,106 @@
         <v>20</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>9.932388190745478</v>
+        <v>10.54285187517593</v>
       </c>
       <c r="E23" t="n">
-        <v>109.2175520736144</v>
+        <v>117.8056082339394</v>
       </c>
       <c r="F23" t="n">
-        <v>2541.59792883567</v>
+        <v>2570.046258130489</v>
       </c>
       <c r="G23" t="n">
-        <v>449947.0217928558</v>
+        <v>395505.96123226</v>
       </c>
       <c r="H23" t="n">
-        <v>449798.1704235579</v>
+        <v>415718.7034833329</v>
       </c>
       <c r="I23" t="n">
-        <v>-395.6162909681527</v>
+        <v>31462.41131381543</v>
       </c>
       <c r="J23" t="n">
-        <v>-395.6162909681527</v>
+        <v>16873.38681005483</v>
       </c>
       <c r="K23" t="n">
-        <v>-395.6162909681527</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.555306402691264</v>
       </c>
       <c r="M23" t="n">
-        <v>0.08275832592575103</v>
+        <v>15.38748308720499</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>282.1896979393197</v>
       </c>
       <c r="O23" t="n">
-        <v>0.204103545786913</v>
+        <v>8.859582971517085</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>88.07985975142445</v>
       </c>
       <c r="Q23" t="n">
-        <v>24.40625446512856</v>
+        <v>2280.604377061798</v>
       </c>
       <c r="R23" t="n">
-        <v>0.204103545786913</v>
+        <v>19.92741102730383</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9065840741145468</v>
+        <v>242.987990968609</v>
       </c>
       <c r="T23" t="n">
-        <v>24.40625446512856</v>
+        <v>4895.617214167629</v>
       </c>
       <c r="U23" t="n">
-        <v>13</v>
+        <v>327</v>
       </c>
       <c r="V23" t="n">
-        <v>14</v>
+        <v>410</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="X23" t="n">
-        <v>0.1657660950195598</v>
+        <v>1009.309473251063</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.01263423942905077</v>
+        <v>0.2977208055788586</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.01270747201495893</v>
+        <v>0.8491498480280936</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.006944174061648009</v>
+        <v>294.743885433922</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.01096972840011257</v>
+        <v>3062.33793785122</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.00647421460009766</v>
+        <v>5.343395900783733</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>-78.54837235045318</v>
       </c>
       <c r="AE23" t="n">
-        <v>-24.80589667011246</v>
+        <v>993.1152151046458</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>-8828.839649341477</v>
       </c>
       <c r="AG23" t="n">
-        <v>-0.204103545786913</v>
+        <v>-7.304276568825824</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.08275832592575103</v>
+        <v>-72.69237666421947</v>
       </c>
       <c r="AI23" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1998.414679122478</v>
       </c>
     </row>
     <row r="24">
@@ -2846,106 +2846,106 @@
         <v>21</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>9.932388190745478</v>
+        <v>10.54285187517593</v>
       </c>
       <c r="E24" t="n">
-        <v>109.2175520736144</v>
+        <v>117.8056082339394</v>
       </c>
       <c r="F24" t="n">
-        <v>2541.59792883567</v>
+        <v>2570.046258130489</v>
       </c>
       <c r="G24" t="n">
-        <v>449947.0217928558</v>
+        <v>395845.5041235676</v>
       </c>
       <c r="H24" t="n">
-        <v>449798.1704235579</v>
+        <v>415718.7034833329</v>
       </c>
       <c r="I24" t="n">
-        <v>-395.6162909681527</v>
+        <v>31462.41131381543</v>
       </c>
       <c r="J24" t="n">
-        <v>-395.6162909681527</v>
+        <v>16873.38681005483</v>
       </c>
       <c r="K24" t="n">
-        <v>-395.6162909681527</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.555306402691264</v>
       </c>
       <c r="M24" t="n">
-        <v>0.08275832592575103</v>
+        <v>15.38748308720499</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>282.1896979393197</v>
       </c>
       <c r="O24" t="n">
-        <v>0.204103545786913</v>
+        <v>8.859582971517085</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>88.07985975142445</v>
       </c>
       <c r="Q24" t="n">
-        <v>24.40625446512856</v>
+        <v>2280.604377061798</v>
       </c>
       <c r="R24" t="n">
-        <v>0.204103545786913</v>
+        <v>19.92741102730383</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9065840741145468</v>
+        <v>242.987990968609</v>
       </c>
       <c r="T24" t="n">
-        <v>24.40625446512856</v>
+        <v>4895.617214167629</v>
       </c>
       <c r="U24" t="n">
-        <v>13</v>
+        <v>327</v>
       </c>
       <c r="V24" t="n">
-        <v>14</v>
+        <v>410</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="X24" t="n">
-        <v>0.1657660950195598</v>
+        <v>1009.309473251063</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01263423942905077</v>
+        <v>0.2977208055788586</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01270747201495893</v>
+        <v>0.8491498480280936</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.006944174061648009</v>
+        <v>294.743885433922</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01096972840011257</v>
+        <v>3204.529976452763</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.00647421460009766</v>
+        <v>5.343395900783733</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>-78.54837235045318</v>
       </c>
       <c r="AE24" t="n">
-        <v>-24.80589667011246</v>
+        <v>993.1152151046458</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>-8828.839649341477</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.204103545786913</v>
+        <v>-7.304276568825824</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.08275832592575103</v>
+        <v>-72.69237666421947</v>
       </c>
       <c r="AI24" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1998.414679122478</v>
       </c>
     </row>
     <row r="25">
@@ -2953,106 +2953,106 @@
         <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>9.932388190745478</v>
+        <v>10.51845573916798</v>
       </c>
       <c r="E25" t="n">
-        <v>109.2175520736144</v>
+        <v>116.6407329147643</v>
       </c>
       <c r="F25" t="n">
-        <v>2541.59792883567</v>
+        <v>2618.511243898545</v>
       </c>
       <c r="G25" t="n">
-        <v>449386.734432405</v>
+        <v>392483.4171082335</v>
       </c>
       <c r="H25" t="n">
-        <v>449798.1704235579</v>
+        <v>418267.5460068831</v>
       </c>
       <c r="I25" t="n">
-        <v>164.6710694826038</v>
+        <v>30394.66755721982</v>
       </c>
       <c r="J25" t="n">
-        <v>164.6710694826038</v>
+        <v>8976.133904358328</v>
       </c>
       <c r="K25" t="n">
-        <v>164.6710694826038</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L25" t="n">
-        <v>0.007612390878211048</v>
+        <v>0.8333903033815636</v>
       </c>
       <c r="M25" t="n">
-        <v>0.08275832592575103</v>
+        <v>11.43096401567053</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>166.1974300769496</v>
       </c>
       <c r="O25" t="n">
-        <v>0.204103545786913</v>
+        <v>8.226699486452729</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>86.77094375114498</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1978.600352402731</v>
       </c>
       <c r="R25" t="n">
-        <v>0.211715936665124</v>
+        <v>20.62287583239531</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9065840741145468</v>
+        <v>263.4272725719095</v>
       </c>
       <c r="T25" t="n">
-        <v>24.40625446512856</v>
+        <v>5134.920701933195</v>
       </c>
       <c r="U25" t="n">
-        <v>15</v>
+        <v>366</v>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>443</v>
       </c>
       <c r="W25" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="X25" t="n">
-        <v>0.4201050485547848</v>
+        <v>1018.623087322053</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.0126570766016854</v>
+        <v>0.3166676795227255</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.01270747201495893</v>
+        <v>0.907711305936911</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.006944174061648009</v>
+        <v>295.7894304348903</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.08418849179549825</v>
+        <v>3204.615159926374</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.009534300092644863</v>
+        <v>6.929243315648845</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>-3082.488293451087</v>
       </c>
       <c r="AE25" t="n">
-        <v>-24.80589667011246</v>
+        <v>-369.6021150615225</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>42.84383391256912</v>
       </c>
       <c r="AG25" t="n">
-        <v>-0.1964911549087019</v>
+        <v>-7.393309183071167</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.08275832592575103</v>
+        <v>-75.33997973547447</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>-1812.402922325781</v>
       </c>
     </row>
     <row r="26">
@@ -3060,106 +3060,106 @@
         <v>23</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>9.932388190745478</v>
+        <v>10.51845573916798</v>
       </c>
       <c r="E26" t="n">
-        <v>109.2175520736144</v>
+        <v>116.6407329147643</v>
       </c>
       <c r="F26" t="n">
-        <v>2541.59792883567</v>
+        <v>2618.511243898545</v>
       </c>
       <c r="G26" t="n">
-        <v>449386.734432405</v>
+        <v>392921.1904821827</v>
       </c>
       <c r="H26" t="n">
-        <v>449798.1704235579</v>
+        <v>418267.5460068831</v>
       </c>
       <c r="I26" t="n">
-        <v>164.6710694826038</v>
+        <v>30394.66755721982</v>
       </c>
       <c r="J26" t="n">
-        <v>164.6710694826038</v>
+        <v>8976.133904358328</v>
       </c>
       <c r="K26" t="n">
-        <v>164.6710694826038</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L26" t="n">
-        <v>0.007612390878211048</v>
+        <v>0.8333903033815636</v>
       </c>
       <c r="M26" t="n">
-        <v>0.08275832592575103</v>
+        <v>11.43096401567053</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>166.1974300769496</v>
       </c>
       <c r="O26" t="n">
-        <v>0.204103545786913</v>
+        <v>8.226699486452729</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>86.77094375114498</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1978.600352402731</v>
       </c>
       <c r="R26" t="n">
-        <v>0.211715936665124</v>
+        <v>20.62287583239531</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9065840741145468</v>
+        <v>263.4272725719095</v>
       </c>
       <c r="T26" t="n">
-        <v>24.40625446512856</v>
+        <v>5134.920701933195</v>
       </c>
       <c r="U26" t="n">
-        <v>15</v>
+        <v>366</v>
       </c>
       <c r="V26" t="n">
-        <v>15</v>
+        <v>443</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="X26" t="n">
-        <v>0.4201050485547848</v>
+        <v>1018.623087322053</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0126570766016854</v>
+        <v>0.3166676795227255</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.01270747201495893</v>
+        <v>0.907711305936911</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.006944174061648009</v>
+        <v>295.7894304348903</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.08418849179549825</v>
+        <v>3215.840118232762</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.009534300092644863</v>
+        <v>6.929243315648845</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>-3082.488293451087</v>
       </c>
       <c r="AE26" t="n">
-        <v>-24.80589667011246</v>
+        <v>-369.6021150615225</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>42.84383391256912</v>
       </c>
       <c r="AG26" t="n">
-        <v>-0.1964911549087019</v>
+        <v>-7.393309183071167</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.08275832592575103</v>
+        <v>-75.33997973547447</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>-1812.402922325781</v>
       </c>
     </row>
     <row r="27">
@@ -3167,106 +3167,106 @@
         <v>24</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>9.932388190745478</v>
+        <v>10.47213357773278</v>
       </c>
       <c r="E27" t="n">
-        <v>109.2346726602747</v>
+        <v>117.0189755460205</v>
       </c>
       <c r="F27" t="n">
-        <v>2541.59792883567</v>
+        <v>2623.47866794929</v>
       </c>
       <c r="G27" t="n">
-        <v>449330.6454754928</v>
+        <v>391137.8946499916</v>
       </c>
       <c r="H27" t="n">
-        <v>449798.1704235579</v>
+        <v>425492.9264150987</v>
       </c>
       <c r="I27" t="n">
-        <v>164.6710694826038</v>
+        <v>24953.68076139909</v>
       </c>
       <c r="J27" t="n">
-        <v>164.6710694826038</v>
+        <v>8976.133904358328</v>
       </c>
       <c r="K27" t="n">
-        <v>164.6710694826038</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L27" t="n">
-        <v>0.007612390878211048</v>
+        <v>1.107857924424531</v>
       </c>
       <c r="M27" t="n">
-        <v>0.08275832592575103</v>
+        <v>13.50302829244722</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>169.622179141327</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2189689898748548</v>
+        <v>9.351192945351652</v>
       </c>
       <c r="P27" t="n">
-        <v>0.006455626124561932</v>
+        <v>102.7398862018964</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1796.467174912383</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2265813807530659</v>
+        <v>22.9923893146394</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9130397002391087</v>
+        <v>287.5107320615608</v>
       </c>
       <c r="T27" t="n">
-        <v>24.40625446512856</v>
+        <v>5204.530078997737</v>
       </c>
       <c r="U27" t="n">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="V27" t="n">
-        <v>18</v>
+        <v>465</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="X27" t="n">
-        <v>0.4523480016766298</v>
+        <v>1022.136308600986</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.01580834759698119</v>
+        <v>0.3242500212199959</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0145272937408192</v>
+        <v>0.9286940488004214</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.0100577270501173</v>
+        <v>296.0106186535587</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0857767320224264</v>
+        <v>3215.907319344799</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.009534300092644863</v>
+        <v>7.66625528406282</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>-82.57812515808473</v>
       </c>
       <c r="AE27" t="n">
-        <v>-24.80589667011246</v>
+        <v>219.7184106082905</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>-261.9604224665916</v>
       </c>
       <c r="AG27" t="n">
-        <v>-0.2113565989966437</v>
+        <v>-8.243335020927127</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.07630269980118909</v>
+        <v>-89.23685790944923</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>-1626.844995771056</v>
       </c>
     </row>
     <row r="28">
@@ -3274,106 +3274,106 @@
         <v>25</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>9.932388190745478</v>
+        <v>10.47213357773278</v>
       </c>
       <c r="E28" t="n">
-        <v>109.2346726602747</v>
+        <v>117.0189755460205</v>
       </c>
       <c r="F28" t="n">
-        <v>2541.59792883567</v>
+        <v>2623.47866794929</v>
       </c>
       <c r="G28" t="n">
-        <v>449330.6454754928</v>
+        <v>391540.3466699791</v>
       </c>
       <c r="H28" t="n">
-        <v>449798.1704235579</v>
+        <v>425492.9264150987</v>
       </c>
       <c r="I28" t="n">
-        <v>164.6710694826038</v>
+        <v>24953.68076139909</v>
       </c>
       <c r="J28" t="n">
-        <v>164.6710694826038</v>
+        <v>8976.133904358328</v>
       </c>
       <c r="K28" t="n">
-        <v>164.6710694826038</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L28" t="n">
-        <v>0.007612390878211048</v>
+        <v>1.107857924424531</v>
       </c>
       <c r="M28" t="n">
-        <v>0.08275832592575103</v>
+        <v>13.50302829244722</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>169.622179141327</v>
       </c>
       <c r="O28" t="n">
-        <v>0.2189689898748548</v>
+        <v>9.351192945351652</v>
       </c>
       <c r="P28" t="n">
-        <v>0.006455626124561932</v>
+        <v>102.7398862018964</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1796.467174912383</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2265813807530659</v>
+        <v>22.9923893146394</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9130397002391087</v>
+        <v>287.5107320615608</v>
       </c>
       <c r="T28" t="n">
-        <v>24.40625446512856</v>
+        <v>5204.530078997737</v>
       </c>
       <c r="U28" t="n">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="V28" t="n">
-        <v>18</v>
+        <v>465</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="X28" t="n">
-        <v>0.4523480016766298</v>
+        <v>1022.136308600986</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.01580834759698119</v>
+        <v>0.3242500212199959</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0145272937408192</v>
+        <v>0.9286940488004214</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0100577270501173</v>
+        <v>296.0106186535587</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0857767320224264</v>
+        <v>3226.22660190858</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.009534300092644863</v>
+        <v>7.66625528406282</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>-82.57812515808473</v>
       </c>
       <c r="AE28" t="n">
-        <v>-24.80589667011246</v>
+        <v>219.7184106082905</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>-261.9604224665916</v>
       </c>
       <c r="AG28" t="n">
-        <v>-0.2113565989966437</v>
+        <v>-8.243335020927127</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.07630269980118909</v>
+        <v>-89.23685790944923</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>-1626.844995771056</v>
       </c>
     </row>
     <row r="29">
@@ -3381,106 +3381,106 @@
         <v>26</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>9.932388190745478</v>
+        <v>10.52004998168837</v>
       </c>
       <c r="E29" t="n">
-        <v>109.2346726602747</v>
+        <v>116.3786657458281</v>
       </c>
       <c r="F29" t="n">
-        <v>2541.695285149893</v>
+        <v>2633.968957232898</v>
       </c>
       <c r="G29" t="n">
-        <v>449330.6454754928</v>
+        <v>393000.2518904299</v>
       </c>
       <c r="H29" t="n">
-        <v>449783.917062412</v>
+        <v>414507.4620966939</v>
       </c>
       <c r="I29" t="n">
-        <v>164.6710694826038</v>
+        <v>33004.10313942834</v>
       </c>
       <c r="J29" t="n">
-        <v>164.6710694826038</v>
+        <v>8826.077514296294</v>
       </c>
       <c r="K29" t="n">
-        <v>164.6710694826038</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02920256954713303</v>
+        <v>0.8199963851514861</v>
       </c>
       <c r="M29" t="n">
-        <v>0.08275832592575103</v>
+        <v>7.860783580699463</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>143.8565148084834</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2189689898748548</v>
+        <v>7.869495362647831</v>
       </c>
       <c r="P29" t="n">
-        <v>0.006455626124561932</v>
+        <v>95.76479770004131</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1935.473420326544</v>
       </c>
       <c r="R29" t="n">
-        <v>0.2481715594219878</v>
+        <v>23.61736209353284</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9130397002391087</v>
+        <v>294.842637032991</v>
       </c>
       <c r="T29" t="n">
-        <v>24.40625446512856</v>
+        <v>5409.744488836779</v>
       </c>
       <c r="U29" t="n">
-        <v>18</v>
+        <v>435</v>
       </c>
       <c r="V29" t="n">
-        <v>19</v>
+        <v>501</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="X29" t="n">
-        <v>0.4633622741021451</v>
+        <v>1024.535678901276</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.01587311813298796</v>
+        <v>0.3445731751939929</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.0145272937408192</v>
+        <v>0.9835579754856774</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.01167668325763753</v>
+        <v>296.3922073181441</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0857767320224264</v>
+        <v>3226.422889253932</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.01115485507677245</v>
+        <v>7.733003283552908</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>930.5665827111477</v>
       </c>
       <c r="AE29" t="n">
-        <v>-24.80589667011246</v>
+        <v>-66.76117077552692</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>-349.2502431457059</v>
       </c>
       <c r="AG29" t="n">
-        <v>-0.1897664203277218</v>
+        <v>-7.04949897749635</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.07630269980118909</v>
+        <v>-87.90401411934189</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>-1791.61690551806</v>
       </c>
     </row>
     <row r="30">
@@ -3488,106 +3488,106 @@
         <v>27</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>9.932388190745478</v>
+        <v>10.52004998168837</v>
       </c>
       <c r="E30" t="n">
-        <v>109.2346726602747</v>
+        <v>116.3786657458281</v>
       </c>
       <c r="F30" t="n">
-        <v>2541.695285149893</v>
+        <v>2633.968957232898</v>
       </c>
       <c r="G30" t="n">
-        <v>449330.6454754928</v>
+        <v>393376.4966946444</v>
       </c>
       <c r="H30" t="n">
-        <v>449783.917062412</v>
+        <v>414507.4620966939</v>
       </c>
       <c r="I30" t="n">
-        <v>164.6710694826038</v>
+        <v>33004.10313942834</v>
       </c>
       <c r="J30" t="n">
-        <v>164.6710694826038</v>
+        <v>8826.077514296294</v>
       </c>
       <c r="K30" t="n">
-        <v>164.6710694826038</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02920256954713303</v>
+        <v>0.8199963851514861</v>
       </c>
       <c r="M30" t="n">
-        <v>0.08275832592575103</v>
+        <v>7.860783580699463</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>143.8565148084834</v>
       </c>
       <c r="O30" t="n">
-        <v>0.2189689898748548</v>
+        <v>7.869495362647831</v>
       </c>
       <c r="P30" t="n">
-        <v>0.006455626124561932</v>
+        <v>95.76479770004131</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1935.473420326544</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2481715594219878</v>
+        <v>23.61736209353284</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9130397002391087</v>
+        <v>294.842637032991</v>
       </c>
       <c r="T30" t="n">
-        <v>24.40625446512856</v>
+        <v>5409.744488836779</v>
       </c>
       <c r="U30" t="n">
-        <v>18</v>
+        <v>435</v>
       </c>
       <c r="V30" t="n">
-        <v>19</v>
+        <v>501</v>
       </c>
       <c r="W30" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="X30" t="n">
-        <v>0.4633622741021451</v>
+        <v>1024.535678901276</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.01587311813298796</v>
+        <v>0.3445731751939929</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.0145272937408192</v>
+        <v>0.9835579754856774</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.01167668325763753</v>
+        <v>296.3922073181441</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.0857767320224264</v>
+        <v>3236.070191926099</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.01115485507677245</v>
+        <v>7.733003283552908</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>930.5665827111477</v>
       </c>
       <c r="AE30" t="n">
-        <v>-24.80589667011246</v>
+        <v>-66.76117077552692</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>-349.2502431457059</v>
       </c>
       <c r="AG30" t="n">
-        <v>-0.1897664203277218</v>
+        <v>-7.04949897749635</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.07630269980118909</v>
+        <v>-87.90401411934189</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>-1791.61690551806</v>
       </c>
     </row>
     <row r="31">
@@ -3595,106 +3595,106 @@
         <v>28</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>9.932388190745478</v>
+        <v>10.43177635630219</v>
       </c>
       <c r="E31" t="n">
-        <v>109.2074477395399</v>
+        <v>116.4195822736519</v>
       </c>
       <c r="F31" t="n">
-        <v>2541.695285149893</v>
+        <v>2636.73085861044</v>
       </c>
       <c r="G31" t="n">
-        <v>449420.7744118353</v>
+        <v>395583.5731157186</v>
       </c>
       <c r="H31" t="n">
-        <v>449783.917062412</v>
+        <v>413888.6834073879</v>
       </c>
       <c r="I31" t="n">
-        <v>164.6710694826038</v>
+        <v>34731.52264623069</v>
       </c>
       <c r="J31" t="n">
-        <v>164.6710694826038</v>
+        <v>8826.077514296294</v>
       </c>
       <c r="K31" t="n">
-        <v>164.6710694826038</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02920256954713303</v>
+        <v>1.111946062086297</v>
       </c>
       <c r="M31" t="n">
-        <v>0.08275832592575103</v>
+        <v>7.880488515688974</v>
       </c>
       <c r="N31" t="n">
-        <v>59.4924179028753</v>
+        <v>108.8432624842059</v>
       </c>
       <c r="O31" t="n">
-        <v>0.2189689898748548</v>
+        <v>9.189478635829966</v>
       </c>
       <c r="P31" t="n">
-        <v>0.006455626124561932</v>
+        <v>98.50721058524194</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>2430.343700884845</v>
       </c>
       <c r="R31" t="n">
-        <v>0.2481715594219878</v>
+        <v>25.66077038312877</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9130397002391087</v>
+        <v>313.61328403453</v>
       </c>
       <c r="T31" t="n">
-        <v>83.89867236800386</v>
+        <v>5970.734258012134</v>
       </c>
       <c r="U31" t="n">
-        <v>19</v>
+        <v>465</v>
       </c>
       <c r="V31" t="n">
-        <v>21</v>
+        <v>530</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="X31" t="n">
-        <v>4.593863068673279</v>
+        <v>1026.022784565902</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.01902329632814332</v>
+        <v>0.3665071340122938</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.01592184590735177</v>
+        <v>0.9933294898347585</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.244819183197026</v>
+        <v>296.5195519851801</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.08723974009269038</v>
+        <v>3236.333928689538</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.01115485507677245</v>
+        <v>7.756348079299044</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>-233.6628454358969</v>
       </c>
       <c r="AE31" t="n">
-        <v>-24.80589667011246</v>
+        <v>300.1741532298902</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>-684.907672352064</v>
       </c>
       <c r="AG31" t="n">
-        <v>-0.1897664203277218</v>
+        <v>-8.077532573743676</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.07630269980118909</v>
+        <v>-90.62672206955298</v>
       </c>
       <c r="AI31" t="n">
-        <v>59.4924179028753</v>
+        <v>-2321.500438400638</v>
       </c>
     </row>
     <row r="32">
@@ -3702,106 +3702,106 @@
         <v>29</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>9.932388190745478</v>
+        <v>10.43177635630219</v>
       </c>
       <c r="E32" t="n">
-        <v>109.2074477395399</v>
+        <v>116.4195822736519</v>
       </c>
       <c r="F32" t="n">
-        <v>2541.695285149893</v>
+        <v>2636.73085861044</v>
       </c>
       <c r="G32" t="n">
-        <v>449420.7744118353</v>
+        <v>395937.1216702434</v>
       </c>
       <c r="H32" t="n">
-        <v>449783.917062412</v>
+        <v>413888.6834073879</v>
       </c>
       <c r="I32" t="n">
-        <v>164.6710694826038</v>
+        <v>34731.52264623069</v>
       </c>
       <c r="J32" t="n">
-        <v>164.6710694826038</v>
+        <v>8826.077514296294</v>
       </c>
       <c r="K32" t="n">
-        <v>164.6710694826038</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02920256954713303</v>
+        <v>1.111946062086297</v>
       </c>
       <c r="M32" t="n">
-        <v>0.08275832592575103</v>
+        <v>7.880488515688974</v>
       </c>
       <c r="N32" t="n">
-        <v>59.4924179028753</v>
+        <v>108.8432624842059</v>
       </c>
       <c r="O32" t="n">
-        <v>0.2189689898748548</v>
+        <v>9.189478635829966</v>
       </c>
       <c r="P32" t="n">
-        <v>0.006455626124561932</v>
+        <v>98.50721058524194</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2430.343700884845</v>
       </c>
       <c r="R32" t="n">
-        <v>0.2481715594219878</v>
+        <v>25.66077038312877</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9130397002391087</v>
+        <v>313.61328403453</v>
       </c>
       <c r="T32" t="n">
-        <v>83.89867236800386</v>
+        <v>5970.734258012134</v>
       </c>
       <c r="U32" t="n">
-        <v>19</v>
+        <v>465</v>
       </c>
       <c r="V32" t="n">
-        <v>21</v>
+        <v>530</v>
       </c>
       <c r="W32" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="X32" t="n">
-        <v>4.593863068673279</v>
+        <v>1026.022784565902</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.01902329632814332</v>
+        <v>0.3665071340122938</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.01592184590735177</v>
+        <v>0.9933294898347585</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.244819183197026</v>
+        <v>296.5195519851801</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.08723974009269038</v>
+        <v>3245.399276241457</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.01115485507677245</v>
+        <v>7.756348079299044</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>-233.6628454358969</v>
       </c>
       <c r="AE32" t="n">
-        <v>-24.80589667011246</v>
+        <v>300.1741532298902</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>-684.907672352064</v>
       </c>
       <c r="AG32" t="n">
-        <v>-0.1897664203277218</v>
+        <v>-8.077532573743676</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.07630269980118909</v>
+        <v>-90.62672206955298</v>
       </c>
       <c r="AI32" t="n">
-        <v>59.4924179028753</v>
+        <v>-2321.500438400638</v>
       </c>
     </row>
     <row r="33">
@@ -3809,106 +3809,106 @@
         <v>30</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>9.931957967666859</v>
+        <v>10.44775088684252</v>
       </c>
       <c r="E33" t="n">
-        <v>109.2016740255957</v>
+        <v>116.761031730663</v>
       </c>
       <c r="F33" t="n">
-        <v>2541.821094286912</v>
+        <v>2635.444735951334</v>
       </c>
       <c r="G33" t="n">
-        <v>449420.7744118353</v>
+        <v>389233.8793726482</v>
       </c>
       <c r="H33" t="n">
-        <v>449783.917062412</v>
+        <v>413561.534791411</v>
       </c>
       <c r="I33" t="n">
-        <v>183.9287139812832</v>
+        <v>40122.50857129061</v>
       </c>
       <c r="J33" t="n">
-        <v>183.9287139812832</v>
+        <v>17619.5806134451</v>
       </c>
       <c r="K33" t="n">
-        <v>183.9287139812832</v>
+        <v>-7755.898616816266</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02920256954713303</v>
+        <v>1.992140335035873</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>7.933297954743326</v>
       </c>
       <c r="N33" t="n">
-        <v>59.4924179028753</v>
+        <v>230.5834671604196</v>
       </c>
       <c r="O33" t="n">
-        <v>0.2189689898748548</v>
+        <v>7.95729798072312</v>
       </c>
       <c r="P33" t="n">
-        <v>0.006455626124561932</v>
+        <v>53.17993329429243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.04526276504436452</v>
+        <v>1734.034823290463</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2481715594219878</v>
+        <v>27.36542801440572</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9130397002391087</v>
+        <v>314.1217618375062</v>
       </c>
       <c r="T33" t="n">
-        <v>83.94393513304823</v>
+        <v>6181.855845379342</v>
       </c>
       <c r="U33" t="n">
-        <v>21</v>
+        <v>498</v>
       </c>
       <c r="V33" t="n">
-        <v>22</v>
+        <v>554</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="X33" t="n">
-        <v>4.605395889180572</v>
+        <v>1053.539984603121</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.02060132689412228</v>
+        <v>0.3858388004040815</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.01617012088512903</v>
+        <v>1.003001250817635</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.246452723805457</v>
+        <v>302.221519473785</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.08723974009269038</v>
+        <v>3246.264324325569</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.01115485507677245</v>
+        <v>9.415489090372434</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>-3129.82945781037</v>
       </c>
       <c r="AE33" t="n">
-        <v>-24.80589667011246</v>
+        <v>-2258.293242180572</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>-0.2025654507005736</v>
       </c>
       <c r="AG33" t="n">
-        <v>-0.1897664203277218</v>
+        <v>-5.965157645687254</v>
       </c>
       <c r="AH33" t="n">
-        <v>-0.006455626124561932</v>
+        <v>-45.24663533954912</v>
       </c>
       <c r="AI33" t="n">
-        <v>59.44715513783093</v>
+        <v>-1503.451356130042</v>
       </c>
     </row>
     <row r="34">
@@ -3916,106 +3916,106 @@
         <v>31</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>9.931957967666859</v>
+        <v>10.44775088684252</v>
       </c>
       <c r="E34" t="n">
-        <v>109.2016740255957</v>
+        <v>116.761031730663</v>
       </c>
       <c r="F34" t="n">
-        <v>2541.821094286912</v>
+        <v>2635.444735951334</v>
       </c>
       <c r="G34" t="n">
-        <v>449420.7744118353</v>
+        <v>389563.9484987684</v>
       </c>
       <c r="H34" t="n">
-        <v>449783.917062412</v>
+        <v>413561.534791411</v>
       </c>
       <c r="I34" t="n">
-        <v>183.9287139812832</v>
+        <v>40122.50857129061</v>
       </c>
       <c r="J34" t="n">
-        <v>183.9287139812832</v>
+        <v>17619.5806134451</v>
       </c>
       <c r="K34" t="n">
-        <v>183.9287139812832</v>
+        <v>-7755.898616816266</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02920256954713303</v>
+        <v>1.992140335035873</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>7.933297954743326</v>
       </c>
       <c r="N34" t="n">
-        <v>59.4924179028753</v>
+        <v>230.5834671604196</v>
       </c>
       <c r="O34" t="n">
-        <v>0.2189689898748548</v>
+        <v>7.95729798072312</v>
       </c>
       <c r="P34" t="n">
-        <v>0.006455626124561932</v>
+        <v>53.17993329429243</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.04526276504436452</v>
+        <v>1734.034823290463</v>
       </c>
       <c r="R34" t="n">
-        <v>0.2481715594219878</v>
+        <v>27.36542801440572</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9130397002391087</v>
+        <v>314.1217618375062</v>
       </c>
       <c r="T34" t="n">
-        <v>83.94393513304823</v>
+        <v>6181.855845379342</v>
       </c>
       <c r="U34" t="n">
-        <v>21</v>
+        <v>498</v>
       </c>
       <c r="V34" t="n">
-        <v>22</v>
+        <v>554</v>
       </c>
       <c r="W34" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="X34" t="n">
-        <v>4.605395889180572</v>
+        <v>1053.539984603121</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.02060132689412228</v>
+        <v>0.3858388004040815</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.01617012088512903</v>
+        <v>1.003001250817635</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.246452723805457</v>
+        <v>302.221519473785</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.08723974009269038</v>
+        <v>3254.727635251728</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.01115485507677245</v>
+        <v>9.415489090372434</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>-3129.82945781037</v>
       </c>
       <c r="AE34" t="n">
-        <v>-24.80589667011246</v>
+        <v>-2258.293242180572</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>-0.2025654507005736</v>
       </c>
       <c r="AG34" t="n">
-        <v>-0.1897664203277218</v>
+        <v>-5.965157645687254</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.006455626124561932</v>
+        <v>-45.24663533954912</v>
       </c>
       <c r="AI34" t="n">
-        <v>59.44715513783093</v>
+        <v>-1503.451356130042</v>
       </c>
     </row>
     <row r="35">
@@ -4023,106 +4023,106 @@
         <v>32</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>9.931957967666859</v>
+        <v>10.53086477510476</v>
       </c>
       <c r="E35" t="n">
-        <v>109.2016740255957</v>
+        <v>117.9228338490946</v>
       </c>
       <c r="F35" t="n">
-        <v>2541.821094286912</v>
+        <v>2638.754859889357</v>
       </c>
       <c r="G35" t="n">
-        <v>449420.7744118353</v>
+        <v>387577.4600767865</v>
       </c>
       <c r="H35" t="n">
-        <v>449783.917062412</v>
+        <v>406969.1324314345</v>
       </c>
       <c r="I35" t="n">
-        <v>183.9287139812832</v>
+        <v>41023.64757674289</v>
       </c>
       <c r="J35" t="n">
-        <v>183.9287139812832</v>
+        <v>17619.5806134451</v>
       </c>
       <c r="K35" t="n">
-        <v>183.9287139812832</v>
+        <v>-7359.640827481939</v>
       </c>
       <c r="L35" t="n">
-        <v>0.02920256954713303</v>
+        <v>1.385944554733979</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>10.18742865537628</v>
       </c>
       <c r="N35" t="n">
-        <v>59.4924179028753</v>
+        <v>213.4070413375156</v>
       </c>
       <c r="O35" t="n">
-        <v>0.2218186181169236</v>
+        <v>9.089527925667811</v>
       </c>
       <c r="P35" t="n">
-        <v>0.006455626124561932</v>
+        <v>86.23458863005985</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.04526276504436452</v>
+        <v>1284.615121395302</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2510211876640567</v>
+        <v>29.07893168025031</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9130397002391087</v>
+        <v>350.2767318872162</v>
       </c>
       <c r="T35" t="n">
-        <v>83.94393513304823</v>
+        <v>6200.042934869585</v>
       </c>
       <c r="U35" t="n">
-        <v>22</v>
+        <v>523</v>
       </c>
       <c r="V35" t="n">
-        <v>23</v>
+        <v>588</v>
       </c>
       <c r="W35" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="X35" t="n">
-        <v>4.615896438618727</v>
+        <v>1061.40443437961</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.02375149172556893</v>
+        <v>0.3985187869286174</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01617012088512903</v>
+        <v>1.031275044292527</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.246452723805457</v>
+        <v>303.1330216078215</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.08723974009269038</v>
+        <v>3254.936476955367</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.01115485507677245</v>
+        <v>10.61352640564486</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>97.47219709519777</v>
       </c>
       <c r="AE35" t="n">
-        <v>-24.80589667011246</v>
+        <v>-0.8194286891564388</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>44.12823292694338</v>
       </c>
       <c r="AG35" t="n">
-        <v>-0.1926160485697906</v>
+        <v>-7.703583370933838</v>
       </c>
       <c r="AH35" t="n">
-        <v>-0.006455626124561932</v>
+        <v>-76.04715997468358</v>
       </c>
       <c r="AI35" t="n">
-        <v>59.44715513783093</v>
+        <v>-1071.208080057786</v>
       </c>
     </row>
     <row r="36">
@@ -4130,106 +4130,106 @@
         <v>33</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>9.931957967666859</v>
+        <v>10.53086477510476</v>
       </c>
       <c r="E36" t="n">
-        <v>109.2016740255957</v>
+        <v>117.9228338490946</v>
       </c>
       <c r="F36" t="n">
-        <v>2541.821094286912</v>
+        <v>2638.754859889357</v>
       </c>
       <c r="G36" t="n">
-        <v>449420.7744118353</v>
+        <v>387885.9585816869</v>
       </c>
       <c r="H36" t="n">
-        <v>449783.917062412</v>
+        <v>406969.1324314345</v>
       </c>
       <c r="I36" t="n">
-        <v>183.9287139812832</v>
+        <v>41023.64757674289</v>
       </c>
       <c r="J36" t="n">
-        <v>183.9287139812832</v>
+        <v>17619.5806134451</v>
       </c>
       <c r="K36" t="n">
-        <v>183.9287139812832</v>
+        <v>-7359.640827481939</v>
       </c>
       <c r="L36" t="n">
-        <v>0.02920256954713303</v>
+        <v>1.385944554733979</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>10.18742865537628</v>
       </c>
       <c r="N36" t="n">
-        <v>59.4924179028753</v>
+        <v>213.4070413375156</v>
       </c>
       <c r="O36" t="n">
-        <v>0.2218186181169236</v>
+        <v>9.089527925667811</v>
       </c>
       <c r="P36" t="n">
-        <v>0.006455626124561932</v>
+        <v>86.23458863005985</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.04526276504436452</v>
+        <v>1284.615121395302</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2510211876640567</v>
+        <v>29.07893168025031</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9130397002391087</v>
+        <v>350.2767318872162</v>
       </c>
       <c r="T36" t="n">
-        <v>83.94393513304823</v>
+        <v>6200.042934869585</v>
       </c>
       <c r="U36" t="n">
-        <v>22</v>
+        <v>523</v>
       </c>
       <c r="V36" t="n">
-        <v>23</v>
+        <v>588</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="X36" t="n">
-        <v>4.615896438618727</v>
+        <v>1061.40443437961</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.02375149172556893</v>
+        <v>0.3985187869286174</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.01617012088512903</v>
+        <v>1.031275044292527</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.246452723805457</v>
+        <v>303.1330216078215</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.08723974009269038</v>
+        <v>3262.846695029735</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.01115485507677245</v>
+        <v>10.61352640564486</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>97.47219709519777</v>
       </c>
       <c r="AE36" t="n">
-        <v>-24.80589667011246</v>
+        <v>-0.8194286891564388</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>44.12823292694338</v>
       </c>
       <c r="AG36" t="n">
-        <v>-0.1926160485697906</v>
+        <v>-7.703583370933838</v>
       </c>
       <c r="AH36" t="n">
-        <v>-0.006455626124561932</v>
+        <v>-76.04715997468358</v>
       </c>
       <c r="AI36" t="n">
-        <v>59.44715513783093</v>
+        <v>-1071.208080057786</v>
       </c>
     </row>
     <row r="37">
@@ -4237,106 +4237,106 @@
         <v>34</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>9.932066785138028</v>
+        <v>10.5653311602356</v>
       </c>
       <c r="E37" t="n">
-        <v>109.2016740255957</v>
+        <v>118.4806656766589</v>
       </c>
       <c r="F37" t="n">
-        <v>2541.821094286912</v>
+        <v>2648.371860863803</v>
       </c>
       <c r="G37" t="n">
-        <v>449420.7744118353</v>
+        <v>379723.3074901763</v>
       </c>
       <c r="H37" t="n">
-        <v>449779.3104759637</v>
+        <v>407256.518459279</v>
       </c>
       <c r="I37" t="n">
-        <v>183.9287139812832</v>
+        <v>44336.89212245062</v>
       </c>
       <c r="J37" t="n">
-        <v>183.9287139812832</v>
+        <v>17268.91629620187</v>
       </c>
       <c r="K37" t="n">
-        <v>183.9287139812832</v>
+        <v>-7379.583242877678</v>
       </c>
       <c r="L37" t="n">
-        <v>0.02920256954713303</v>
+        <v>1.389317865690596</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>8.485856113105184</v>
       </c>
       <c r="N37" t="n">
-        <v>59.4924179028753</v>
+        <v>168.2149781135884</v>
       </c>
       <c r="O37" t="n">
-        <v>0.2218186181169236</v>
+        <v>8.444569683493683</v>
       </c>
       <c r="P37" t="n">
-        <v>0.006455626124561932</v>
+        <v>94.59145918554</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.04526276504436452</v>
+        <v>1177.005203778731</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2510211876640567</v>
+        <v>29.7547439544804</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9130397002391087</v>
+        <v>358.9173283439183</v>
       </c>
       <c r="T37" t="n">
-        <v>83.94393513304823</v>
+        <v>6300.05699404975</v>
       </c>
       <c r="U37" t="n">
-        <v>22</v>
+        <v>550</v>
       </c>
       <c r="V37" t="n">
-        <v>24</v>
+        <v>619</v>
       </c>
       <c r="W37" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="X37" t="n">
-        <v>4.626636080788884</v>
+        <v>1089.602401952697</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02532207840258646</v>
+        <v>0.4112079852974453</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01617012088512903</v>
+        <v>1.045837338203907</v>
       </c>
       <c r="AA37" t="n">
-        <v>1.246452723805457</v>
+        <v>311.0972923005434</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.08723974009269038</v>
+        <v>3262.883632166076</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.01280616105080183</v>
+        <v>11.04445735622604</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>-4237.102674786953</v>
       </c>
       <c r="AE37" t="n">
-        <v>-24.80589667011246</v>
+        <v>62.72730116560854</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>-550.7212922742833</v>
       </c>
       <c r="AG37" t="n">
-        <v>-0.1926160485697906</v>
+        <v>-7.05525181780309</v>
       </c>
       <c r="AH37" t="n">
-        <v>-0.006455626124561932</v>
+        <v>-86.10560307243483</v>
       </c>
       <c r="AI37" t="n">
-        <v>59.44715513783093</v>
+        <v>-1008.790225665141</v>
       </c>
     </row>
     <row r="38">
@@ -4344,106 +4344,106 @@
         <v>35</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>9.932066785138028</v>
+        <v>10.5653311602356</v>
       </c>
       <c r="E38" t="n">
-        <v>109.2016740255957</v>
+        <v>118.4806656766589</v>
       </c>
       <c r="F38" t="n">
-        <v>2541.821094286912</v>
+        <v>2648.371860863803</v>
       </c>
       <c r="G38" t="n">
-        <v>449420.7744118353</v>
+        <v>380013.6861755698</v>
       </c>
       <c r="H38" t="n">
-        <v>449779.3104759637</v>
+        <v>407256.518459279</v>
       </c>
       <c r="I38" t="n">
-        <v>183.9287139812832</v>
+        <v>44336.89212245062</v>
       </c>
       <c r="J38" t="n">
-        <v>183.9287139812832</v>
+        <v>17268.91629620187</v>
       </c>
       <c r="K38" t="n">
-        <v>183.9287139812832</v>
+        <v>-7379.583242877678</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02920256954713303</v>
+        <v>1.389317865690596</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>8.485856113105184</v>
       </c>
       <c r="N38" t="n">
-        <v>59.4924179028753</v>
+        <v>168.2149781135884</v>
       </c>
       <c r="O38" t="n">
-        <v>0.2218186181169236</v>
+        <v>8.444569683493683</v>
       </c>
       <c r="P38" t="n">
-        <v>0.006455626124561932</v>
+        <v>94.59145918554</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.04526276504436452</v>
+        <v>1177.005203778731</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2510211876640567</v>
+        <v>29.7547439544804</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9130397002391087</v>
+        <v>358.9173283439183</v>
       </c>
       <c r="T38" t="n">
-        <v>83.94393513304823</v>
+        <v>6300.05699404975</v>
       </c>
       <c r="U38" t="n">
-        <v>22</v>
+        <v>550</v>
       </c>
       <c r="V38" t="n">
-        <v>24</v>
+        <v>619</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="X38" t="n">
-        <v>4.626636080788884</v>
+        <v>1089.602401952697</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.02532207840258646</v>
+        <v>0.4112079852974453</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.01617012088512903</v>
+        <v>1.045837338203907</v>
       </c>
       <c r="AA38" t="n">
-        <v>1.246452723805457</v>
+        <v>311.0972923005434</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.08723974009269038</v>
+        <v>3270.329239483859</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.01280616105080183</v>
+        <v>11.04445735622604</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>-4237.102674786953</v>
       </c>
       <c r="AE38" t="n">
-        <v>-24.80589667011246</v>
+        <v>62.72730116560854</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>-550.7212922742833</v>
       </c>
       <c r="AG38" t="n">
-        <v>-0.1926160485697906</v>
+        <v>-7.05525181780309</v>
       </c>
       <c r="AH38" t="n">
-        <v>-0.006455626124561932</v>
+        <v>-86.10560307243483</v>
       </c>
       <c r="AI38" t="n">
-        <v>59.44715513783093</v>
+        <v>-1008.790225665141</v>
       </c>
     </row>
     <row r="39">
@@ -4451,106 +4451,106 @@
         <v>36</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>9.932066785138028</v>
+        <v>10.60575058552497</v>
       </c>
       <c r="E39" t="n">
-        <v>109.2016740255957</v>
+        <v>118.2470962469659</v>
       </c>
       <c r="F39" t="n">
-        <v>2535.987289686373</v>
+        <v>2725.541986663385</v>
       </c>
       <c r="G39" t="n">
-        <v>450215.1535063742</v>
+        <v>358468.4571155419</v>
       </c>
       <c r="H39" t="n">
-        <v>449779.3104759637</v>
+        <v>407435.8651067704</v>
       </c>
       <c r="I39" t="n">
-        <v>183.9287139812832</v>
+        <v>54375.10608704867</v>
       </c>
       <c r="J39" t="n">
-        <v>183.9287139812832</v>
+        <v>17268.91629620187</v>
       </c>
       <c r="K39" t="n">
-        <v>183.9287139812832</v>
+        <v>-7379.583242877678</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02920256954713303</v>
+        <v>0.5954616035233995</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>6.498633407191151</v>
       </c>
       <c r="N39" t="n">
-        <v>59.4924179028753</v>
+        <v>159.5669916387692</v>
       </c>
       <c r="O39" t="n">
-        <v>0.2218186181169236</v>
+        <v>7.67470069897412</v>
       </c>
       <c r="P39" t="n">
-        <v>0.006455626124561932</v>
+        <v>102.9920848262839</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.1876553677220388</v>
+        <v>1710.403916083573</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2510211876640567</v>
+        <v>30.60898958128798</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9130397002391087</v>
+        <v>378.74792046287</v>
       </c>
       <c r="T39" t="n">
-        <v>84.0863277357259</v>
+        <v>7274.31801624455</v>
       </c>
       <c r="U39" t="n">
-        <v>23</v>
+        <v>584</v>
       </c>
       <c r="V39" t="n">
-        <v>26</v>
+        <v>644</v>
       </c>
       <c r="W39" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="X39" t="n">
-        <v>4.646063654522647</v>
+        <v>1095.424437994748</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.02532207840258646</v>
+        <v>0.4296556458804881</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.01932054319225331</v>
+        <v>1.082508123345061</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.247775649221221</v>
+        <v>311.4307305462162</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.08859466448993168</v>
+        <v>3271.242495378206</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.01280616105080183</v>
+        <v>11.48925558309703</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>839.398080356078</v>
       </c>
       <c r="AE39" t="n">
-        <v>-24.80589667011246</v>
+        <v>176.330668173759</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>-623.0620011338901</v>
       </c>
       <c r="AG39" t="n">
-        <v>-0.1926160485697906</v>
+        <v>-7.079239095450723</v>
       </c>
       <c r="AH39" t="n">
-        <v>-0.006455626124561932</v>
+        <v>-96.49345141909276</v>
       </c>
       <c r="AI39" t="n">
-        <v>59.30476253515326</v>
+        <v>-1550.836924444803</v>
       </c>
     </row>
     <row r="40">
@@ -4558,106 +4558,106 @@
         <v>37</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>9.932066785138028</v>
+        <v>10.60575058552497</v>
       </c>
       <c r="E40" t="n">
-        <v>109.2016740255957</v>
+        <v>118.2470962469659</v>
       </c>
       <c r="F40" t="n">
-        <v>2535.987289686373</v>
+        <v>2725.541986663385</v>
       </c>
       <c r="G40" t="n">
-        <v>450215.1535063742</v>
+        <v>358738.6824430191</v>
       </c>
       <c r="H40" t="n">
-        <v>449779.3104759637</v>
+        <v>407435.8651067704</v>
       </c>
       <c r="I40" t="n">
-        <v>183.9287139812832</v>
+        <v>54375.10608704867</v>
       </c>
       <c r="J40" t="n">
-        <v>183.9287139812832</v>
+        <v>17268.91629620187</v>
       </c>
       <c r="K40" t="n">
-        <v>183.9287139812832</v>
+        <v>-7379.583242877678</v>
       </c>
       <c r="L40" t="n">
-        <v>0.02920256954713303</v>
+        <v>0.5954616035233995</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>6.498633407191151</v>
       </c>
       <c r="N40" t="n">
-        <v>59.4924179028753</v>
+        <v>159.5669916387692</v>
       </c>
       <c r="O40" t="n">
-        <v>0.2218186181169236</v>
+        <v>7.67470069897412</v>
       </c>
       <c r="P40" t="n">
-        <v>0.006455626124561932</v>
+        <v>102.9920848262839</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.1876553677220388</v>
+        <v>1710.403916083573</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2510211876640567</v>
+        <v>30.60898958128798</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9130397002391087</v>
+        <v>378.74792046287</v>
       </c>
       <c r="T40" t="n">
-        <v>84.0863277357259</v>
+        <v>7274.31801624455</v>
       </c>
       <c r="U40" t="n">
-        <v>23</v>
+        <v>584</v>
       </c>
       <c r="V40" t="n">
-        <v>26</v>
+        <v>644</v>
       </c>
       <c r="W40" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="X40" t="n">
-        <v>4.646063654522647</v>
+        <v>1095.424437994748</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.02532207840258646</v>
+        <v>0.4296556458804881</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.01932054319225331</v>
+        <v>1.082508123345061</v>
       </c>
       <c r="AA40" t="n">
-        <v>1.247775649221221</v>
+        <v>311.4307305462162</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.08859466448993168</v>
+        <v>3278.171349928906</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.01280616105080183</v>
+        <v>11.48925558309703</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>839.398080356078</v>
       </c>
       <c r="AE40" t="n">
-        <v>-24.80589667011246</v>
+        <v>176.330668173759</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>-623.0620011338901</v>
       </c>
       <c r="AG40" t="n">
-        <v>-0.1926160485697906</v>
+        <v>-7.079239095450723</v>
       </c>
       <c r="AH40" t="n">
-        <v>-0.006455626124561932</v>
+        <v>-96.49345141909276</v>
       </c>
       <c r="AI40" t="n">
-        <v>59.30476253515326</v>
+        <v>-1550.836924444803</v>
       </c>
     </row>
     <row r="41">
@@ -4665,106 +4665,106 @@
         <v>38</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>9.931066122855443</v>
+        <v>10.61258638309419</v>
       </c>
       <c r="E41" t="n">
-        <v>109.2128448101583</v>
+        <v>118.9210643148733</v>
       </c>
       <c r="F41" t="n">
-        <v>2535.987289686373</v>
+        <v>2728.307294907332</v>
       </c>
       <c r="G41" t="n">
-        <v>450221.0739956938</v>
+        <v>350425.8535796637</v>
       </c>
       <c r="H41" t="n">
-        <v>449779.1238194008</v>
+        <v>408579.2239840418</v>
       </c>
       <c r="I41" t="n">
-        <v>183.9287139812832</v>
+        <v>58760.16964785617</v>
       </c>
       <c r="J41" t="n">
-        <v>183.9287139812832</v>
+        <v>20711.20479754353</v>
       </c>
       <c r="K41" t="n">
-        <v>183.9287139812832</v>
+        <v>-7379.583242877678</v>
       </c>
       <c r="L41" t="n">
-        <v>0.02920256954713303</v>
+        <v>0.5693685267233666</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.906923341550538</v>
       </c>
       <c r="N41" t="n">
-        <v>59.4924179028753</v>
+        <v>123.5922844568606</v>
       </c>
       <c r="O41" t="n">
-        <v>0.2218186181169236</v>
+        <v>8.704882902049917</v>
       </c>
       <c r="P41" t="n">
-        <v>0.008144068771714582</v>
+        <v>106.0612401849245</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.1876553677220388</v>
+        <v>1798.941241783741</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2510211876640567</v>
+        <v>31.63917178436378</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9147281428862614</v>
+        <v>397.9973892576684</v>
       </c>
       <c r="T41" t="n">
-        <v>84.0863277357259</v>
+        <v>7498.786188360267</v>
       </c>
       <c r="U41" t="n">
-        <v>24</v>
+        <v>614</v>
       </c>
       <c r="V41" t="n">
-        <v>29</v>
+        <v>668</v>
       </c>
       <c r="W41" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="X41" t="n">
-        <v>4.677447087514342</v>
+        <v>1100.595207095224</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.0269048454502881</v>
+        <v>0.4496568005318375</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.0210347273254011</v>
+        <v>1.087594095514024</v>
       </c>
       <c r="AA41" t="n">
-        <v>1.247775649221221</v>
+        <v>312.5386890988378</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.09298269197141902</v>
+        <v>3278.565285376008</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.01453621228597342</v>
+        <v>11.51350518669679</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>-470.8835013483256</v>
       </c>
       <c r="AE41" t="n">
-        <v>-24.80589667011246</v>
+        <v>-3989.694507324331</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>109.4002784842628</v>
       </c>
       <c r="AG41" t="n">
-        <v>-0.1926160485697906</v>
+        <v>-8.135514375326553</v>
       </c>
       <c r="AH41" t="n">
-        <v>-0.008144068771714582</v>
+        <v>-101.1543168433739</v>
       </c>
       <c r="AI41" t="n">
-        <v>59.30476253515326</v>
+        <v>-1675.34895732688</v>
       </c>
     </row>
     <row r="42">
@@ -4772,106 +4772,106 @@
         <v>39</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
-        <v>9.931066122855443</v>
+        <v>10.61258638309419</v>
       </c>
       <c r="E42" t="n">
-        <v>109.2128448101583</v>
+        <v>118.9210643148733</v>
       </c>
       <c r="F42" t="n">
-        <v>2535.987289686373</v>
+        <v>2728.307294907332</v>
       </c>
       <c r="G42" t="n">
-        <v>450221.0739956938</v>
+        <v>350677.0902462129</v>
       </c>
       <c r="H42" t="n">
-        <v>449779.1238194008</v>
+        <v>408579.2239840418</v>
       </c>
       <c r="I42" t="n">
-        <v>183.9287139812832</v>
+        <v>58760.16964785617</v>
       </c>
       <c r="J42" t="n">
-        <v>183.9287139812832</v>
+        <v>20711.20479754353</v>
       </c>
       <c r="K42" t="n">
-        <v>183.9287139812832</v>
+        <v>-7379.583242877678</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02920256954713303</v>
+        <v>0.5693685267233666</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>4.906923341550538</v>
       </c>
       <c r="N42" t="n">
-        <v>59.4924179028753</v>
+        <v>123.5922844568606</v>
       </c>
       <c r="O42" t="n">
-        <v>0.2218186181169236</v>
+        <v>8.704882902049917</v>
       </c>
       <c r="P42" t="n">
-        <v>0.008144068771714582</v>
+        <v>106.0612401849245</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.1876553677220388</v>
+        <v>1798.941241783741</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2510211876640567</v>
+        <v>31.63917178436378</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9147281428862614</v>
+        <v>397.9973892576684</v>
       </c>
       <c r="T42" t="n">
-        <v>84.0863277357259</v>
+        <v>7498.786188360267</v>
       </c>
       <c r="U42" t="n">
-        <v>24</v>
+        <v>614</v>
       </c>
       <c r="V42" t="n">
-        <v>29</v>
+        <v>668</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="X42" t="n">
-        <v>4.677447087514342</v>
+        <v>1100.595207095224</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.0269048454502881</v>
+        <v>0.4496568005318375</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.0210347273254011</v>
+        <v>1.087594095514024</v>
       </c>
       <c r="AA42" t="n">
-        <v>1.247775649221221</v>
+        <v>312.5386890988378</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.09298269197141902</v>
+        <v>3285.00725118496</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.01453621228597342</v>
+        <v>11.51350518669679</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>-470.8835013483256</v>
       </c>
       <c r="AE42" t="n">
-        <v>-24.80589667011246</v>
+        <v>-3989.694507324331</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>109.4002784842628</v>
       </c>
       <c r="AG42" t="n">
-        <v>-0.1926160485697906</v>
+        <v>-8.135514375326553</v>
       </c>
       <c r="AH42" t="n">
-        <v>-0.008144068771714582</v>
+        <v>-101.1543168433739</v>
       </c>
       <c r="AI42" t="n">
-        <v>59.30476253515326</v>
+        <v>-1675.34895732688</v>
       </c>
     </row>
     <row r="43">
@@ -4879,106 +4879,106 @@
         <v>40</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>9.933046870866811</v>
+        <v>10.62687893434801</v>
       </c>
       <c r="E43" t="n">
-        <v>109.2375335622838</v>
+        <v>119.513405767293</v>
       </c>
       <c r="F43" t="n">
-        <v>2535.987289686373</v>
+        <v>2741.741899408702</v>
       </c>
       <c r="G43" t="n">
-        <v>450154.5863575673</v>
+        <v>348593.2651354267</v>
       </c>
       <c r="H43" t="n">
-        <v>449779.1238194008</v>
+        <v>404318.1676593744</v>
       </c>
       <c r="I43" t="n">
-        <v>105.4341854007644</v>
+        <v>61253.19777583966</v>
       </c>
       <c r="J43" t="n">
-        <v>105.4341854007644</v>
+        <v>20711.20479754353</v>
       </c>
       <c r="K43" t="n">
-        <v>105.4341854007644</v>
+        <v>-7379.583242877678</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.4019318878883328</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>5.636357170090474</v>
       </c>
       <c r="N43" t="n">
-        <v>59.4924179028753</v>
+        <v>71.00416701796473</v>
       </c>
       <c r="O43" t="n">
-        <v>0.2218186181169236</v>
+        <v>10.01160957349612</v>
       </c>
       <c r="P43" t="n">
-        <v>0.008144068771714582</v>
+        <v>107.487713949758</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.1876553677220388</v>
+        <v>2010.120106101327</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2510211876640567</v>
+        <v>33.73740919642086</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9147281428862614</v>
+        <v>406.1220722646234</v>
       </c>
       <c r="T43" t="n">
-        <v>84.0863277357259</v>
+        <v>7710.862122358396</v>
       </c>
       <c r="U43" t="n">
-        <v>25</v>
+        <v>645</v>
       </c>
       <c r="V43" t="n">
-        <v>30</v>
+        <v>689</v>
       </c>
       <c r="W43" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="X43" t="n">
-        <v>4.693869623294643</v>
+        <v>1101.668836128003</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.0269924531589295</v>
+        <v>0.4644954063496713</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.02360473077419016</v>
+        <v>1.141660709405875</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.247775649221221</v>
+        <v>312.7294970453815</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.09525184154807874</v>
+        <v>3285.042287972129</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.01453621228597342</v>
+        <v>11.54084394310799</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>-137.5766901431725</v>
       </c>
       <c r="AE43" t="n">
-        <v>-24.80589667011246</v>
+        <v>341.2346513348799</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>-4086.630695367221</v>
       </c>
       <c r="AG43" t="n">
-        <v>-0.2218186181169236</v>
+        <v>-9.609677685607794</v>
       </c>
       <c r="AH43" t="n">
-        <v>-0.008144068771714582</v>
+        <v>-101.8513567796676</v>
       </c>
       <c r="AI43" t="n">
-        <v>59.30476253515326</v>
+        <v>-1939.115939083362</v>
       </c>
     </row>
   </sheetData>

--- a/run.xlsx
+++ b/run.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI43"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,60 +534,80 @@
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>fees_collected</t>
+          <t>fees_collected_btc</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
+        <is>
+          <t>fees_collected_eth</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>fees_collected_sol</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>fees_collected_usdc</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>fees_collected_usdt</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
         <is>
           <t>treasury_balance_btc</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>treasury_balance_eth</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>treasury_balance_sol</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>treasury_balance_usdc</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>treasury_balance_usdt</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>pool_pnl_btc</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>pool_pnl_eth</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>pool_pnl_sol</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>nominal_exposure_btc</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>nominal_exposure_eth</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>nominal_exposure_sol</t>
         </is>
@@ -602,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -698,6 +718,18 @@
         <v>0</v>
       </c>
       <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -709,7 +741,7 @@
         <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
@@ -805,6 +837,18 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -816,22 +860,22 @@
         <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>9.843431739102003</v>
+        <v>10.18134583279591</v>
       </c>
       <c r="E5" t="n">
-        <v>110.4230247487018</v>
+        <v>111.2779065534815</v>
       </c>
       <c r="F5" t="n">
-        <v>2494.274134427539</v>
+        <v>2530.294759070991</v>
       </c>
       <c r="G5" t="n">
-        <v>448845.1173645669</v>
+        <v>439587.5770872585</v>
       </c>
       <c r="H5" t="n">
-        <v>458055.8918678621</v>
+        <v>441668.966888408</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -843,34 +887,34 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.931436634837287</v>
+        <v>1.869416693993186</v>
       </c>
       <c r="M5" t="n">
-        <v>5.466311500889892</v>
+        <v>6.016035563527633</v>
       </c>
       <c r="N5" t="n">
-        <v>102.068199064828</v>
+        <v>165.7185966610813</v>
       </c>
       <c r="O5" t="n">
-        <v>1.89817714692128</v>
+        <v>1.826269572274508</v>
       </c>
       <c r="P5" t="n">
-        <v>62.27087628193496</v>
+        <v>53.13036775498339</v>
       </c>
       <c r="Q5" t="n">
-        <v>783.0681516867006</v>
+        <v>17.70002244443703</v>
       </c>
       <c r="R5" t="n">
-        <v>4.829613781758567</v>
+        <v>3.695686266267694</v>
       </c>
       <c r="S5" t="n">
-        <v>67.73718778282486</v>
+        <v>59.14640331851102</v>
       </c>
       <c r="T5" t="n">
-        <v>885.1363507515287</v>
+        <v>183.4186191055183</v>
       </c>
       <c r="U5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V5" t="n">
         <v>50</v>
@@ -879,40 +923,52 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>8.203797569607779</v>
+        <v>0.1037113344357787</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04599582198174769</v>
+        <v>0.1431468245391052</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.05201209937397393</v>
+        <v>15.69690966724916</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.285094018068153</v>
+        <v>0.1948602406234865</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.03825083811580921</v>
+        <v>0.1545591668770846</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.03978649334265045</v>
+        <v>0.03890753292651068</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>0.04658919953565571</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>4.716777517284272</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.04590042787007405</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.033259487916006</v>
+        <v>0.03978149250087228</v>
       </c>
       <c r="AH5" t="n">
-        <v>-56.80456478104507</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>-680.9999526218726</v>
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.04314712171867884</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-47.11433219145576</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>148.0185742166443</v>
       </c>
     </row>
     <row r="6">
@@ -923,22 +979,22 @@
         <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>9.843431739102003</v>
+        <v>10.18134583279591</v>
       </c>
       <c r="E6" t="n">
-        <v>110.4230247487018</v>
+        <v>111.2779065534815</v>
       </c>
       <c r="F6" t="n">
-        <v>2494.274134427539</v>
+        <v>2530.294759070991</v>
       </c>
       <c r="G6" t="n">
-        <v>448986.8155769293</v>
+        <v>439587.5770872585</v>
       </c>
       <c r="H6" t="n">
-        <v>458055.8918678621</v>
+        <v>441668.966888408</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -950,34 +1006,34 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.931436634837287</v>
+        <v>1.869416693993186</v>
       </c>
       <c r="M6" t="n">
-        <v>5.466311500889892</v>
+        <v>6.016035563527633</v>
       </c>
       <c r="N6" t="n">
-        <v>102.068199064828</v>
+        <v>165.7185966610813</v>
       </c>
       <c r="O6" t="n">
-        <v>1.89817714692128</v>
+        <v>1.826269572274508</v>
       </c>
       <c r="P6" t="n">
-        <v>62.27087628193496</v>
+        <v>53.13036775498339</v>
       </c>
       <c r="Q6" t="n">
-        <v>783.0681516867006</v>
+        <v>17.70002244443703</v>
       </c>
       <c r="R6" t="n">
-        <v>4.829613781758567</v>
+        <v>3.695686266267694</v>
       </c>
       <c r="S6" t="n">
-        <v>67.73718778282486</v>
+        <v>59.14640331851102</v>
       </c>
       <c r="T6" t="n">
-        <v>885.1363507515287</v>
+        <v>183.4186191055183</v>
       </c>
       <c r="U6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V6" t="n">
         <v>50</v>
@@ -986,40 +1042,52 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>8.203797569607779</v>
+        <v>0.1037113344357787</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04599582198174769</v>
+        <v>0.1431468245391052</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.05201209937397393</v>
+        <v>15.69690966724916</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.285094018068153</v>
+        <v>0.1948602406234865</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.671538334588626</v>
+        <v>0.1545591668770846</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.03978649334265045</v>
+        <v>0.03890753292651068</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.04658919953565571</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>4.716777517284272</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.04590042787007405</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.033259487916006</v>
+        <v>0.03978149250087228</v>
       </c>
       <c r="AH6" t="n">
-        <v>-56.80456478104507</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>-680.9999526218726</v>
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.04314712171867884</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-47.11433219145576</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>148.0185742166443</v>
       </c>
     </row>
     <row r="7">
@@ -1030,103 +1098,115 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>9.942011308667622</v>
+        <v>10.24001140601783</v>
       </c>
       <c r="E7" t="n">
-        <v>107.785423501005</v>
+        <v>109.4954769238246</v>
       </c>
       <c r="F7" t="n">
-        <v>2525.940549833143</v>
+        <v>2517.777241550461</v>
       </c>
       <c r="G7" t="n">
-        <v>444813.3501497665</v>
+        <v>439011.5551814944</v>
       </c>
       <c r="H7" t="n">
-        <v>464119.0661821073</v>
+        <v>448689.8393567461</v>
       </c>
       <c r="I7" t="n">
-        <v>-2012.462876451146</v>
+        <v>-287.1379577516781</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-1721.965564482371</v>
+        <v>-287.1379577516781</v>
       </c>
       <c r="L7" t="n">
-        <v>2.589410308288805</v>
+        <v>3.045278435906538</v>
       </c>
       <c r="M7" t="n">
-        <v>30.73741338141055</v>
+        <v>11.01045515688308</v>
       </c>
       <c r="N7" t="n">
-        <v>47.15479178148505</v>
+        <v>263.1546744211751</v>
       </c>
       <c r="O7" t="n">
-        <v>5.484848482906291</v>
+        <v>6.203372378400169</v>
       </c>
       <c r="P7" t="n">
-        <v>66.37648065983632</v>
+        <v>97.85225548658869</v>
       </c>
       <c r="Q7" t="n">
-        <v>1360.247935740992</v>
+        <v>151.9778085095693</v>
       </c>
       <c r="R7" t="n">
-        <v>8.946929884579498</v>
+        <v>9.248650814306705</v>
       </c>
       <c r="S7" t="n">
-        <v>97.11389404124687</v>
+        <v>108.8627106434718</v>
       </c>
       <c r="T7" t="n">
-        <v>1475.90791571263</v>
+        <v>450.6293983158802</v>
       </c>
       <c r="U7" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="V7" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>10.81915380917432</v>
+        <v>0.2648778151603117</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.102318612570884</v>
+        <v>0.3718067951498723</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3013203673320758</v>
+        <v>39.71475801509553</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.684507799450118</v>
+        <v>0.3074611641852634</v>
       </c>
       <c r="AB7" t="n">
-        <v>3.714383613504573</v>
+        <v>0.256821891580012</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.07650324636746274</v>
+        <v>0.08245978504565446</v>
       </c>
       <c r="AD7" t="n">
-        <v>-12.62026419557878</v>
+        <v>0.1095401284550829</v>
       </c>
       <c r="AE7" t="n">
-        <v>-93.58071500868573</v>
+        <v>11.92512444160667</v>
       </c>
       <c r="AF7" t="n">
-        <v>-2900.940533800289</v>
+        <v>0.07956120061713955</v>
       </c>
       <c r="AG7" t="n">
-        <v>-2.895438174617486</v>
+        <v>0.07803214862674328</v>
       </c>
       <c r="AH7" t="n">
-        <v>-35.63906727842576</v>
+        <v>13.56790070004217</v>
       </c>
       <c r="AI7" t="n">
-        <v>-1313.093143959507</v>
+        <v>-82.47196015757345</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>287.1379577516782</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-3.158093942493631</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-86.84180032970559</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>111.1768659116057</v>
       </c>
     </row>
     <row r="8">
@@ -1137,103 +1217,115 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>9.942011308667622</v>
+        <v>10.24001140601783</v>
       </c>
       <c r="E8" t="n">
-        <v>107.785423501005</v>
+        <v>109.4954769238246</v>
       </c>
       <c r="F8" t="n">
-        <v>2525.940549833143</v>
+        <v>2517.777241550461</v>
       </c>
       <c r="G8" t="n">
-        <v>444809.605989003</v>
+        <v>439011.5551814944</v>
       </c>
       <c r="H8" t="n">
-        <v>464119.0661821073</v>
+        <v>448689.8393567461</v>
       </c>
       <c r="I8" t="n">
-        <v>-2012.462876451146</v>
+        <v>-287.1379577516781</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-1721.965564482371</v>
+        <v>-287.1379577516781</v>
       </c>
       <c r="L8" t="n">
-        <v>2.589410308288805</v>
+        <v>3.045278435906538</v>
       </c>
       <c r="M8" t="n">
-        <v>30.73741338141055</v>
+        <v>11.01045515688308</v>
       </c>
       <c r="N8" t="n">
-        <v>47.15479178148505</v>
+        <v>263.1546744211751</v>
       </c>
       <c r="O8" t="n">
-        <v>5.484848482906291</v>
+        <v>6.203372378400169</v>
       </c>
       <c r="P8" t="n">
-        <v>66.37648065983632</v>
+        <v>97.85225548658869</v>
       </c>
       <c r="Q8" t="n">
-        <v>1360.247935740992</v>
+        <v>151.9778085095693</v>
       </c>
       <c r="R8" t="n">
-        <v>8.946929884579498</v>
+        <v>9.248650814306705</v>
       </c>
       <c r="S8" t="n">
-        <v>97.11389404124687</v>
+        <v>108.8627106434718</v>
       </c>
       <c r="T8" t="n">
-        <v>1475.90791571263</v>
+        <v>450.6293983158802</v>
       </c>
       <c r="U8" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="V8" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>10.81915380917432</v>
+        <v>0.2648778151603117</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.102318612570884</v>
+        <v>0.3718067951498723</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3013203673320758</v>
+        <v>39.71475801509553</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.684507799450118</v>
+        <v>0.3074611641852634</v>
       </c>
       <c r="AB8" t="n">
-        <v>143.777180704244</v>
+        <v>0.256821891580012</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.07650324636746274</v>
+        <v>0.08245978504565446</v>
       </c>
       <c r="AD8" t="n">
-        <v>-12.62026419557878</v>
+        <v>0.1095401284550829</v>
       </c>
       <c r="AE8" t="n">
-        <v>-93.58071500868573</v>
+        <v>11.92512444160667</v>
       </c>
       <c r="AF8" t="n">
-        <v>-2900.940533800289</v>
+        <v>0.07956120061713955</v>
       </c>
       <c r="AG8" t="n">
-        <v>-2.895438174617486</v>
+        <v>0.07803214862674328</v>
       </c>
       <c r="AH8" t="n">
-        <v>-35.63906727842576</v>
+        <v>13.56790070004217</v>
       </c>
       <c r="AI8" t="n">
-        <v>-1313.093143959507</v>
+        <v>-82.47196015757345</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>287.1379577516782</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-3.158093942493631</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-86.84180032970559</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>111.1768659116057</v>
       </c>
     </row>
     <row r="9">
@@ -1244,103 +1336,115 @@
         <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>10.05022961790274</v>
+        <v>10.11922583954843</v>
       </c>
       <c r="E9" t="n">
-        <v>106.25916709291</v>
+        <v>109.1840472315419</v>
       </c>
       <c r="F9" t="n">
-        <v>2568.52343292099</v>
+        <v>2590.744730899696</v>
       </c>
       <c r="G9" t="n">
-        <v>442118.0542207045</v>
+        <v>439309.3977738848</v>
       </c>
       <c r="H9" t="n">
-        <v>461425.2066577948</v>
+        <v>443715.9354373725</v>
       </c>
       <c r="I9" t="n">
-        <v>-3095.877295170013</v>
+        <v>-1148.290609208581</v>
       </c>
       <c r="J9" t="n">
-        <v>259.3289928985826</v>
+        <v>4.646047579679995</v>
       </c>
       <c r="K9" t="n">
-        <v>-1721.965564482371</v>
+        <v>-507.1216945043316</v>
       </c>
       <c r="L9" t="n">
-        <v>2.189704360352939</v>
+        <v>3.110117769182213</v>
       </c>
       <c r="M9" t="n">
-        <v>39.0405740109759</v>
+        <v>11.44473289056768</v>
       </c>
       <c r="N9" t="n">
-        <v>105.0525011273568</v>
+        <v>323.6013958828857</v>
       </c>
       <c r="O9" t="n">
-        <v>5.983900121506616</v>
+        <v>6.747211333111172</v>
       </c>
       <c r="P9" t="n">
-        <v>66.41699459038543</v>
+        <v>98.39895261880596</v>
       </c>
       <c r="Q9" t="n">
-        <v>2046.00165750179</v>
+        <v>261.5762458009872</v>
       </c>
       <c r="R9" t="n">
-        <v>10.04404965941407</v>
+        <v>10.49017494325002</v>
       </c>
       <c r="S9" t="n">
-        <v>120.4628439167821</v>
+        <v>110.4262537323918</v>
       </c>
       <c r="T9" t="n">
-        <v>2234.018896622646</v>
+        <v>622.848591542348</v>
       </c>
       <c r="U9" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="V9" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>16.43118209328781</v>
+        <v>0.3950903287123809</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1308258170780313</v>
+        <v>0.5066211948519427</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.4055248035010051</v>
+        <v>51.96531379734476</v>
       </c>
       <c r="AA9" t="n">
-        <v>4.13367101945432</v>
+        <v>0.4302967869233022</v>
       </c>
       <c r="AB9" t="n">
-        <v>143.8527972139894</v>
+        <v>0.4109500020306768</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1026203611758296</v>
+        <v>0.1153372714912202</v>
       </c>
       <c r="AD9" t="n">
-        <v>-867.3593302340689</v>
+        <v>0.1458349944155338</v>
       </c>
       <c r="AE9" t="n">
-        <v>-661.4007412496794</v>
+        <v>15.60456993123876</v>
       </c>
       <c r="AF9" t="n">
-        <v>49.67523239241382</v>
+        <v>0.1193420168951381</v>
       </c>
       <c r="AG9" t="n">
-        <v>-3.794195761153676</v>
+        <v>0.1273974189182588</v>
       </c>
       <c r="AH9" t="n">
-        <v>-27.37642057940951</v>
+        <v>-521.6987066255779</v>
       </c>
       <c r="AI9" t="n">
-        <v>-1940.949156374433</v>
+        <v>-473.7453251253332</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>109.7609080217585</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-3.637093563928959</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-86.95421972823826</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>62.02515008189845</v>
       </c>
     </row>
     <row r="10">
@@ -1351,103 +1455,115 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>10.05022961790274</v>
+        <v>10.11922583954843</v>
       </c>
       <c r="E10" t="n">
-        <v>106.25916709291</v>
+        <v>109.1840472315419</v>
       </c>
       <c r="F10" t="n">
-        <v>2568.52343292099</v>
+        <v>2590.744730899696</v>
       </c>
       <c r="G10" t="n">
-        <v>442871.7471257386</v>
+        <v>439309.3977738848</v>
       </c>
       <c r="H10" t="n">
-        <v>461425.2066577948</v>
+        <v>443715.9354373725</v>
       </c>
       <c r="I10" t="n">
-        <v>-3095.877295170013</v>
+        <v>-1148.290609208581</v>
       </c>
       <c r="J10" t="n">
-        <v>259.3289928985826</v>
+        <v>4.646047579679995</v>
       </c>
       <c r="K10" t="n">
-        <v>-1721.965564482371</v>
+        <v>-507.1216945043316</v>
       </c>
       <c r="L10" t="n">
-        <v>2.189704360352939</v>
+        <v>3.110117769182213</v>
       </c>
       <c r="M10" t="n">
-        <v>39.0405740109759</v>
+        <v>11.44473289056768</v>
       </c>
       <c r="N10" t="n">
-        <v>105.0525011273568</v>
+        <v>323.6013958828857</v>
       </c>
       <c r="O10" t="n">
-        <v>5.983900121506616</v>
+        <v>6.747211333111172</v>
       </c>
       <c r="P10" t="n">
-        <v>66.41699459038543</v>
+        <v>98.39895261880596</v>
       </c>
       <c r="Q10" t="n">
-        <v>2046.00165750179</v>
+        <v>261.5762458009872</v>
       </c>
       <c r="R10" t="n">
-        <v>10.04404965941407</v>
+        <v>10.49017494325002</v>
       </c>
       <c r="S10" t="n">
-        <v>120.4628439167821</v>
+        <v>110.4262537323918</v>
       </c>
       <c r="T10" t="n">
-        <v>2234.018896622646</v>
+        <v>622.848591542348</v>
       </c>
       <c r="U10" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="V10" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>16.43118209328781</v>
+        <v>0.3950903287123809</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1308258170780313</v>
+        <v>0.5066211948519427</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.4055248035010051</v>
+        <v>51.96531379734476</v>
       </c>
       <c r="AA10" t="n">
-        <v>4.13367101945432</v>
+        <v>0.4302967869233022</v>
       </c>
       <c r="AB10" t="n">
-        <v>163.1782563174273</v>
+        <v>0.4109500020306768</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.1026203611758296</v>
+        <v>0.1153372714912202</v>
       </c>
       <c r="AD10" t="n">
-        <v>-867.3593302340689</v>
+        <v>0.1458349944155338</v>
       </c>
       <c r="AE10" t="n">
-        <v>-661.4007412496794</v>
+        <v>15.60456993123876</v>
       </c>
       <c r="AF10" t="n">
-        <v>49.67523239241382</v>
+        <v>0.1193420168951381</v>
       </c>
       <c r="AG10" t="n">
-        <v>-3.794195761153676</v>
+        <v>0.1273974189182588</v>
       </c>
       <c r="AH10" t="n">
-        <v>-27.37642057940951</v>
+        <v>-521.6987066255779</v>
       </c>
       <c r="AI10" t="n">
-        <v>-1940.949156374433</v>
+        <v>-473.7453251253332</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>109.7609080217585</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-3.637093563928959</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-86.95421972823826</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>62.02515008189845</v>
       </c>
     </row>
     <row r="11">
@@ -1458,103 +1574,115 @@
         <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>10.10135946723163</v>
+        <v>10.1945601495901</v>
       </c>
       <c r="E11" t="n">
-        <v>106.3904613494421</v>
+        <v>109.7286082443503</v>
       </c>
       <c r="F11" t="n">
-        <v>2546.581379893723</v>
+        <v>2541.182531949089</v>
       </c>
       <c r="G11" t="n">
-        <v>452611.2631934872</v>
+        <v>445093.9353524381</v>
       </c>
       <c r="H11" t="n">
-        <v>459194.8068929985</v>
+        <v>446669.3523776102</v>
       </c>
       <c r="I11" t="n">
-        <v>-9635.689263280612</v>
+        <v>-6720.247221033161</v>
       </c>
       <c r="J11" t="n">
-        <v>259.3289928985826</v>
+        <v>130.4709961735423</v>
       </c>
       <c r="K11" t="n">
-        <v>-3718.050808810182</v>
+        <v>-2427.108996833475</v>
       </c>
       <c r="L11" t="n">
-        <v>1.764066137137765</v>
+        <v>2.543410583477057</v>
       </c>
       <c r="M11" t="n">
-        <v>33.47406905113493</v>
+        <v>7.009524502973396</v>
       </c>
       <c r="N11" t="n">
-        <v>78.92682346694185</v>
+        <v>182.0120025264346</v>
       </c>
       <c r="O11" t="n">
-        <v>7.855301347484646</v>
+        <v>7.429370863622861</v>
       </c>
       <c r="P11" t="n">
-        <v>65.65101806600609</v>
+        <v>102.1229698224801</v>
       </c>
       <c r="Q11" t="n">
-        <v>2435.415860391921</v>
+        <v>814.5702650435171</v>
       </c>
       <c r="R11" t="n">
-        <v>12.56252775912194</v>
+        <v>11.43050407486047</v>
       </c>
       <c r="S11" t="n">
-        <v>127.2383216092635</v>
+        <v>114.6320229092179</v>
       </c>
       <c r="T11" t="n">
-        <v>2630.002663830502</v>
+        <v>1233.033958988445</v>
       </c>
       <c r="U11" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="V11" t="n">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>17.87954950956315</v>
+        <v>0.5239447757684026</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1566877471516216</v>
+        <v>0.6864658697353573</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.4841660481112962</v>
+        <v>62.13939873449261</v>
       </c>
       <c r="AA11" t="n">
-        <v>4.381801668863203</v>
+        <v>0.533247840668861</v>
       </c>
       <c r="AB11" t="n">
-        <v>163.2140225588581</v>
+        <v>0.4932746013369157</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.148730520534753</v>
+        <v>0.1478974793935806</v>
       </c>
       <c r="AD11" t="n">
-        <v>3630.229544165223</v>
+        <v>0.195814271500819</v>
       </c>
       <c r="AE11" t="n">
-        <v>924.6964557047195</v>
+        <v>18.61384274580447</v>
       </c>
       <c r="AF11" t="n">
-        <v>-373.4566227445665</v>
+        <v>0.1575955035602739</v>
       </c>
       <c r="AG11" t="n">
-        <v>-6.091235210346881</v>
+        <v>0.1977495463414926</v>
       </c>
       <c r="AH11" t="n">
-        <v>-32.17694901487113</v>
+        <v>-857.729442387488</v>
       </c>
       <c r="AI11" t="n">
-        <v>-2356.489036924979</v>
+        <v>-809.1175049589342</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-3.000607475402148</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-4.885960280145803</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-95.11344531950667</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-632.5582625170825</v>
       </c>
     </row>
     <row r="12">
@@ -1565,103 +1693,115 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>10.10135946723163</v>
+        <v>10.1945601495901</v>
       </c>
       <c r="E12" t="n">
-        <v>106.3904613494421</v>
+        <v>109.7286082443503</v>
       </c>
       <c r="F12" t="n">
-        <v>2546.581379893723</v>
+        <v>2541.182531949089</v>
       </c>
       <c r="G12" t="n">
-        <v>452287.0273109827</v>
+        <v>445093.9353524381</v>
       </c>
       <c r="H12" t="n">
-        <v>459194.8068929985</v>
+        <v>446669.3523776102</v>
       </c>
       <c r="I12" t="n">
-        <v>-9635.689263280612</v>
+        <v>-6720.247221033161</v>
       </c>
       <c r="J12" t="n">
-        <v>259.3289928985826</v>
+        <v>130.4709961735423</v>
       </c>
       <c r="K12" t="n">
-        <v>-3718.050808810182</v>
+        <v>-2427.108996833475</v>
       </c>
       <c r="L12" t="n">
-        <v>1.764066137137765</v>
+        <v>2.543410583477057</v>
       </c>
       <c r="M12" t="n">
-        <v>33.47406905113493</v>
+        <v>7.009524502973396</v>
       </c>
       <c r="N12" t="n">
-        <v>78.92682346694185</v>
+        <v>182.0120025264346</v>
       </c>
       <c r="O12" t="n">
-        <v>7.855301347484646</v>
+        <v>7.429370863622861</v>
       </c>
       <c r="P12" t="n">
-        <v>65.65101806600609</v>
+        <v>102.1229698224801</v>
       </c>
       <c r="Q12" t="n">
-        <v>2435.415860391921</v>
+        <v>814.5702650435171</v>
       </c>
       <c r="R12" t="n">
-        <v>12.56252775912194</v>
+        <v>11.43050407486047</v>
       </c>
       <c r="S12" t="n">
-        <v>127.2383216092635</v>
+        <v>114.6320229092179</v>
       </c>
       <c r="T12" t="n">
-        <v>2630.002663830502</v>
+        <v>1233.033958988445</v>
       </c>
       <c r="U12" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="V12" t="n">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>17.87954950956315</v>
+        <v>0.5239447757684026</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1566877471516216</v>
+        <v>0.6864658697353573</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.4841660481112962</v>
+        <v>62.13939873449261</v>
       </c>
       <c r="AA12" t="n">
-        <v>4.381801668863203</v>
+        <v>0.533247840668861</v>
       </c>
       <c r="AB12" t="n">
-        <v>1211.257343797968</v>
+        <v>0.4932746013369157</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.148730520534753</v>
+        <v>0.1478974793935806</v>
       </c>
       <c r="AD12" t="n">
-        <v>3630.229544165223</v>
+        <v>0.195814271500819</v>
       </c>
       <c r="AE12" t="n">
-        <v>924.6964557047195</v>
+        <v>18.61384274580447</v>
       </c>
       <c r="AF12" t="n">
-        <v>-373.4566227445665</v>
+        <v>0.1575955035602739</v>
       </c>
       <c r="AG12" t="n">
-        <v>-6.091235210346881</v>
+        <v>0.1977495463414926</v>
       </c>
       <c r="AH12" t="n">
-        <v>-32.17694901487113</v>
+        <v>-857.729442387488</v>
       </c>
       <c r="AI12" t="n">
-        <v>-2356.489036924979</v>
+        <v>-809.1175049589342</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-3.000607475402148</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-4.885960280145803</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-95.11344531950667</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-632.5582625170825</v>
       </c>
     </row>
     <row r="13">
@@ -1672,103 +1812,115 @@
         <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>10.21484236709439</v>
+        <v>10.15532986993831</v>
       </c>
       <c r="E13" t="n">
-        <v>108.0793671982812</v>
+        <v>110.6314183778457</v>
       </c>
       <c r="F13" t="n">
-        <v>2593.760383723056</v>
+        <v>2514.610707500328</v>
       </c>
       <c r="G13" t="n">
-        <v>442692.9625041437</v>
+        <v>441730.8152296845</v>
       </c>
       <c r="H13" t="n">
-        <v>447613.9569775097</v>
+        <v>443271.3762423107</v>
       </c>
       <c r="I13" t="n">
-        <v>-6012.931670070925</v>
+        <v>2665.936574200261</v>
       </c>
       <c r="J13" t="n">
-        <v>5249.947262972824</v>
+        <v>8960.98610296315</v>
       </c>
       <c r="K13" t="n">
-        <v>-3718.050808810182</v>
+        <v>-2427.108996833475</v>
       </c>
       <c r="L13" t="n">
-        <v>1.713094314362787</v>
+        <v>2.587381258034207</v>
       </c>
       <c r="M13" t="n">
-        <v>29.54887087876645</v>
+        <v>20.45182331344767</v>
       </c>
       <c r="N13" t="n">
-        <v>186.3044255197823</v>
+        <v>87.53354868027137</v>
       </c>
       <c r="O13" t="n">
-        <v>6.958050346438795</v>
+        <v>6.825526119599803</v>
       </c>
       <c r="P13" t="n">
-        <v>67.98320423136924</v>
+        <v>85.18573782214166</v>
       </c>
       <c r="Q13" t="n">
-        <v>2262.812606146733</v>
+        <v>950.6969992591067</v>
       </c>
       <c r="R13" t="n">
-        <v>13.86518062543241</v>
+        <v>11.5694774470593</v>
       </c>
       <c r="S13" t="n">
-        <v>138.5529129656768</v>
+        <v>142.473689756844</v>
       </c>
       <c r="T13" t="n">
-        <v>2771.715841651383</v>
+        <v>1447.264294243562</v>
       </c>
       <c r="U13" t="n">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="V13" t="n">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="W13" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>33.51033108715487</v>
+        <v>0.6275075231260421</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1833197333906917</v>
+        <v>1.394967252556748</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.584731725660023</v>
+        <v>65.82112929783678</v>
       </c>
       <c r="AA13" t="n">
-        <v>8.283409825216118</v>
+        <v>0.689036297634255</v>
       </c>
       <c r="AB13" t="n">
-        <v>1211.886161146797</v>
+        <v>0.5352672014766395</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.1803418248428608</v>
+        <v>0.1751772916822978</v>
       </c>
       <c r="AD13" t="n">
-        <v>-158.8794166822954</v>
+        <v>0.307426964536337</v>
       </c>
       <c r="AE13" t="n">
-        <v>-324.0861077667383</v>
+        <v>19.56342316939039</v>
       </c>
       <c r="AF13" t="n">
-        <v>-2164.183454705832</v>
+        <v>0.3627870124199976</v>
       </c>
       <c r="AG13" t="n">
-        <v>-5.24495603207601</v>
+        <v>0.3115578337601054</v>
       </c>
       <c r="AH13" t="n">
-        <v>-38.43433335260275</v>
+        <v>-1631.886532755505</v>
       </c>
       <c r="AI13" t="n">
-        <v>-2076.508180626951</v>
+        <v>121.4407973992268</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-1361.301039526727</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-4.238144861565596</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-64.733914508694</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-863.1634505788355</v>
       </c>
     </row>
     <row r="14">
@@ -1779,103 +1931,115 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>10.21484236709439</v>
+        <v>10.15532986993831</v>
       </c>
       <c r="E14" t="n">
-        <v>108.0793671982812</v>
+        <v>110.6314183778457</v>
       </c>
       <c r="F14" t="n">
-        <v>2593.760383723056</v>
+        <v>2514.610707500328</v>
       </c>
       <c r="G14" t="n">
-        <v>442397.6329939531</v>
+        <v>441730.8152296845</v>
       </c>
       <c r="H14" t="n">
-        <v>447613.9569775097</v>
+        <v>443271.3762423107</v>
       </c>
       <c r="I14" t="n">
-        <v>-6012.931670070925</v>
+        <v>2665.936574200261</v>
       </c>
       <c r="J14" t="n">
-        <v>5249.947262972824</v>
+        <v>8960.98610296315</v>
       </c>
       <c r="K14" t="n">
-        <v>-3718.050808810182</v>
+        <v>-2427.108996833475</v>
       </c>
       <c r="L14" t="n">
-        <v>1.713094314362787</v>
+        <v>2.587381258034207</v>
       </c>
       <c r="M14" t="n">
-        <v>29.54887087876645</v>
+        <v>20.45182331344767</v>
       </c>
       <c r="N14" t="n">
-        <v>186.3044255197823</v>
+        <v>87.53354868027137</v>
       </c>
       <c r="O14" t="n">
-        <v>6.958050346438795</v>
+        <v>6.825526119599803</v>
       </c>
       <c r="P14" t="n">
-        <v>67.98320423136924</v>
+        <v>85.18573782214166</v>
       </c>
       <c r="Q14" t="n">
-        <v>2262.812606146733</v>
+        <v>950.6969992591067</v>
       </c>
       <c r="R14" t="n">
-        <v>13.86518062543241</v>
+        <v>11.5694774470593</v>
       </c>
       <c r="S14" t="n">
-        <v>138.5529129656768</v>
+        <v>142.473689756844</v>
       </c>
       <c r="T14" t="n">
-        <v>2771.715841651383</v>
+        <v>1447.264294243562</v>
       </c>
       <c r="U14" t="n">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="V14" t="n">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="W14" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>33.51033108715487</v>
+        <v>0.6275075231260421</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1833197333906917</v>
+        <v>1.394967252556748</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.584731725660023</v>
+        <v>65.82112929783678</v>
       </c>
       <c r="AA14" t="n">
-        <v>8.283409825216118</v>
+        <v>0.689036297634255</v>
       </c>
       <c r="AB14" t="n">
-        <v>2180.834115005642</v>
+        <v>0.5352672014766395</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1803418248428608</v>
+        <v>0.1751772916822978</v>
       </c>
       <c r="AD14" t="n">
-        <v>-158.8794166822954</v>
+        <v>0.307426964536337</v>
       </c>
       <c r="AE14" t="n">
-        <v>-324.0861077667383</v>
+        <v>19.56342316939039</v>
       </c>
       <c r="AF14" t="n">
-        <v>-2164.183454705832</v>
+        <v>0.3627870124199976</v>
       </c>
       <c r="AG14" t="n">
-        <v>-5.24495603207601</v>
+        <v>0.3115578337601054</v>
       </c>
       <c r="AH14" t="n">
-        <v>-38.43433335260275</v>
+        <v>-1631.886532755505</v>
       </c>
       <c r="AI14" t="n">
-        <v>-2076.508180626951</v>
+        <v>121.4407973992268</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>-1361.301039526727</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>-4.238144861565596</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>-64.733914508694</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>-863.1634505788355</v>
       </c>
     </row>
     <row r="15">
@@ -1886,103 +2050,115 @@
         <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>10.35448846930852</v>
+        <v>10.23242139872544</v>
       </c>
       <c r="E15" t="n">
-        <v>111.8644816397852</v>
+        <v>109.0298060632449</v>
       </c>
       <c r="F15" t="n">
-        <v>2577.316304354341</v>
+        <v>2509.00614524183</v>
       </c>
       <c r="G15" t="n">
-        <v>432387.0629867544</v>
+        <v>440773.5656096587</v>
       </c>
       <c r="H15" t="n">
-        <v>427840.2274599742</v>
+        <v>449542.484662499</v>
       </c>
       <c r="I15" t="n">
-        <v>8152.050702452073</v>
+        <v>236.6034640177215</v>
       </c>
       <c r="J15" t="n">
-        <v>17419.57836276784</v>
+        <v>9541.562873552626</v>
       </c>
       <c r="K15" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3539.240717324648</v>
       </c>
       <c r="L15" t="n">
-        <v>2.089887349714714</v>
+        <v>1.934392074399286</v>
       </c>
       <c r="M15" t="n">
-        <v>12.54681361258973</v>
+        <v>19.22859618634168</v>
       </c>
       <c r="N15" t="n">
-        <v>287.1884855745684</v>
+        <v>156.3989826591794</v>
       </c>
       <c r="O15" t="n">
-        <v>6.511720479073131</v>
+        <v>7.989157447851484</v>
       </c>
       <c r="P15" t="n">
-        <v>76.15855100726436</v>
+        <v>89.81827264517875</v>
       </c>
       <c r="Q15" t="n">
-        <v>1854.925977779084</v>
+        <v>991.6849429415187</v>
       </c>
       <c r="R15" t="n">
-        <v>15.68906678184133</v>
+        <v>13.35517556138897</v>
       </c>
       <c r="S15" t="n">
-        <v>147.1344992003613</v>
+        <v>147.5392659737067</v>
       </c>
       <c r="T15" t="n">
-        <v>3147.872351327647</v>
+        <v>1741.18715469318</v>
       </c>
       <c r="U15" t="n">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="V15" t="n">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="W15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>277.5893643532232</v>
+        <v>0.7100988868702032</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2069790186326892</v>
+        <v>1.528595742827275</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.6541673233208515</v>
+        <v>75.44387616024881</v>
       </c>
       <c r="AA15" t="n">
-        <v>79.31619651087459</v>
+        <v>0.7722634906857346</v>
       </c>
       <c r="AB15" t="n">
-        <v>2180.871644003774</v>
+        <v>0.6508368577615369</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.240641237970606</v>
+        <v>0.1969237236876234</v>
       </c>
       <c r="AD15" t="n">
-        <v>-265.2154448024653</v>
+        <v>0.3477921068207697</v>
       </c>
       <c r="AE15" t="n">
-        <v>10071.4188051418</v>
+        <v>21.88752129500655</v>
       </c>
       <c r="AF15" t="n">
-        <v>-920.3318799055849</v>
+        <v>0.8647319218667323</v>
       </c>
       <c r="AG15" t="n">
-        <v>-4.421833129358419</v>
+        <v>0.4347322941363821</v>
       </c>
       <c r="AH15" t="n">
-        <v>-63.61173739467461</v>
+        <v>-123.79460945274</v>
       </c>
       <c r="AI15" t="n">
-        <v>-1567.737492204516</v>
+        <v>-16.23524425939809</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-2232.919588014834</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-6.054765373452199</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-70.58967645883706</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-835.2859602823394</v>
       </c>
     </row>
     <row r="16">
@@ -1993,103 +2169,115 @@
         <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>10.35448846930852</v>
+        <v>10.23242139872544</v>
       </c>
       <c r="E16" t="n">
-        <v>111.8644816397852</v>
+        <v>109.0298060632449</v>
       </c>
       <c r="F16" t="n">
-        <v>2577.316304354341</v>
+        <v>2509.00614524183</v>
       </c>
       <c r="G16" t="n">
-        <v>432335.5204872603</v>
+        <v>440773.5656096587</v>
       </c>
       <c r="H16" t="n">
-        <v>427840.2274599742</v>
+        <v>449542.484662499</v>
       </c>
       <c r="I16" t="n">
-        <v>8152.050702452073</v>
+        <v>236.6034640177215</v>
       </c>
       <c r="J16" t="n">
-        <v>17419.57836276784</v>
+        <v>9541.562873552626</v>
       </c>
       <c r="K16" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3539.240717324648</v>
       </c>
       <c r="L16" t="n">
-        <v>2.089887349714714</v>
+        <v>1.934392074399286</v>
       </c>
       <c r="M16" t="n">
-        <v>12.54681361258973</v>
+        <v>19.22859618634168</v>
       </c>
       <c r="N16" t="n">
-        <v>287.1884855745684</v>
+        <v>156.3989826591794</v>
       </c>
       <c r="O16" t="n">
-        <v>6.511720479073131</v>
+        <v>7.989157447851484</v>
       </c>
       <c r="P16" t="n">
-        <v>76.15855100726436</v>
+        <v>89.81827264517875</v>
       </c>
       <c r="Q16" t="n">
-        <v>1854.925977779084</v>
+        <v>991.6849429415187</v>
       </c>
       <c r="R16" t="n">
-        <v>15.68906678184133</v>
+        <v>13.35517556138897</v>
       </c>
       <c r="S16" t="n">
-        <v>147.1344992003613</v>
+        <v>147.5392659737067</v>
       </c>
       <c r="T16" t="n">
-        <v>3147.872351327647</v>
+        <v>1741.18715469318</v>
       </c>
       <c r="U16" t="n">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="V16" t="n">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="W16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="X16" t="n">
-        <v>277.5893643532232</v>
+        <v>0.7100988868702032</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2069790186326892</v>
+        <v>1.528595742827275</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.6541673233208515</v>
+        <v>75.44387616024881</v>
       </c>
       <c r="AA16" t="n">
-        <v>79.31619651087459</v>
+        <v>0.7722634906857346</v>
       </c>
       <c r="AB16" t="n">
-        <v>2333.976169942221</v>
+        <v>0.6508368577615369</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.240641237970606</v>
+        <v>0.1969237236876234</v>
       </c>
       <c r="AD16" t="n">
-        <v>-265.2154448024653</v>
+        <v>0.3477921068207697</v>
       </c>
       <c r="AE16" t="n">
-        <v>10071.4188051418</v>
+        <v>21.88752129500655</v>
       </c>
       <c r="AF16" t="n">
-        <v>-920.3318799055849</v>
+        <v>0.8647319218667323</v>
       </c>
       <c r="AG16" t="n">
-        <v>-4.421833129358419</v>
+        <v>0.4347322941363821</v>
       </c>
       <c r="AH16" t="n">
-        <v>-63.61173739467461</v>
+        <v>-123.79460945274</v>
       </c>
       <c r="AI16" t="n">
-        <v>-1567.737492204516</v>
+        <v>-16.23524425939809</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>-2232.919588014834</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-6.054765373452199</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>-70.58967645883706</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>-835.2859602823394</v>
       </c>
     </row>
     <row r="17">
@@ -2100,103 +2288,115 @@
         <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>10.44817209199018</v>
+        <v>10.23037816347051</v>
       </c>
       <c r="E17" t="n">
-        <v>113.9202034035437</v>
+        <v>109.2131151130838</v>
       </c>
       <c r="F17" t="n">
-        <v>2591.580975062121</v>
+        <v>2610.708949424297</v>
       </c>
       <c r="G17" t="n">
-        <v>415094.0493144891</v>
+        <v>427749.5213933691</v>
       </c>
       <c r="H17" t="n">
-        <v>423264.6915800727</v>
+        <v>441983.0482839231</v>
       </c>
       <c r="I17" t="n">
-        <v>17565.85311104178</v>
+        <v>6531.727839896691</v>
       </c>
       <c r="J17" t="n">
-        <v>17531.99204073843</v>
+        <v>9541.562873552626</v>
       </c>
       <c r="K17" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3365.433607582921</v>
       </c>
       <c r="L17" t="n">
-        <v>2.357086327169701</v>
+        <v>1.804410619121152</v>
       </c>
       <c r="M17" t="n">
-        <v>15.72003093829028</v>
+        <v>13.08248728367574</v>
       </c>
       <c r="N17" t="n">
-        <v>305.850414620586</v>
+        <v>151.9692682132481</v>
       </c>
       <c r="O17" t="n">
-        <v>6.758998085571286</v>
+        <v>7.398161807167828</v>
       </c>
       <c r="P17" t="n">
-        <v>58.45045275006646</v>
+        <v>78.37154183786363</v>
       </c>
       <c r="Q17" t="n">
-        <v>2188.60291486007</v>
+        <v>665.3933110724074</v>
       </c>
       <c r="R17" t="n">
-        <v>16.66954341224413</v>
+        <v>13.7440940663925</v>
       </c>
       <c r="S17" t="n">
-        <v>153.5516587831245</v>
+        <v>150.2780751619408</v>
       </c>
       <c r="T17" t="n">
-        <v>3683.993137493906</v>
+        <v>1887.577498668526</v>
       </c>
       <c r="U17" t="n">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="V17" t="n">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="W17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X17" t="n">
-        <v>286.9163752882691</v>
+        <v>0.8082235281911708</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.2218130893040787</v>
+        <v>1.869275765152513</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.7145310406459426</v>
+        <v>82.3502345342675</v>
       </c>
       <c r="AA17" t="n">
-        <v>81.44903252169857</v>
+        <v>0.8679804714523639</v>
       </c>
       <c r="AB17" t="n">
-        <v>2334.533859010729</v>
+        <v>0.757293768864901</v>
       </c>
       <c r="AC17" t="n">
-        <v>2.273021651157655</v>
+        <v>0.2200211921590034</v>
       </c>
       <c r="AD17" t="n">
-        <v>-3968.739298500612</v>
+        <v>0.4054100234449412</v>
       </c>
       <c r="AE17" t="n">
-        <v>-97.91971751881113</v>
+        <v>22.5824053483093</v>
       </c>
       <c r="AF17" t="n">
-        <v>-8161.233355277975</v>
+        <v>1.227020280178986</v>
       </c>
       <c r="AG17" t="n">
-        <v>-4.401911758401586</v>
+        <v>1.561045576286279</v>
       </c>
       <c r="AH17" t="n">
-        <v>-42.73042181177615</v>
+        <v>-1551.170865677709</v>
       </c>
       <c r="AI17" t="n">
-        <v>-1882.752500239483</v>
+        <v>1251.45451933711</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>-2861.25907178167</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>-5.593751188046676</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>-65.28905455418789</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>-513.4240428591595</v>
       </c>
     </row>
     <row r="18">
@@ -2207,103 +2407,115 @@
         <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>10.44817209199018</v>
+        <v>10.23037816347051</v>
       </c>
       <c r="E18" t="n">
-        <v>113.9202034035437</v>
+        <v>109.2131151130838</v>
       </c>
       <c r="F18" t="n">
-        <v>2591.580975062121</v>
+        <v>2610.708949424297</v>
       </c>
       <c r="G18" t="n">
-        <v>415009.4351793636</v>
+        <v>427749.5213933691</v>
       </c>
       <c r="H18" t="n">
-        <v>423264.6915800727</v>
+        <v>441983.0482839231</v>
       </c>
       <c r="I18" t="n">
-        <v>17565.85311104178</v>
+        <v>6531.727839896691</v>
       </c>
       <c r="J18" t="n">
-        <v>17531.99204073843</v>
+        <v>9541.562873552626</v>
       </c>
       <c r="K18" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3365.433607582921</v>
       </c>
       <c r="L18" t="n">
-        <v>2.357086327169701</v>
+        <v>1.804410619121152</v>
       </c>
       <c r="M18" t="n">
-        <v>15.72003093829028</v>
+        <v>13.08248728367574</v>
       </c>
       <c r="N18" t="n">
-        <v>305.850414620586</v>
+        <v>151.9692682132481</v>
       </c>
       <c r="O18" t="n">
-        <v>6.758998085571286</v>
+        <v>7.398161807167828</v>
       </c>
       <c r="P18" t="n">
-        <v>58.45045275006646</v>
+        <v>78.37154183786363</v>
       </c>
       <c r="Q18" t="n">
-        <v>2188.60291486007</v>
+        <v>665.3933110724074</v>
       </c>
       <c r="R18" t="n">
-        <v>16.66954341224413</v>
+        <v>13.7440940663925</v>
       </c>
       <c r="S18" t="n">
-        <v>153.5516587831245</v>
+        <v>150.2780751619408</v>
       </c>
       <c r="T18" t="n">
-        <v>3683.993137493906</v>
+        <v>1887.577498668526</v>
       </c>
       <c r="U18" t="n">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="V18" t="n">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="W18" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X18" t="n">
-        <v>286.9163752882691</v>
+        <v>0.8082235281911708</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.2218130893040787</v>
+        <v>1.869275765152513</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.7145310406459426</v>
+        <v>82.3502345342675</v>
       </c>
       <c r="AA18" t="n">
-        <v>81.44903252169857</v>
+        <v>0.8679804714523639</v>
       </c>
       <c r="AB18" t="n">
-        <v>2684.553171994336</v>
+        <v>0.757293768864901</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.273021651157655</v>
+        <v>0.2200211921590034</v>
       </c>
       <c r="AD18" t="n">
-        <v>-3968.739298500612</v>
+        <v>0.4054100234449412</v>
       </c>
       <c r="AE18" t="n">
-        <v>-97.91971751881113</v>
+        <v>22.5824053483093</v>
       </c>
       <c r="AF18" t="n">
-        <v>-8161.233355277975</v>
+        <v>1.227020280178986</v>
       </c>
       <c r="AG18" t="n">
-        <v>-4.401911758401586</v>
+        <v>1.561045576286279</v>
       </c>
       <c r="AH18" t="n">
-        <v>-42.73042181177615</v>
+        <v>-1551.170865677709</v>
       </c>
       <c r="AI18" t="n">
-        <v>-1882.752500239483</v>
+        <v>1251.45451933711</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-2861.25907178167</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-5.593751188046676</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-65.28905455418789</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-513.4240428591595</v>
       </c>
     </row>
     <row r="19">
@@ -2314,103 +2526,115 @@
         <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>10.46532787138565</v>
+        <v>10.31138424572111</v>
       </c>
       <c r="E19" t="n">
-        <v>114.179819450169</v>
+        <v>109.9126333055017</v>
       </c>
       <c r="F19" t="n">
-        <v>2600.533046284677</v>
+        <v>2605.505420020746</v>
       </c>
       <c r="G19" t="n">
-        <v>410184.5887233535</v>
+        <v>412675.4728928361</v>
       </c>
       <c r="H19" t="n">
-        <v>419580.4683955502</v>
+        <v>437956.8827304508</v>
       </c>
       <c r="I19" t="n">
-        <v>23279.34220534558</v>
+        <v>20830.51549606761</v>
       </c>
       <c r="J19" t="n">
-        <v>17531.99204073843</v>
+        <v>9633.265908602129</v>
       </c>
       <c r="K19" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3267.391415574923</v>
       </c>
       <c r="L19" t="n">
-        <v>1.985856853924677</v>
+        <v>2.488974956335392</v>
       </c>
       <c r="M19" t="n">
-        <v>16.98179373800409</v>
+        <v>18.22384729386551</v>
       </c>
       <c r="N19" t="n">
-        <v>364.6082943140486</v>
+        <v>191.1826978026722</v>
       </c>
       <c r="O19" t="n">
-        <v>7.054883825448607</v>
+        <v>7.251074748301422</v>
       </c>
       <c r="P19" t="n">
-        <v>55.62857978306469</v>
+        <v>72.5254799467623</v>
       </c>
       <c r="Q19" t="n">
-        <v>2087.70564266138</v>
+        <v>1024.881494458768</v>
       </c>
       <c r="R19" t="n">
-        <v>17.44986230025173</v>
+        <v>15.32308290055542</v>
       </c>
       <c r="S19" t="n">
-        <v>162.9106757910372</v>
+        <v>171.3120235596964</v>
       </c>
       <c r="T19" t="n">
-        <v>3911.690187579643</v>
+        <v>2464.213397776463</v>
       </c>
       <c r="U19" t="n">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="V19" t="n">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="W19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X19" t="n">
-        <v>320.8615804293453</v>
+        <v>0.8907007852069055</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2422974815653993</v>
+        <v>2.339233350886015</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.7602139781430955</v>
+        <v>91.76918162046881</v>
       </c>
       <c r="AA19" t="n">
-        <v>90.88084567894522</v>
+        <v>0.9610902673826713</v>
       </c>
       <c r="AB19" t="n">
-        <v>2684.608928886793</v>
+        <v>0.8333650970426268</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.902845814020194</v>
+        <v>0.2407395645869428</v>
       </c>
       <c r="AD19" t="n">
-        <v>-3517.58066550584</v>
+        <v>0.4931925476451736</v>
       </c>
       <c r="AE19" t="n">
-        <v>-138.9667064044488</v>
+        <v>24.94251580964718</v>
       </c>
       <c r="AF19" t="n">
-        <v>-7886.294928267356</v>
+        <v>1.769545111872959</v>
       </c>
       <c r="AG19" t="n">
-        <v>-5.069026971523932</v>
+        <v>1.592078302543835</v>
       </c>
       <c r="AH19" t="n">
-        <v>-38.64678604506057</v>
+        <v>12.03357335335761</v>
       </c>
       <c r="AI19" t="n">
-        <v>-1723.097348347331</v>
+        <v>-2356.663053552434</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>539.9820917440807</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>-4.762099791966029</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>-54.30163265289679</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>-833.6987966560964</v>
       </c>
     </row>
     <row r="20">
@@ -2421,103 +2645,115 @@
         <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>10.46532787138565</v>
+        <v>10.31138424572111</v>
       </c>
       <c r="E20" t="n">
-        <v>114.179819450169</v>
+        <v>109.9126333055017</v>
       </c>
       <c r="F20" t="n">
-        <v>2600.533046284677</v>
+        <v>2605.505420020746</v>
       </c>
       <c r="G20" t="n">
-        <v>410133.7147020829</v>
+        <v>412675.4728928361</v>
       </c>
       <c r="H20" t="n">
-        <v>419580.4683955502</v>
+        <v>437956.8827304508</v>
       </c>
       <c r="I20" t="n">
-        <v>23279.34220534558</v>
+        <v>20830.51549606761</v>
       </c>
       <c r="J20" t="n">
-        <v>17531.99204073843</v>
+        <v>9633.265908602129</v>
       </c>
       <c r="K20" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3267.391415574923</v>
       </c>
       <c r="L20" t="n">
-        <v>1.985856853924677</v>
+        <v>2.488974956335392</v>
       </c>
       <c r="M20" t="n">
-        <v>16.98179373800409</v>
+        <v>18.22384729386551</v>
       </c>
       <c r="N20" t="n">
-        <v>364.6082943140486</v>
+        <v>191.1826978026722</v>
       </c>
       <c r="O20" t="n">
-        <v>7.054883825448607</v>
+        <v>7.251074748301422</v>
       </c>
       <c r="P20" t="n">
-        <v>55.62857978306469</v>
+        <v>72.5254799467623</v>
       </c>
       <c r="Q20" t="n">
-        <v>2087.70564266138</v>
+        <v>1024.881494458768</v>
       </c>
       <c r="R20" t="n">
-        <v>17.44986230025173</v>
+        <v>15.32308290055542</v>
       </c>
       <c r="S20" t="n">
-        <v>162.9106757910372</v>
+        <v>171.3120235596964</v>
       </c>
       <c r="T20" t="n">
-        <v>3911.690187579643</v>
+        <v>2464.213397776463</v>
       </c>
       <c r="U20" t="n">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="V20" t="n">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="W20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X20" t="n">
-        <v>320.8615804293453</v>
+        <v>0.8907007852069055</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2422974815653993</v>
+        <v>2.339233350886015</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.7602139781430955</v>
+        <v>91.76918162046881</v>
       </c>
       <c r="AA20" t="n">
-        <v>90.88084567894522</v>
+        <v>0.9610902673826713</v>
       </c>
       <c r="AB20" t="n">
-        <v>2976.253010005516</v>
+        <v>0.8333650970426268</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.902845814020194</v>
+        <v>0.2407395645869428</v>
       </c>
       <c r="AD20" t="n">
-        <v>-3517.58066550584</v>
+        <v>0.4931925476451736</v>
       </c>
       <c r="AE20" t="n">
-        <v>-138.9667064044488</v>
+        <v>24.94251580964718</v>
       </c>
       <c r="AF20" t="n">
-        <v>-7886.294928267356</v>
+        <v>1.769545111872959</v>
       </c>
       <c r="AG20" t="n">
-        <v>-5.069026971523932</v>
+        <v>1.592078302543835</v>
       </c>
       <c r="AH20" t="n">
-        <v>-38.64678604506057</v>
+        <v>12.03357335335761</v>
       </c>
       <c r="AI20" t="n">
-        <v>-1723.097348347331</v>
+        <v>-2356.663053552434</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>539.9820917440807</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>-4.762099791966029</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>-54.30163265289679</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>-833.6987966560964</v>
       </c>
     </row>
     <row r="21">
@@ -2528,103 +2764,115 @@
         <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>10.50394224736602</v>
+        <v>10.42871320458988</v>
       </c>
       <c r="E21" t="n">
-        <v>117.3273738181994</v>
+        <v>114.3531415835095</v>
       </c>
       <c r="F21" t="n">
-        <v>2607.44798005299</v>
+        <v>2611.775179030877</v>
       </c>
       <c r="G21" t="n">
-        <v>392462.090460124</v>
+        <v>398752.6990381446</v>
       </c>
       <c r="H21" t="n">
-        <v>409717.3532928825</v>
+        <v>435923.266428931</v>
       </c>
       <c r="I21" t="n">
-        <v>38569.90593126529</v>
+        <v>17213.91538773937</v>
       </c>
       <c r="J21" t="n">
-        <v>17531.99204073843</v>
+        <v>10373.41642233852</v>
       </c>
       <c r="K21" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3267.391415574923</v>
       </c>
       <c r="L21" t="n">
-        <v>1.528866563554375</v>
+        <v>2.292890549893353</v>
       </c>
       <c r="M21" t="n">
-        <v>20.40522803422638</v>
+        <v>10.5238371454473</v>
       </c>
       <c r="N21" t="n">
-        <v>364.6082943140486</v>
+        <v>200.514220396638</v>
       </c>
       <c r="O21" t="n">
-        <v>8.675199889657796</v>
+        <v>7.68853477560411</v>
       </c>
       <c r="P21" t="n">
-        <v>72.23711779806096</v>
+        <v>91.58691380055049</v>
       </c>
       <c r="Q21" t="n">
-        <v>1651.674696256777</v>
+        <v>1706.73877438282</v>
       </c>
       <c r="R21" t="n">
-        <v>19.52527426848709</v>
+        <v>16.32688287484969</v>
       </c>
       <c r="S21" t="n">
-        <v>198.3570188751589</v>
+        <v>191.3584863005261</v>
       </c>
       <c r="T21" t="n">
-        <v>4088.812412962917</v>
+        <v>3175.056262170034</v>
       </c>
       <c r="U21" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="V21" t="n">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="W21" t="n">
         <v>21</v>
       </c>
       <c r="X21" t="n">
-        <v>327.6822675593097</v>
+        <v>0.9398903552978469</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2779500790995986</v>
+        <v>2.554863149353971</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.8154539447115674</v>
+        <v>95.50362704862762</v>
       </c>
       <c r="AA21" t="n">
-        <v>90.90740065679044</v>
+        <v>1.01439373657006</v>
       </c>
       <c r="AB21" t="n">
-        <v>2976.317537982051</v>
+        <v>0.9187827754813997</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.76707643452636</v>
+        <v>0.2575751161358809</v>
       </c>
       <c r="AD21" t="n">
-        <v>-836.1612567545649</v>
+        <v>0.5523755742596439</v>
       </c>
       <c r="AE21" t="n">
-        <v>-1808.290643948916</v>
+        <v>26.0652218175444</v>
       </c>
       <c r="AF21" t="n">
-        <v>-7823.927648286389</v>
+        <v>1.78439169445041</v>
       </c>
       <c r="AG21" t="n">
-        <v>-7.146333326103424</v>
+        <v>1.619902917208909</v>
       </c>
       <c r="AH21" t="n">
-        <v>-51.83188976383457</v>
+        <v>1102.89703407282</v>
       </c>
       <c r="AI21" t="n">
-        <v>-1287.066401942728</v>
+        <v>-1254.069871952503</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>3.35346640539214</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>-5.395644225710758</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>-81.06307665510316</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>-1506.224553986182</v>
       </c>
     </row>
     <row r="22">
@@ -2635,103 +2883,115 @@
         <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>10.50394224736602</v>
+        <v>10.42871320458988</v>
       </c>
       <c r="E22" t="n">
-        <v>117.3273738181994</v>
+        <v>114.3531415835095</v>
       </c>
       <c r="F22" t="n">
-        <v>2607.44798005299</v>
+        <v>2611.775179030877</v>
       </c>
       <c r="G22" t="n">
-        <v>392459.881536991</v>
+        <v>398752.6990381446</v>
       </c>
       <c r="H22" t="n">
-        <v>409717.3532928825</v>
+        <v>435923.266428931</v>
       </c>
       <c r="I22" t="n">
-        <v>38569.90593126529</v>
+        <v>17213.91538773937</v>
       </c>
       <c r="J22" t="n">
-        <v>17531.99204073843</v>
+        <v>10373.41642233852</v>
       </c>
       <c r="K22" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3267.391415574923</v>
       </c>
       <c r="L22" t="n">
-        <v>1.528866563554375</v>
+        <v>2.292890549893353</v>
       </c>
       <c r="M22" t="n">
-        <v>20.40522803422638</v>
+        <v>10.5238371454473</v>
       </c>
       <c r="N22" t="n">
-        <v>364.6082943140486</v>
+        <v>200.514220396638</v>
       </c>
       <c r="O22" t="n">
-        <v>8.675199889657796</v>
+        <v>7.68853477560411</v>
       </c>
       <c r="P22" t="n">
-        <v>72.23711779806096</v>
+        <v>91.58691380055049</v>
       </c>
       <c r="Q22" t="n">
-        <v>1651.674696256777</v>
+        <v>1706.73877438282</v>
       </c>
       <c r="R22" t="n">
-        <v>19.52527426848709</v>
+        <v>16.32688287484969</v>
       </c>
       <c r="S22" t="n">
-        <v>198.3570188751589</v>
+        <v>191.3584863005261</v>
       </c>
       <c r="T22" t="n">
-        <v>4088.812412962917</v>
+        <v>3175.056262170034</v>
       </c>
       <c r="U22" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="V22" t="n">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="W22" t="n">
         <v>21</v>
       </c>
       <c r="X22" t="n">
-        <v>327.6822675593097</v>
+        <v>0.9398903552978469</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.2779500790995986</v>
+        <v>2.554863149353971</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.8154539447115674</v>
+        <v>95.50362704862762</v>
       </c>
       <c r="AA22" t="n">
-        <v>90.90740065679044</v>
+        <v>1.01439373657006</v>
       </c>
       <c r="AB22" t="n">
-        <v>3062.316047016877</v>
+        <v>0.9187827754813997</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.76707643452636</v>
+        <v>0.2575751161358809</v>
       </c>
       <c r="AD22" t="n">
-        <v>-836.1612567545649</v>
+        <v>0.5523755742596439</v>
       </c>
       <c r="AE22" t="n">
-        <v>-1808.290643948916</v>
+        <v>26.0652218175444</v>
       </c>
       <c r="AF22" t="n">
-        <v>-7823.927648286389</v>
+        <v>1.78439169445041</v>
       </c>
       <c r="AG22" t="n">
-        <v>-7.146333326103424</v>
+        <v>1.619902917208909</v>
       </c>
       <c r="AH22" t="n">
-        <v>-51.83188976383457</v>
+        <v>1102.89703407282</v>
       </c>
       <c r="AI22" t="n">
-        <v>-1287.066401942728</v>
+        <v>-1254.069871952503</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>3.35346640539214</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>-5.395644225710758</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>-81.06307665510316</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>-1506.224553986182</v>
       </c>
     </row>
     <row r="23">
@@ -2742,103 +3002,115 @@
         <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>10.54285187517593</v>
+        <v>10.52610087859865</v>
       </c>
       <c r="E23" t="n">
-        <v>117.8056082339394</v>
+        <v>114.2065507656762</v>
       </c>
       <c r="F23" t="n">
-        <v>2570.046258130489</v>
+        <v>2565.189188713765</v>
       </c>
       <c r="G23" t="n">
-        <v>395505.96123226</v>
+        <v>399753.9871891991</v>
       </c>
       <c r="H23" t="n">
-        <v>415718.7034833329</v>
+        <v>425262.2381008395</v>
       </c>
       <c r="I23" t="n">
-        <v>31462.41131381543</v>
+        <v>29508.55136913203</v>
       </c>
       <c r="J23" t="n">
-        <v>16873.38681005483</v>
+        <v>14303.13655617064</v>
       </c>
       <c r="K23" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3267.391415574923</v>
       </c>
       <c r="L23" t="n">
-        <v>1.555306402691264</v>
+        <v>2.177811185465315</v>
       </c>
       <c r="M23" t="n">
-        <v>15.38748308720499</v>
+        <v>11.14651797650283</v>
       </c>
       <c r="N23" t="n">
-        <v>282.1896979393197</v>
+        <v>95.91716953409775</v>
       </c>
       <c r="O23" t="n">
-        <v>8.859582971517085</v>
+        <v>8.128582467308055</v>
       </c>
       <c r="P23" t="n">
-        <v>88.07985975142445</v>
+        <v>73.96126319578845</v>
       </c>
       <c r="Q23" t="n">
-        <v>2280.604377061798</v>
+        <v>1693.395584187122</v>
       </c>
       <c r="R23" t="n">
-        <v>19.92741102730383</v>
+        <v>17.14509739461553</v>
       </c>
       <c r="S23" t="n">
-        <v>242.987990968609</v>
+        <v>195.0693180749193</v>
       </c>
       <c r="T23" t="n">
-        <v>4895.617214167629</v>
+        <v>3183.654087893397</v>
       </c>
       <c r="U23" t="n">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="V23" t="n">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="W23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X23" t="n">
-        <v>1009.309473251063</v>
+        <v>0.9702741355440293</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2977208055788586</v>
+        <v>2.811904900863905</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.8491498480280936</v>
+        <v>97.60471782743268</v>
       </c>
       <c r="AA23" t="n">
-        <v>294.743885433922</v>
+        <v>1.107977620072111</v>
       </c>
       <c r="AB23" t="n">
-        <v>3062.33793785122</v>
+        <v>0.9915210869573022</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.343395900783733</v>
+        <v>0.2724634872190396</v>
       </c>
       <c r="AD23" t="n">
-        <v>-78.54837235045318</v>
+        <v>0.5696001543669896</v>
       </c>
       <c r="AE23" t="n">
-        <v>993.1152151046458</v>
+        <v>26.64550746736813</v>
       </c>
       <c r="AF23" t="n">
-        <v>-8828.839649341477</v>
+        <v>1.852470345617122</v>
       </c>
       <c r="AG23" t="n">
-        <v>-7.304276568825824</v>
+        <v>1.705877216689719</v>
       </c>
       <c r="AH23" t="n">
-        <v>-72.69237666421947</v>
+        <v>138.3383177384089</v>
       </c>
       <c r="AI23" t="n">
-        <v>-1998.414679122478</v>
+        <v>-201.49758904445</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-417.3424561608717</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-5.950771281842741</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-62.81474521928561</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-1597.478414653025</v>
       </c>
     </row>
     <row r="24">
@@ -2849,103 +3121,115 @@
         <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>10.54285187517593</v>
+        <v>10.52610087859865</v>
       </c>
       <c r="E24" t="n">
-        <v>117.8056082339394</v>
+        <v>114.2065507656762</v>
       </c>
       <c r="F24" t="n">
-        <v>2570.046258130489</v>
+        <v>2565.189188713765</v>
       </c>
       <c r="G24" t="n">
-        <v>395845.5041235676</v>
+        <v>399753.9871891991</v>
       </c>
       <c r="H24" t="n">
-        <v>415718.7034833329</v>
+        <v>425262.2381008395</v>
       </c>
       <c r="I24" t="n">
-        <v>31462.41131381543</v>
+        <v>29508.55136913203</v>
       </c>
       <c r="J24" t="n">
-        <v>16873.38681005483</v>
+        <v>14303.13655617064</v>
       </c>
       <c r="K24" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3267.391415574923</v>
       </c>
       <c r="L24" t="n">
-        <v>1.555306402691264</v>
+        <v>2.177811185465315</v>
       </c>
       <c r="M24" t="n">
-        <v>15.38748308720499</v>
+        <v>11.14651797650283</v>
       </c>
       <c r="N24" t="n">
-        <v>282.1896979393197</v>
+        <v>95.91716953409775</v>
       </c>
       <c r="O24" t="n">
-        <v>8.859582971517085</v>
+        <v>8.128582467308055</v>
       </c>
       <c r="P24" t="n">
-        <v>88.07985975142445</v>
+        <v>73.96126319578845</v>
       </c>
       <c r="Q24" t="n">
-        <v>2280.604377061798</v>
+        <v>1693.395584187122</v>
       </c>
       <c r="R24" t="n">
-        <v>19.92741102730383</v>
+        <v>17.14509739461553</v>
       </c>
       <c r="S24" t="n">
-        <v>242.987990968609</v>
+        <v>195.0693180749193</v>
       </c>
       <c r="T24" t="n">
-        <v>4895.617214167629</v>
+        <v>3183.654087893397</v>
       </c>
       <c r="U24" t="n">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="V24" t="n">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="W24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X24" t="n">
-        <v>1009.309473251063</v>
+        <v>0.9702741355440293</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.2977208055788586</v>
+        <v>2.811904900863905</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.8491498480280936</v>
+        <v>97.60471782743268</v>
       </c>
       <c r="AA24" t="n">
-        <v>294.743885433922</v>
+        <v>1.107977620072111</v>
       </c>
       <c r="AB24" t="n">
-        <v>3204.529976452763</v>
+        <v>0.9915210869573022</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.343395900783733</v>
+        <v>0.2724634872190396</v>
       </c>
       <c r="AD24" t="n">
-        <v>-78.54837235045318</v>
+        <v>0.5696001543669896</v>
       </c>
       <c r="AE24" t="n">
-        <v>993.1152151046458</v>
+        <v>26.64550746736813</v>
       </c>
       <c r="AF24" t="n">
-        <v>-8828.839649341477</v>
+        <v>1.852470345617122</v>
       </c>
       <c r="AG24" t="n">
-        <v>-7.304276568825824</v>
+        <v>1.705877216689719</v>
       </c>
       <c r="AH24" t="n">
-        <v>-72.69237666421947</v>
+        <v>138.3383177384089</v>
       </c>
       <c r="AI24" t="n">
-        <v>-1998.414679122478</v>
+        <v>-201.49758904445</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>-417.3424561608717</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>-5.950771281842741</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>-62.81474521928561</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>-1597.478414653025</v>
       </c>
     </row>
     <row r="25">
@@ -2956,103 +3240,115 @@
         <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>10.51845573916798</v>
+        <v>10.51937570452211</v>
       </c>
       <c r="E25" t="n">
-        <v>116.6407329147643</v>
+        <v>114.2496260104246</v>
       </c>
       <c r="F25" t="n">
-        <v>2618.511243898545</v>
+        <v>2561.952363467662</v>
       </c>
       <c r="G25" t="n">
-        <v>392483.4171082335</v>
+        <v>404020.7361028022</v>
       </c>
       <c r="H25" t="n">
-        <v>418267.5460068831</v>
+        <v>419411.6787843613</v>
       </c>
       <c r="I25" t="n">
-        <v>30394.66755721982</v>
+        <v>31698.48906509621</v>
       </c>
       <c r="J25" t="n">
-        <v>8976.133904358328</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K25" t="n">
-        <v>-10078.06321251285</v>
+        <v>-7544.565951440592</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8333903033815636</v>
+        <v>2.160981948734069</v>
       </c>
       <c r="M25" t="n">
-        <v>11.43096401567053</v>
+        <v>9.379899073513299</v>
       </c>
       <c r="N25" t="n">
-        <v>166.1974300769496</v>
+        <v>96.16835881638609</v>
       </c>
       <c r="O25" t="n">
-        <v>8.226699486452729</v>
+        <v>5.322456445316017</v>
       </c>
       <c r="P25" t="n">
-        <v>86.77094375114498</v>
+        <v>64.05082320105316</v>
       </c>
       <c r="Q25" t="n">
-        <v>1978.600352402731</v>
+        <v>1292.375907428511</v>
       </c>
       <c r="R25" t="n">
-        <v>20.62287583239531</v>
+        <v>17.29470279742663</v>
       </c>
       <c r="S25" t="n">
-        <v>263.4272725719095</v>
+        <v>205.5877014322433</v>
       </c>
       <c r="T25" t="n">
-        <v>5134.920701933195</v>
+        <v>3233.423299545467</v>
       </c>
       <c r="U25" t="n">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="V25" t="n">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="W25" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X25" t="n">
-        <v>1018.623087322053</v>
+        <v>1.053844774463666</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.3166676795227255</v>
+        <v>3.083380566658847</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.907711305936911</v>
+        <v>103.3071604783074</v>
       </c>
       <c r="AA25" t="n">
-        <v>295.7894304348903</v>
+        <v>1.240502715053421</v>
       </c>
       <c r="AB25" t="n">
-        <v>3204.615159926374</v>
+        <v>1.022335188989703</v>
       </c>
       <c r="AC25" t="n">
-        <v>6.929243315648845</v>
+        <v>0.2896273422922128</v>
       </c>
       <c r="AD25" t="n">
-        <v>-3082.488293451087</v>
+        <v>0.590074384537088</v>
       </c>
       <c r="AE25" t="n">
-        <v>-369.6021150615225</v>
+        <v>27.05973540697687</v>
       </c>
       <c r="AF25" t="n">
-        <v>42.84383391256912</v>
+        <v>1.966532393191972</v>
       </c>
       <c r="AG25" t="n">
-        <v>-7.393309183071167</v>
+        <v>3.006197590043774</v>
       </c>
       <c r="AH25" t="n">
-        <v>-75.33997973547447</v>
+        <v>-6243.758131956007</v>
       </c>
       <c r="AI25" t="n">
-        <v>-1812.402922325781</v>
+        <v>353.2953979583981</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>44.15155095339077</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>-3.161474496581948</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>-54.67092412753987</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>-1196.207548612126</v>
       </c>
     </row>
     <row r="26">
@@ -3063,103 +3359,115 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>10.51845573916798</v>
+        <v>10.51937570452211</v>
       </c>
       <c r="E26" t="n">
-        <v>116.6407329147643</v>
+        <v>114.2496260104246</v>
       </c>
       <c r="F26" t="n">
-        <v>2618.511243898545</v>
+        <v>2561.952363467662</v>
       </c>
       <c r="G26" t="n">
-        <v>392921.1904821827</v>
+        <v>404020.7361028022</v>
       </c>
       <c r="H26" t="n">
-        <v>418267.5460068831</v>
+        <v>419411.6787843613</v>
       </c>
       <c r="I26" t="n">
-        <v>30394.66755721982</v>
+        <v>31698.48906509621</v>
       </c>
       <c r="J26" t="n">
-        <v>8976.133904358328</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K26" t="n">
-        <v>-10078.06321251285</v>
+        <v>-7544.565951440592</v>
       </c>
       <c r="L26" t="n">
-        <v>0.8333903033815636</v>
+        <v>2.160981948734069</v>
       </c>
       <c r="M26" t="n">
-        <v>11.43096401567053</v>
+        <v>9.379899073513299</v>
       </c>
       <c r="N26" t="n">
-        <v>166.1974300769496</v>
+        <v>96.16835881638609</v>
       </c>
       <c r="O26" t="n">
-        <v>8.226699486452729</v>
+        <v>5.322456445316017</v>
       </c>
       <c r="P26" t="n">
-        <v>86.77094375114498</v>
+        <v>64.05082320105316</v>
       </c>
       <c r="Q26" t="n">
-        <v>1978.600352402731</v>
+        <v>1292.375907428511</v>
       </c>
       <c r="R26" t="n">
-        <v>20.62287583239531</v>
+        <v>17.29470279742663</v>
       </c>
       <c r="S26" t="n">
-        <v>263.4272725719095</v>
+        <v>205.5877014322433</v>
       </c>
       <c r="T26" t="n">
-        <v>5134.920701933195</v>
+        <v>3233.423299545467</v>
       </c>
       <c r="U26" t="n">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="V26" t="n">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="W26" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X26" t="n">
-        <v>1018.623087322053</v>
+        <v>1.053844774463666</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3166676795227255</v>
+        <v>3.083380566658847</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.907711305936911</v>
+        <v>103.3071604783074</v>
       </c>
       <c r="AA26" t="n">
-        <v>295.7894304348903</v>
+        <v>1.240502715053421</v>
       </c>
       <c r="AB26" t="n">
-        <v>3215.840118232762</v>
+        <v>1.022335188989703</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.929243315648845</v>
+        <v>0.2896273422922128</v>
       </c>
       <c r="AD26" t="n">
-        <v>-3082.488293451087</v>
+        <v>0.590074384537088</v>
       </c>
       <c r="AE26" t="n">
-        <v>-369.6021150615225</v>
+        <v>27.05973540697687</v>
       </c>
       <c r="AF26" t="n">
-        <v>42.84383391256912</v>
+        <v>1.966532393191972</v>
       </c>
       <c r="AG26" t="n">
-        <v>-7.393309183071167</v>
+        <v>3.006197590043774</v>
       </c>
       <c r="AH26" t="n">
-        <v>-75.33997973547447</v>
+        <v>-6243.758131956007</v>
       </c>
       <c r="AI26" t="n">
-        <v>-1812.402922325781</v>
+        <v>353.2953979583981</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>44.15155095339077</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>-3.161474496581948</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>-54.67092412753987</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>-1196.207548612126</v>
       </c>
     </row>
     <row r="27">
@@ -3170,103 +3478,115 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>10.47213357773278</v>
+        <v>10.61148274363982</v>
       </c>
       <c r="E27" t="n">
-        <v>117.0189755460205</v>
+        <v>114.4969321927957</v>
       </c>
       <c r="F27" t="n">
-        <v>2623.47866794929</v>
+        <v>2551.5090728952</v>
       </c>
       <c r="G27" t="n">
-        <v>391137.8946499916</v>
+        <v>402374.816033115</v>
       </c>
       <c r="H27" t="n">
-        <v>425492.9264150987</v>
+        <v>418699.82538634</v>
       </c>
       <c r="I27" t="n">
-        <v>24953.68076139909</v>
+        <v>30927.10899308557</v>
       </c>
       <c r="J27" t="n">
-        <v>8976.133904358328</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K27" t="n">
-        <v>-10078.06321251285</v>
+        <v>-7544.565951440592</v>
       </c>
       <c r="L27" t="n">
-        <v>1.107857924424531</v>
+        <v>1.817989276993447</v>
       </c>
       <c r="M27" t="n">
-        <v>13.50302829244722</v>
+        <v>9.419975889257605</v>
       </c>
       <c r="N27" t="n">
-        <v>169.622179141327</v>
+        <v>88.05992759841639</v>
       </c>
       <c r="O27" t="n">
-        <v>9.351192945351652</v>
+        <v>7.001887378552367</v>
       </c>
       <c r="P27" t="n">
-        <v>102.7398862018964</v>
+        <v>103.4258539090425</v>
       </c>
       <c r="Q27" t="n">
-        <v>1796.467174912383</v>
+        <v>1591.93612713938</v>
       </c>
       <c r="R27" t="n">
-        <v>22.9923893146394</v>
+        <v>19.01517418134755</v>
       </c>
       <c r="S27" t="n">
-        <v>287.5107320615608</v>
+        <v>246.524869178965</v>
       </c>
       <c r="T27" t="n">
-        <v>5204.530078997737</v>
+        <v>3712.07541094363</v>
       </c>
       <c r="U27" t="n">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="V27" t="n">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="W27" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="X27" t="n">
-        <v>1022.136308600986</v>
+        <v>1.084997027632607</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.3242500212199959</v>
+        <v>3.173246513997133</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.9286940488004214</v>
+        <v>106.1431417342553</v>
       </c>
       <c r="AA27" t="n">
-        <v>296.0106186535587</v>
+        <v>1.321845271619378</v>
       </c>
       <c r="AB27" t="n">
-        <v>3215.907319344799</v>
+        <v>1.154844798029503</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.66625528406282</v>
+        <v>0.3015356444584359</v>
       </c>
       <c r="AD27" t="n">
-        <v>-82.57812515808473</v>
+        <v>0.6096695562102988</v>
       </c>
       <c r="AE27" t="n">
-        <v>219.7184106082905</v>
+        <v>27.4101015330883</v>
       </c>
       <c r="AF27" t="n">
-        <v>-261.9604224665916</v>
+        <v>2.000432769416709</v>
       </c>
       <c r="AG27" t="n">
-        <v>-8.243335020927127</v>
+        <v>3.541683100486424</v>
       </c>
       <c r="AH27" t="n">
-        <v>-89.23685790944923</v>
+        <v>-38.79140051905802</v>
       </c>
       <c r="AI27" t="n">
-        <v>-1626.844995771056</v>
+        <v>47.72688063736382</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>741.4358788217885</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>-5.183898101558921</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>-94.00587801978492</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>-1503.876199540963</v>
       </c>
     </row>
     <row r="28">
@@ -3277,103 +3597,115 @@
         <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>10.47213357773278</v>
+        <v>10.61148274363982</v>
       </c>
       <c r="E28" t="n">
-        <v>117.0189755460205</v>
+        <v>114.4969321927957</v>
       </c>
       <c r="F28" t="n">
-        <v>2623.47866794929</v>
+        <v>2551.5090728952</v>
       </c>
       <c r="G28" t="n">
-        <v>391540.3466699791</v>
+        <v>402374.816033115</v>
       </c>
       <c r="H28" t="n">
-        <v>425492.9264150987</v>
+        <v>418699.82538634</v>
       </c>
       <c r="I28" t="n">
-        <v>24953.68076139909</v>
+        <v>30927.10899308557</v>
       </c>
       <c r="J28" t="n">
-        <v>8976.133904358328</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K28" t="n">
-        <v>-10078.06321251285</v>
+        <v>-7544.565951440592</v>
       </c>
       <c r="L28" t="n">
-        <v>1.107857924424531</v>
+        <v>1.817989276993447</v>
       </c>
       <c r="M28" t="n">
-        <v>13.50302829244722</v>
+        <v>9.419975889257605</v>
       </c>
       <c r="N28" t="n">
-        <v>169.622179141327</v>
+        <v>88.05992759841639</v>
       </c>
       <c r="O28" t="n">
-        <v>9.351192945351652</v>
+        <v>7.001887378552367</v>
       </c>
       <c r="P28" t="n">
-        <v>102.7398862018964</v>
+        <v>103.4258539090425</v>
       </c>
       <c r="Q28" t="n">
-        <v>1796.467174912383</v>
+        <v>1591.93612713938</v>
       </c>
       <c r="R28" t="n">
-        <v>22.9923893146394</v>
+        <v>19.01517418134755</v>
       </c>
       <c r="S28" t="n">
-        <v>287.5107320615608</v>
+        <v>246.524869178965</v>
       </c>
       <c r="T28" t="n">
-        <v>5204.530078997737</v>
+        <v>3712.07541094363</v>
       </c>
       <c r="U28" t="n">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="V28" t="n">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="W28" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="X28" t="n">
-        <v>1022.136308600986</v>
+        <v>1.084997027632607</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.3242500212199959</v>
+        <v>3.173246513997133</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.9286940488004214</v>
+        <v>106.1431417342553</v>
       </c>
       <c r="AA28" t="n">
-        <v>296.0106186535587</v>
+        <v>1.321845271619378</v>
       </c>
       <c r="AB28" t="n">
-        <v>3226.22660190858</v>
+        <v>1.154844798029503</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.66625528406282</v>
+        <v>0.3015356444584359</v>
       </c>
       <c r="AD28" t="n">
-        <v>-82.57812515808473</v>
+        <v>0.6096695562102988</v>
       </c>
       <c r="AE28" t="n">
-        <v>219.7184106082905</v>
+        <v>27.4101015330883</v>
       </c>
       <c r="AF28" t="n">
-        <v>-261.9604224665916</v>
+        <v>2.000432769416709</v>
       </c>
       <c r="AG28" t="n">
-        <v>-8.243335020927127</v>
+        <v>3.541683100486424</v>
       </c>
       <c r="AH28" t="n">
-        <v>-89.23685790944923</v>
+        <v>-38.79140051905802</v>
       </c>
       <c r="AI28" t="n">
-        <v>-1626.844995771056</v>
+        <v>47.72688063736382</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>741.4358788217885</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>-5.183898101558921</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>-94.00587801978492</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>-1503.876199540963</v>
       </c>
     </row>
     <row r="29">
@@ -3384,103 +3716,115 @@
         <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>10.52004998168837</v>
+        <v>10.61427373735652</v>
       </c>
       <c r="E29" t="n">
-        <v>116.3786657458281</v>
+        <v>114.7861445195017</v>
       </c>
       <c r="F29" t="n">
-        <v>2633.968957232898</v>
+        <v>2548.22409665303</v>
       </c>
       <c r="G29" t="n">
-        <v>393000.2518904299</v>
+        <v>402307.8609940596</v>
       </c>
       <c r="H29" t="n">
-        <v>414507.4620966939</v>
+        <v>421849.2990340008</v>
       </c>
       <c r="I29" t="n">
-        <v>33004.10313942834</v>
+        <v>27299.1523993884</v>
       </c>
       <c r="J29" t="n">
-        <v>8826.077514296294</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K29" t="n">
-        <v>-10078.06321251285</v>
+        <v>-7544.565951440592</v>
       </c>
       <c r="L29" t="n">
-        <v>0.8199963851514861</v>
+        <v>1.847373446186503</v>
       </c>
       <c r="M29" t="n">
-        <v>7.860783580699463</v>
+        <v>10.25088446981127</v>
       </c>
       <c r="N29" t="n">
-        <v>143.8565148084834</v>
+        <v>88.17582597320946</v>
       </c>
       <c r="O29" t="n">
-        <v>7.869495362647831</v>
+        <v>6.258228432825433</v>
       </c>
       <c r="P29" t="n">
-        <v>95.76479770004131</v>
+        <v>95.7386269500175</v>
       </c>
       <c r="Q29" t="n">
-        <v>1935.473420326544</v>
+        <v>1319.527962900055</v>
       </c>
       <c r="R29" t="n">
-        <v>23.61736209353284</v>
+        <v>19.32696419831531</v>
       </c>
       <c r="S29" t="n">
-        <v>294.842637032991</v>
+        <v>247.8030732918299</v>
       </c>
       <c r="T29" t="n">
-        <v>5409.744488836779</v>
+        <v>3737.964430604053</v>
       </c>
       <c r="U29" t="n">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="V29" t="n">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="W29" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X29" t="n">
-        <v>1024.535678901276</v>
+        <v>1.161720419064896</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.3445731751939929</v>
+        <v>3.359127511226549</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.9835579754856774</v>
+        <v>109.2471997816387</v>
       </c>
       <c r="AA29" t="n">
-        <v>296.3922073181441</v>
+        <v>1.434293161123701</v>
       </c>
       <c r="AB29" t="n">
-        <v>3226.422889253932</v>
+        <v>1.278664386320006</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.733003283552908</v>
+        <v>0.322962496309922</v>
       </c>
       <c r="AD29" t="n">
-        <v>930.5665827111477</v>
+        <v>0.6401425056504438</v>
       </c>
       <c r="AE29" t="n">
-        <v>-66.76117077552692</v>
+        <v>27.45780994807661</v>
       </c>
       <c r="AF29" t="n">
-        <v>-349.2502431457059</v>
+        <v>2.127992579605659</v>
       </c>
       <c r="AG29" t="n">
-        <v>-7.04949897749635</v>
+        <v>4.395394048169531</v>
       </c>
       <c r="AH29" t="n">
-        <v>-87.90401411934189</v>
+        <v>5.677629479433108</v>
       </c>
       <c r="AI29" t="n">
-        <v>-1791.61690551806</v>
+        <v>169.3247280580565</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>47.1888528517093</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>-4.410854986638931</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>-85.48774248020624</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>-1231.352136926846</v>
       </c>
     </row>
     <row r="30">
@@ -3491,103 +3835,115 @@
         <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>10.52004998168837</v>
+        <v>10.61427373735652</v>
       </c>
       <c r="E30" t="n">
-        <v>116.3786657458281</v>
+        <v>114.7861445195017</v>
       </c>
       <c r="F30" t="n">
-        <v>2633.968957232898</v>
+        <v>2548.22409665303</v>
       </c>
       <c r="G30" t="n">
-        <v>393376.4966946444</v>
+        <v>402307.8609940596</v>
       </c>
       <c r="H30" t="n">
-        <v>414507.4620966939</v>
+        <v>421849.2990340008</v>
       </c>
       <c r="I30" t="n">
-        <v>33004.10313942834</v>
+        <v>27299.1523993884</v>
       </c>
       <c r="J30" t="n">
-        <v>8826.077514296294</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K30" t="n">
-        <v>-10078.06321251285</v>
+        <v>-7544.565951440592</v>
       </c>
       <c r="L30" t="n">
-        <v>0.8199963851514861</v>
+        <v>1.847373446186503</v>
       </c>
       <c r="M30" t="n">
-        <v>7.860783580699463</v>
+        <v>10.25088446981127</v>
       </c>
       <c r="N30" t="n">
-        <v>143.8565148084834</v>
+        <v>88.17582597320946</v>
       </c>
       <c r="O30" t="n">
-        <v>7.869495362647831</v>
+        <v>6.258228432825433</v>
       </c>
       <c r="P30" t="n">
-        <v>95.76479770004131</v>
+        <v>95.7386269500175</v>
       </c>
       <c r="Q30" t="n">
-        <v>1935.473420326544</v>
+        <v>1319.527962900055</v>
       </c>
       <c r="R30" t="n">
-        <v>23.61736209353284</v>
+        <v>19.32696419831531</v>
       </c>
       <c r="S30" t="n">
-        <v>294.842637032991</v>
+        <v>247.8030732918299</v>
       </c>
       <c r="T30" t="n">
-        <v>5409.744488836779</v>
+        <v>3737.964430604053</v>
       </c>
       <c r="U30" t="n">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="V30" t="n">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="W30" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X30" t="n">
-        <v>1024.535678901276</v>
+        <v>1.161720419064896</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.3445731751939929</v>
+        <v>3.359127511226549</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.9835579754856774</v>
+        <v>109.2471997816387</v>
       </c>
       <c r="AA30" t="n">
-        <v>296.3922073181441</v>
+        <v>1.434293161123701</v>
       </c>
       <c r="AB30" t="n">
-        <v>3236.070191926099</v>
+        <v>1.278664386320006</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.733003283552908</v>
+        <v>0.322962496309922</v>
       </c>
       <c r="AD30" t="n">
-        <v>930.5665827111477</v>
+        <v>0.6401425056504438</v>
       </c>
       <c r="AE30" t="n">
-        <v>-66.76117077552692</v>
+        <v>27.45780994807661</v>
       </c>
       <c r="AF30" t="n">
-        <v>-349.2502431457059</v>
+        <v>2.127992579605659</v>
       </c>
       <c r="AG30" t="n">
-        <v>-7.04949897749635</v>
+        <v>4.395394048169531</v>
       </c>
       <c r="AH30" t="n">
-        <v>-87.90401411934189</v>
+        <v>5.677629479433108</v>
       </c>
       <c r="AI30" t="n">
-        <v>-1791.61690551806</v>
+        <v>169.3247280580565</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>47.1888528517093</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>-4.410854986638931</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>-85.48774248020624</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>-1231.352136926846</v>
       </c>
     </row>
     <row r="31">
@@ -3598,103 +3954,115 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>10.43177635630219</v>
+        <v>10.6023469633512</v>
       </c>
       <c r="E31" t="n">
-        <v>116.4195822736519</v>
+        <v>114.8184887693308</v>
       </c>
       <c r="F31" t="n">
-        <v>2636.73085861044</v>
+        <v>2510.257584441275</v>
       </c>
       <c r="G31" t="n">
-        <v>395583.5731157186</v>
+        <v>405926.4534960717</v>
       </c>
       <c r="H31" t="n">
-        <v>413888.6834073879</v>
+        <v>423219.936012344</v>
       </c>
       <c r="I31" t="n">
-        <v>34731.52264623069</v>
+        <v>28243.42609645792</v>
       </c>
       <c r="J31" t="n">
-        <v>8826.077514296294</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K31" t="n">
-        <v>-10078.06321251285</v>
+        <v>-7553.358966383371</v>
       </c>
       <c r="L31" t="n">
-        <v>1.111946062086297</v>
+        <v>1.793829561133238</v>
       </c>
       <c r="M31" t="n">
-        <v>7.880488515688974</v>
+        <v>8.440006052131206</v>
       </c>
       <c r="N31" t="n">
-        <v>108.8432624842059</v>
+        <v>77.87405304761583</v>
       </c>
       <c r="O31" t="n">
-        <v>9.189478635829966</v>
+        <v>7.49562484258337</v>
       </c>
       <c r="P31" t="n">
-        <v>98.50721058524194</v>
+        <v>106.2821580588817</v>
       </c>
       <c r="Q31" t="n">
-        <v>2430.343700884845</v>
+        <v>1032.91082971834</v>
       </c>
       <c r="R31" t="n">
-        <v>25.66077038312877</v>
+        <v>22.0050197567495</v>
       </c>
       <c r="S31" t="n">
-        <v>313.61328403453</v>
+        <v>260.7087996389029</v>
       </c>
       <c r="T31" t="n">
-        <v>5970.734258012134</v>
+        <v>3829.639464986581</v>
       </c>
       <c r="U31" t="n">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="V31" t="n">
-        <v>530</v>
+        <v>582</v>
       </c>
       <c r="W31" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X31" t="n">
-        <v>1026.022784565902</v>
+        <v>1.267336132861995</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.3665071340122938</v>
+        <v>3.519208920457781</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.9933294898347585</v>
+        <v>113.2037306689706</v>
       </c>
       <c r="AA31" t="n">
-        <v>296.5195519851801</v>
+        <v>1.53595574055351</v>
       </c>
       <c r="AB31" t="n">
-        <v>3236.333928689538</v>
+        <v>1.329931630332336</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.756348079299044</v>
+        <v>0.3502718135353965</v>
       </c>
       <c r="AD31" t="n">
-        <v>-233.6628454358969</v>
+        <v>0.6760607921537857</v>
       </c>
       <c r="AE31" t="n">
-        <v>300.1741532298902</v>
+        <v>27.51198836357578</v>
       </c>
       <c r="AF31" t="n">
-        <v>-684.907672352064</v>
+        <v>3.06628085483654</v>
       </c>
       <c r="AG31" t="n">
-        <v>-8.077532573743676</v>
+        <v>4.652247103851357</v>
       </c>
       <c r="AH31" t="n">
-        <v>-90.62672206955298</v>
+        <v>-5930.011451943426</v>
       </c>
       <c r="AI31" t="n">
-        <v>-2321.500438400638</v>
+        <v>-951.6977293490174</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>909.9182280510236</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-5.701795281450131</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-97.84215200675052</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-955.036776670725</v>
       </c>
     </row>
     <row r="32">
@@ -3705,103 +4073,115 @@
         <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>10.43177635630219</v>
+        <v>10.6023469633512</v>
       </c>
       <c r="E32" t="n">
-        <v>116.4195822736519</v>
+        <v>114.8184887693308</v>
       </c>
       <c r="F32" t="n">
-        <v>2636.73085861044</v>
+        <v>2510.257584441275</v>
       </c>
       <c r="G32" t="n">
-        <v>395937.1216702434</v>
+        <v>405926.4534960717</v>
       </c>
       <c r="H32" t="n">
-        <v>413888.6834073879</v>
+        <v>423219.936012344</v>
       </c>
       <c r="I32" t="n">
-        <v>34731.52264623069</v>
+        <v>28243.42609645792</v>
       </c>
       <c r="J32" t="n">
-        <v>8826.077514296294</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K32" t="n">
-        <v>-10078.06321251285</v>
+        <v>-7553.358966383371</v>
       </c>
       <c r="L32" t="n">
-        <v>1.111946062086297</v>
+        <v>1.793829561133238</v>
       </c>
       <c r="M32" t="n">
-        <v>7.880488515688974</v>
+        <v>8.440006052131206</v>
       </c>
       <c r="N32" t="n">
-        <v>108.8432624842059</v>
+        <v>77.87405304761583</v>
       </c>
       <c r="O32" t="n">
-        <v>9.189478635829966</v>
+        <v>7.49562484258337</v>
       </c>
       <c r="P32" t="n">
-        <v>98.50721058524194</v>
+        <v>106.2821580588817</v>
       </c>
       <c r="Q32" t="n">
-        <v>2430.343700884845</v>
+        <v>1032.91082971834</v>
       </c>
       <c r="R32" t="n">
-        <v>25.66077038312877</v>
+        <v>22.0050197567495</v>
       </c>
       <c r="S32" t="n">
-        <v>313.61328403453</v>
+        <v>260.7087996389029</v>
       </c>
       <c r="T32" t="n">
-        <v>5970.734258012134</v>
+        <v>3829.639464986581</v>
       </c>
       <c r="U32" t="n">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="V32" t="n">
-        <v>530</v>
+        <v>582</v>
       </c>
       <c r="W32" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X32" t="n">
-        <v>1026.022784565902</v>
+        <v>1.267336132861995</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.3665071340122938</v>
+        <v>3.519208920457781</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.9933294898347585</v>
+        <v>113.2037306689706</v>
       </c>
       <c r="AA32" t="n">
-        <v>296.5195519851801</v>
+        <v>1.53595574055351</v>
       </c>
       <c r="AB32" t="n">
-        <v>3245.399276241457</v>
+        <v>1.329931630332336</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.756348079299044</v>
+        <v>0.3502718135353965</v>
       </c>
       <c r="AD32" t="n">
-        <v>-233.6628454358969</v>
+        <v>0.6760607921537857</v>
       </c>
       <c r="AE32" t="n">
-        <v>300.1741532298902</v>
+        <v>27.51198836357578</v>
       </c>
       <c r="AF32" t="n">
-        <v>-684.907672352064</v>
+        <v>3.06628085483654</v>
       </c>
       <c r="AG32" t="n">
-        <v>-8.077532573743676</v>
+        <v>4.652247103851357</v>
       </c>
       <c r="AH32" t="n">
-        <v>-90.62672206955298</v>
+        <v>-5930.011451943426</v>
       </c>
       <c r="AI32" t="n">
-        <v>-2321.500438400638</v>
+        <v>-951.6977293490174</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>909.9182280510236</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>-5.701795281450131</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>-97.84215200675052</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>-955.036776670725</v>
       </c>
     </row>
     <row r="33">
@@ -3812,103 +4192,115 @@
         <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>10.44775088684252</v>
+        <v>10.57441312608655</v>
       </c>
       <c r="E33" t="n">
-        <v>116.761031730663</v>
+        <v>114.9134381931953</v>
       </c>
       <c r="F33" t="n">
-        <v>2635.444735951334</v>
+        <v>2519.903871231321</v>
       </c>
       <c r="G33" t="n">
-        <v>389233.8793726482</v>
+        <v>404212.523304916</v>
       </c>
       <c r="H33" t="n">
-        <v>413561.534791411</v>
+        <v>424422.6259812755</v>
       </c>
       <c r="I33" t="n">
-        <v>40122.50857129061</v>
+        <v>28197.25800874751</v>
       </c>
       <c r="J33" t="n">
-        <v>17619.5806134451</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K33" t="n">
-        <v>-7755.898616816266</v>
+        <v>-7538.885059856301</v>
       </c>
       <c r="L33" t="n">
-        <v>1.992140335035873</v>
+        <v>1.534058718677581</v>
       </c>
       <c r="M33" t="n">
-        <v>7.933297954743326</v>
+        <v>5.478849511864888</v>
       </c>
       <c r="N33" t="n">
-        <v>230.5834671604196</v>
+        <v>87.25099050776576</v>
       </c>
       <c r="O33" t="n">
-        <v>7.95729798072312</v>
+        <v>8.934796397013033</v>
       </c>
       <c r="P33" t="n">
-        <v>53.17993329429243</v>
+        <v>107.7696618286752</v>
       </c>
       <c r="Q33" t="n">
-        <v>1734.034823290463</v>
+        <v>961.1363194592351</v>
       </c>
       <c r="R33" t="n">
-        <v>27.36542801440572</v>
+        <v>23.83796922962313</v>
       </c>
       <c r="S33" t="n">
-        <v>314.1217618375062</v>
+        <v>262.3106535383731</v>
       </c>
       <c r="T33" t="n">
-        <v>6181.855845379342</v>
+        <v>3886.889984987616</v>
       </c>
       <c r="U33" t="n">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="V33" t="n">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="W33" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X33" t="n">
-        <v>1053.539984603121</v>
+        <v>1.332938629352797</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.3858388004040815</v>
+        <v>3.612545029390098</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.003001250817635</v>
+        <v>115.1612065068135</v>
       </c>
       <c r="AA33" t="n">
-        <v>302.221519473785</v>
+        <v>1.629081657534843</v>
       </c>
       <c r="AB33" t="n">
-        <v>3246.264324325569</v>
+        <v>1.432709685826687</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.415489090372434</v>
+        <v>0.3639524498682786</v>
       </c>
       <c r="AD33" t="n">
-        <v>-3129.82945781037</v>
+        <v>0.7102342612368523</v>
       </c>
       <c r="AE33" t="n">
-        <v>-2258.293242180572</v>
+        <v>27.75089364011599</v>
       </c>
       <c r="AF33" t="n">
-        <v>-0.2025654507005736</v>
+        <v>3.094703457258056</v>
       </c>
       <c r="AG33" t="n">
-        <v>-5.965157645687254</v>
+        <v>5.030760644196219</v>
       </c>
       <c r="AH33" t="n">
-        <v>-45.24663533954912</v>
+        <v>70.51325653666981</v>
       </c>
       <c r="AI33" t="n">
-        <v>-1503.451356130042</v>
+        <v>-700.2895422884012</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>-7.963391997984957</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>-7.400737678335452</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>-102.2908123168103</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>-873.8853289514698</v>
       </c>
     </row>
     <row r="34">
@@ -3919,103 +4311,115 @@
         <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>10.44775088684252</v>
+        <v>10.57441312608655</v>
       </c>
       <c r="E34" t="n">
-        <v>116.761031730663</v>
+        <v>114.9134381931953</v>
       </c>
       <c r="F34" t="n">
-        <v>2635.444735951334</v>
+        <v>2519.903871231321</v>
       </c>
       <c r="G34" t="n">
-        <v>389563.9484987684</v>
+        <v>404212.523304916</v>
       </c>
       <c r="H34" t="n">
-        <v>413561.534791411</v>
+        <v>424422.6259812755</v>
       </c>
       <c r="I34" t="n">
-        <v>40122.50857129061</v>
+        <v>28197.25800874751</v>
       </c>
       <c r="J34" t="n">
-        <v>17619.5806134451</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K34" t="n">
-        <v>-7755.898616816266</v>
+        <v>-7538.885059856301</v>
       </c>
       <c r="L34" t="n">
-        <v>1.992140335035873</v>
+        <v>1.534058718677581</v>
       </c>
       <c r="M34" t="n">
-        <v>7.933297954743326</v>
+        <v>5.478849511864888</v>
       </c>
       <c r="N34" t="n">
-        <v>230.5834671604196</v>
+        <v>87.25099050776576</v>
       </c>
       <c r="O34" t="n">
-        <v>7.95729798072312</v>
+        <v>8.934796397013033</v>
       </c>
       <c r="P34" t="n">
-        <v>53.17993329429243</v>
+        <v>107.7696618286752</v>
       </c>
       <c r="Q34" t="n">
-        <v>1734.034823290463</v>
+        <v>961.1363194592351</v>
       </c>
       <c r="R34" t="n">
-        <v>27.36542801440572</v>
+        <v>23.83796922962313</v>
       </c>
       <c r="S34" t="n">
-        <v>314.1217618375062</v>
+        <v>262.3106535383731</v>
       </c>
       <c r="T34" t="n">
-        <v>6181.855845379342</v>
+        <v>3886.889984987616</v>
       </c>
       <c r="U34" t="n">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="V34" t="n">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="W34" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X34" t="n">
-        <v>1053.539984603121</v>
+        <v>1.332938629352797</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.3858388004040815</v>
+        <v>3.612545029390098</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.003001250817635</v>
+        <v>115.1612065068135</v>
       </c>
       <c r="AA34" t="n">
-        <v>302.221519473785</v>
+        <v>1.629081657534843</v>
       </c>
       <c r="AB34" t="n">
-        <v>3254.727635251728</v>
+        <v>1.432709685826687</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.415489090372434</v>
+        <v>0.3639524498682786</v>
       </c>
       <c r="AD34" t="n">
-        <v>-3129.82945781037</v>
+        <v>0.7102342612368523</v>
       </c>
       <c r="AE34" t="n">
-        <v>-2258.293242180572</v>
+        <v>27.75089364011599</v>
       </c>
       <c r="AF34" t="n">
-        <v>-0.2025654507005736</v>
+        <v>3.094703457258056</v>
       </c>
       <c r="AG34" t="n">
-        <v>-5.965157645687254</v>
+        <v>5.030760644196219</v>
       </c>
       <c r="AH34" t="n">
-        <v>-45.24663533954912</v>
+        <v>70.51325653666981</v>
       </c>
       <c r="AI34" t="n">
-        <v>-1503.451356130042</v>
+        <v>-700.2895422884012</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-7.963391997984957</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-7.400737678335452</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-102.2908123168103</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-873.8853289514698</v>
       </c>
     </row>
     <row r="35">
@@ -4026,103 +4430,115 @@
         <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>10.53086477510476</v>
+        <v>10.6282376615674</v>
       </c>
       <c r="E35" t="n">
-        <v>117.9228338490946</v>
+        <v>111.8950517189497</v>
       </c>
       <c r="F35" t="n">
-        <v>2638.754859889357</v>
+        <v>2567.14897319383</v>
       </c>
       <c r="G35" t="n">
-        <v>387577.4600767865</v>
+        <v>402346.0862718241</v>
       </c>
       <c r="H35" t="n">
-        <v>406969.1324314345</v>
+        <v>424498.3826465832</v>
       </c>
       <c r="I35" t="n">
-        <v>41023.64757674289</v>
+        <v>30523.06248458755</v>
       </c>
       <c r="J35" t="n">
-        <v>17619.5806134451</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K35" t="n">
-        <v>-7359.640827481939</v>
+        <v>-7538.885059856301</v>
       </c>
       <c r="L35" t="n">
-        <v>1.385944554733979</v>
+        <v>1.22065648911664</v>
       </c>
       <c r="M35" t="n">
-        <v>10.18742865537628</v>
+        <v>8.964874950545251</v>
       </c>
       <c r="N35" t="n">
-        <v>213.4070413375156</v>
+        <v>88.6377191309072</v>
       </c>
       <c r="O35" t="n">
-        <v>9.089527925667811</v>
+        <v>9.119235604447393</v>
       </c>
       <c r="P35" t="n">
-        <v>86.23458863005985</v>
+        <v>102.3312991576946</v>
       </c>
       <c r="Q35" t="n">
-        <v>1284.615121395302</v>
+        <v>944.1640915258038</v>
       </c>
       <c r="R35" t="n">
-        <v>29.07893168025031</v>
+        <v>24.41383742681164</v>
       </c>
       <c r="S35" t="n">
-        <v>350.2767318872162</v>
+        <v>271.904133405262</v>
       </c>
       <c r="T35" t="n">
-        <v>6200.042934869585</v>
+        <v>3892.523657019864</v>
       </c>
       <c r="U35" t="n">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="V35" t="n">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="W35" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X35" t="n">
-        <v>1061.40443437961</v>
+        <v>1.372608784425193</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.3985187869286174</v>
+        <v>4.054223755963108</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.031275044292527</v>
+        <v>115.4989005875776</v>
       </c>
       <c r="AA35" t="n">
-        <v>303.1330216078215</v>
+        <v>1.732256484087411</v>
       </c>
       <c r="AB35" t="n">
-        <v>3254.936476955367</v>
+        <v>1.504985759991026</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.61352640564486</v>
+        <v>0.374457096066189</v>
       </c>
       <c r="AD35" t="n">
-        <v>97.47219709519777</v>
+        <v>0.807425372411432</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.8194286891564388</v>
+        <v>27.79083527332424</v>
       </c>
       <c r="AF35" t="n">
-        <v>44.12823292694338</v>
+        <v>3.192376316956905</v>
       </c>
       <c r="AG35" t="n">
-        <v>-7.703583370933838</v>
+        <v>5.083798552854526</v>
       </c>
       <c r="AH35" t="n">
-        <v>-76.04715997468358</v>
+        <v>-401.7107801072962</v>
       </c>
       <c r="AI35" t="n">
-        <v>-1071.208080057786</v>
+        <v>-47.60324316820925</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>-196.1737106077961</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>-7.898579115330755</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>-93.36642420714934</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>-855.526372394897</v>
       </c>
     </row>
     <row r="36">
@@ -4133,103 +4549,115 @@
         <v>30</v>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>10.53086477510476</v>
+        <v>10.6282376615674</v>
       </c>
       <c r="E36" t="n">
-        <v>117.9228338490946</v>
+        <v>111.8950517189497</v>
       </c>
       <c r="F36" t="n">
-        <v>2638.754859889357</v>
+        <v>2567.14897319383</v>
       </c>
       <c r="G36" t="n">
-        <v>387885.9585816869</v>
+        <v>402346.0862718241</v>
       </c>
       <c r="H36" t="n">
-        <v>406969.1324314345</v>
+        <v>424498.3826465832</v>
       </c>
       <c r="I36" t="n">
-        <v>41023.64757674289</v>
+        <v>30523.06248458755</v>
       </c>
       <c r="J36" t="n">
-        <v>17619.5806134451</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K36" t="n">
-        <v>-7359.640827481939</v>
+        <v>-7538.885059856301</v>
       </c>
       <c r="L36" t="n">
-        <v>1.385944554733979</v>
+        <v>1.22065648911664</v>
       </c>
       <c r="M36" t="n">
-        <v>10.18742865537628</v>
+        <v>8.964874950545251</v>
       </c>
       <c r="N36" t="n">
-        <v>213.4070413375156</v>
+        <v>88.6377191309072</v>
       </c>
       <c r="O36" t="n">
-        <v>9.089527925667811</v>
+        <v>9.119235604447393</v>
       </c>
       <c r="P36" t="n">
-        <v>86.23458863005985</v>
+        <v>102.3312991576946</v>
       </c>
       <c r="Q36" t="n">
-        <v>1284.615121395302</v>
+        <v>944.1640915258038</v>
       </c>
       <c r="R36" t="n">
-        <v>29.07893168025031</v>
+        <v>24.41383742681164</v>
       </c>
       <c r="S36" t="n">
-        <v>350.2767318872162</v>
+        <v>271.904133405262</v>
       </c>
       <c r="T36" t="n">
-        <v>6200.042934869585</v>
+        <v>3892.523657019864</v>
       </c>
       <c r="U36" t="n">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="V36" t="n">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="W36" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X36" t="n">
-        <v>1061.40443437961</v>
+        <v>1.372608784425193</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.3985187869286174</v>
+        <v>4.054223755963108</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.031275044292527</v>
+        <v>115.4989005875776</v>
       </c>
       <c r="AA36" t="n">
-        <v>303.1330216078215</v>
+        <v>1.732256484087411</v>
       </c>
       <c r="AB36" t="n">
-        <v>3262.846695029735</v>
+        <v>1.504985759991026</v>
       </c>
       <c r="AC36" t="n">
-        <v>10.61352640564486</v>
+        <v>0.374457096066189</v>
       </c>
       <c r="AD36" t="n">
-        <v>97.47219709519777</v>
+        <v>0.807425372411432</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.8194286891564388</v>
+        <v>27.79083527332424</v>
       </c>
       <c r="AF36" t="n">
-        <v>44.12823292694338</v>
+        <v>3.192376316956905</v>
       </c>
       <c r="AG36" t="n">
-        <v>-7.703583370933838</v>
+        <v>5.083798552854526</v>
       </c>
       <c r="AH36" t="n">
-        <v>-76.04715997468358</v>
+        <v>-401.7107801072962</v>
       </c>
       <c r="AI36" t="n">
-        <v>-1071.208080057786</v>
+        <v>-47.60324316820925</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>-196.1737106077961</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>-7.898579115330755</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>-93.36642420714934</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>-855.526372394897</v>
       </c>
     </row>
     <row r="37">
@@ -4240,103 +4668,115 @@
         <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>10.5653311602356</v>
+        <v>10.61938820322059</v>
       </c>
       <c r="E37" t="n">
-        <v>118.4806656766589</v>
+        <v>113.5438432031328</v>
       </c>
       <c r="F37" t="n">
-        <v>2648.371860863803</v>
+        <v>2595.02105500766</v>
       </c>
       <c r="G37" t="n">
-        <v>379723.3074901763</v>
+        <v>397622.2064680613</v>
       </c>
       <c r="H37" t="n">
-        <v>407256.518459279</v>
+        <v>406466.3936025446</v>
       </c>
       <c r="I37" t="n">
-        <v>44336.89212245062</v>
+        <v>44693.61893886674</v>
       </c>
       <c r="J37" t="n">
-        <v>17268.91629620187</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K37" t="n">
-        <v>-7379.583242877678</v>
+        <v>-7508.496668764988</v>
       </c>
       <c r="L37" t="n">
-        <v>1.389317865690596</v>
+        <v>1.141840636658923</v>
       </c>
       <c r="M37" t="n">
-        <v>8.485856113105184</v>
+        <v>6.525295855397931</v>
       </c>
       <c r="N37" t="n">
-        <v>168.2149781135884</v>
+        <v>146.2504039726653</v>
       </c>
       <c r="O37" t="n">
-        <v>8.444569683493683</v>
+        <v>6.691817816523151</v>
       </c>
       <c r="P37" t="n">
-        <v>94.59145918554</v>
+        <v>66.8026740199716</v>
       </c>
       <c r="Q37" t="n">
-        <v>1177.005203778731</v>
+        <v>1528.575306387607</v>
       </c>
       <c r="R37" t="n">
-        <v>29.7547439544804</v>
+        <v>24.62223535919051</v>
       </c>
       <c r="S37" t="n">
-        <v>358.9173283439183</v>
+        <v>279.9542760133959</v>
       </c>
       <c r="T37" t="n">
-        <v>6300.05699404975</v>
+        <v>4555.688536617764</v>
       </c>
       <c r="U37" t="n">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="V37" t="n">
-        <v>619</v>
+        <v>679</v>
       </c>
       <c r="W37" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="X37" t="n">
-        <v>1089.602401952697</v>
+        <v>1.443561036344688</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4112079852974453</v>
+        <v>4.541273954965429</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.045837338203907</v>
+        <v>122.6793415175465</v>
       </c>
       <c r="AA37" t="n">
-        <v>311.0972923005434</v>
+        <v>1.865906141768355</v>
       </c>
       <c r="AB37" t="n">
-        <v>3262.883632166076</v>
+        <v>1.63107619941741</v>
       </c>
       <c r="AC37" t="n">
-        <v>11.04445735622604</v>
+        <v>0.3834182912478188</v>
       </c>
       <c r="AD37" t="n">
-        <v>-4237.102674786953</v>
+        <v>0.8292306449477098</v>
       </c>
       <c r="AE37" t="n">
-        <v>62.72730116560854</v>
+        <v>29.94774012317392</v>
       </c>
       <c r="AF37" t="n">
-        <v>-550.7212922742833</v>
+        <v>3.267426945367709</v>
       </c>
       <c r="AG37" t="n">
-        <v>-7.05525181780309</v>
+        <v>5.220531650275547</v>
       </c>
       <c r="AH37" t="n">
-        <v>-86.10560307243483</v>
+        <v>-351.5290828622672</v>
       </c>
       <c r="AI37" t="n">
-        <v>-1008.790225665141</v>
+        <v>-1250.504216650468</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>27.65514579052508</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>-5.549977179864228</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>-60.27737816457368</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>-1382.324902414942</v>
       </c>
     </row>
     <row r="38">
@@ -4347,103 +4787,115 @@
         <v>30</v>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>10.5653311602356</v>
+        <v>10.61938820322059</v>
       </c>
       <c r="E38" t="n">
-        <v>118.4806656766589</v>
+        <v>113.5438432031328</v>
       </c>
       <c r="F38" t="n">
-        <v>2648.371860863803</v>
+        <v>2595.02105500766</v>
       </c>
       <c r="G38" t="n">
-        <v>380013.6861755698</v>
+        <v>397622.2064680613</v>
       </c>
       <c r="H38" t="n">
-        <v>407256.518459279</v>
+        <v>406466.3936025446</v>
       </c>
       <c r="I38" t="n">
-        <v>44336.89212245062</v>
+        <v>44693.61893886674</v>
       </c>
       <c r="J38" t="n">
-        <v>17268.91629620187</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K38" t="n">
-        <v>-7379.583242877678</v>
+        <v>-7508.496668764988</v>
       </c>
       <c r="L38" t="n">
-        <v>1.389317865690596</v>
+        <v>1.141840636658923</v>
       </c>
       <c r="M38" t="n">
-        <v>8.485856113105184</v>
+        <v>6.525295855397931</v>
       </c>
       <c r="N38" t="n">
-        <v>168.2149781135884</v>
+        <v>146.2504039726653</v>
       </c>
       <c r="O38" t="n">
-        <v>8.444569683493683</v>
+        <v>6.691817816523151</v>
       </c>
       <c r="P38" t="n">
-        <v>94.59145918554</v>
+        <v>66.8026740199716</v>
       </c>
       <c r="Q38" t="n">
-        <v>1177.005203778731</v>
+        <v>1528.575306387607</v>
       </c>
       <c r="R38" t="n">
-        <v>29.7547439544804</v>
+        <v>24.62223535919051</v>
       </c>
       <c r="S38" t="n">
-        <v>358.9173283439183</v>
+        <v>279.9542760133959</v>
       </c>
       <c r="T38" t="n">
-        <v>6300.05699404975</v>
+        <v>4555.688536617764</v>
       </c>
       <c r="U38" t="n">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="V38" t="n">
-        <v>619</v>
+        <v>679</v>
       </c>
       <c r="W38" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="X38" t="n">
-        <v>1089.602401952697</v>
+        <v>1.443561036344688</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4112079852974453</v>
+        <v>4.541273954965429</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.045837338203907</v>
+        <v>122.6793415175465</v>
       </c>
       <c r="AA38" t="n">
-        <v>311.0972923005434</v>
+        <v>1.865906141768355</v>
       </c>
       <c r="AB38" t="n">
-        <v>3270.329239483859</v>
+        <v>1.63107619941741</v>
       </c>
       <c r="AC38" t="n">
-        <v>11.04445735622604</v>
+        <v>0.3834182912478188</v>
       </c>
       <c r="AD38" t="n">
-        <v>-4237.102674786953</v>
+        <v>0.8292306449477098</v>
       </c>
       <c r="AE38" t="n">
-        <v>62.72730116560854</v>
+        <v>29.94774012317392</v>
       </c>
       <c r="AF38" t="n">
-        <v>-550.7212922742833</v>
+        <v>3.267426945367709</v>
       </c>
       <c r="AG38" t="n">
-        <v>-7.05525181780309</v>
+        <v>5.220531650275547</v>
       </c>
       <c r="AH38" t="n">
-        <v>-86.10560307243483</v>
+        <v>-351.5290828622672</v>
       </c>
       <c r="AI38" t="n">
-        <v>-1008.790225665141</v>
+        <v>-1250.504216650468</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>27.65514579052508</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>-5.549977179864228</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>-60.27737816457368</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>-1382.324902414942</v>
       </c>
     </row>
     <row r="39">
@@ -4454,103 +4906,115 @@
         <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>10.60575058552497</v>
+        <v>10.60925231016511</v>
       </c>
       <c r="E39" t="n">
-        <v>118.2470962469659</v>
+        <v>113.9921202729461</v>
       </c>
       <c r="F39" t="n">
-        <v>2725.541986663385</v>
+        <v>2591.719584749997</v>
       </c>
       <c r="G39" t="n">
-        <v>358468.4571155419</v>
+        <v>391990.1142649456</v>
       </c>
       <c r="H39" t="n">
-        <v>407435.8651067704</v>
+        <v>408822.0019136232</v>
       </c>
       <c r="I39" t="n">
-        <v>54375.10608704867</v>
+        <v>47443.69491625723</v>
       </c>
       <c r="J39" t="n">
-        <v>17268.91629620187</v>
+        <v>15241.89667830019</v>
       </c>
       <c r="K39" t="n">
-        <v>-7379.583242877678</v>
+        <v>-7508.496668764988</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5954616035233995</v>
+        <v>1.141840636658923</v>
       </c>
       <c r="M39" t="n">
-        <v>6.498633407191151</v>
+        <v>6.514122786356847</v>
       </c>
       <c r="N39" t="n">
-        <v>159.5669916387692</v>
+        <v>136.5256573684555</v>
       </c>
       <c r="O39" t="n">
-        <v>7.67470069897412</v>
+        <v>8.04276045249402</v>
       </c>
       <c r="P39" t="n">
-        <v>102.9920848262839</v>
+        <v>69.51664341789885</v>
       </c>
       <c r="Q39" t="n">
-        <v>1710.403916083573</v>
+        <v>2174.352099339324</v>
       </c>
       <c r="R39" t="n">
-        <v>30.60898958128798</v>
+        <v>26.04454743081506</v>
       </c>
       <c r="S39" t="n">
-        <v>378.74792046287</v>
+        <v>288.2749109965895</v>
       </c>
       <c r="T39" t="n">
-        <v>7274.31801624455</v>
+        <v>5334.410213205101</v>
       </c>
       <c r="U39" t="n">
-        <v>584</v>
+        <v>543</v>
       </c>
       <c r="V39" t="n">
-        <v>644</v>
+        <v>704</v>
       </c>
       <c r="W39" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="X39" t="n">
-        <v>1095.424437994748</v>
+        <v>1.511855272024291</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.4296556458804881</v>
+        <v>4.61768867347537</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.082508123345061</v>
+        <v>125.6681713334089</v>
       </c>
       <c r="AA39" t="n">
-        <v>311.4307305462162</v>
+        <v>1.939038934205133</v>
       </c>
       <c r="AB39" t="n">
-        <v>3271.242495378206</v>
+        <v>1.691986642835098</v>
       </c>
       <c r="AC39" t="n">
-        <v>11.48925558309703</v>
+        <v>0.3982911733358008</v>
       </c>
       <c r="AD39" t="n">
-        <v>839.398080356078</v>
+        <v>0.8405994273181453</v>
       </c>
       <c r="AE39" t="n">
-        <v>176.330668173759</v>
+        <v>30.49985977519959</v>
       </c>
       <c r="AF39" t="n">
-        <v>-623.0620011338901</v>
+        <v>3.644730485058164</v>
       </c>
       <c r="AG39" t="n">
-        <v>-7.079239095450723</v>
+        <v>5.245141395872938</v>
       </c>
       <c r="AH39" t="n">
-        <v>-96.49345141909276</v>
+        <v>-429.7046315232232</v>
       </c>
       <c r="AI39" t="n">
-        <v>-1550.836924444803</v>
+        <v>-123.8035173468845</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>43.73047329020687</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>-6.900919815835097</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>-63.00252063154198</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>-2037.826441970869</v>
       </c>
     </row>
     <row r="40">
@@ -4561,103 +5025,115 @@
         <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>10.60575058552497</v>
+        <v>10.60925231016511</v>
       </c>
       <c r="E40" t="n">
-        <v>118.2470962469659</v>
+        <v>113.9921202729461</v>
       </c>
       <c r="F40" t="n">
-        <v>2725.541986663385</v>
+        <v>2591.719584749997</v>
       </c>
       <c r="G40" t="n">
-        <v>358738.6824430191</v>
+        <v>391990.1142649456</v>
       </c>
       <c r="H40" t="n">
-        <v>407435.8651067704</v>
+        <v>408822.0019136232</v>
       </c>
       <c r="I40" t="n">
-        <v>54375.10608704867</v>
+        <v>47443.69491625723</v>
       </c>
       <c r="J40" t="n">
-        <v>17268.91629620187</v>
+        <v>15241.89667830019</v>
       </c>
       <c r="K40" t="n">
-        <v>-7379.583242877678</v>
+        <v>-7508.496668764988</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5954616035233995</v>
+        <v>1.141840636658923</v>
       </c>
       <c r="M40" t="n">
-        <v>6.498633407191151</v>
+        <v>6.514122786356847</v>
       </c>
       <c r="N40" t="n">
-        <v>159.5669916387692</v>
+        <v>136.5256573684555</v>
       </c>
       <c r="O40" t="n">
-        <v>7.67470069897412</v>
+        <v>8.04276045249402</v>
       </c>
       <c r="P40" t="n">
-        <v>102.9920848262839</v>
+        <v>69.51664341789885</v>
       </c>
       <c r="Q40" t="n">
-        <v>1710.403916083573</v>
+        <v>2174.352099339324</v>
       </c>
       <c r="R40" t="n">
-        <v>30.60898958128798</v>
+        <v>26.04454743081506</v>
       </c>
       <c r="S40" t="n">
-        <v>378.74792046287</v>
+        <v>288.2749109965895</v>
       </c>
       <c r="T40" t="n">
-        <v>7274.31801624455</v>
+        <v>5334.410213205101</v>
       </c>
       <c r="U40" t="n">
-        <v>584</v>
+        <v>543</v>
       </c>
       <c r="V40" t="n">
-        <v>644</v>
+        <v>704</v>
       </c>
       <c r="W40" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="X40" t="n">
-        <v>1095.424437994748</v>
+        <v>1.511855272024291</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4296556458804881</v>
+        <v>4.61768867347537</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.082508123345061</v>
+        <v>125.6681713334089</v>
       </c>
       <c r="AA40" t="n">
-        <v>311.4307305462162</v>
+        <v>1.939038934205133</v>
       </c>
       <c r="AB40" t="n">
-        <v>3278.171349928906</v>
+        <v>1.691986642835098</v>
       </c>
       <c r="AC40" t="n">
-        <v>11.48925558309703</v>
+        <v>0.3982911733358008</v>
       </c>
       <c r="AD40" t="n">
-        <v>839.398080356078</v>
+        <v>0.8405994273181453</v>
       </c>
       <c r="AE40" t="n">
-        <v>176.330668173759</v>
+        <v>30.49985977519959</v>
       </c>
       <c r="AF40" t="n">
-        <v>-623.0620011338901</v>
+        <v>3.644730485058164</v>
       </c>
       <c r="AG40" t="n">
-        <v>-7.079239095450723</v>
+        <v>5.245141395872938</v>
       </c>
       <c r="AH40" t="n">
-        <v>-96.49345141909276</v>
+        <v>-429.7046315232232</v>
       </c>
       <c r="AI40" t="n">
-        <v>-1550.836924444803</v>
+        <v>-123.8035173468845</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>43.73047329020687</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>-6.900919815835097</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>-63.00252063154198</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>-2037.826441970869</v>
       </c>
     </row>
     <row r="41">
@@ -4668,103 +5144,115 @@
         <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>10.61258638309419</v>
+        <v>10.53378994053169</v>
       </c>
       <c r="E41" t="n">
-        <v>118.9210643148733</v>
+        <v>114.1705087154545</v>
       </c>
       <c r="F41" t="n">
-        <v>2728.307294907332</v>
+        <v>2581.181699456177</v>
       </c>
       <c r="G41" t="n">
-        <v>350425.8535796637</v>
+        <v>391049.6515388258</v>
       </c>
       <c r="H41" t="n">
-        <v>408579.2239840418</v>
+        <v>407171.3995622597</v>
       </c>
       <c r="I41" t="n">
-        <v>58760.16964785617</v>
+        <v>54158.23729690172</v>
       </c>
       <c r="J41" t="n">
-        <v>20711.20479754353</v>
+        <v>15241.89667830019</v>
       </c>
       <c r="K41" t="n">
-        <v>-7379.583242877678</v>
+        <v>-7523.59055099697</v>
       </c>
       <c r="L41" t="n">
-        <v>0.5693685267233666</v>
+        <v>0.1039847359247313</v>
       </c>
       <c r="M41" t="n">
-        <v>4.906923341550538</v>
+        <v>21.09248062405064</v>
       </c>
       <c r="N41" t="n">
-        <v>123.5922844568606</v>
+        <v>60.65027340436704</v>
       </c>
       <c r="O41" t="n">
-        <v>8.704882902049917</v>
+        <v>9.131559325098277</v>
       </c>
       <c r="P41" t="n">
-        <v>106.0612401849245</v>
+        <v>72.61147120334671</v>
       </c>
       <c r="Q41" t="n">
-        <v>1798.941241783741</v>
+        <v>1764.463267678493</v>
       </c>
       <c r="R41" t="n">
-        <v>31.63917178436378</v>
+        <v>27.1364086558114</v>
       </c>
       <c r="S41" t="n">
-        <v>397.9973892576684</v>
+        <v>307.4367551292295</v>
       </c>
       <c r="T41" t="n">
-        <v>7498.786188360267</v>
+        <v>5436.02071158629</v>
       </c>
       <c r="U41" t="n">
-        <v>614</v>
+        <v>569</v>
       </c>
       <c r="V41" t="n">
-        <v>668</v>
+        <v>726</v>
       </c>
       <c r="W41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X41" t="n">
-        <v>1100.595207095224</v>
+        <v>1.555984103903278</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4496568005318375</v>
+        <v>5.061296332627824</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.087594095514024</v>
+        <v>239.7536175378711</v>
       </c>
       <c r="AA41" t="n">
-        <v>312.5386890988378</v>
+        <v>2.04212158736725</v>
       </c>
       <c r="AB41" t="n">
-        <v>3278.565285376008</v>
+        <v>1.723073296591769</v>
       </c>
       <c r="AC41" t="n">
-        <v>11.51350518669679</v>
+        <v>0.408174307111277</v>
       </c>
       <c r="AD41" t="n">
-        <v>-470.8835013483256</v>
+        <v>0.9770414810946364</v>
       </c>
       <c r="AE41" t="n">
-        <v>-3989.694507324331</v>
+        <v>63.20162733227492</v>
       </c>
       <c r="AF41" t="n">
-        <v>109.4002784842628</v>
+        <v>3.666151358549035</v>
       </c>
       <c r="AG41" t="n">
-        <v>-8.135514375326553</v>
+        <v>6.787833378478488</v>
       </c>
       <c r="AH41" t="n">
-        <v>-101.1543168433739</v>
+        <v>-329.6307758614116</v>
       </c>
       <c r="AI41" t="n">
-        <v>-1675.34895732688</v>
+        <v>-1119.693911757655</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>-61.96843495973599</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>-9.027574589173545</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>-51.51899057929605</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>-1703.812994274127</v>
       </c>
     </row>
     <row r="42">
@@ -4775,103 +5263,115 @@
         <v>30</v>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>10.61258638309419</v>
+        <v>10.53378994053169</v>
       </c>
       <c r="E42" t="n">
-        <v>118.9210643148733</v>
+        <v>114.1705087154545</v>
       </c>
       <c r="F42" t="n">
-        <v>2728.307294907332</v>
+        <v>2581.181699456177</v>
       </c>
       <c r="G42" t="n">
-        <v>350677.0902462129</v>
+        <v>391049.6515388258</v>
       </c>
       <c r="H42" t="n">
-        <v>408579.2239840418</v>
+        <v>407171.3995622597</v>
       </c>
       <c r="I42" t="n">
-        <v>58760.16964785617</v>
+        <v>54158.23729690172</v>
       </c>
       <c r="J42" t="n">
-        <v>20711.20479754353</v>
+        <v>15241.89667830019</v>
       </c>
       <c r="K42" t="n">
-        <v>-7379.583242877678</v>
+        <v>-7523.59055099697</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5693685267233666</v>
+        <v>0.1039847359247313</v>
       </c>
       <c r="M42" t="n">
-        <v>4.906923341550538</v>
+        <v>21.09248062405064</v>
       </c>
       <c r="N42" t="n">
-        <v>123.5922844568606</v>
+        <v>60.65027340436704</v>
       </c>
       <c r="O42" t="n">
-        <v>8.704882902049917</v>
+        <v>9.131559325098277</v>
       </c>
       <c r="P42" t="n">
-        <v>106.0612401849245</v>
+        <v>72.61147120334671</v>
       </c>
       <c r="Q42" t="n">
-        <v>1798.941241783741</v>
+        <v>1764.463267678493</v>
       </c>
       <c r="R42" t="n">
-        <v>31.63917178436378</v>
+        <v>27.1364086558114</v>
       </c>
       <c r="S42" t="n">
-        <v>397.9973892576684</v>
+        <v>307.4367551292295</v>
       </c>
       <c r="T42" t="n">
-        <v>7498.786188360267</v>
+        <v>5436.02071158629</v>
       </c>
       <c r="U42" t="n">
-        <v>614</v>
+        <v>569</v>
       </c>
       <c r="V42" t="n">
-        <v>668</v>
+        <v>726</v>
       </c>
       <c r="W42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X42" t="n">
-        <v>1100.595207095224</v>
+        <v>1.555984103903278</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.4496568005318375</v>
+        <v>5.061296332627824</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.087594095514024</v>
+        <v>239.7536175378711</v>
       </c>
       <c r="AA42" t="n">
-        <v>312.5386890988378</v>
+        <v>2.04212158736725</v>
       </c>
       <c r="AB42" t="n">
-        <v>3285.00725118496</v>
+        <v>1.723073296591769</v>
       </c>
       <c r="AC42" t="n">
-        <v>11.51350518669679</v>
+        <v>0.408174307111277</v>
       </c>
       <c r="AD42" t="n">
-        <v>-470.8835013483256</v>
+        <v>0.9770414810946364</v>
       </c>
       <c r="AE42" t="n">
-        <v>-3989.694507324331</v>
+        <v>63.20162733227492</v>
       </c>
       <c r="AF42" t="n">
-        <v>109.4002784842628</v>
+        <v>3.666151358549035</v>
       </c>
       <c r="AG42" t="n">
-        <v>-8.135514375326553</v>
+        <v>6.787833378478488</v>
       </c>
       <c r="AH42" t="n">
-        <v>-101.1543168433739</v>
+        <v>-329.6307758614116</v>
       </c>
       <c r="AI42" t="n">
-        <v>-1675.34895732688</v>
+        <v>-1119.693911757655</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>-61.96843495973599</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>-9.027574589173545</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>-51.51899057929605</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>-1703.812994274127</v>
       </c>
     </row>
     <row r="43">
@@ -4882,103 +5382,115 @@
         <v>30</v>
       </c>
       <c r="C43" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>10.62687893434801</v>
+        <v>10.58700180687408</v>
       </c>
       <c r="E43" t="n">
-        <v>119.513405767293</v>
+        <v>116.3969565295222</v>
       </c>
       <c r="F43" t="n">
-        <v>2741.741899408702</v>
+        <v>2602.51497538981</v>
       </c>
       <c r="G43" t="n">
-        <v>348593.2651354267</v>
+        <v>391363.7214140292</v>
       </c>
       <c r="H43" t="n">
-        <v>404318.1676593744</v>
+        <v>382300.0705478669</v>
       </c>
       <c r="I43" t="n">
-        <v>61253.19777583966</v>
+        <v>67647.44894205706</v>
       </c>
       <c r="J43" t="n">
-        <v>20711.20479754353</v>
+        <v>19243.55781240839</v>
       </c>
       <c r="K43" t="n">
-        <v>-7379.583242877678</v>
+        <v>-7341.551546012283</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4019318878883328</v>
+        <v>0.04345530070166001</v>
       </c>
       <c r="M43" t="n">
-        <v>5.636357170090474</v>
+        <v>2.040873056964559</v>
       </c>
       <c r="N43" t="n">
-        <v>71.00416701796473</v>
+        <v>45.68776982065297</v>
       </c>
       <c r="O43" t="n">
-        <v>10.01160957349612</v>
+        <v>7.772354519468223</v>
       </c>
       <c r="P43" t="n">
-        <v>107.487713949758</v>
+        <v>80.00853889486395</v>
       </c>
       <c r="Q43" t="n">
-        <v>2010.120106101327</v>
+        <v>2233.90618956865</v>
       </c>
       <c r="R43" t="n">
-        <v>33.73740919642086</v>
+        <v>28.03064945529803</v>
       </c>
       <c r="S43" t="n">
-        <v>406.1220722646234</v>
+        <v>319.9319726124592</v>
       </c>
       <c r="T43" t="n">
-        <v>7710.862122358396</v>
+        <v>6063.214029037763</v>
       </c>
       <c r="U43" t="n">
-        <v>645</v>
+        <v>602</v>
       </c>
       <c r="V43" t="n">
-        <v>689</v>
+        <v>749</v>
       </c>
       <c r="W43" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X43" t="n">
-        <v>1101.668836128003</v>
+        <v>1.594324817906659</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4644954063496713</v>
+        <v>5.369507704769991</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.141660709405875</v>
+        <v>254.4818516238866</v>
       </c>
       <c r="AA43" t="n">
-        <v>312.7294970453815</v>
+        <v>2.072251511178883</v>
       </c>
       <c r="AB43" t="n">
-        <v>3285.042287972129</v>
+        <v>1.820527685768377</v>
       </c>
       <c r="AC43" t="n">
-        <v>11.54084394310799</v>
+        <v>0.4130716834437967</v>
       </c>
       <c r="AD43" t="n">
-        <v>-137.5766901431725</v>
+        <v>1.05743400270579</v>
       </c>
       <c r="AE43" t="n">
-        <v>341.2346513348799</v>
+        <v>67.14888734727799</v>
       </c>
       <c r="AF43" t="n">
-        <v>-4086.630695367221</v>
+        <v>4.12207476900338</v>
       </c>
       <c r="AG43" t="n">
-        <v>-9.609677685607794</v>
+        <v>6.860071200622197</v>
       </c>
       <c r="AH43" t="n">
-        <v>-101.8513567796676</v>
+        <v>-1159.392086085813</v>
       </c>
       <c r="AI43" t="n">
-        <v>-1939.115939083362</v>
+        <v>-2486.421382330036</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>52.22454247491271</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>-7.728899218766564</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>-77.96766583789936</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>-2188.218419747997</v>
       </c>
     </row>
   </sheetData>

--- a/run.xlsx
+++ b/run.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,155 +469,145 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>max_pnl_traders</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>min_pnl_traders</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
           <t>oi_long_btc</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>oi_long_eth</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>oi_long_sol</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>oi_short_btc</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>oi_short_eth</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>oi_short_sol</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>volume_btc</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>volume_eth</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>volume_sol</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>num_of_longs</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>num_of_shorts</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>num_of_swaps</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>number_of_liquidations</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>fees_collected_btc</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>fees_collected_eth</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>fees_collected_sol</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>fees_collected_usdc</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>fees_collected_usdt</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>treasury_balance_btc</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>treasury_balance_eth</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>treasury_balance_sol</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>treasury_balance_usdc</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>treasury_balance_usdt</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>pool_pnl_btc</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>pool_pnl_eth</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>pool_pnl_sol</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>nominal_exposure_btc</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>nominal_exposure_eth</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>nominal_exposure_sol</t>
         </is>
@@ -632,7 +622,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
         <v>100</v>
@@ -740,12 +730,6 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -757,7 +741,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
         <v>100</v>
@@ -865,12 +849,6 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -882,121 +860,115 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>100.3947529492095</v>
+        <v>100.1710184890996</v>
       </c>
       <c r="E5" t="n">
-        <v>10.11782328190118</v>
+        <v>9.9394437608607</v>
       </c>
       <c r="F5" t="n">
-        <v>111.1666688737387</v>
+        <v>109.9546084727972</v>
       </c>
       <c r="G5" t="n">
-        <v>2534.435509541627</v>
+        <v>2514.462741805661</v>
       </c>
       <c r="H5" t="n">
-        <v>451663.736064829</v>
+        <v>451326.202615164</v>
       </c>
       <c r="I5" t="n">
-        <v>447847.7912283594</v>
+        <v>452864.848444538</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.101520210866781</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3.736803748348708</v>
       </c>
       <c r="M5" t="n">
-        <v>3.695797777801049</v>
+        <v>127.6529764002356</v>
       </c>
       <c r="N5" t="n">
-        <v>8.771328380189402</v>
+        <v>2.735017553013878</v>
       </c>
       <c r="O5" t="n">
-        <v>181.2270753516281</v>
+        <v>9.058681744216099</v>
       </c>
       <c r="P5" t="n">
-        <v>1.31443716032748</v>
+        <v>90.10426667040268</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.67832574088475</v>
+        <v>3.836537763880659</v>
       </c>
       <c r="R5" t="n">
-        <v>106.0821953322296</v>
+        <v>12.79548549256481</v>
       </c>
       <c r="S5" t="n">
-        <v>5.010234938128528</v>
+        <v>217.7572430706383</v>
       </c>
       <c r="T5" t="n">
-        <v>21.44965412107415</v>
+        <v>11</v>
       </c>
       <c r="U5" t="n">
-        <v>287.3092706838577</v>
+        <v>17</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>36</v>
+        <v>0.07266105328916221</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.0732637229270732</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0808605480126429</v>
+        <v>0.166124544865536</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2547423783905427</v>
+        <v>0.09780425765775048</v>
       </c>
       <c r="AB5" t="n">
-        <v>22.65242415082621</v>
+        <v>0.09722767695248953</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.09760924222876936</v>
+        <v>0.0221989967961457</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1083420215846238</v>
+        <v>0.02216994444059087</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02445113626543589</v>
+        <v>0.049609623658357</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.07669985653969276</v>
+        <v>0.02907107116537775</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.795839365983473</v>
+        <v>0.02907474064713209</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.02907096095010844</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.03213218257412859</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>0.7145418145923162</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1.34128240152977</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.38136061747357</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>-3.906997360695346</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>75.1448800193984</v>
+        <v>127.3621378219362</v>
       </c>
     </row>
     <row r="6">
@@ -1007,121 +979,115 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>100.5038749224246</v>
+        <v>100.1718868073973</v>
       </c>
       <c r="E6" t="n">
-        <v>10.11807814883019</v>
+        <v>9.939631349722204</v>
       </c>
       <c r="F6" t="n">
-        <v>111.1747263542306</v>
+        <v>109.9574176448915</v>
       </c>
       <c r="G6" t="n">
-        <v>2548.488906184862</v>
+        <v>2514.462741805661</v>
       </c>
       <c r="H6" t="n">
-        <v>451663.736064829</v>
+        <v>451326.202615164</v>
       </c>
       <c r="I6" t="n">
-        <v>447847.7912283594</v>
+        <v>452864.848444538</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.101520210866781</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3.736803748348708</v>
       </c>
       <c r="M6" t="n">
-        <v>3.695797777801049</v>
+        <v>127.6529764002356</v>
       </c>
       <c r="N6" t="n">
-        <v>8.771328380189402</v>
+        <v>2.735017553013878</v>
       </c>
       <c r="O6" t="n">
-        <v>181.2270753516281</v>
+        <v>9.058681744216099</v>
       </c>
       <c r="P6" t="n">
-        <v>1.31443716032748</v>
+        <v>90.10426667040268</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.67832574088475</v>
+        <v>3.836537763880659</v>
       </c>
       <c r="R6" t="n">
-        <v>106.0821953322296</v>
+        <v>12.79548549256481</v>
       </c>
       <c r="S6" t="n">
-        <v>5.010234938128528</v>
+        <v>217.7572430706383</v>
       </c>
       <c r="T6" t="n">
-        <v>21.44965412107415</v>
+        <v>11</v>
       </c>
       <c r="U6" t="n">
-        <v>287.3092706838577</v>
+        <v>17</v>
       </c>
       <c r="V6" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>36</v>
+        <v>0.07266105328916221</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.0732637229270732</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.08086431416176021</v>
+        <v>0.166124544865536</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2549342231641614</v>
+        <v>0.09780425765775048</v>
       </c>
       <c r="AB6" t="n">
-        <v>22.89603443582947</v>
+        <v>0.09722767695248953</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.09760924222876936</v>
+        <v>0.02220162146747567</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1083420215846238</v>
+        <v>0.02223846083313241</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02445490241455321</v>
+        <v>0.049609623658357</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.07689170131331147</v>
+        <v>0.02907107116537775</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.039449650986731</v>
+        <v>0.02907474064713209</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.02907096095010844</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.03213218257412859</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>0.7145418145923162</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1.34128240152977</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.38136061747357</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>-3.906997360695346</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>75.1448800193984</v>
+        <v>127.3621378219362</v>
       </c>
     </row>
     <row r="7">
@@ -1132,121 +1098,115 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>100.7519160795246</v>
+        <v>100.3876584402</v>
       </c>
       <c r="E7" t="n">
-        <v>10.45732330501748</v>
+        <v>10.21384041452513</v>
       </c>
       <c r="F7" t="n">
-        <v>110.4846253583109</v>
+        <v>109.8172804027051</v>
       </c>
       <c r="G7" t="n">
-        <v>2547.164955854707</v>
+        <v>2475.028547744443</v>
       </c>
       <c r="H7" t="n">
-        <v>446137.6270610343</v>
+        <v>442954.0022520028</v>
       </c>
       <c r="I7" t="n">
-        <v>451633.2858106701</v>
+        <v>462783.9696437969</v>
       </c>
       <c r="J7" t="n">
-        <v>-4277.498100256402</v>
+        <v>-2280.804013834905</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.1130761561470324</v>
       </c>
       <c r="L7" t="n">
-        <v>-4277.498100256402</v>
+        <v>15.11817169076729</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9915712321704322</v>
+        <v>362.0613552693769</v>
       </c>
       <c r="N7" t="n">
-        <v>13.50403414239744</v>
+        <v>5.101048165625524</v>
       </c>
       <c r="O7" t="n">
-        <v>181.2270753516281</v>
+        <v>22.89455488466527</v>
       </c>
       <c r="P7" t="n">
-        <v>5.549329258979967</v>
+        <v>500.3502579779669</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.1728416789374</v>
+        <v>6.26303549026311</v>
       </c>
       <c r="R7" t="n">
-        <v>285.0719561747729</v>
+        <v>38.01272657543256</v>
       </c>
       <c r="S7" t="n">
-        <v>9.261044086584025</v>
+        <v>974.3606916496295</v>
       </c>
       <c r="T7" t="n">
-        <v>45.67687582133484</v>
+        <v>23</v>
       </c>
       <c r="U7" t="n">
-        <v>466.299031526401</v>
+        <v>40</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="W7" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="X7" t="n">
-        <v>68</v>
+        <v>0.1646070720827982</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>0.1272280279690226</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1858458017220724</v>
+        <v>1.304090032188522</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.406322508284942</v>
+        <v>0.23653815675622</v>
       </c>
       <c r="AB7" t="n">
-        <v>22.93202214607557</v>
+        <v>0.190060942102739</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1795414847496317</v>
+        <v>0.05030980573987712</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2224484040932233</v>
+        <v>0.03863895139462252</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.05621140712579262</v>
+        <v>0.3908798527389957</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.1226959189592342</v>
+        <v>0.07038789901957594</v>
       </c>
       <c r="AG7" t="n">
-        <v>7.05026442421833</v>
+        <v>0.0566119015005908</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.05355365748697945</v>
+        <v>-141.2551137639337</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.06579282283549472</v>
+        <v>-0.3789436764211835</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4125.653798783726</v>
+        <v>139.457121363117</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>-1.072870264446151</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>9.359656928301767</v>
       </c>
       <c r="AM7" t="n">
-        <v>-4.557758026809535</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>-18.66880753653996</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>-103.8448808231449</v>
+        <v>188.9951779092583</v>
       </c>
     </row>
     <row r="8">
@@ -1257,121 +1217,115 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>100.8578034843422</v>
+        <v>100.3902140464563</v>
       </c>
       <c r="E8" t="n">
-        <v>10.45764914110724</v>
+        <v>10.21407544704054</v>
       </c>
       <c r="F8" t="n">
-        <v>110.489113628202</v>
+        <v>109.8190534548452</v>
       </c>
       <c r="G8" t="n">
-        <v>2561.3741108965</v>
+        <v>2475.258801136957</v>
       </c>
       <c r="H8" t="n">
-        <v>446137.6270610343</v>
+        <v>442954.0022520028</v>
       </c>
       <c r="I8" t="n">
-        <v>451633.2858106701</v>
+        <v>462783.9696437969</v>
       </c>
       <c r="J8" t="n">
-        <v>-4277.498100256402</v>
+        <v>-2280.804013834905</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.1130761561470324</v>
       </c>
       <c r="L8" t="n">
-        <v>-4277.498100256402</v>
+        <v>15.11817169076729</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9915712321704322</v>
+        <v>362.0613552693769</v>
       </c>
       <c r="N8" t="n">
-        <v>13.50403414239744</v>
+        <v>5.101048165625524</v>
       </c>
       <c r="O8" t="n">
-        <v>181.2270753516281</v>
+        <v>22.89455488466527</v>
       </c>
       <c r="P8" t="n">
-        <v>5.549329258979967</v>
+        <v>500.3502579779669</v>
       </c>
       <c r="Q8" t="n">
-        <v>32.1728416789374</v>
+        <v>6.26303549026311</v>
       </c>
       <c r="R8" t="n">
-        <v>285.0719561747729</v>
+        <v>38.01272657543256</v>
       </c>
       <c r="S8" t="n">
-        <v>9.261044086584025</v>
+        <v>974.3606916496295</v>
       </c>
       <c r="T8" t="n">
-        <v>45.67687582133484</v>
+        <v>23</v>
       </c>
       <c r="U8" t="n">
-        <v>466.299031526401</v>
+        <v>40</v>
       </c>
       <c r="V8" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="W8" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>68</v>
+        <v>0.1646070720827982</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>0.1272280279690226</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1858512467084233</v>
+        <v>1.304090032188522</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4064293718537779</v>
+        <v>0.23653815675622</v>
       </c>
       <c r="AB8" t="n">
-        <v>23.25351163035842</v>
+        <v>0.190060942102739</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1795414847496317</v>
+        <v>0.05031349280634892</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2224484040932233</v>
+        <v>0.03868219656877168</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.05621685211214349</v>
+        <v>0.3964957891417679</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.12280278252807</v>
+        <v>0.07038789901957594</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.371753908501186</v>
+        <v>0.0566119015005908</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.05355365748697945</v>
+        <v>-141.2551137639337</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.06579282283549472</v>
+        <v>-0.3789436764211835</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4125.653798783726</v>
+        <v>139.457121363117</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>-1.072870264446151</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>9.359656928301767</v>
       </c>
       <c r="AM8" t="n">
-        <v>-4.557758026809535</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>-18.66880753653996</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>-103.8448808231449</v>
+        <v>188.9951779092583</v>
       </c>
     </row>
     <row r="9">
@@ -1382,121 +1336,115 @@
         <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>101.1974840165175</v>
+        <v>100.5713811307446</v>
       </c>
       <c r="E9" t="n">
-        <v>10.54098664762123</v>
+        <v>10.33109713923789</v>
       </c>
       <c r="F9" t="n">
-        <v>112.1936798707977</v>
+        <v>109.8641092330846</v>
       </c>
       <c r="G9" t="n">
-        <v>2582.097056702283</v>
+        <v>2464.79924676803</v>
       </c>
       <c r="H9" t="n">
-        <v>444656.4434815179</v>
+        <v>444279.9682087228</v>
       </c>
       <c r="I9" t="n">
-        <v>451920.0092806926</v>
+        <v>463258.8763198786</v>
       </c>
       <c r="J9" t="n">
-        <v>-4399.492419751371</v>
+        <v>-4029.661383742764</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.6354793316611387</v>
       </c>
       <c r="L9" t="n">
-        <v>-4277.498100256402</v>
+        <v>24.14853462951258</v>
       </c>
       <c r="M9" t="n">
-        <v>2.504029210352961</v>
+        <v>183.1672924758572</v>
       </c>
       <c r="N9" t="n">
-        <v>25.55256171300445</v>
+        <v>5.606635782032344</v>
       </c>
       <c r="O9" t="n">
-        <v>289.5847053534504</v>
+        <v>37.91966154996389</v>
       </c>
       <c r="P9" t="n">
-        <v>5.657025074305915</v>
+        <v>628.7121027601667</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.63475443201452</v>
+        <v>7.528763809942165</v>
       </c>
       <c r="R9" t="n">
-        <v>435.5269432621341</v>
+        <v>62.06819617947647</v>
       </c>
       <c r="S9" t="n">
-        <v>11.05224163049833</v>
+        <v>1143.455199699523</v>
       </c>
       <c r="T9" t="n">
-        <v>80.18731614501895</v>
+        <v>37</v>
       </c>
       <c r="U9" t="n">
-        <v>735.1454407755605</v>
+        <v>53</v>
       </c>
       <c r="V9" t="n">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="W9" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>96</v>
+        <v>0.2340453460297094</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>0.2013495682456583</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2535734280774536</v>
+        <v>3.658695127334135</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7795403756416434</v>
+        <v>84.07752152729427</v>
       </c>
       <c r="AB9" t="n">
-        <v>39.95371596887411</v>
+        <v>0.2726505548520815</v>
       </c>
       <c r="AC9" t="n">
-        <v>16.99197785554007</v>
+        <v>0.07118895331102927</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2997633766296724</v>
+        <v>0.06141882635039683</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.07707494207882395</v>
+        <v>1.102699934868002</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.2347645749111701</v>
+        <v>0.1030499416819604</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.38181101355213</v>
+        <v>0.08109501358835343</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.102017956255915</v>
+        <v>-11.55990264952152</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0887443282664772</v>
+        <v>-64.53919592395798</v>
       </c>
       <c r="AJ9" t="n">
-        <v>319.8237624822477</v>
+        <v>98.64294955242906</v>
       </c>
       <c r="AK9" t="n">
-        <v>109.1025722873237</v>
+        <v>-1.052308173048381</v>
       </c>
       <c r="AL9" t="n">
-        <v>273.2415585337737</v>
+        <v>3.55768686663372</v>
       </c>
       <c r="AM9" t="n">
-        <v>-3.152995863952954</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>-29.08219271901006</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>-145.9422379086837</v>
+        <v>-112.3318929250445</v>
       </c>
     </row>
     <row r="10">
@@ -1507,121 +1455,115 @@
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>101.2719181877742</v>
+        <v>100.6332218261952</v>
       </c>
       <c r="E10" t="n">
-        <v>10.54119311182859</v>
+        <v>10.33127060712746</v>
       </c>
       <c r="F10" t="n">
-        <v>112.2056580454612</v>
+        <v>109.8670192149424</v>
       </c>
       <c r="G10" t="n">
-        <v>2589.927822028417</v>
+        <v>2465.754510020412</v>
       </c>
       <c r="H10" t="n">
-        <v>445005.7348314032</v>
+        <v>445476.5589155392</v>
       </c>
       <c r="I10" t="n">
-        <v>451920.0092806926</v>
+        <v>463258.8763198786</v>
       </c>
       <c r="J10" t="n">
-        <v>-4399.492419751371</v>
+        <v>-4029.661383742764</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.6354793316611387</v>
       </c>
       <c r="L10" t="n">
-        <v>-4277.498100256402</v>
+        <v>24.14853462951258</v>
       </c>
       <c r="M10" t="n">
-        <v>2.504029210352961</v>
+        <v>183.1672924758572</v>
       </c>
       <c r="N10" t="n">
-        <v>25.55256171300445</v>
+        <v>5.606635782032344</v>
       </c>
       <c r="O10" t="n">
-        <v>289.5847053534504</v>
+        <v>37.91966154996389</v>
       </c>
       <c r="P10" t="n">
-        <v>5.657025074305915</v>
+        <v>628.7121027601667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.63475443201452</v>
+        <v>7.528763809942165</v>
       </c>
       <c r="R10" t="n">
-        <v>435.5269432621341</v>
+        <v>62.06819617947647</v>
       </c>
       <c r="S10" t="n">
-        <v>11.05224163049833</v>
+        <v>1143.455199699523</v>
       </c>
       <c r="T10" t="n">
-        <v>80.18731614501895</v>
+        <v>37</v>
       </c>
       <c r="U10" t="n">
-        <v>735.1454407755605</v>
+        <v>53</v>
       </c>
       <c r="V10" t="n">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="W10" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>96</v>
+        <v>0.2340453460297094</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0.2013495682456583</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2535767609890874</v>
+        <v>3.658695127334135</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7798255702764892</v>
+        <v>84.07752152729427</v>
       </c>
       <c r="AB10" t="n">
-        <v>40.14016276235348</v>
+        <v>0.2726505548520815</v>
       </c>
       <c r="AC10" t="n">
-        <v>25.30843856709421</v>
+        <v>0.07119177382885987</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.2997633766296724</v>
+        <v>0.0614898015176601</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.07707827499045765</v>
+        <v>1.125999038584667</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.2350497695460159</v>
+        <v>20.44625953475862</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.56825780703151</v>
+        <v>0.08109501358835343</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.418478667810056</v>
+        <v>-11.55990264952152</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0887443282664772</v>
+        <v>-64.53919592395798</v>
       </c>
       <c r="AJ10" t="n">
-        <v>319.8237624822477</v>
+        <v>98.64294955242906</v>
       </c>
       <c r="AK10" t="n">
-        <v>109.1025722873237</v>
+        <v>-1.052308173048381</v>
       </c>
       <c r="AL10" t="n">
-        <v>273.2415585337737</v>
+        <v>3.55768686663372</v>
       </c>
       <c r="AM10" t="n">
-        <v>-3.152995863952954</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>-29.08219271901006</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>-145.9422379086837</v>
+        <v>-112.3318929250445</v>
       </c>
     </row>
     <row r="11">
@@ -1632,121 +1574,115 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>101.5162125670979</v>
+        <v>100.8770040546086</v>
       </c>
       <c r="E11" t="n">
-        <v>10.65728282689598</v>
+        <v>10.45617826457917</v>
       </c>
       <c r="F11" t="n">
-        <v>111.9666587561646</v>
+        <v>110.5864407913886</v>
       </c>
       <c r="G11" t="n">
-        <v>2684.189759470981</v>
+        <v>2475.014493266749</v>
       </c>
       <c r="H11" t="n">
-        <v>441578.7512731852</v>
+        <v>446668.0623588644</v>
       </c>
       <c r="I11" t="n">
-        <v>450177.462531301</v>
+        <v>462443.6330119895</v>
       </c>
       <c r="J11" t="n">
-        <v>-11992.24467248126</v>
+        <v>-9087.258186410001</v>
       </c>
       <c r="K11" t="n">
-        <v>741.8960355270235</v>
+        <v>0.6349366355401747</v>
       </c>
       <c r="L11" t="n">
-        <v>-4277.498100256402</v>
+        <v>11.00285975726768</v>
       </c>
       <c r="M11" t="n">
-        <v>2.2978348350635</v>
+        <v>283.743505157293</v>
       </c>
       <c r="N11" t="n">
-        <v>23.74263446454054</v>
+        <v>5.964933332942397</v>
       </c>
       <c r="O11" t="n">
-        <v>110.4450142574586</v>
+        <v>37.07277374616351</v>
       </c>
       <c r="P11" t="n">
-        <v>5.953937133217829</v>
+        <v>647.8921882371452</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.94960114583318</v>
+        <v>8.482778837219728</v>
       </c>
       <c r="R11" t="n">
-        <v>528.2285272179025</v>
+        <v>67.21358216785231</v>
       </c>
       <c r="S11" t="n">
-        <v>12.65058624725298</v>
+        <v>1263.211497857937</v>
       </c>
       <c r="T11" t="n">
-        <v>84.44091094186705</v>
+        <v>49</v>
       </c>
       <c r="U11" t="n">
-        <v>856.1780228591284</v>
+        <v>65</v>
       </c>
       <c r="V11" t="n">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="W11" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>130</v>
+        <v>0.3277660027762958</v>
       </c>
       <c r="Y11" t="n">
-        <v>5</v>
+        <v>0.4457693563290898</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3466086809691245</v>
+        <v>3.927490961986821</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.9128088628844228</v>
+        <v>217.3832213614502</v>
       </c>
       <c r="AB11" t="n">
-        <v>44.24658536849469</v>
+        <v>0.3341706578580207</v>
       </c>
       <c r="AC11" t="n">
-        <v>64.91502373294361</v>
+        <v>0.09914514846128382</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.3563604285394941</v>
+        <v>0.1356527871781932</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.1051583284438464</v>
+        <v>1.206173380833996</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.2751264105173605</v>
+        <v>20.47073012459473</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.80025963194598</v>
+        <v>0.09953277589457844</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.523226829190953</v>
+        <v>27.86931858836749</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.1055803577466779</v>
+        <v>2223.885972905823</v>
       </c>
       <c r="AJ11" t="n">
-        <v>592.2841464814337</v>
+        <v>-156.1471722834308</v>
       </c>
       <c r="AK11" t="n">
-        <v>984.079335611752</v>
+        <v>-1.38975612587275</v>
       </c>
       <c r="AL11" t="n">
-        <v>-79.9448172036241</v>
+        <v>-8.741100201810792</v>
       </c>
       <c r="AM11" t="n">
-        <v>-3.656102298154329</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>-34.20696668129263</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>-417.783512960444</v>
+        <v>-30.93576572058721</v>
       </c>
     </row>
     <row r="12">
@@ -1757,121 +1693,115 @@
         <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>101.5844987060325</v>
+        <v>101.14071188752</v>
       </c>
       <c r="E12" t="n">
-        <v>10.65757106413156</v>
+        <v>10.45642238430333</v>
       </c>
       <c r="F12" t="n">
-        <v>111.9703186481133</v>
+        <v>110.5986337468933</v>
       </c>
       <c r="G12" t="n">
-        <v>2685.615892297833</v>
+        <v>2474.030945108719</v>
       </c>
       <c r="H12" t="n">
-        <v>442870.3518273953</v>
+        <v>452240.8270113819</v>
       </c>
       <c r="I12" t="n">
-        <v>450177.462531301</v>
+        <v>462443.6330119895</v>
       </c>
       <c r="J12" t="n">
-        <v>-11992.24467248126</v>
+        <v>-9087.258186410001</v>
       </c>
       <c r="K12" t="n">
-        <v>741.8960355270235</v>
+        <v>0.6349366355401747</v>
       </c>
       <c r="L12" t="n">
-        <v>-4277.498100256402</v>
+        <v>11.00285975726768</v>
       </c>
       <c r="M12" t="n">
-        <v>2.2978348350635</v>
+        <v>283.743505157293</v>
       </c>
       <c r="N12" t="n">
-        <v>23.74263446454054</v>
+        <v>5.964933332942397</v>
       </c>
       <c r="O12" t="n">
-        <v>110.4450142574586</v>
+        <v>37.07277374616351</v>
       </c>
       <c r="P12" t="n">
-        <v>5.953937133217829</v>
+        <v>647.8921882371452</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.94960114583318</v>
+        <v>8.482778837219728</v>
       </c>
       <c r="R12" t="n">
-        <v>528.2285272179025</v>
+        <v>67.21358216785231</v>
       </c>
       <c r="S12" t="n">
-        <v>12.65058624725298</v>
+        <v>1263.211497857937</v>
       </c>
       <c r="T12" t="n">
-        <v>84.44091094186705</v>
+        <v>49</v>
       </c>
       <c r="U12" t="n">
-        <v>856.1780228591284</v>
+        <v>65</v>
       </c>
       <c r="V12" t="n">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="W12" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
-        <v>130</v>
+        <v>0.3277660027762958</v>
       </c>
       <c r="Y12" t="n">
-        <v>5</v>
+        <v>0.4457693563290898</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.3466136111577209</v>
+        <v>3.927490961986821</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9128960031689167</v>
+        <v>217.3832213614502</v>
       </c>
       <c r="AB12" t="n">
-        <v>44.27844388767873</v>
+        <v>0.3341706578580207</v>
       </c>
       <c r="AC12" t="n">
-        <v>86.7966701196443</v>
+        <v>0.09914882719049257</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.3563604285394941</v>
+        <v>0.1359501763368433</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1051632586324427</v>
+        <v>1.23326388416067</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.2752135508018545</v>
+        <v>89.52956680546281</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.83211815113002</v>
+        <v>0.09953277589457844</v>
       </c>
       <c r="AH12" t="n">
-        <v>30.40487321589165</v>
+        <v>27.86931858836749</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.1055803577466779</v>
+        <v>2223.885972905823</v>
       </c>
       <c r="AJ12" t="n">
-        <v>592.2841464814337</v>
+        <v>-156.1471722834308</v>
       </c>
       <c r="AK12" t="n">
-        <v>984.079335611752</v>
+        <v>-1.38975612587275</v>
       </c>
       <c r="AL12" t="n">
-        <v>-79.9448172036241</v>
+        <v>-8.741100201810792</v>
       </c>
       <c r="AM12" t="n">
-        <v>-3.656102298154329</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>-34.20696668129263</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>-417.783512960444</v>
+        <v>-30.93576572058721</v>
       </c>
     </row>
     <row r="13">
@@ -1882,121 +1812,115 @@
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>101.8341907496981</v>
+        <v>101.2614882602031</v>
       </c>
       <c r="E13" t="n">
-        <v>10.83103179437263</v>
+        <v>10.37823550678838</v>
       </c>
       <c r="F13" t="n">
-        <v>113.0941685096314</v>
+        <v>110.5983594652709</v>
       </c>
       <c r="G13" t="n">
-        <v>2677.269519591187</v>
+        <v>2509.015567972307</v>
       </c>
       <c r="H13" t="n">
-        <v>433344.3841948528</v>
+        <v>457717.9157450815</v>
       </c>
       <c r="I13" t="n">
-        <v>458079.9116801339</v>
+        <v>463365.2374036798</v>
       </c>
       <c r="J13" t="n">
-        <v>-12743.44662942632</v>
+        <v>-14699.7761779233</v>
       </c>
       <c r="K13" t="n">
-        <v>3992.519515601797</v>
+        <v>0.9538171095177974</v>
       </c>
       <c r="L13" t="n">
-        <v>-4277.498100256402</v>
+        <v>8.705567463541611</v>
       </c>
       <c r="M13" t="n">
-        <v>1.667356696992079</v>
+        <v>110.1104569858712</v>
       </c>
       <c r="N13" t="n">
-        <v>23.46686750594201</v>
+        <v>6.103553169399076</v>
       </c>
       <c r="O13" t="n">
-        <v>110.4450142574586</v>
+        <v>46.82423990485397</v>
       </c>
       <c r="P13" t="n">
-        <v>6.161082089220478</v>
+        <v>745.8838868868154</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.12366515903121</v>
+        <v>8.96103337073135</v>
       </c>
       <c r="R13" t="n">
-        <v>539.3972553961612</v>
+        <v>79.1518032022922</v>
       </c>
       <c r="S13" t="n">
-        <v>13.38236397226087</v>
+        <v>1466.211787051586</v>
       </c>
       <c r="T13" t="n">
-        <v>112.7276102005701</v>
+        <v>61</v>
       </c>
       <c r="U13" t="n">
-        <v>937.1515403374776</v>
+        <v>81</v>
       </c>
       <c r="V13" t="n">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="W13" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="X13" t="n">
-        <v>158</v>
+        <v>0.3697220553787011</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>0.5144227286199403</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.4233667863742565</v>
+        <v>5.893912415536763</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.304549114701543</v>
+        <v>348.4832155066746</v>
       </c>
       <c r="AB13" t="n">
-        <v>44.34375182881851</v>
+        <v>28.32415817323481</v>
       </c>
       <c r="AC13" t="n">
-        <v>691.6033720698458</v>
+        <v>0.1119578787547875</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.4178002604217553</v>
+        <v>0.1564308769458141</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.1282751647627692</v>
+        <v>1.823592385042463</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.3922706815869856</v>
+        <v>89.81289686723917</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.85222596761278</v>
+        <v>0.128522385578297</v>
       </c>
       <c r="AH13" t="n">
-        <v>30.67718856098115</v>
+        <v>78.19330338523127</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1239595732982045</v>
+        <v>128.6027695010023</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-6871.735813806343</v>
+        <v>-1180.339453171759</v>
       </c>
       <c r="AK13" t="n">
-        <v>165.7062324288991</v>
+        <v>-1.052305371834049</v>
       </c>
       <c r="AL13" t="n">
-        <v>-1640.308329576927</v>
+        <v>-18.60583084192604</v>
       </c>
       <c r="AM13" t="n">
-        <v>-4.493725392228399</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>-40.6567976530892</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>-428.9522411387027</v>
+        <v>-258.8776983716772</v>
       </c>
     </row>
     <row r="14">
@@ -2007,121 +1931,115 @@
         <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>102.0953650342726</v>
+        <v>101.4285463720905</v>
       </c>
       <c r="E14" t="n">
-        <v>10.83127388273225</v>
+        <v>10.37834105298256</v>
       </c>
       <c r="F14" t="n">
-        <v>113.1074670257101</v>
+        <v>110.6002534765961</v>
       </c>
       <c r="G14" t="n">
-        <v>2715.019791249013</v>
+        <v>2509.535533454152</v>
       </c>
       <c r="H14" t="n">
-        <v>433344.3841948528</v>
+        <v>461020.6155450159</v>
       </c>
       <c r="I14" t="n">
-        <v>458079.9116801339</v>
+        <v>463617.2808217652</v>
       </c>
       <c r="J14" t="n">
-        <v>-12743.44662942632</v>
+        <v>-14699.7761779233</v>
       </c>
       <c r="K14" t="n">
-        <v>3992.519515601797</v>
+        <v>0.9538171095177974</v>
       </c>
       <c r="L14" t="n">
-        <v>-4277.498100256402</v>
+        <v>8.705567463541611</v>
       </c>
       <c r="M14" t="n">
-        <v>1.667356696992079</v>
+        <v>110.1104569858712</v>
       </c>
       <c r="N14" t="n">
-        <v>23.46686750594201</v>
+        <v>6.103553169399076</v>
       </c>
       <c r="O14" t="n">
-        <v>110.4450142574586</v>
+        <v>46.82423990485397</v>
       </c>
       <c r="P14" t="n">
-        <v>6.161082089220478</v>
+        <v>745.8838868868154</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.12366515903121</v>
+        <v>8.96103337073135</v>
       </c>
       <c r="R14" t="n">
-        <v>539.3972553961612</v>
+        <v>79.1518032022922</v>
       </c>
       <c r="S14" t="n">
-        <v>13.38236397226087</v>
+        <v>1466.211787051586</v>
       </c>
       <c r="T14" t="n">
-        <v>112.7276102005701</v>
+        <v>61</v>
       </c>
       <c r="U14" t="n">
-        <v>937.1515403374776</v>
+        <v>81</v>
       </c>
       <c r="V14" t="n">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="W14" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="X14" t="n">
-        <v>158</v>
+        <v>0.3697220553787011</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>0.5144227286199403</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.4233707236960015</v>
+        <v>5.893912415536763</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.304865746036751</v>
+        <v>348.4832155066746</v>
       </c>
       <c r="AB14" t="n">
-        <v>45.24256782067147</v>
+        <v>28.32415817323481</v>
       </c>
       <c r="AC14" t="n">
-        <v>691.6033720698458</v>
+        <v>0.1119593825162937</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.4178002604217553</v>
+        <v>0.1564770723439879</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.1282791020845142</v>
+        <v>1.836274469965516</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.3925873129221939</v>
+        <v>142.4357847173075</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.75104195946574</v>
+        <v>4.367724053197215</v>
       </c>
       <c r="AH14" t="n">
-        <v>30.67718856098115</v>
+        <v>78.19330338523127</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.1239595732982045</v>
+        <v>128.6027695010023</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-6871.735813806343</v>
+        <v>-1180.339453171759</v>
       </c>
       <c r="AK14" t="n">
-        <v>165.7062324288991</v>
+        <v>-1.052305371834049</v>
       </c>
       <c r="AL14" t="n">
-        <v>-1640.308329576927</v>
+        <v>-18.60583084192604</v>
       </c>
       <c r="AM14" t="n">
-        <v>-4.493725392228399</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>-40.6567976530892</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>-428.9522411387027</v>
+        <v>-258.8776983716772</v>
       </c>
     </row>
     <row r="15">
@@ -2132,121 +2050,115 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>102.2005339402136</v>
+        <v>101.5938709371211</v>
       </c>
       <c r="E15" t="n">
-        <v>10.84372896407051</v>
+        <v>10.4426622827504</v>
       </c>
       <c r="F15" t="n">
-        <v>115.0643930396036</v>
+        <v>110.6923601467746</v>
       </c>
       <c r="G15" t="n">
-        <v>2759.228242515</v>
+        <v>2519.653075385732</v>
       </c>
       <c r="H15" t="n">
-        <v>429127.4311244471</v>
+        <v>455868.9821558222</v>
       </c>
       <c r="I15" t="n">
-        <v>454265.4581058427</v>
+        <v>466708.9386621683</v>
       </c>
       <c r="J15" t="n">
-        <v>-14938.27268159434</v>
+        <v>-13891.76040177088</v>
       </c>
       <c r="K15" t="n">
-        <v>3992.519515601797</v>
+        <v>0.9692591045932942</v>
       </c>
       <c r="L15" t="n">
-        <v>-5459.990614522182</v>
+        <v>7.995453113466611</v>
       </c>
       <c r="M15" t="n">
-        <v>1.952357359876112</v>
+        <v>467.3181621623786</v>
       </c>
       <c r="N15" t="n">
-        <v>13.49753453910545</v>
+        <v>6.04983661127886</v>
       </c>
       <c r="O15" t="n">
-        <v>108.3576300018224</v>
+        <v>41.23637670551631</v>
       </c>
       <c r="P15" t="n">
-        <v>6.007029466666603</v>
+        <v>563.8739281247398</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.9432733416993</v>
+        <v>9.493182895788557</v>
       </c>
       <c r="R15" t="n">
-        <v>417.6646904885336</v>
+        <v>88.64361970533142</v>
       </c>
       <c r="S15" t="n">
-        <v>14.30821380962374</v>
+        <v>1855.061025288403</v>
       </c>
       <c r="T15" t="n">
-        <v>149.8819292545149</v>
+        <v>67</v>
       </c>
       <c r="U15" t="n">
-        <v>971.9955013375551</v>
+        <v>87</v>
       </c>
       <c r="V15" t="n">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="W15" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="X15" t="n">
-        <v>184</v>
+        <v>0.4195182621848692</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>0.5712302431974036</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.4524383965337888</v>
+        <v>7.289515384293621</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.491146704340221</v>
+        <v>1060.869655054211</v>
       </c>
       <c r="AB15" t="n">
-        <v>45.30945031963169</v>
+        <v>86.70939795008394</v>
       </c>
       <c r="AC15" t="n">
-        <v>1011.414111944737</v>
+        <v>0.1277243980367947</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.5049321869429575</v>
+        <v>0.1739610814052434</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.1371093853570833</v>
+        <v>2.254565913325221</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.448057856918327</v>
+        <v>143.0663294189294</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.77117098304017</v>
+        <v>4.391712280984132</v>
       </c>
       <c r="AH15" t="n">
-        <v>31.16592889324664</v>
+        <v>1552.49330381935</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.1498355582241548</v>
+        <v>-17.46729589497636</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-9784.736263997595</v>
+        <v>-871.0090097166656</v>
       </c>
       <c r="AK15" t="n">
-        <v>-2509.639280873591</v>
+        <v>-0.9831468186383355</v>
       </c>
       <c r="AL15" t="n">
-        <v>-416.533522547718</v>
+        <v>-4.455020161251017</v>
       </c>
       <c r="AM15" t="n">
-        <v>-4.05467210679049</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>-87.44573880259387</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>-309.3070604867113</v>
+        <v>280.3399655669057</v>
       </c>
     </row>
     <row r="16">
@@ -2257,121 +2169,115 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>102.3953384538224</v>
+        <v>101.6725425040968</v>
       </c>
       <c r="E16" t="n">
-        <v>10.84381265331796</v>
+        <v>10.44279086497219</v>
       </c>
       <c r="F16" t="n">
-        <v>115.0696604927492</v>
+        <v>110.6931289347869</v>
       </c>
       <c r="G16" t="n">
-        <v>2759.228242515</v>
+        <v>2519.643190221271</v>
       </c>
       <c r="H16" t="n">
-        <v>433251.2443782678</v>
+        <v>455868.9821558222</v>
       </c>
       <c r="I16" t="n">
-        <v>454265.4581058427</v>
+        <v>468368.6721378226</v>
       </c>
       <c r="J16" t="n">
-        <v>-14938.27268159434</v>
+        <v>-13891.76040177088</v>
       </c>
       <c r="K16" t="n">
-        <v>3992.519515601797</v>
+        <v>0.9692591045932942</v>
       </c>
       <c r="L16" t="n">
-        <v>-5459.990614522182</v>
+        <v>7.995453113466611</v>
       </c>
       <c r="M16" t="n">
-        <v>1.952357359876112</v>
+        <v>467.3181621623786</v>
       </c>
       <c r="N16" t="n">
-        <v>13.49753453910545</v>
+        <v>6.04983661127886</v>
       </c>
       <c r="O16" t="n">
-        <v>108.3576300018224</v>
+        <v>41.23637670551631</v>
       </c>
       <c r="P16" t="n">
-        <v>6.007029466666603</v>
+        <v>563.8739281247398</v>
       </c>
       <c r="Q16" t="n">
-        <v>100.9432733416993</v>
+        <v>9.493182895788557</v>
       </c>
       <c r="R16" t="n">
-        <v>417.6646904885336</v>
+        <v>88.64361970533142</v>
       </c>
       <c r="S16" t="n">
-        <v>14.30821380962374</v>
+        <v>1855.061025288403</v>
       </c>
       <c r="T16" t="n">
-        <v>149.8819292545149</v>
+        <v>67</v>
       </c>
       <c r="U16" t="n">
-        <v>971.9955013375551</v>
+        <v>87</v>
       </c>
       <c r="V16" t="n">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="W16" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="X16" t="n">
-        <v>184</v>
+        <v>0.4195182621848692</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>0.5712302431974036</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.4524396753758522</v>
+        <v>7.289515384293621</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.491272119891306</v>
+        <v>1060.869655054211</v>
       </c>
       <c r="AB16" t="n">
-        <v>45.30945031963169</v>
+        <v>86.70939795008394</v>
       </c>
       <c r="AC16" t="n">
-        <v>1057.146821188201</v>
+        <v>0.1277262647481623</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.5049321869429575</v>
+        <v>0.173979832332374</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.1371106641991467</v>
+        <v>2.257043287683219</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.4481832724694113</v>
+        <v>143.0663294189294</v>
       </c>
       <c r="AG16" t="n">
-        <v>14.77117098304017</v>
+        <v>36.03721227080098</v>
       </c>
       <c r="AH16" t="n">
-        <v>76.8986381367109</v>
+        <v>1552.49330381935</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.1498355582241548</v>
+        <v>-17.46729589497636</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-9784.736263997595</v>
+        <v>-871.0090097166656</v>
       </c>
       <c r="AK16" t="n">
-        <v>-2509.639280873591</v>
+        <v>-0.9831468186383355</v>
       </c>
       <c r="AL16" t="n">
-        <v>-416.533522547718</v>
+        <v>-4.455020161251017</v>
       </c>
       <c r="AM16" t="n">
-        <v>-4.05467210679049</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>-87.44573880259387</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>-309.3070604867113</v>
+        <v>280.3399655669057</v>
       </c>
     </row>
     <row r="17">
@@ -2382,121 +2288,115 @@
         <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>102.6721267921742</v>
+        <v>101.8164889062323</v>
       </c>
       <c r="E17" t="n">
-        <v>10.97662668080354</v>
+        <v>10.59396047476875</v>
       </c>
       <c r="F17" t="n">
-        <v>114.7952486597526</v>
+        <v>113.1534648287419</v>
       </c>
       <c r="G17" t="n">
-        <v>2779.509882487168</v>
+        <v>2510.411457065427</v>
       </c>
       <c r="H17" t="n">
-        <v>429890.3978247565</v>
+        <v>453628.0886393945</v>
       </c>
       <c r="I17" t="n">
-        <v>455078.7480375116</v>
+        <v>468584.5033516164</v>
       </c>
       <c r="J17" t="n">
-        <v>-10970.97049396925</v>
+        <v>-22077.79325266708</v>
       </c>
       <c r="K17" t="n">
-        <v>8356.403123553539</v>
+        <v>0.4408284791810788</v>
       </c>
       <c r="L17" t="n">
-        <v>-5663.323048066535</v>
+        <v>5.567901400886226</v>
       </c>
       <c r="M17" t="n">
-        <v>2.310177559831165</v>
+        <v>122.0232158536792</v>
       </c>
       <c r="N17" t="n">
-        <v>10.95278595287182</v>
+        <v>6.464215598908367</v>
       </c>
       <c r="O17" t="n">
-        <v>167.6672611919923</v>
+        <v>42.87361574505626</v>
       </c>
       <c r="P17" t="n">
-        <v>4.132335337076729</v>
+        <v>585.4162428299137</v>
       </c>
       <c r="Q17" t="n">
-        <v>104.3740226137085</v>
+        <v>10.1482176774715</v>
       </c>
       <c r="R17" t="n">
-        <v>690.8474704773404</v>
+        <v>90.37442172330952</v>
       </c>
       <c r="S17" t="n">
-        <v>15.05098659295363</v>
+        <v>1916.17245028637</v>
       </c>
       <c r="T17" t="n">
-        <v>160.9027497932251</v>
+        <v>78</v>
       </c>
       <c r="U17" t="n">
-        <v>1343.231087538981</v>
+        <v>100</v>
       </c>
       <c r="V17" t="n">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="W17" t="n">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="X17" t="n">
-        <v>215</v>
+        <v>0.4742233923926838</v>
       </c>
       <c r="Y17" t="n">
-        <v>16</v>
+        <v>0.6235060810188122</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.5130547160346731</v>
+        <v>9.169547353982834</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.765095447438968</v>
+        <v>1126.606149250699</v>
       </c>
       <c r="AB17" t="n">
-        <v>55.36624404833539</v>
+        <v>129.1787232663497</v>
       </c>
       <c r="AC17" t="n">
-        <v>1934.953333700244</v>
+        <v>0.1449835519738933</v>
       </c>
       <c r="AD17" t="n">
-        <v>12.25228395614262</v>
+        <v>0.1897602867740657</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.1552980434057982</v>
+        <v>2.820428930819902</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.5289514555077299</v>
+        <v>143.1007569083717</v>
       </c>
       <c r="AG17" t="n">
-        <v>17.78850282902819</v>
+        <v>36.05092658818498</v>
       </c>
       <c r="AH17" t="n">
-        <v>76.93782025501758</v>
+        <v>265.5400906119252</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.1982684789237371</v>
+        <v>-2521.065280868095</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-8846.013173548268</v>
+        <v>469.7461087459706</v>
       </c>
       <c r="AK17" t="n">
-        <v>-684.8218810907952</v>
+        <v>-1.485485756757001</v>
       </c>
       <c r="AL17" t="n">
-        <v>1297.132722220871</v>
+        <v>-8.478481267498989</v>
       </c>
       <c r="AM17" t="n">
-        <v>-1.822157777245562</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>-93.4212366608367</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>-523.1802092853482</v>
+        <v>-83.05080117559135</v>
       </c>
     </row>
     <row r="18">
@@ -2507,121 +2407,115 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>102.6874794508211</v>
+        <v>101.8664660947523</v>
       </c>
       <c r="E18" t="n">
-        <v>10.97681793032261</v>
+        <v>10.5941041169611</v>
       </c>
       <c r="F18" t="n">
-        <v>114.8040814783402</v>
+        <v>113.2703723373382</v>
       </c>
       <c r="G18" t="n">
-        <v>2781.569922337187</v>
+        <v>2510.685052926541</v>
       </c>
       <c r="H18" t="n">
-        <v>429890.3978247565</v>
+        <v>453681.2477834333</v>
       </c>
       <c r="I18" t="n">
-        <v>455078.7480375116</v>
+        <v>469178.4145282091</v>
       </c>
       <c r="J18" t="n">
-        <v>-10970.97049396925</v>
+        <v>-22077.79325266708</v>
       </c>
       <c r="K18" t="n">
-        <v>8356.403123553539</v>
+        <v>0.4408284791810788</v>
       </c>
       <c r="L18" t="n">
-        <v>-5663.323048066535</v>
+        <v>5.567901400886226</v>
       </c>
       <c r="M18" t="n">
-        <v>2.310177559831165</v>
+        <v>122.0232158536792</v>
       </c>
       <c r="N18" t="n">
-        <v>10.95278595287182</v>
+        <v>6.464215598908367</v>
       </c>
       <c r="O18" t="n">
-        <v>167.6672611919923</v>
+        <v>42.87361574505626</v>
       </c>
       <c r="P18" t="n">
-        <v>4.132335337076729</v>
+        <v>585.4162428299137</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.3740226137085</v>
+        <v>10.1482176774715</v>
       </c>
       <c r="R18" t="n">
-        <v>690.8474704773404</v>
+        <v>90.37442172330952</v>
       </c>
       <c r="S18" t="n">
-        <v>15.05098659295363</v>
+        <v>1916.17245028637</v>
       </c>
       <c r="T18" t="n">
-        <v>160.9027497932251</v>
+        <v>78</v>
       </c>
       <c r="U18" t="n">
-        <v>1343.231087538981</v>
+        <v>100</v>
       </c>
       <c r="V18" t="n">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="W18" t="n">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="X18" t="n">
-        <v>215</v>
+        <v>0.4742233923926838</v>
       </c>
       <c r="Y18" t="n">
-        <v>16</v>
+        <v>0.6235060810188122</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.5130578079877071</v>
+        <v>9.169547353982834</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.765305752643435</v>
+        <v>1126.606149250699</v>
       </c>
       <c r="AB18" t="n">
-        <v>55.41529261619298</v>
+        <v>129.1787232663497</v>
       </c>
       <c r="AC18" t="n">
-        <v>1934.953333700244</v>
+        <v>0.1449856362277236</v>
       </c>
       <c r="AD18" t="n">
-        <v>12.25228395614262</v>
+        <v>0.192611689422756</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.155301135358832</v>
+        <v>2.827102000603158</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.5291617607121967</v>
+        <v>143.9621991593577</v>
       </c>
       <c r="AG18" t="n">
-        <v>17.83755139688578</v>
+        <v>47.95483834169022</v>
       </c>
       <c r="AH18" t="n">
-        <v>76.93782025501758</v>
+        <v>265.5400906119252</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.1982684789237371</v>
+        <v>-2521.065280868095</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-8846.013173548268</v>
+        <v>469.7461087459706</v>
       </c>
       <c r="AK18" t="n">
-        <v>-684.8218810907952</v>
+        <v>-1.485485756757001</v>
       </c>
       <c r="AL18" t="n">
-        <v>1297.132722220871</v>
+        <v>-8.478481267498989</v>
       </c>
       <c r="AM18" t="n">
-        <v>-1.822157777245562</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>-93.4212366608367</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>-523.1802092853482</v>
+        <v>-83.05080117559135</v>
       </c>
     </row>
     <row r="19">
@@ -2632,121 +2526,115 @@
         <v>20</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>102.7989952002076</v>
+        <v>101.9922739569084</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04747145525469</v>
+        <v>10.74432220319678</v>
       </c>
       <c r="F19" t="n">
-        <v>115.4155663495265</v>
+        <v>113.8867744377151</v>
       </c>
       <c r="G19" t="n">
-        <v>2783.635862143582</v>
+        <v>2518.919397509635</v>
       </c>
       <c r="H19" t="n">
-        <v>423632.5998293545</v>
+        <v>449351.4968475357</v>
       </c>
       <c r="I19" t="n">
-        <v>456660.8491810913</v>
+        <v>469765.9601284849</v>
       </c>
       <c r="J19" t="n">
-        <v>-8896.665990386226</v>
+        <v>-25388.86847587764</v>
       </c>
       <c r="K19" t="n">
-        <v>8356.403123553539</v>
+        <v>0.1583116247330888</v>
       </c>
       <c r="L19" t="n">
-        <v>-5640.119118667785</v>
+        <v>4.240996840084542</v>
       </c>
       <c r="M19" t="n">
-        <v>2.706969021090718</v>
+        <v>158.7548319422687</v>
       </c>
       <c r="N19" t="n">
-        <v>10.90540297594377</v>
+        <v>6.666110903107523</v>
       </c>
       <c r="O19" t="n">
-        <v>137.786549849514</v>
+        <v>100.6808343794911</v>
       </c>
       <c r="P19" t="n">
-        <v>4.139854736010889</v>
+        <v>632.6046471971656</v>
       </c>
       <c r="Q19" t="n">
-        <v>104.3740226137085</v>
+        <v>10.58881480495952</v>
       </c>
       <c r="R19" t="n">
-        <v>940.8097827034992</v>
+        <v>152.925002778041</v>
       </c>
       <c r="S19" t="n">
-        <v>15.45529745314734</v>
+        <v>2017.406291342772</v>
       </c>
       <c r="T19" t="n">
-        <v>160.9027497932251</v>
+        <v>91</v>
       </c>
       <c r="U19" t="n">
-        <v>1690.057884137169</v>
+        <v>116</v>
       </c>
       <c r="V19" t="n">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="W19" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="X19" t="n">
-        <v>235</v>
+        <v>0.522966818557287</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>0.6867549734771164</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.5587182652063377</v>
+        <v>9.423075391251734</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.801965648112198</v>
+        <v>1258.567151344118</v>
       </c>
       <c r="AB19" t="n">
-        <v>55.82451597737123</v>
+        <v>177.6657118424732</v>
       </c>
       <c r="AC19" t="n">
-        <v>2073.45270101711</v>
+        <v>0.1604457965245757</v>
       </c>
       <c r="AD19" t="n">
-        <v>12.32011408459308</v>
+        <v>0.2111218599867704</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.1692341924649524</v>
+        <v>2.903074088725278</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.5411651396361039</v>
+        <v>143.9869766831469</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.95996546313751</v>
+        <v>47.9748791327961</v>
       </c>
       <c r="AH19" t="n">
-        <v>77.24422171666099</v>
+        <v>485.133624955521</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.2179062287042456</v>
+        <v>280.7331541722525</v>
       </c>
       <c r="AJ19" t="n">
-        <v>765.140486061091</v>
+        <v>-877.0219952289403</v>
       </c>
       <c r="AK19" t="n">
-        <v>-128.9871226323794</v>
+        <v>-1.648947580938112</v>
       </c>
       <c r="AL19" t="n">
-        <v>-274.4020365633151</v>
+        <v>-15.00278199303987</v>
       </c>
       <c r="AM19" t="n">
-        <v>-1.432885714920171</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>-93.46861963776475</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>-803.0232328539852</v>
+        <v>-93.36243726238784</v>
       </c>
     </row>
     <row r="20">
@@ -2757,121 +2645,115 @@
         <v>20</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>103.1556357528465</v>
+        <v>102.1541506982907</v>
       </c>
       <c r="E20" t="n">
-        <v>11.0476089934037</v>
+        <v>10.74444456675616</v>
       </c>
       <c r="F20" t="n">
-        <v>115.4711489543338</v>
+        <v>113.8873821847502</v>
       </c>
       <c r="G20" t="n">
-        <v>2783.635862143582</v>
+        <v>2518.667495228005</v>
       </c>
       <c r="H20" t="n">
-        <v>430916.5774297701</v>
+        <v>451879.1252705344</v>
       </c>
       <c r="I20" t="n">
-        <v>456660.8491810913</v>
+        <v>470556.4834897429</v>
       </c>
       <c r="J20" t="n">
-        <v>-8896.665990386226</v>
+        <v>-25388.86847587764</v>
       </c>
       <c r="K20" t="n">
-        <v>8356.403123553539</v>
+        <v>0.1583116247330888</v>
       </c>
       <c r="L20" t="n">
-        <v>-5640.119118667785</v>
+        <v>4.240996840084542</v>
       </c>
       <c r="M20" t="n">
-        <v>2.706969021090718</v>
+        <v>158.7548319422687</v>
       </c>
       <c r="N20" t="n">
-        <v>10.90540297594377</v>
+        <v>6.666110903107523</v>
       </c>
       <c r="O20" t="n">
-        <v>137.786549849514</v>
+        <v>100.6808343794911</v>
       </c>
       <c r="P20" t="n">
-        <v>4.139854736010889</v>
+        <v>632.6046471971656</v>
       </c>
       <c r="Q20" t="n">
-        <v>104.3740226137085</v>
+        <v>10.58881480495952</v>
       </c>
       <c r="R20" t="n">
-        <v>940.8097827034992</v>
+        <v>152.925002778041</v>
       </c>
       <c r="S20" t="n">
-        <v>15.45529745314734</v>
+        <v>2017.406291342772</v>
       </c>
       <c r="T20" t="n">
-        <v>160.9027497932251</v>
+        <v>91</v>
       </c>
       <c r="U20" t="n">
-        <v>1690.057884137169</v>
+        <v>116</v>
       </c>
       <c r="V20" t="n">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="W20" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="X20" t="n">
-        <v>235</v>
+        <v>0.522966818557287</v>
       </c>
       <c r="Y20" t="n">
-        <v>16</v>
+        <v>0.6867549734771164</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.5587206346595336</v>
+        <v>9.423075391251734</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.803289043464752</v>
+        <v>1258.567151344118</v>
       </c>
       <c r="AB20" t="n">
-        <v>55.82451597737123</v>
+        <v>177.6657118424732</v>
       </c>
       <c r="AC20" t="n">
-        <v>2153.713345081122</v>
+        <v>0.1604477552305837</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.32011408459308</v>
+        <v>0.2111366830851858</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.1692365619181483</v>
+        <v>2.915896820659281</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.5424885349886576</v>
+        <v>184.5635986010419</v>
       </c>
       <c r="AG20" t="n">
-        <v>17.95996546313751</v>
+        <v>63.4427664010154</v>
       </c>
       <c r="AH20" t="n">
-        <v>157.5048657806736</v>
+        <v>485.133624955521</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.2179062287042456</v>
+        <v>280.7331541722525</v>
       </c>
       <c r="AJ20" t="n">
-        <v>765.140486061091</v>
+        <v>-877.0219952289403</v>
       </c>
       <c r="AK20" t="n">
-        <v>-128.9871226323794</v>
+        <v>-1.648947580938112</v>
       </c>
       <c r="AL20" t="n">
-        <v>-274.4020365633151</v>
+        <v>-15.00278199303987</v>
       </c>
       <c r="AM20" t="n">
-        <v>-1.432885714920171</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>-93.46861963776475</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>-803.0232328539852</v>
+        <v>-93.36243726238784</v>
       </c>
     </row>
     <row r="21">
@@ -2882,121 +2764,115 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>103.3139457874629</v>
+        <v>102.2817646489171</v>
       </c>
       <c r="E21" t="n">
-        <v>11.17415396763586</v>
+        <v>10.83362597942573</v>
       </c>
       <c r="F21" t="n">
-        <v>117.0529156086176</v>
+        <v>113.6334300013072</v>
       </c>
       <c r="G21" t="n">
-        <v>2797.318935924936</v>
+        <v>2530.350119033943</v>
       </c>
       <c r="H21" t="n">
-        <v>428295.8003001692</v>
+        <v>447402.2065641904</v>
       </c>
       <c r="I21" t="n">
-        <v>454826.4609289135</v>
+        <v>474406.9789630602</v>
       </c>
       <c r="J21" t="n">
-        <v>-11099.02821406875</v>
+        <v>-26790.26436988042</v>
       </c>
       <c r="K21" t="n">
-        <v>8356.403123553539</v>
+        <v>-0.02176968056453742</v>
       </c>
       <c r="L21" t="n">
-        <v>-5640.119118667785</v>
+        <v>-17.72633230484027</v>
       </c>
       <c r="M21" t="n">
-        <v>2.720948453224691</v>
+        <v>80.5731393755315</v>
       </c>
       <c r="N21" t="n">
-        <v>6.07970241728728</v>
+        <v>6.213533114835149</v>
       </c>
       <c r="O21" t="n">
-        <v>208.9306683732895</v>
+        <v>106.6642474060374</v>
       </c>
       <c r="P21" t="n">
-        <v>4.294321778865859</v>
+        <v>630.6169625394674</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.580407272961</v>
+        <v>10.83793480513014</v>
       </c>
       <c r="R21" t="n">
-        <v>1684.689578176801</v>
+        <v>140.7791634105501</v>
       </c>
       <c r="S21" t="n">
-        <v>15.62374392813629</v>
+        <v>2005.863336281092</v>
       </c>
       <c r="T21" t="n">
-        <v>162.7387958346683</v>
+        <v>103</v>
       </c>
       <c r="U21" t="n">
-        <v>2551.960772346254</v>
+        <v>127</v>
       </c>
       <c r="V21" t="n">
-        <v>56</v>
+        <v>261</v>
       </c>
       <c r="W21" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="X21" t="n">
-        <v>254</v>
+        <v>0.5807895551822225</v>
       </c>
       <c r="Y21" t="n">
-        <v>16</v>
+        <v>0.6018492785410418</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.5783521388091477</v>
+        <v>10.16854586931647</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.903725604651691</v>
+        <v>1511.225220069077</v>
       </c>
       <c r="AB21" t="n">
-        <v>70.15300045325598</v>
+        <v>185.8711658789437</v>
       </c>
       <c r="AC21" t="n">
-        <v>2204.723803445556</v>
+        <v>0.1785830148151628</v>
       </c>
       <c r="AD21" t="n">
-        <v>12.36731237330067</v>
+        <v>0.1832453772810063</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.1753710854728779</v>
+        <v>3.141475240397617</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.572984760213256</v>
+        <v>184.5808482170603</v>
       </c>
       <c r="AG21" t="n">
-        <v>22.25765344014147</v>
+        <v>63.47045006275041</v>
       </c>
       <c r="AH21" t="n">
-        <v>157.5235380750498</v>
+        <v>155.0276500387981</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.2319447081764028</v>
+        <v>-108.2515917221833</v>
       </c>
       <c r="AJ21" t="n">
-        <v>212.6767105768393</v>
+        <v>221.3210752063551</v>
       </c>
       <c r="AK21" t="n">
-        <v>354.9526713672967</v>
+        <v>-1.227779276613074</v>
       </c>
       <c r="AL21" t="n">
-        <v>177.6258842856251</v>
+        <v>-23.028599633034</v>
       </c>
       <c r="AM21" t="n">
-        <v>-1.573373325641167</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>-98.50070485567372</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>-1475.758909803512</v>
+        <v>-130.9493278059539</v>
       </c>
     </row>
     <row r="22">
@@ -3007,121 +2883,115 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>103.4511450894512</v>
+        <v>102.6109398775664</v>
       </c>
       <c r="E22" t="n">
-        <v>11.1742040581588</v>
+        <v>10.83377496525806</v>
       </c>
       <c r="F22" t="n">
-        <v>117.0545293696283</v>
+        <v>113.7570112909131</v>
       </c>
       <c r="G22" t="n">
-        <v>2800.348115338365</v>
+        <v>2530.38886712224</v>
       </c>
       <c r="H22" t="n">
-        <v>430716.3947333698</v>
+        <v>454233.0736806333</v>
       </c>
       <c r="I22" t="n">
-        <v>454826.4609289135</v>
+        <v>474406.9789630602</v>
       </c>
       <c r="J22" t="n">
-        <v>-11099.02821406875</v>
+        <v>-26790.26436988042</v>
       </c>
       <c r="K22" t="n">
-        <v>8356.403123553539</v>
+        <v>-0.02176968056453742</v>
       </c>
       <c r="L22" t="n">
-        <v>-5640.119118667785</v>
+        <v>-17.72633230484027</v>
       </c>
       <c r="M22" t="n">
-        <v>2.720948453224691</v>
+        <v>80.5731393755315</v>
       </c>
       <c r="N22" t="n">
-        <v>6.07970241728728</v>
+        <v>6.213533114835149</v>
       </c>
       <c r="O22" t="n">
-        <v>208.9306683732895</v>
+        <v>106.6642474060374</v>
       </c>
       <c r="P22" t="n">
-        <v>4.294321778865859</v>
+        <v>630.6169625394674</v>
       </c>
       <c r="Q22" t="n">
-        <v>104.580407272961</v>
+        <v>10.83793480513014</v>
       </c>
       <c r="R22" t="n">
-        <v>1684.689578176801</v>
+        <v>140.7791634105501</v>
       </c>
       <c r="S22" t="n">
-        <v>15.62374392813629</v>
+        <v>2005.863336281092</v>
       </c>
       <c r="T22" t="n">
-        <v>162.7387958346683</v>
+        <v>103</v>
       </c>
       <c r="U22" t="n">
-        <v>2551.960772346254</v>
+        <v>127</v>
       </c>
       <c r="V22" t="n">
-        <v>56</v>
+        <v>261</v>
       </c>
       <c r="W22" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="X22" t="n">
-        <v>254</v>
+        <v>0.5807895551822225</v>
       </c>
       <c r="Y22" t="n">
-        <v>16</v>
+        <v>0.6018492785410418</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.5783529836651558</v>
+        <v>10.16854586931647</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.9037640275329</v>
+        <v>1511.225220069077</v>
       </c>
       <c r="AB22" t="n">
-        <v>70.22512377262332</v>
+        <v>185.8711658789437</v>
       </c>
       <c r="AC22" t="n">
-        <v>2234.676627635775</v>
+        <v>0.1785854140748573</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.36731237330067</v>
+        <v>0.1834082966353685</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.1753719303288858</v>
+        <v>3.14242031572195</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.5730231830944646</v>
+        <v>301.1951093939107</v>
       </c>
       <c r="AG22" t="n">
-        <v>22.32977675950884</v>
+        <v>63.47045006275041</v>
       </c>
       <c r="AH22" t="n">
-        <v>187.4763622652678</v>
+        <v>155.0276500387981</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.2319447081764028</v>
+        <v>-108.2515917221833</v>
       </c>
       <c r="AJ22" t="n">
-        <v>212.6767105768393</v>
+        <v>221.3210752063551</v>
       </c>
       <c r="AK22" t="n">
-        <v>354.9526713672967</v>
+        <v>-1.227779276613074</v>
       </c>
       <c r="AL22" t="n">
-        <v>177.6258842856251</v>
+        <v>-23.028599633034</v>
       </c>
       <c r="AM22" t="n">
-        <v>-1.573373325641167</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>-98.50070485567372</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>-1475.758909803512</v>
+        <v>-130.9493278059539</v>
       </c>
     </row>
     <row r="23">
@@ -3132,121 +3002,115 @@
         <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>103.8408165294608</v>
+        <v>102.7663632106448</v>
       </c>
       <c r="E23" t="n">
-        <v>11.09790514594853</v>
+        <v>10.8941683360595</v>
       </c>
       <c r="F23" t="n">
-        <v>117.1188599107416</v>
+        <v>112.947885997581</v>
       </c>
       <c r="G23" t="n">
-        <v>2918.140948032647</v>
+        <v>2529.642694894298</v>
       </c>
       <c r="H23" t="n">
-        <v>429314.0381771678</v>
+        <v>454703.3253272982</v>
       </c>
       <c r="I23" t="n">
-        <v>455423.0040134978</v>
+        <v>473865.1979692704</v>
       </c>
       <c r="J23" t="n">
-        <v>-8520.290483225288</v>
+        <v>-23673.5133520852</v>
       </c>
       <c r="K23" t="n">
-        <v>8356.403123553539</v>
+        <v>0.566163107270651</v>
       </c>
       <c r="L23" t="n">
-        <v>-5681.982903822082</v>
+        <v>-17.62492248664685</v>
       </c>
       <c r="M23" t="n">
-        <v>2.667605354472236</v>
+        <v>70.56008117572368</v>
       </c>
       <c r="N23" t="n">
-        <v>4.783888889573344</v>
+        <v>5.987507873806339</v>
       </c>
       <c r="O23" t="n">
-        <v>274.3308510216515</v>
+        <v>109.5189070852063</v>
       </c>
       <c r="P23" t="n">
-        <v>3.6207903639746</v>
+        <v>878.6096084139147</v>
       </c>
       <c r="Q23" t="n">
-        <v>111.7634211881287</v>
+        <v>11.5209433080046</v>
       </c>
       <c r="R23" t="n">
-        <v>1839.830996610325</v>
+        <v>152.9884796718227</v>
       </c>
       <c r="S23" t="n">
-        <v>15.64046536766604</v>
+        <v>2334.465974778566</v>
       </c>
       <c r="T23" t="n">
-        <v>170.202372667881</v>
+        <v>119</v>
       </c>
       <c r="U23" t="n">
-        <v>2876.700259372198</v>
+        <v>142</v>
       </c>
       <c r="V23" t="n">
-        <v>61</v>
+        <v>294</v>
       </c>
       <c r="W23" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="X23" t="n">
-        <v>271</v>
+        <v>0.6339289892240642</v>
       </c>
       <c r="Y23" t="n">
-        <v>17</v>
+        <v>0.6654251858996871</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.6000896931305911</v>
+        <v>10.28844243031238</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.949080776396117</v>
+        <v>1984.220974255246</v>
       </c>
       <c r="AB23" t="n">
-        <v>117.8770189993579</v>
+        <v>221.1812868470786</v>
       </c>
       <c r="AC23" t="n">
-        <v>2574.044868566723</v>
+        <v>0.195984395954471</v>
       </c>
       <c r="AD23" t="n">
-        <v>19.84824209021642</v>
+        <v>0.2017494132436199</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.1819433337006445</v>
+        <v>3.177421713286078</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.5864790862040504</v>
+        <v>301.4840097170679</v>
       </c>
       <c r="AG23" t="n">
-        <v>36.62528334896899</v>
+        <v>63.4909722694208</v>
       </c>
       <c r="AH23" t="n">
-        <v>187.6202639341056</v>
+        <v>72.41219465679438</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.2569587153885485</v>
+        <v>-61.58370980989199</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-1300.321154618119</v>
+        <v>582.0406229917896</v>
       </c>
       <c r="AK23" t="n">
-        <v>313.9040759697391</v>
+        <v>0.03027762198369438</v>
       </c>
       <c r="AL23" t="n">
-        <v>-403.6663789566096</v>
+        <v>-23.73221048232294</v>
       </c>
       <c r="AM23" t="n">
-        <v>-0.9531850095023636</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>-106.9795322985554</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>-1565.500145588674</v>
+        <v>-374.2683061646019</v>
       </c>
     </row>
     <row r="24">
@@ -3257,121 +3121,115 @@
         <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>103.9158682090191</v>
+        <v>102.7668751492</v>
       </c>
       <c r="E24" t="n">
-        <v>11.09796118998313</v>
+        <v>10.8941894224786</v>
       </c>
       <c r="F24" t="n">
-        <v>117.2137552167309</v>
+        <v>112.947885997581</v>
       </c>
       <c r="G24" t="n">
-        <v>2927.693940799048</v>
+        <v>2529.672202113841</v>
       </c>
       <c r="H24" t="n">
-        <v>429314.0381771678</v>
+        <v>454703.3253272982</v>
       </c>
       <c r="I24" t="n">
-        <v>455423.0040134978</v>
+        <v>473870.8686667508</v>
       </c>
       <c r="J24" t="n">
-        <v>-8520.290483225288</v>
+        <v>-23673.5133520852</v>
       </c>
       <c r="K24" t="n">
-        <v>8356.403123553539</v>
+        <v>0.566163107270651</v>
       </c>
       <c r="L24" t="n">
-        <v>-5681.982903822082</v>
+        <v>-17.62492248664685</v>
       </c>
       <c r="M24" t="n">
-        <v>2.667605354472236</v>
+        <v>70.56008117572368</v>
       </c>
       <c r="N24" t="n">
-        <v>4.783888889573344</v>
+        <v>5.987507873806339</v>
       </c>
       <c r="O24" t="n">
-        <v>274.3308510216515</v>
+        <v>109.5189070852063</v>
       </c>
       <c r="P24" t="n">
-        <v>3.6207903639746</v>
+        <v>878.6096084139147</v>
       </c>
       <c r="Q24" t="n">
-        <v>111.7634211881287</v>
+        <v>11.5209433080046</v>
       </c>
       <c r="R24" t="n">
-        <v>1839.830996610325</v>
+        <v>152.9884796718227</v>
       </c>
       <c r="S24" t="n">
-        <v>15.64046536766604</v>
+        <v>2334.465974778566</v>
       </c>
       <c r="T24" t="n">
-        <v>170.202372667881</v>
+        <v>119</v>
       </c>
       <c r="U24" t="n">
-        <v>2876.700259372198</v>
+        <v>142</v>
       </c>
       <c r="V24" t="n">
-        <v>61</v>
+        <v>294</v>
       </c>
       <c r="W24" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="X24" t="n">
-        <v>271</v>
+        <v>0.6339289892240642</v>
       </c>
       <c r="Y24" t="n">
-        <v>17</v>
+        <v>0.6654251858996871</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.6000906815536942</v>
+        <v>10.28844243031238</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.951340188443482</v>
+        <v>1984.220974255246</v>
       </c>
       <c r="AB24" t="n">
-        <v>118.1044712080817</v>
+        <v>221.1812868470786</v>
       </c>
       <c r="AC24" t="n">
-        <v>2574.044868566723</v>
+        <v>0.1959847441859912</v>
       </c>
       <c r="AD24" t="n">
-        <v>19.84824209021642</v>
+        <v>0.2017494132436199</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.1819443221237476</v>
+        <v>3.178141401567638</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.5887384982514151</v>
+        <v>301.4840097170679</v>
       </c>
       <c r="AG24" t="n">
-        <v>36.85273555769282</v>
+        <v>63.60745895030919</v>
       </c>
       <c r="AH24" t="n">
-        <v>187.6202639341056</v>
+        <v>72.41219465679438</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.2569587153885485</v>
+        <v>-61.58370980989199</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-1300.321154618119</v>
+        <v>582.0406229917896</v>
       </c>
       <c r="AK24" t="n">
-        <v>313.9040759697391</v>
+        <v>0.03027762198369438</v>
       </c>
       <c r="AL24" t="n">
-        <v>-403.6663789566096</v>
+        <v>-23.73221048232294</v>
       </c>
       <c r="AM24" t="n">
-        <v>-0.9531850095023636</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>-106.9795322985554</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>-1565.500145588674</v>
+        <v>-374.2683061646019</v>
       </c>
     </row>
     <row r="25">
@@ -3382,121 +3240,115 @@
         <v>20</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>104.1662805644347</v>
+        <v>102.9842089913648</v>
       </c>
       <c r="E25" t="n">
-        <v>11.19741676978447</v>
+        <v>11.00058379619892</v>
       </c>
       <c r="F25" t="n">
-        <v>116.9439910510037</v>
+        <v>113.0115829418017</v>
       </c>
       <c r="G25" t="n">
-        <v>2955.272099367726</v>
+        <v>2532.462856181338</v>
       </c>
       <c r="H25" t="n">
-        <v>428848.9311702812</v>
+        <v>450424.7827742068</v>
       </c>
       <c r="I25" t="n">
-        <v>458250.5844359481</v>
+        <v>477508.1904367486</v>
       </c>
       <c r="J25" t="n">
-        <v>-9850.524668890217</v>
+        <v>-23776.59883239843</v>
       </c>
       <c r="K25" t="n">
-        <v>7684.344425885022</v>
+        <v>0.3922134493724636</v>
       </c>
       <c r="L25" t="n">
-        <v>-6026.667321655103</v>
+        <v>-16.25809306085469</v>
       </c>
       <c r="M25" t="n">
-        <v>2.033111166590059</v>
+        <v>38.27289970362681</v>
       </c>
       <c r="N25" t="n">
-        <v>1.129283803165874</v>
+        <v>5.397263057743618</v>
       </c>
       <c r="O25" t="n">
-        <v>275.4943712858345</v>
+        <v>119.3093000544176</v>
       </c>
       <c r="P25" t="n">
-        <v>3.82527802692216</v>
+        <v>1192.437729907872</v>
       </c>
       <c r="Q25" t="n">
-        <v>80.33847636973034</v>
+        <v>11.92947633931533</v>
       </c>
       <c r="R25" t="n">
-        <v>1661.371845464084</v>
+        <v>172.3371291797128</v>
       </c>
       <c r="S25" t="n">
-        <v>16.21440357496616</v>
+        <v>2730.21229806788</v>
       </c>
       <c r="T25" t="n">
-        <v>177.2930394851322</v>
+        <v>130</v>
       </c>
       <c r="U25" t="n">
-        <v>2933.154546685271</v>
+        <v>155</v>
       </c>
       <c r="V25" t="n">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="W25" t="n">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="X25" t="n">
-        <v>296</v>
+        <v>0.7111879742580665</v>
       </c>
       <c r="Y25" t="n">
-        <v>17</v>
+        <v>0.7620979577737967</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.65465666587658</v>
+        <v>10.53013455135642</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.332214623499495</v>
+        <v>2698.491669137056</v>
       </c>
       <c r="AB25" t="n">
-        <v>118.3064905548928</v>
+        <v>282.1845909326588</v>
       </c>
       <c r="AC25" t="n">
-        <v>2977.093655808303</v>
+        <v>0.219811005682205</v>
       </c>
       <c r="AD25" t="n">
-        <v>1233.246281277457</v>
+        <v>0.2295650269549834</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.1982572418619454</v>
+        <v>3.25116783775617</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.7028235950190327</v>
+        <v>301.7627901856271</v>
       </c>
       <c r="AG25" t="n">
-        <v>36.9136734455879</v>
+        <v>63.63018781102051</v>
       </c>
       <c r="AH25" t="n">
-        <v>188.3478835202585</v>
+        <v>189.7586435037988</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.382715635524955</v>
+        <v>-93.67221174460394</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-26.72719966833074</v>
+        <v>580.5026498116695</v>
       </c>
       <c r="AK25" t="n">
-        <v>-387.3898247087</v>
+        <v>0.4950123803900962</v>
       </c>
       <c r="AL25" t="n">
-        <v>-459.6070043073946</v>
+        <v>-31.19309336809548</v>
       </c>
       <c r="AM25" t="n">
-        <v>-1.7921668603321</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>-79.20919256656447</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>-1385.87747417825</v>
+        <v>-711.1668221344762</v>
       </c>
     </row>
     <row r="26">
@@ -3507,121 +3359,115 @@
         <v>20</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>104.1683590565673</v>
+        <v>103.039895963121</v>
       </c>
       <c r="E26" t="n">
-        <v>11.19757768160893</v>
+        <v>11.00077490389093</v>
       </c>
       <c r="F26" t="n">
-        <v>116.95572104648</v>
+        <v>113.0140687569275</v>
       </c>
       <c r="G26" t="n">
-        <v>2955.272099367726</v>
+        <v>2532.462856181338</v>
       </c>
       <c r="H26" t="n">
-        <v>428848.9311702812</v>
+        <v>450424.7827742068</v>
       </c>
       <c r="I26" t="n">
-        <v>458250.5844359481</v>
+        <v>478660.8606191596</v>
       </c>
       <c r="J26" t="n">
-        <v>-9850.524668890217</v>
+        <v>-23776.59883239843</v>
       </c>
       <c r="K26" t="n">
-        <v>7684.344425885022</v>
+        <v>0.3922134493724636</v>
       </c>
       <c r="L26" t="n">
-        <v>-6026.667321655103</v>
+        <v>-16.25809306085469</v>
       </c>
       <c r="M26" t="n">
-        <v>2.033111166590059</v>
+        <v>38.27289970362681</v>
       </c>
       <c r="N26" t="n">
-        <v>1.129283803165874</v>
+        <v>5.397263057743618</v>
       </c>
       <c r="O26" t="n">
-        <v>275.4943712858345</v>
+        <v>119.3093000544176</v>
       </c>
       <c r="P26" t="n">
-        <v>3.82527802692216</v>
+        <v>1192.437729907872</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.33847636973034</v>
+        <v>11.92947633931533</v>
       </c>
       <c r="R26" t="n">
-        <v>1661.371845464084</v>
+        <v>172.3371291797128</v>
       </c>
       <c r="S26" t="n">
-        <v>16.21440357496616</v>
+        <v>2730.21229806788</v>
       </c>
       <c r="T26" t="n">
-        <v>177.2930394851322</v>
+        <v>130</v>
       </c>
       <c r="U26" t="n">
-        <v>2933.154546685271</v>
+        <v>155</v>
       </c>
       <c r="V26" t="n">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="W26" t="n">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="X26" t="n">
-        <v>296</v>
+        <v>0.7111879742580665</v>
       </c>
       <c r="Y26" t="n">
-        <v>17</v>
+        <v>0.7620979577737967</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.65465954412276</v>
+        <v>10.53013455135642</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.332493909106073</v>
+        <v>2698.491669137056</v>
       </c>
       <c r="AB26" t="n">
-        <v>118.3064905548928</v>
+        <v>282.1845909326588</v>
       </c>
       <c r="AC26" t="n">
-        <v>2977.093655808303</v>
+        <v>0.2198146379694023</v>
       </c>
       <c r="AD26" t="n">
-        <v>1233.246281277457</v>
+        <v>0.2296256565921985</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.1982601201081253</v>
+        <v>3.25116783775617</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.7031028806256104</v>
+        <v>301.7627901856271</v>
       </c>
       <c r="AG26" t="n">
-        <v>36.9136734455879</v>
+        <v>84.93960577577084</v>
       </c>
       <c r="AH26" t="n">
-        <v>188.3478835202585</v>
+        <v>189.7586435037988</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.382715635524955</v>
+        <v>-93.67221174460394</v>
       </c>
       <c r="AJ26" t="n">
-        <v>-26.72719966833074</v>
+        <v>580.5026498116695</v>
       </c>
       <c r="AK26" t="n">
-        <v>-387.3898247087</v>
+        <v>0.4950123803900962</v>
       </c>
       <c r="AL26" t="n">
-        <v>-459.6070043073946</v>
+        <v>-31.19309336809548</v>
       </c>
       <c r="AM26" t="n">
-        <v>-1.7921668603321</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>-79.20919256656447</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>-1385.87747417825</v>
+        <v>-711.1668221344762</v>
       </c>
     </row>
     <row r="27">
@@ -3632,121 +3478,115 @@
         <v>20</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>104.3165942636744</v>
+        <v>103.1897138153652</v>
       </c>
       <c r="E27" t="n">
-        <v>11.27099564469142</v>
+        <v>11.04024868028944</v>
       </c>
       <c r="F27" t="n">
-        <v>116.9898153237429</v>
+        <v>113.4197929484645</v>
       </c>
       <c r="G27" t="n">
-        <v>2961.87209453293</v>
+        <v>2538.322449990335</v>
       </c>
       <c r="H27" t="n">
-        <v>430415.6367554717</v>
+        <v>453103.1155917345</v>
       </c>
       <c r="I27" t="n">
-        <v>443779.5460337293</v>
+        <v>477739.2102767606</v>
       </c>
       <c r="J27" t="n">
-        <v>3769.564551976337</v>
+        <v>-26350.36697679007</v>
       </c>
       <c r="K27" t="n">
-        <v>9241.661958066472</v>
+        <v>-0.6648166378199385</v>
       </c>
       <c r="L27" t="n">
-        <v>-6215.490672364808</v>
+        <v>-17.2567022401792</v>
       </c>
       <c r="M27" t="n">
-        <v>2.105572818726099</v>
+        <v>62.59466869164049</v>
       </c>
       <c r="N27" t="n">
-        <v>3.838578254861097</v>
+        <v>6.134205272460222</v>
       </c>
       <c r="O27" t="n">
-        <v>275.4943712858345</v>
+        <v>123.5818022900174</v>
       </c>
       <c r="P27" t="n">
-        <v>3.103532339228783</v>
+        <v>964.3662343788715</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.90949288806694</v>
+        <v>12.69231893137363</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.137436337094</v>
+        <v>182.1207635480119</v>
       </c>
       <c r="S27" t="n">
-        <v>16.41954634361059</v>
+        <v>2784.275879987375</v>
       </c>
       <c r="T27" t="n">
-        <v>182.834542032186</v>
+        <v>141</v>
       </c>
       <c r="U27" t="n">
-        <v>2985.865328043223</v>
+        <v>169</v>
       </c>
       <c r="V27" t="n">
-        <v>71</v>
+        <v>356</v>
       </c>
       <c r="W27" t="n">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="X27" t="n">
-        <v>318</v>
+        <v>0.763029140095505</v>
       </c>
       <c r="Y27" t="n">
-        <v>18</v>
+        <v>0.8762867985919357</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.688212903490045</v>
+        <v>10.58730165387437</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.388674669274422</v>
+        <v>3251.205324578676</v>
       </c>
       <c r="AB27" t="n">
-        <v>118.3628120878523</v>
+        <v>282.2509250304352</v>
       </c>
       <c r="AC27" t="n">
-        <v>3342.787143637501</v>
+        <v>0.2351549178693395</v>
       </c>
       <c r="AD27" t="n">
-        <v>2388.050206180664</v>
+        <v>0.2636341622060671</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.2082193646472854</v>
+        <v>3.268429615542341</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.7195871967779724</v>
+        <v>302.5680988722939</v>
       </c>
       <c r="AG27" t="n">
-        <v>36.93067536519272</v>
+        <v>84.95959826253163</v>
       </c>
       <c r="AH27" t="n">
-        <v>188.4814501082333</v>
+        <v>-934.6785094452596</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.6606850494326472</v>
+        <v>-5.950326301456187</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-25.5505805922119</v>
+        <v>92.67567258397526</v>
       </c>
       <c r="AK27" t="n">
-        <v>-11084.83596899487</v>
+        <v>-1.242745261375122</v>
       </c>
       <c r="AL27" t="n">
-        <v>362.9975814076965</v>
+        <v>-35.51744267296183</v>
       </c>
       <c r="AM27" t="n">
-        <v>-0.9979595205026831</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>-47.07091463320583</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>-1346.64306505126</v>
+        <v>-458.7735576174624</v>
       </c>
     </row>
     <row r="28">
@@ -3757,121 +3597,115 @@
         <v>20</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>104.3199831739296</v>
+        <v>103.1905505147787</v>
       </c>
       <c r="E28" t="n">
-        <v>11.27108964057473</v>
+        <v>11.04037381189972</v>
       </c>
       <c r="F28" t="n">
-        <v>117.0113156033707</v>
+        <v>113.4235265545595</v>
       </c>
       <c r="G28" t="n">
-        <v>2961.87209453293</v>
+        <v>2538.322449990335</v>
       </c>
       <c r="H28" t="n">
-        <v>430415.6367554717</v>
+        <v>453103.1155917345</v>
       </c>
       <c r="I28" t="n">
-        <v>443779.5460337293</v>
+        <v>477739.2102767606</v>
       </c>
       <c r="J28" t="n">
-        <v>3769.564551976337</v>
+        <v>-26350.36697679007</v>
       </c>
       <c r="K28" t="n">
-        <v>9241.661958066472</v>
+        <v>-0.6648166378199385</v>
       </c>
       <c r="L28" t="n">
-        <v>-6215.490672364808</v>
+        <v>-17.2567022401792</v>
       </c>
       <c r="M28" t="n">
-        <v>2.105572818726099</v>
+        <v>62.59466869164049</v>
       </c>
       <c r="N28" t="n">
-        <v>3.838578254861097</v>
+        <v>6.134205272460222</v>
       </c>
       <c r="O28" t="n">
-        <v>275.4943712858345</v>
+        <v>123.5818022900174</v>
       </c>
       <c r="P28" t="n">
-        <v>3.103532339228783</v>
+        <v>964.3662343788715</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.90949288806694</v>
+        <v>12.69231893137363</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.137436337094</v>
+        <v>182.1207635480119</v>
       </c>
       <c r="S28" t="n">
-        <v>16.41954634361059</v>
+        <v>2784.275879987375</v>
       </c>
       <c r="T28" t="n">
-        <v>182.834542032186</v>
+        <v>141</v>
       </c>
       <c r="U28" t="n">
-        <v>2985.865328043223</v>
+        <v>169</v>
       </c>
       <c r="V28" t="n">
-        <v>71</v>
+        <v>356</v>
       </c>
       <c r="W28" t="n">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="X28" t="n">
-        <v>318</v>
+        <v>0.763029140095505</v>
       </c>
       <c r="Y28" t="n">
-        <v>18</v>
+        <v>0.8762867985919357</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.6882146060432046</v>
+        <v>10.58730165387437</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.389186580694133</v>
+        <v>3251.205324578676</v>
       </c>
       <c r="AB28" t="n">
-        <v>118.3628120878523</v>
+        <v>282.2509250304352</v>
       </c>
       <c r="AC28" t="n">
-        <v>3342.787143637501</v>
+        <v>0.2351571531046344</v>
       </c>
       <c r="AD28" t="n">
-        <v>2388.050206180664</v>
+        <v>0.2637252257693598</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.2082210672004449</v>
+        <v>3.268429615542341</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.7200991081976834</v>
+        <v>302.5680988722939</v>
       </c>
       <c r="AG28" t="n">
-        <v>36.93067536519272</v>
+        <v>84.95959826253163</v>
       </c>
       <c r="AH28" t="n">
-        <v>188.4814501082333</v>
+        <v>-934.6785094452596</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.6606850494326472</v>
+        <v>-5.950326301456187</v>
       </c>
       <c r="AJ28" t="n">
-        <v>-25.5505805922119</v>
+        <v>92.67567258397526</v>
       </c>
       <c r="AK28" t="n">
-        <v>-11084.83596899487</v>
+        <v>-1.242745261375122</v>
       </c>
       <c r="AL28" t="n">
-        <v>362.9975814076965</v>
+        <v>-35.51744267296183</v>
       </c>
       <c r="AM28" t="n">
-        <v>-0.9979595205026831</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>-47.07091463320583</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>-1346.64306505126</v>
+        <v>-458.7735576174624</v>
       </c>
     </row>
     <row r="29">
@@ -3882,121 +3716,115 @@
         <v>20</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>104.4353297214174</v>
+        <v>103.3618375066262</v>
       </c>
       <c r="E29" t="n">
-        <v>11.18543991546385</v>
+        <v>11.02758285421922</v>
       </c>
       <c r="F29" t="n">
-        <v>119.4611157882552</v>
+        <v>114.3042519253122</v>
       </c>
       <c r="G29" t="n">
-        <v>2930.052708477418</v>
+        <v>2558.998394449437</v>
       </c>
       <c r="H29" t="n">
-        <v>427158.8248169036</v>
+        <v>447319.5538530251</v>
       </c>
       <c r="I29" t="n">
-        <v>447945.821906877</v>
+        <v>482328.7459694486</v>
       </c>
       <c r="J29" t="n">
-        <v>6681.108144567494</v>
+        <v>-26833.93994399816</v>
       </c>
       <c r="K29" t="n">
-        <v>9241.661958066472</v>
+        <v>-0.2481050939771984</v>
       </c>
       <c r="L29" t="n">
-        <v>-6182.813549431889</v>
+        <v>-19.54708813230705</v>
       </c>
       <c r="M29" t="n">
-        <v>1.904364386833313</v>
+        <v>136.9433084685137</v>
       </c>
       <c r="N29" t="n">
-        <v>3.838578254861097</v>
+        <v>5.92277759742158</v>
       </c>
       <c r="O29" t="n">
-        <v>249.1342263386369</v>
+        <v>125.199362391308</v>
       </c>
       <c r="P29" t="n">
-        <v>3.458710735542303</v>
+        <v>517.8620097034708</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.06334551839133</v>
+        <v>13.14325033316785</v>
       </c>
       <c r="R29" t="n">
-        <v>1964.633155276272</v>
+        <v>185.5246589077715</v>
       </c>
       <c r="S29" t="n">
-        <v>16.94826012952413</v>
+        <v>2867.258637042155</v>
       </c>
       <c r="T29" t="n">
-        <v>183.3207600831597</v>
+        <v>159</v>
       </c>
       <c r="U29" t="n">
-        <v>3607.699159896598</v>
+        <v>179</v>
       </c>
       <c r="V29" t="n">
-        <v>72</v>
+        <v>383</v>
       </c>
       <c r="W29" t="n">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="X29" t="n">
-        <v>339</v>
+        <v>0.8214164992282951</v>
       </c>
       <c r="Y29" t="n">
-        <v>19</v>
+        <v>0.9518607309486</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.7162592293725313</v>
+        <v>10.70599014471833</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.425177287722877</v>
+        <v>4040.797073417912</v>
       </c>
       <c r="AB29" t="n">
-        <v>119.0680397572448</v>
+        <v>310.8964008360721</v>
       </c>
       <c r="AC29" t="n">
-        <v>4132.982269023343</v>
+        <v>0.2525216780159621</v>
       </c>
       <c r="AD29" t="n">
-        <v>2581.753422992255</v>
+        <v>0.2864714342265979</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.2165852874526621</v>
+        <v>3.304316383845715</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.7314018842678234</v>
+        <v>303.9474683798321</v>
       </c>
       <c r="AG29" t="n">
-        <v>37.14231750433834</v>
+        <v>84.99191556702338</v>
       </c>
       <c r="AH29" t="n">
-        <v>189.3517465734162</v>
+        <v>32.17990556312343</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.7048383708756856</v>
+        <v>-8.76065796601074</v>
       </c>
       <c r="AJ29" t="n">
-        <v>-26.0875043015547</v>
+        <v>2.546274710313015</v>
       </c>
       <c r="AK29" t="n">
-        <v>-988.2395466786008</v>
+        <v>-0.2917688087008574</v>
       </c>
       <c r="AL29" t="n">
-        <v>-78.52124409426239</v>
+        <v>-39.40685983344142</v>
       </c>
       <c r="AM29" t="n">
-        <v>-1.55434634870899</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>-32.22476726353023</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>-1715.498928937636</v>
+        <v>63.61924819977893</v>
       </c>
     </row>
     <row r="30">
@@ -4007,121 +3835,115 @@
         <v>20</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>104.8064828441859</v>
+        <v>103.366839657612</v>
       </c>
       <c r="E30" t="n">
-        <v>11.18551910179299</v>
+        <v>11.02772864907349</v>
       </c>
       <c r="F30" t="n">
-        <v>119.6341830128622</v>
+        <v>114.3059618800882</v>
       </c>
       <c r="G30" t="n">
-        <v>2930.052708477418</v>
+        <v>2558.998394449437</v>
       </c>
       <c r="H30" t="n">
-        <v>427158.8248169036</v>
+        <v>447319.5538530251</v>
       </c>
       <c r="I30" t="n">
-        <v>455308.2279756662</v>
+        <v>482421.5637025967</v>
       </c>
       <c r="J30" t="n">
-        <v>6681.108144567494</v>
+        <v>-26833.93994399816</v>
       </c>
       <c r="K30" t="n">
-        <v>9241.661958066472</v>
+        <v>-0.2481050939771984</v>
       </c>
       <c r="L30" t="n">
-        <v>-6182.813549431889</v>
+        <v>-19.54708813230705</v>
       </c>
       <c r="M30" t="n">
-        <v>1.904364386833313</v>
+        <v>136.9433084685137</v>
       </c>
       <c r="N30" t="n">
-        <v>3.838578254861097</v>
+        <v>5.92277759742158</v>
       </c>
       <c r="O30" t="n">
-        <v>249.1342263386369</v>
+        <v>125.199362391308</v>
       </c>
       <c r="P30" t="n">
-        <v>3.458710735542303</v>
+        <v>517.8620097034708</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.06334551839133</v>
+        <v>13.14325033316785</v>
       </c>
       <c r="R30" t="n">
-        <v>1964.633155276272</v>
+        <v>185.5246589077715</v>
       </c>
       <c r="S30" t="n">
-        <v>16.94826012952413</v>
+        <v>2867.258637042155</v>
       </c>
       <c r="T30" t="n">
-        <v>183.3207600831597</v>
+        <v>159</v>
       </c>
       <c r="U30" t="n">
-        <v>3607.699159896598</v>
+        <v>179</v>
       </c>
       <c r="V30" t="n">
-        <v>72</v>
+        <v>383</v>
       </c>
       <c r="W30" t="n">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="X30" t="n">
-        <v>339</v>
+        <v>0.8214164992282951</v>
       </c>
       <c r="Y30" t="n">
-        <v>19</v>
+        <v>0.9518607309486</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.7162605774949214</v>
+        <v>10.70599014471833</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.429297935927805</v>
+        <v>4040.797073417912</v>
       </c>
       <c r="AB30" t="n">
-        <v>119.0680397572448</v>
+        <v>310.8964008360721</v>
       </c>
       <c r="AC30" t="n">
-        <v>4132.982269023343</v>
+        <v>0.2525241800343199</v>
       </c>
       <c r="AD30" t="n">
-        <v>2676.1289961394</v>
+        <v>0.2865131404406464</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.2165866355750524</v>
+        <v>3.304316383845715</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.7355225324727503</v>
+        <v>303.9474683798321</v>
       </c>
       <c r="AG30" t="n">
-        <v>37.14231750433834</v>
+        <v>86.821197945414</v>
       </c>
       <c r="AH30" t="n">
-        <v>189.3517465734162</v>
+        <v>32.17990556312343</v>
       </c>
       <c r="AI30" t="n">
-        <v>95.08041151801982</v>
+        <v>-8.76065796601074</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-26.0875043015547</v>
+        <v>2.546274710313015</v>
       </c>
       <c r="AK30" t="n">
-        <v>-988.2395466786008</v>
+        <v>-0.2917688087008574</v>
       </c>
       <c r="AL30" t="n">
-        <v>-78.52124409426239</v>
+        <v>-39.40685983344142</v>
       </c>
       <c r="AM30" t="n">
-        <v>-1.55434634870899</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>-32.22476726353023</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>-1715.498928937636</v>
+        <v>63.61924819977893</v>
       </c>
     </row>
     <row r="31">
@@ -4132,121 +3954,115 @@
         <v>20</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>104.9276839404078</v>
+        <v>103.498268242503</v>
       </c>
       <c r="E31" t="n">
-        <v>11.20745016223567</v>
+        <v>11.09136741576916</v>
       </c>
       <c r="F31" t="n">
-        <v>119.2700394966624</v>
+        <v>114.330875682969</v>
       </c>
       <c r="G31" t="n">
-        <v>2944.76716782696</v>
+        <v>2559.189614593322</v>
       </c>
       <c r="H31" t="n">
-        <v>422559.5439205884</v>
+        <v>447288.4627736189</v>
       </c>
       <c r="I31" t="n">
-        <v>457868.1333807845</v>
+        <v>483328.2977971663</v>
       </c>
       <c r="J31" t="n">
-        <v>10892.6725389039</v>
+        <v>-27846.01454814625</v>
       </c>
       <c r="K31" t="n">
-        <v>9241.661958066472</v>
+        <v>-1.063150424115451</v>
       </c>
       <c r="L31" t="n">
-        <v>-6182.813549431889</v>
+        <v>-18.96504297813395</v>
       </c>
       <c r="M31" t="n">
-        <v>1.911425410826855</v>
+        <v>193.4296829186875</v>
       </c>
       <c r="N31" t="n">
-        <v>4.064524880855704</v>
+        <v>6.941378809627421</v>
       </c>
       <c r="O31" t="n">
-        <v>292.2933432835289</v>
+        <v>117.8465710159306</v>
       </c>
       <c r="P31" t="n">
-        <v>8.671323329154644</v>
+        <v>979.8423007065294</v>
       </c>
       <c r="Q31" t="n">
-        <v>109.8881987424108</v>
+        <v>14.16243664171231</v>
       </c>
       <c r="R31" t="n">
-        <v>1965.633104527569</v>
+        <v>188.1200158853004</v>
       </c>
       <c r="S31" t="n">
-        <v>22.76978389190717</v>
+        <v>3389.980810867723</v>
       </c>
       <c r="T31" t="n">
-        <v>257.6588878275224</v>
+        <v>167</v>
       </c>
       <c r="U31" t="n">
-        <v>3774.77008310028</v>
+        <v>194</v>
       </c>
       <c r="V31" t="n">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="W31" t="n">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="X31" t="n">
-        <v>353</v>
+        <v>0.8695590520326659</v>
       </c>
       <c r="Y31" t="n">
-        <v>19</v>
+        <v>1.00552614295321</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.7368024407255959</v>
+        <v>10.86709284298536</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.453870817200596</v>
+        <v>4452.228979428628</v>
       </c>
       <c r="AB31" t="n">
-        <v>126.5812875352296</v>
+        <v>339.7046497287544</v>
       </c>
       <c r="AC31" t="n">
-        <v>4572.214458779136</v>
+        <v>0.2671572913564851</v>
       </c>
       <c r="AD31" t="n">
-        <v>2676.180070039459</v>
+        <v>0.3022366456016288</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.2228744041343013</v>
+        <v>3.352706600948989</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.7428606579388145</v>
+        <v>303.9841126413004</v>
       </c>
       <c r="AG31" t="n">
-        <v>39.3964307102315</v>
+        <v>86.84669243051285</v>
       </c>
       <c r="AH31" t="n">
-        <v>189.7319594791019</v>
+        <v>54.32293851751155</v>
       </c>
       <c r="AI31" t="n">
-        <v>95.09568242176685</v>
+        <v>0.5674634109908538</v>
       </c>
       <c r="AJ31" t="n">
-        <v>98.46799903614605</v>
+        <v>12.7779608205972</v>
       </c>
       <c r="AK31" t="n">
-        <v>190.3223237024057</v>
+        <v>-1.760474612015627</v>
       </c>
       <c r="AL31" t="n">
-        <v>19.66759079515657</v>
+        <v>-30.48019630290785</v>
       </c>
       <c r="AM31" t="n">
-        <v>-6.759897918327789</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>-105.8236738615551</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>-1673.339761244041</v>
+        <v>-320.1069474855922</v>
       </c>
     </row>
     <row r="32">
@@ -4257,121 +4073,115 @@
         <v>20</v>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>105.1510860192137</v>
+        <v>103.5028035738255</v>
       </c>
       <c r="E32" t="n">
-        <v>11.20750554656695</v>
+        <v>11.09148499773197</v>
       </c>
       <c r="F32" t="n">
-        <v>119.6840112729881</v>
+        <v>114.3318573026558</v>
       </c>
       <c r="G32" t="n">
-        <v>2945.645919521848</v>
+        <v>2559.189614593322</v>
       </c>
       <c r="H32" t="n">
-        <v>422559.5439205884</v>
+        <v>447288.4627736189</v>
       </c>
       <c r="I32" t="n">
-        <v>461190.0451665798</v>
+        <v>483414.9811385078</v>
       </c>
       <c r="J32" t="n">
-        <v>10892.6725389039</v>
+        <v>-27846.01454814625</v>
       </c>
       <c r="K32" t="n">
-        <v>9241.661958066472</v>
+        <v>-1.063150424115451</v>
       </c>
       <c r="L32" t="n">
-        <v>-6182.813549431889</v>
+        <v>-18.96504297813395</v>
       </c>
       <c r="M32" t="n">
-        <v>1.911425410826855</v>
+        <v>193.4296829186875</v>
       </c>
       <c r="N32" t="n">
-        <v>4.064524880855704</v>
+        <v>6.941378809627421</v>
       </c>
       <c r="O32" t="n">
-        <v>292.2933432835289</v>
+        <v>117.8465710159306</v>
       </c>
       <c r="P32" t="n">
-        <v>8.671323329154644</v>
+        <v>979.8423007065294</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.8881987424108</v>
+        <v>14.16243664171231</v>
       </c>
       <c r="R32" t="n">
-        <v>1965.633104527569</v>
+        <v>188.1200158853004</v>
       </c>
       <c r="S32" t="n">
-        <v>22.76978389190717</v>
+        <v>3389.980810867723</v>
       </c>
       <c r="T32" t="n">
-        <v>257.6588878275224</v>
+        <v>167</v>
       </c>
       <c r="U32" t="n">
-        <v>3774.77008310028</v>
+        <v>194</v>
       </c>
       <c r="V32" t="n">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="W32" t="n">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="X32" t="n">
-        <v>353</v>
+        <v>0.8695590520326659</v>
       </c>
       <c r="Y32" t="n">
-        <v>19</v>
+        <v>1.00552614295321</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.7368034034387299</v>
+        <v>10.86709284298536</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.463727288065493</v>
+        <v>4452.228979428628</v>
       </c>
       <c r="AB32" t="n">
-        <v>126.6022101946317</v>
+        <v>339.7046497287544</v>
       </c>
       <c r="AC32" t="n">
-        <v>4572.214458779136</v>
+        <v>0.2671594197446244</v>
       </c>
       <c r="AD32" t="n">
-        <v>2720.903142404973</v>
+        <v>0.3022605875452082</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.2228753668474353</v>
+        <v>3.352706600948989</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.752717128803711</v>
+        <v>303.9841126413004</v>
       </c>
       <c r="AG32" t="n">
-        <v>39.41735336963361</v>
+        <v>88.51770586377391</v>
       </c>
       <c r="AH32" t="n">
-        <v>189.7319594791019</v>
+        <v>54.32293851751155</v>
       </c>
       <c r="AI32" t="n">
-        <v>139.81875478728</v>
+        <v>0.5674634109908538</v>
       </c>
       <c r="AJ32" t="n">
-        <v>98.46799903614605</v>
+        <v>12.7779608205972</v>
       </c>
       <c r="AK32" t="n">
-        <v>190.3223237024057</v>
+        <v>-1.760474612015627</v>
       </c>
       <c r="AL32" t="n">
-        <v>19.66759079515657</v>
+        <v>-30.48019630290785</v>
       </c>
       <c r="AM32" t="n">
-        <v>-6.759897918327789</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>-105.8236738615551</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>-1673.339761244041</v>
+        <v>-320.1069474855922</v>
       </c>
     </row>
     <row r="33">
@@ -4382,121 +4192,115 @@
         <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>105.3485703477968</v>
+        <v>103.6277270885954</v>
       </c>
       <c r="E33" t="n">
-        <v>11.30460468415701</v>
+        <v>11.09183085135847</v>
       </c>
       <c r="F33" t="n">
-        <v>120.3417596823587</v>
+        <v>114.6294405960337</v>
       </c>
       <c r="G33" t="n">
-        <v>2942.913702424045</v>
+        <v>2558.526455185343</v>
       </c>
       <c r="H33" t="n">
-        <v>426032.203042427</v>
+        <v>448304.3110193665</v>
       </c>
       <c r="I33" t="n">
-        <v>462231.4872547665</v>
+        <v>484386.8337713773</v>
       </c>
       <c r="J33" t="n">
-        <v>5877.454766573113</v>
+        <v>-28136.27270938157</v>
       </c>
       <c r="K33" t="n">
-        <v>9241.661958066472</v>
+        <v>-1.059559442639544</v>
       </c>
       <c r="L33" t="n">
-        <v>-11014.53888615015</v>
+        <v>-18.35820191670754</v>
       </c>
       <c r="M33" t="n">
-        <v>1.484990955892949</v>
+        <v>39.99105589005364</v>
       </c>
       <c r="N33" t="n">
-        <v>6.130604356139568</v>
+        <v>7.15944021554059</v>
       </c>
       <c r="O33" t="n">
-        <v>293.2429454206075</v>
+        <v>122.7096627044377</v>
       </c>
       <c r="P33" t="n">
-        <v>8.716770643726889</v>
+        <v>1124.916632474078</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.5181110927218</v>
+        <v>14.46914265707002</v>
       </c>
       <c r="R33" t="n">
-        <v>1592.61608395684</v>
+        <v>193.7324913508663</v>
       </c>
       <c r="S33" t="n">
-        <v>22.98553862054242</v>
+        <v>3547.214383533268</v>
       </c>
       <c r="T33" t="n">
-        <v>264.2095556003704</v>
+        <v>175</v>
       </c>
       <c r="U33" t="n">
-        <v>3933.744433327053</v>
+        <v>209</v>
       </c>
       <c r="V33" t="n">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="W33" t="n">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="X33" t="n">
-        <v>375</v>
+        <v>0.9221151539745901</v>
       </c>
       <c r="Y33" t="n">
-        <v>20</v>
+        <v>1.04590161405326</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.8032597516877421</v>
+        <v>12.12385111551943</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.531902337283847</v>
+        <v>4484.013433947706</v>
       </c>
       <c r="AB33" t="n">
-        <v>127.6302656591695</v>
+        <v>339.8709408385934</v>
       </c>
       <c r="AC33" t="n">
-        <v>5366.818927891022</v>
+        <v>0.2829625116906221</v>
       </c>
       <c r="AD33" t="n">
-        <v>2833.663508039926</v>
+        <v>0.314328882103142</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.2427574173463818</v>
+        <v>3.729411294807502</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.7738359776625916</v>
+        <v>304.035894490875</v>
       </c>
       <c r="AG33" t="n">
-        <v>39.7257893319727</v>
+        <v>88.53130601820658</v>
       </c>
       <c r="AH33" t="n">
-        <v>191.323388738112</v>
+        <v>-11.86488964811099</v>
       </c>
       <c r="AI33" t="n">
-        <v>139.8380451743913</v>
+        <v>42.31798682941087</v>
       </c>
       <c r="AJ33" t="n">
-        <v>-26.50468750044246</v>
+        <v>16.68483911475801</v>
       </c>
       <c r="AK33" t="n">
-        <v>-215.3884536823373</v>
+        <v>-1.963982693373878</v>
       </c>
       <c r="AL33" t="n">
-        <v>-53.40404699791452</v>
+        <v>-33.07910879530236</v>
       </c>
       <c r="AM33" t="n">
-        <v>-7.23177968783394</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>-106.3875067365822</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>-1299.373138536233</v>
+        <v>-490.104755030703</v>
       </c>
     </row>
     <row r="34">
@@ -4507,121 +4311,115 @@
         <v>20</v>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>105.4583361101137</v>
+        <v>103.6297128948809</v>
       </c>
       <c r="E34" t="n">
-        <v>11.30480667314384</v>
+        <v>11.09196006778159</v>
       </c>
       <c r="F34" t="n">
-        <v>120.3428032254699</v>
+        <v>114.6299954374788</v>
       </c>
       <c r="G34" t="n">
-        <v>2942.942339825753</v>
+        <v>2558.759144488998</v>
       </c>
       <c r="H34" t="n">
-        <v>426032.203042427</v>
+        <v>448304.3110193665</v>
       </c>
       <c r="I34" t="n">
-        <v>464586.919783538</v>
+        <v>484386.8337713773</v>
       </c>
       <c r="J34" t="n">
-        <v>5877.454766573113</v>
+        <v>-28136.27270938157</v>
       </c>
       <c r="K34" t="n">
-        <v>9241.661958066472</v>
+        <v>-1.059559442639544</v>
       </c>
       <c r="L34" t="n">
-        <v>-11014.53888615015</v>
+        <v>-18.35820191670754</v>
       </c>
       <c r="M34" t="n">
-        <v>1.484990955892949</v>
+        <v>39.99105589005364</v>
       </c>
       <c r="N34" t="n">
-        <v>6.130604356139568</v>
+        <v>7.15944021554059</v>
       </c>
       <c r="O34" t="n">
-        <v>293.2429454206075</v>
+        <v>122.7096627044377</v>
       </c>
       <c r="P34" t="n">
-        <v>8.716770643726889</v>
+        <v>1124.916632474078</v>
       </c>
       <c r="Q34" t="n">
-        <v>112.5181110927218</v>
+        <v>14.46914265707002</v>
       </c>
       <c r="R34" t="n">
-        <v>1592.61608395684</v>
+        <v>193.7324913508663</v>
       </c>
       <c r="S34" t="n">
-        <v>22.98553862054242</v>
+        <v>3547.214383533268</v>
       </c>
       <c r="T34" t="n">
-        <v>264.2095556003704</v>
+        <v>175</v>
       </c>
       <c r="U34" t="n">
-        <v>3933.744433327053</v>
+        <v>209</v>
       </c>
       <c r="V34" t="n">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="W34" t="n">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="X34" t="n">
-        <v>375</v>
+        <v>0.9221151539745901</v>
       </c>
       <c r="Y34" t="n">
-        <v>20</v>
+        <v>1.04590161405326</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.8032632812759934</v>
+        <v>12.12385111551943</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.5319271835484</v>
+        <v>4484.013433947706</v>
       </c>
       <c r="AB34" t="n">
-        <v>127.6309451107402</v>
+        <v>339.8709408385934</v>
       </c>
       <c r="AC34" t="n">
-        <v>5366.818927891022</v>
+        <v>0.2829648121065578</v>
       </c>
       <c r="AD34" t="n">
-        <v>2865.178003659143</v>
+        <v>0.3143424148213159</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.2427609469346331</v>
+        <v>3.73508664367715</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.7738608239271449</v>
+        <v>304.035894490875</v>
       </c>
       <c r="AG34" t="n">
-        <v>39.7264687835434</v>
+        <v>88.53130601820658</v>
       </c>
       <c r="AH34" t="n">
-        <v>191.323388738112</v>
+        <v>-11.86488964811099</v>
       </c>
       <c r="AI34" t="n">
-        <v>171.3525407936083</v>
+        <v>42.31798682941087</v>
       </c>
       <c r="AJ34" t="n">
-        <v>-26.50468750044246</v>
+        <v>16.68483911475801</v>
       </c>
       <c r="AK34" t="n">
-        <v>-215.3884536823373</v>
+        <v>-1.963982693373878</v>
       </c>
       <c r="AL34" t="n">
-        <v>-53.40404699791452</v>
+        <v>-33.07910879530236</v>
       </c>
       <c r="AM34" t="n">
-        <v>-7.23177968783394</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>-106.3875067365822</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>-1299.373138536233</v>
+        <v>-490.104755030703</v>
       </c>
     </row>
     <row r="35">
@@ -4632,121 +4430,115 @@
         <v>20</v>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>105.5749046103651</v>
+        <v>103.7826129632488</v>
       </c>
       <c r="E35" t="n">
-        <v>11.32473708684046</v>
+        <v>11.13774486859962</v>
       </c>
       <c r="F35" t="n">
-        <v>120.9772485850964</v>
+        <v>114.5836791160177</v>
       </c>
       <c r="G35" t="n">
-        <v>2946.314025455059</v>
+        <v>2569.003118644172</v>
       </c>
       <c r="H35" t="n">
-        <v>420626.0912757341</v>
+        <v>450963.1461929597</v>
       </c>
       <c r="I35" t="n">
-        <v>468788.3198267193</v>
+        <v>483650.5171680038</v>
       </c>
       <c r="J35" t="n">
-        <v>7750.223330400864</v>
+        <v>-30121.82712733743</v>
       </c>
       <c r="K35" t="n">
-        <v>9241.661958066472</v>
+        <v>-1.421591691372126</v>
       </c>
       <c r="L35" t="n">
-        <v>-11014.53888615015</v>
+        <v>-20.17430742567997</v>
       </c>
       <c r="M35" t="n">
-        <v>0.2899734651093345</v>
+        <v>19.94884098158248</v>
       </c>
       <c r="N35" t="n">
-        <v>7.155908948800151</v>
+        <v>6.593040005678319</v>
       </c>
       <c r="O35" t="n">
-        <v>292.505742499525</v>
+        <v>106.382774798836</v>
       </c>
       <c r="P35" t="n">
-        <v>10.05571246168115</v>
+        <v>1387.514777930911</v>
       </c>
       <c r="Q35" t="n">
-        <v>91.49527869424621</v>
+        <v>14.71463173036978</v>
       </c>
       <c r="R35" t="n">
-        <v>1411.731622857</v>
+        <v>192.1604385381005</v>
       </c>
       <c r="S35" t="n">
-        <v>24.48530371424424</v>
+        <v>3885.403207183153</v>
       </c>
       <c r="T35" t="n">
-        <v>266.1860974651286</v>
+        <v>192</v>
       </c>
       <c r="U35" t="n">
-        <v>3933.744433327053</v>
+        <v>220</v>
       </c>
       <c r="V35" t="n">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="W35" t="n">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="X35" t="n">
-        <v>393</v>
+        <v>0.9726627931584978</v>
       </c>
       <c r="Y35" t="n">
-        <v>20</v>
+        <v>1.058856867760434</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.8317825307903759</v>
+        <v>12.24684356290333</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.587992078686411</v>
+        <v>5452.147893045052</v>
       </c>
       <c r="AB35" t="n">
-        <v>127.6844831029128</v>
+        <v>346.2568935282927</v>
       </c>
       <c r="AC35" t="n">
-        <v>6396.837889613683</v>
+        <v>0.2979568082059927</v>
       </c>
       <c r="AD35" t="n">
-        <v>2865.218297038557</v>
+        <v>0.3185448221246817</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.2511831918036967</v>
+        <v>3.772464430146733</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.790901945661219</v>
+        <v>304.2974119195387</v>
       </c>
       <c r="AG35" t="n">
-        <v>39.74264476017738</v>
+        <v>88.56273620681903</v>
       </c>
       <c r="AH35" t="n">
-        <v>191.951673278682</v>
+        <v>-190.1137368238551</v>
       </c>
       <c r="AI35" t="n">
-        <v>171.364712928672</v>
+        <v>17.66312372090812</v>
       </c>
       <c r="AJ35" t="n">
-        <v>455.931852054337</v>
+        <v>-152.9156111908453</v>
       </c>
       <c r="AK35" t="n">
-        <v>-1945.570303324741</v>
+        <v>-1.708143159482424</v>
       </c>
       <c r="AL35" t="n">
-        <v>-36.93886887526351</v>
+        <v>-16.0460329906012</v>
       </c>
       <c r="AM35" t="n">
-        <v>-9.765738996571812</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>-84.33936974544604</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>-1119.225880357475</v>
+        <v>-751.6421383322572</v>
       </c>
     </row>
     <row r="36">
@@ -4757,121 +4549,115 @@
         <v>20</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>105.7235307386951</v>
+        <v>103.7828684672084</v>
       </c>
       <c r="E36" t="n">
-        <v>11.32481896906493</v>
+        <v>11.13787078384529</v>
       </c>
       <c r="F36" t="n">
-        <v>120.9779787503647</v>
+        <v>114.5836791160177</v>
       </c>
       <c r="G36" t="n">
-        <v>2946.314025455059</v>
+        <v>2569.003118644172</v>
       </c>
       <c r="H36" t="n">
-        <v>420626.0912757341</v>
+        <v>450963.1461929597</v>
       </c>
       <c r="I36" t="n">
-        <v>471948.221831174</v>
+        <v>483650.5171680038</v>
       </c>
       <c r="J36" t="n">
-        <v>7750.223330400864</v>
+        <v>-30121.82712733743</v>
       </c>
       <c r="K36" t="n">
-        <v>9241.661958066472</v>
+        <v>-1.421591691372126</v>
       </c>
       <c r="L36" t="n">
-        <v>-11014.53888615015</v>
+        <v>-20.17430742567997</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2899734651093345</v>
+        <v>19.94884098158248</v>
       </c>
       <c r="N36" t="n">
-        <v>7.155908948800151</v>
+        <v>6.593040005678319</v>
       </c>
       <c r="O36" t="n">
-        <v>292.505742499525</v>
+        <v>106.382774798836</v>
       </c>
       <c r="P36" t="n">
-        <v>10.05571246168115</v>
+        <v>1387.514777930911</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.49527869424621</v>
+        <v>14.71463173036978</v>
       </c>
       <c r="R36" t="n">
-        <v>1411.731622857</v>
+        <v>192.1604385381005</v>
       </c>
       <c r="S36" t="n">
-        <v>24.48530371424424</v>
+        <v>3885.403207183153</v>
       </c>
       <c r="T36" t="n">
-        <v>266.1860974651286</v>
+        <v>192</v>
       </c>
       <c r="U36" t="n">
-        <v>3933.744433327053</v>
+        <v>220</v>
       </c>
       <c r="V36" t="n">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="W36" t="n">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="X36" t="n">
-        <v>393</v>
+        <v>0.9726627931584978</v>
       </c>
       <c r="Y36" t="n">
-        <v>20</v>
+        <v>1.058856867760434</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.8317839172286636</v>
+        <v>12.24684356290333</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.588009463573751</v>
+        <v>5452.147893045052</v>
       </c>
       <c r="AB36" t="n">
-        <v>127.6844831029128</v>
+        <v>346.2568935282927</v>
       </c>
       <c r="AC36" t="n">
-        <v>6396.837889613683</v>
+        <v>0.2979590309465739</v>
       </c>
       <c r="AD36" t="n">
-        <v>2915.720160237379</v>
+        <v>0.3185448221246817</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.2511845782419843</v>
+        <v>3.772464430146733</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.7909193305485599</v>
+        <v>304.2974119195387</v>
       </c>
       <c r="AG36" t="n">
-        <v>39.74264476017738</v>
+        <v>88.56273620681903</v>
       </c>
       <c r="AH36" t="n">
-        <v>191.951673278682</v>
+        <v>-190.1137368238551</v>
       </c>
       <c r="AI36" t="n">
-        <v>221.8665761274938</v>
+        <v>17.66312372090812</v>
       </c>
       <c r="AJ36" t="n">
-        <v>455.931852054337</v>
+        <v>-152.9156111908453</v>
       </c>
       <c r="AK36" t="n">
-        <v>-1945.570303324741</v>
+        <v>-1.708143159482424</v>
       </c>
       <c r="AL36" t="n">
-        <v>-36.93886887526351</v>
+        <v>-16.0460329906012</v>
       </c>
       <c r="AM36" t="n">
-        <v>-9.765738996571812</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>-84.33936974544604</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>-1119.225880357475</v>
+        <v>-751.6421383322572</v>
       </c>
     </row>
     <row r="37">
@@ -4882,121 +4668,115 @@
         <v>20</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>105.9005541502842</v>
+        <v>103.9139747369503</v>
       </c>
       <c r="E37" t="n">
-        <v>11.31424864924881</v>
+        <v>11.06577927782438</v>
       </c>
       <c r="F37" t="n">
-        <v>121.58794003105</v>
+        <v>114.6121852090516</v>
       </c>
       <c r="G37" t="n">
-        <v>2923.208723234713</v>
+        <v>2547.169881096374</v>
       </c>
       <c r="H37" t="n">
-        <v>414509.2657992952</v>
+        <v>456134.8345994006</v>
       </c>
       <c r="I37" t="n">
-        <v>472366.7365313615</v>
+        <v>488255.0551310779</v>
       </c>
       <c r="J37" t="n">
-        <v>20715.24725150369</v>
+        <v>-31370.80556476877</v>
       </c>
       <c r="K37" t="n">
-        <v>9960.143816495853</v>
+        <v>-1.458909623287447</v>
       </c>
       <c r="L37" t="n">
-        <v>-11014.53888615015</v>
+        <v>-30.14937023602711</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3932734883226719</v>
+        <v>163.6175864063645</v>
       </c>
       <c r="N37" t="n">
-        <v>6.657246514898213</v>
+        <v>6.952920627330372</v>
       </c>
       <c r="O37" t="n">
-        <v>223.382772144116</v>
+        <v>106.7725733033162</v>
       </c>
       <c r="P37" t="n">
-        <v>10.77434788015484</v>
+        <v>1534.498346010907</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.98347599691307</v>
+        <v>15.12611004916181</v>
       </c>
       <c r="R37" t="n">
-        <v>717.4811973794816</v>
+        <v>184.9742234360464</v>
       </c>
       <c r="S37" t="n">
-        <v>25.56541257287164</v>
+        <v>4200.767646894911</v>
       </c>
       <c r="T37" t="n">
-        <v>279.4098839918822</v>
+        <v>200</v>
       </c>
       <c r="U37" t="n">
-        <v>3934.114636363275</v>
+        <v>236</v>
       </c>
       <c r="V37" t="n">
-        <v>84</v>
+        <v>476</v>
       </c>
       <c r="W37" t="n">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="X37" t="n">
-        <v>414</v>
+        <v>1.034018200812064</v>
       </c>
       <c r="Y37" t="n">
-        <v>21</v>
+        <v>1.027253173951742</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.8695202801312777</v>
+        <v>12.80268489363586</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.694764935758555</v>
+        <v>5454.707692934654</v>
       </c>
       <c r="AB37" t="n">
-        <v>128.4220542565065</v>
+        <v>351.7880015215553</v>
       </c>
       <c r="AC37" t="n">
-        <v>7935.398940991999</v>
+        <v>0.3172019260046423</v>
       </c>
       <c r="AD37" t="n">
-        <v>2975.730149551621</v>
+        <v>0.3094820157119754</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.2624093522833567</v>
+        <v>3.938400137389138</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.8232517349090467</v>
+        <v>304.3234815155797</v>
       </c>
       <c r="AG37" t="n">
-        <v>39.96384677732902</v>
+        <v>88.58368499190948</v>
       </c>
       <c r="AH37" t="n">
-        <v>194.0405088787545</v>
+        <v>-198.5245750946245</v>
       </c>
       <c r="AI37" t="n">
-        <v>221.9415266744487</v>
+        <v>1412.411315287995</v>
       </c>
       <c r="AJ37" t="n">
-        <v>49.66633342142268</v>
+        <v>30.20069679947164</v>
       </c>
       <c r="AK37" t="n">
-        <v>-1198.154746107196</v>
+        <v>-2.137507279885269</v>
       </c>
       <c r="AL37" t="n">
-        <v>-1065.57633888949</v>
+        <v>-18.69327342876627</v>
       </c>
       <c r="AM37" t="n">
-        <v>-10.38107439183217</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>-81.32622948201484</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>-494.0984252353658</v>
+        <v>-888.6242315268141</v>
       </c>
     </row>
     <row r="38">
@@ -5007,121 +4787,115 @@
         <v>20</v>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>105.9018687220079</v>
+        <v>103.9142923901194</v>
       </c>
       <c r="E38" t="n">
-        <v>11.3143613433062</v>
+        <v>11.06593596631541</v>
       </c>
       <c r="F38" t="n">
-        <v>121.5903216482443</v>
+        <v>114.6121852090516</v>
       </c>
       <c r="G38" t="n">
-        <v>2923.22379607985</v>
+        <v>2547.169881096374</v>
       </c>
       <c r="H38" t="n">
-        <v>414509.2657992952</v>
+        <v>456134.8345994006</v>
       </c>
       <c r="I38" t="n">
-        <v>472380.1801043245</v>
+        <v>488255.0551310779</v>
       </c>
       <c r="J38" t="n">
-        <v>20715.24725150369</v>
+        <v>-31370.80556476877</v>
       </c>
       <c r="K38" t="n">
-        <v>9960.143816495853</v>
+        <v>-1.458909623287447</v>
       </c>
       <c r="L38" t="n">
-        <v>-11014.53888615015</v>
+        <v>-30.14937023602711</v>
       </c>
       <c r="M38" t="n">
-        <v>0.3932734883226719</v>
+        <v>163.6175864063645</v>
       </c>
       <c r="N38" t="n">
-        <v>6.657246514898213</v>
+        <v>6.952920627330372</v>
       </c>
       <c r="O38" t="n">
-        <v>223.382772144116</v>
+        <v>106.7725733033162</v>
       </c>
       <c r="P38" t="n">
-        <v>10.77434788015484</v>
+        <v>1534.498346010907</v>
       </c>
       <c r="Q38" t="n">
-        <v>87.98347599691307</v>
+        <v>15.12611004916181</v>
       </c>
       <c r="R38" t="n">
-        <v>717.4811973794816</v>
+        <v>184.9742234360464</v>
       </c>
       <c r="S38" t="n">
-        <v>25.56541257287164</v>
+        <v>4200.767646894911</v>
       </c>
       <c r="T38" t="n">
-        <v>279.4098839918822</v>
+        <v>200</v>
       </c>
       <c r="U38" t="n">
-        <v>3934.114636363275</v>
+        <v>236</v>
       </c>
       <c r="V38" t="n">
-        <v>84</v>
+        <v>476</v>
       </c>
       <c r="W38" t="n">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="X38" t="n">
-        <v>414</v>
+        <v>1.034018200812064</v>
       </c>
       <c r="Y38" t="n">
-        <v>21</v>
+        <v>1.027253173951742</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.8695223180100264</v>
+        <v>12.80268489363586</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.694821640929847</v>
+        <v>5454.707692934654</v>
       </c>
       <c r="AB38" t="n">
-        <v>128.4224131337716</v>
+        <v>351.7880015215553</v>
       </c>
       <c r="AC38" t="n">
-        <v>7935.398940991999</v>
+        <v>0.3172046412163378</v>
       </c>
       <c r="AD38" t="n">
-        <v>2975.961947835205</v>
+        <v>0.3094820157119754</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.2624113901621055</v>
+        <v>3.938400137389138</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.8233084400803387</v>
+        <v>304.3234815155797</v>
       </c>
       <c r="AG38" t="n">
-        <v>39.96420565459417</v>
+        <v>88.58368499190948</v>
       </c>
       <c r="AH38" t="n">
-        <v>194.0405088787545</v>
+        <v>-198.5245750946245</v>
       </c>
       <c r="AI38" t="n">
-        <v>222.1733249580328</v>
+        <v>1412.411315287995</v>
       </c>
       <c r="AJ38" t="n">
-        <v>49.66633342142268</v>
+        <v>30.20069679947164</v>
       </c>
       <c r="AK38" t="n">
-        <v>-1198.154746107196</v>
+        <v>-2.137507279885269</v>
       </c>
       <c r="AL38" t="n">
-        <v>-1065.57633888949</v>
+        <v>-18.69327342876627</v>
       </c>
       <c r="AM38" t="n">
-        <v>-10.38107439183217</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>-81.32622948201484</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>-494.0984252353658</v>
+        <v>-888.6242315268141</v>
       </c>
     </row>
     <row r="39">
@@ -5132,121 +4906,115 @@
         <v>20</v>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>105.9678592349293</v>
+        <v>104.0427379938919</v>
       </c>
       <c r="E39" t="n">
-        <v>11.34309328827117</v>
+        <v>11.1290612657562</v>
       </c>
       <c r="F39" t="n">
-        <v>122.1579485842798</v>
+        <v>113.8122241064135</v>
       </c>
       <c r="G39" t="n">
-        <v>2925.710216139396</v>
+        <v>2557.960810055117</v>
       </c>
       <c r="H39" t="n">
-        <v>411887.9693016766</v>
+        <v>457379.7572193441</v>
       </c>
       <c r="I39" t="n">
-        <v>473132.6122854883</v>
+        <v>488297.9667476661</v>
       </c>
       <c r="J39" t="n">
-        <v>21007.65298313052</v>
+        <v>-31635.04264717796</v>
       </c>
       <c r="K39" t="n">
-        <v>9960.143816495853</v>
+        <v>-1.262875626156105</v>
       </c>
       <c r="L39" t="n">
-        <v>-11014.53888615015</v>
+        <v>-30.46195792056629</v>
       </c>
       <c r="M39" t="n">
-        <v>0.3932734883226719</v>
+        <v>149.8091678533978</v>
       </c>
       <c r="N39" t="n">
-        <v>3.912276309701314</v>
+        <v>6.590959062844884</v>
       </c>
       <c r="O39" t="n">
-        <v>104.5928114342752</v>
+        <v>107.8844280828911</v>
       </c>
       <c r="P39" t="n">
-        <v>10.92640946081432</v>
+        <v>1458.32884436532</v>
       </c>
       <c r="Q39" t="n">
-        <v>86.93638356669304</v>
+        <v>15.3483027543786</v>
       </c>
       <c r="R39" t="n">
-        <v>692.4970836181453</v>
+        <v>186.2530150849861</v>
       </c>
       <c r="S39" t="n">
-        <v>25.71747415353112</v>
+        <v>4264.059883695879</v>
       </c>
       <c r="T39" t="n">
-        <v>278.5590879127592</v>
+        <v>211</v>
       </c>
       <c r="U39" t="n">
-        <v>3981.881203441066</v>
+        <v>251</v>
       </c>
       <c r="V39" t="n">
-        <v>86</v>
+        <v>502</v>
       </c>
       <c r="W39" t="n">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="X39" t="n">
-        <v>428</v>
+        <v>1.085720044669822</v>
       </c>
       <c r="Y39" t="n">
-        <v>22</v>
+        <v>1.080129127194329</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.8907677542763902</v>
+        <v>13.16482887990667</v>
       </c>
       <c r="AA39" t="n">
-        <v>2.756493667196436</v>
+        <v>5788.04020824006</v>
       </c>
       <c r="AB39" t="n">
-        <v>129.6415779787732</v>
+        <v>356.8551088460757</v>
       </c>
       <c r="AC39" t="n">
-        <v>8032.782216329666</v>
+        <v>0.3318949240646797</v>
       </c>
       <c r="AD39" t="n">
-        <v>2976.018723781858</v>
+        <v>0.3270082682671752</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.2687225622401744</v>
+        <v>4.044623186468647</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.8420831667085025</v>
+        <v>304.7169388644919</v>
       </c>
       <c r="AG39" t="n">
-        <v>40.33024165622876</v>
+        <v>88.59758713710761</v>
       </c>
       <c r="AH39" t="n">
-        <v>194.2750795733746</v>
+        <v>-370.2984523863299</v>
       </c>
       <c r="AI39" t="n">
-        <v>222.1898126818125</v>
+        <v>20.43632446583763</v>
       </c>
       <c r="AJ39" t="n">
-        <v>145.0646890014577</v>
+        <v>-131.6667575971601</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.6623299660400335</v>
+        <v>-1.55425180841431</v>
       </c>
       <c r="AL39" t="n">
-        <v>-847.8387799629936</v>
+        <v>-19.03270008562581</v>
       </c>
       <c r="AM39" t="n">
-        <v>-10.53313597249164</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>-83.0241072569917</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>-587.9042721838704</v>
+        <v>-820.8571016680014</v>
       </c>
     </row>
     <row r="40">
@@ -5257,121 +5025,115 @@
         <v>20</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>106.0077226452962</v>
+        <v>104.0801277579057</v>
       </c>
       <c r="E40" t="n">
-        <v>11.34315215242731</v>
+        <v>11.12919160199701</v>
       </c>
       <c r="F40" t="n">
-        <v>122.1588728914166</v>
+        <v>113.8135388108608</v>
       </c>
       <c r="G40" t="n">
-        <v>2925.759178820526</v>
+        <v>2557.960810055117</v>
       </c>
       <c r="H40" t="n">
-        <v>412725.172556477</v>
+        <v>458142.5706133089</v>
       </c>
       <c r="I40" t="n">
-        <v>473132.6122854883</v>
+        <v>488297.9667476661</v>
       </c>
       <c r="J40" t="n">
-        <v>21007.65298313052</v>
+        <v>-31635.04264717796</v>
       </c>
       <c r="K40" t="n">
-        <v>9960.143816495853</v>
+        <v>-1.262875626156105</v>
       </c>
       <c r="L40" t="n">
-        <v>-11014.53888615015</v>
+        <v>-30.46195792056629</v>
       </c>
       <c r="M40" t="n">
-        <v>0.3932734883226719</v>
+        <v>149.8091678533978</v>
       </c>
       <c r="N40" t="n">
-        <v>3.912276309701314</v>
+        <v>6.590959062844884</v>
       </c>
       <c r="O40" t="n">
-        <v>104.5928114342752</v>
+        <v>107.8844280828911</v>
       </c>
       <c r="P40" t="n">
-        <v>10.92640946081432</v>
+        <v>1458.32884436532</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.93638356669304</v>
+        <v>15.3483027543786</v>
       </c>
       <c r="R40" t="n">
-        <v>692.4970836181453</v>
+        <v>186.2530150849861</v>
       </c>
       <c r="S40" t="n">
-        <v>25.71747415353112</v>
+        <v>4264.059883695879</v>
       </c>
       <c r="T40" t="n">
-        <v>278.5590879127592</v>
+        <v>211</v>
       </c>
       <c r="U40" t="n">
-        <v>3981.881203441066</v>
+        <v>251</v>
       </c>
       <c r="V40" t="n">
-        <v>86</v>
+        <v>502</v>
       </c>
       <c r="W40" t="n">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="X40" t="n">
-        <v>428</v>
+        <v>1.085720044669822</v>
       </c>
       <c r="Y40" t="n">
-        <v>22</v>
+        <v>1.080129127194329</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.8907688130808764</v>
+        <v>13.16482887990667</v>
       </c>
       <c r="AA40" t="n">
-        <v>2.756515674509219</v>
+        <v>5788.04020824006</v>
       </c>
       <c r="AB40" t="n">
-        <v>129.6427437568954</v>
+        <v>356.8551088460757</v>
       </c>
       <c r="AC40" t="n">
-        <v>8052.715627158245</v>
+        <v>0.3318972315443779</v>
       </c>
       <c r="AD40" t="n">
-        <v>2976.018723781858</v>
+        <v>0.3270403342293041</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.2687236210446607</v>
+        <v>4.044623186468647</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.8421051740212846</v>
+        <v>317.1851665283024</v>
       </c>
       <c r="AG40" t="n">
-        <v>40.33140743435089</v>
+        <v>88.59758713710761</v>
       </c>
       <c r="AH40" t="n">
-        <v>214.2084904019549</v>
+        <v>-370.2984523863299</v>
       </c>
       <c r="AI40" t="n">
-        <v>222.1898126818125</v>
+        <v>20.43632446583763</v>
       </c>
       <c r="AJ40" t="n">
-        <v>145.0646890014577</v>
+        <v>-131.6667575971601</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.6623299660400335</v>
+        <v>-1.55425180841431</v>
       </c>
       <c r="AL40" t="n">
-        <v>-847.8387799629936</v>
+        <v>-19.03270008562581</v>
       </c>
       <c r="AM40" t="n">
-        <v>-10.53313597249164</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>-83.0241072569917</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>-587.9042721838704</v>
+        <v>-820.8571016680014</v>
       </c>
     </row>
     <row r="41">
@@ -5382,121 +5144,115 @@
         <v>20</v>
       </c>
       <c r="C41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41" t="n">
-        <v>106.1541835963331</v>
+        <v>104.3020406004536</v>
       </c>
       <c r="E41" t="n">
-        <v>11.34602596000718</v>
+        <v>11.30948050137287</v>
       </c>
       <c r="F41" t="n">
-        <v>122.6068880145069</v>
+        <v>114.2491323033634</v>
       </c>
       <c r="G41" t="n">
-        <v>2929.573063410352</v>
+        <v>2563.933119006824</v>
       </c>
       <c r="H41" t="n">
-        <v>404760.3562233775</v>
+        <v>453875.8953749813</v>
       </c>
       <c r="I41" t="n">
-        <v>481696.9567218355</v>
+        <v>487535.5138936783</v>
       </c>
       <c r="J41" t="n">
-        <v>23735.33008252746</v>
+        <v>-31685.99954082584</v>
       </c>
       <c r="K41" t="n">
-        <v>9856.315100814203</v>
+        <v>-1.258736698509748</v>
       </c>
       <c r="L41" t="n">
-        <v>-9161.598642002347</v>
+        <v>-31.09050154814122</v>
       </c>
       <c r="M41" t="n">
-        <v>0.3137308643333981</v>
+        <v>95.28342025936013</v>
       </c>
       <c r="N41" t="n">
-        <v>4.717247185900745</v>
+        <v>7.045194968774501</v>
       </c>
       <c r="O41" t="n">
-        <v>117.521725793788</v>
+        <v>138.8385187943632</v>
       </c>
       <c r="P41" t="n">
-        <v>8.882998328148407</v>
+        <v>1572.732646456509</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.53739374040748</v>
+        <v>16.01902228146692</v>
       </c>
       <c r="R41" t="n">
-        <v>843.7175586364804</v>
+        <v>220.3306212738403</v>
       </c>
       <c r="S41" t="n">
-        <v>25.71747415353112</v>
+        <v>4341.821152477276</v>
       </c>
       <c r="T41" t="n">
-        <v>283.1689964045165</v>
+        <v>227</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.720280517797</v>
+        <v>266</v>
       </c>
       <c r="V41" t="n">
-        <v>91</v>
+        <v>526</v>
       </c>
       <c r="W41" t="n">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="X41" t="n">
-        <v>439</v>
+        <v>1.19301226244078</v>
       </c>
       <c r="Y41" t="n">
-        <v>24</v>
+        <v>1.109805789849841</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.9080335558995619</v>
+        <v>13.39047505712402</v>
       </c>
       <c r="AA41" t="n">
-        <v>2.851659470468499</v>
+        <v>5898.833313147759</v>
       </c>
       <c r="AB41" t="n">
-        <v>131.107376336062</v>
+        <v>358.9510198964631</v>
       </c>
       <c r="AC41" t="n">
-        <v>9294.142455256082</v>
+        <v>0.3622474174676373</v>
       </c>
       <c r="AD41" t="n">
-        <v>3547.426899624077</v>
+        <v>0.3374648498621114</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.2734625827028863</v>
+        <v>4.111808911932927</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.8709723104126653</v>
+        <v>317.208083691263</v>
       </c>
       <c r="AG41" t="n">
-        <v>40.77071368290051</v>
+        <v>88.61437963149113</v>
       </c>
       <c r="AH41" t="n">
-        <v>214.3071880028748</v>
+        <v>-92.15534297391218</v>
       </c>
       <c r="AI41" t="n">
-        <v>222.206494218649</v>
+        <v>13.55380241424609</v>
       </c>
       <c r="AJ41" t="n">
-        <v>-5487.778125233489</v>
+        <v>-1671.276423669221</v>
       </c>
       <c r="AK41" t="n">
-        <v>-75.98910205491165</v>
+        <v>-1.868828328200577</v>
       </c>
       <c r="AL41" t="n">
-        <v>-1169.720021379941</v>
+        <v>-50.01836866458946</v>
       </c>
       <c r="AM41" t="n">
-        <v>-8.569267463815008</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>-53.82014655450669</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>-726.1958328426927</v>
+        <v>-831.2390435135956</v>
       </c>
     </row>
     <row r="42">
@@ -5507,121 +5263,115 @@
         <v>20</v>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>106.1549270962739</v>
+        <v>104.3346351744085</v>
       </c>
       <c r="E42" t="n">
-        <v>11.34607091047242</v>
+        <v>11.30975503963886</v>
       </c>
       <c r="F42" t="n">
-        <v>122.6087980429151</v>
+        <v>114.2492870863051</v>
       </c>
       <c r="G42" t="n">
-        <v>2929.633150246637</v>
+        <v>2563.933119006824</v>
       </c>
       <c r="H42" t="n">
-        <v>404760.3562233775</v>
+        <v>454533.6582345346</v>
       </c>
       <c r="I42" t="n">
-        <v>481696.9567218355</v>
+        <v>487535.5138936783</v>
       </c>
       <c r="J42" t="n">
-        <v>23735.33008252746</v>
+        <v>-31685.99954082584</v>
       </c>
       <c r="K42" t="n">
-        <v>9856.315100814203</v>
+        <v>-1.258736698509748</v>
       </c>
       <c r="L42" t="n">
-        <v>-9161.598642002347</v>
+        <v>-31.09050154814122</v>
       </c>
       <c r="M42" t="n">
-        <v>0.3137308643333981</v>
+        <v>95.28342025936013</v>
       </c>
       <c r="N42" t="n">
-        <v>4.717247185900745</v>
+        <v>7.045194968774501</v>
       </c>
       <c r="O42" t="n">
-        <v>117.521725793788</v>
+        <v>138.8385187943632</v>
       </c>
       <c r="P42" t="n">
-        <v>8.882998328148407</v>
+        <v>1572.732646456509</v>
       </c>
       <c r="Q42" t="n">
-        <v>58.53739374040748</v>
+        <v>16.01902228146692</v>
       </c>
       <c r="R42" t="n">
-        <v>843.7175586364804</v>
+        <v>220.3306212738403</v>
       </c>
       <c r="S42" t="n">
-        <v>25.71747415353112</v>
+        <v>4341.821152477276</v>
       </c>
       <c r="T42" t="n">
-        <v>283.1689964045165</v>
+        <v>227</v>
       </c>
       <c r="U42" t="n">
-        <v>4151.720280517797</v>
+        <v>266</v>
       </c>
       <c r="V42" t="n">
-        <v>91</v>
+        <v>526</v>
       </c>
       <c r="W42" t="n">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="X42" t="n">
-        <v>439</v>
+        <v>1.19301226244078</v>
       </c>
       <c r="Y42" t="n">
-        <v>24</v>
+        <v>1.109805789849841</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.9080343975415877</v>
+        <v>13.39047505712402</v>
       </c>
       <c r="AA42" t="n">
-        <v>2.851704947335361</v>
+        <v>5898.833313147759</v>
       </c>
       <c r="AB42" t="n">
-        <v>131.1088069750212</v>
+        <v>358.9510198964631</v>
       </c>
       <c r="AC42" t="n">
-        <v>9294.142455256082</v>
+        <v>0.362252755475695</v>
       </c>
       <c r="AD42" t="n">
-        <v>3547.426899624077</v>
+        <v>0.3374686250558122</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.273463424344912</v>
+        <v>4.111808911932927</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.8710177872795279</v>
+        <v>327.4645376146351</v>
       </c>
       <c r="AG42" t="n">
-        <v>40.7721443218597</v>
+        <v>88.61437963149113</v>
       </c>
       <c r="AH42" t="n">
-        <v>214.3071880028748</v>
+        <v>-92.15534297391218</v>
       </c>
       <c r="AI42" t="n">
-        <v>222.206494218649</v>
+        <v>13.55380241424609</v>
       </c>
       <c r="AJ42" t="n">
-        <v>-5487.778125233489</v>
+        <v>-1671.276423669221</v>
       </c>
       <c r="AK42" t="n">
-        <v>-75.98910205491165</v>
+        <v>-1.868828328200577</v>
       </c>
       <c r="AL42" t="n">
-        <v>-1169.720021379941</v>
+        <v>-50.01836866458946</v>
       </c>
       <c r="AM42" t="n">
-        <v>-8.569267463815008</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>-53.82014655450669</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>-726.1958328426927</v>
+        <v>-831.2390435135956</v>
       </c>
     </row>
     <row r="43">
@@ -5632,121 +5382,115 @@
         <v>20</v>
       </c>
       <c r="C43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>106.2271979597222</v>
+        <v>104.446144364028</v>
       </c>
       <c r="E43" t="n">
-        <v>11.390919640876</v>
+        <v>11.33916293059848</v>
       </c>
       <c r="F43" t="n">
-        <v>123.3863773922305</v>
+        <v>114.3737734537347</v>
       </c>
       <c r="G43" t="n">
-        <v>2898.137026401761</v>
+        <v>2560.730060886458</v>
       </c>
       <c r="H43" t="n">
-        <v>394213.4057354173</v>
+        <v>454750.4529208491</v>
       </c>
       <c r="I43" t="n">
-        <v>482379.3749497436</v>
+        <v>487781.1248000646</v>
       </c>
       <c r="J43" t="n">
-        <v>35963.47531435884</v>
+        <v>-31131.40542613879</v>
       </c>
       <c r="K43" t="n">
-        <v>14792.72473762366</v>
+        <v>-1.39390421252673</v>
       </c>
       <c r="L43" t="n">
-        <v>-9161.598642002347</v>
+        <v>-32.28528099109131</v>
       </c>
       <c r="M43" t="n">
-        <v>0.110469310592912</v>
+        <v>65.71003937829238</v>
       </c>
       <c r="N43" t="n">
-        <v>1.551346837237947</v>
+        <v>6.746045978184831</v>
       </c>
       <c r="O43" t="n">
-        <v>7.110672208399102</v>
+        <v>143.3245775253411</v>
       </c>
       <c r="P43" t="n">
-        <v>10.25311509436549</v>
+        <v>1533.918592906385</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.40481977566928</v>
+        <v>16.09504380572029</v>
       </c>
       <c r="R43" t="n">
-        <v>948.0730350067647</v>
+        <v>226.3459708594464</v>
       </c>
       <c r="S43" t="n">
-        <v>27.10479760916155</v>
+        <v>4369.374206310443</v>
       </c>
       <c r="T43" t="n">
-        <v>288.8635131779402</v>
+        <v>239</v>
       </c>
       <c r="U43" t="n">
-        <v>4246.849557153165</v>
+        <v>275</v>
       </c>
       <c r="V43" t="n">
-        <v>92</v>
+        <v>542</v>
       </c>
       <c r="W43" t="n">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c r="X43" t="n">
-        <v>452</v>
+        <v>1.236302408461525</v>
       </c>
       <c r="Y43" t="n">
-        <v>27</v>
+        <v>1.139184300762199</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.9151324053079443</v>
+        <v>13.75519823353566</v>
       </c>
       <c r="AA43" t="n">
-        <v>2.989662242366133</v>
+        <v>6163.402157981322</v>
       </c>
       <c r="AB43" t="n">
-        <v>131.8853353679442</v>
+        <v>369.4240401846313</v>
       </c>
       <c r="AC43" t="n">
-        <v>9916.48181801379</v>
+        <v>0.3757438300329923</v>
       </c>
       <c r="AD43" t="n">
-        <v>3547.481280234129</v>
+        <v>0.3445668358484504</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.275634736320327</v>
+        <v>4.222354367106018</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.9114106122482892</v>
+        <v>327.7039089656033</v>
       </c>
       <c r="AG43" t="n">
-        <v>41.00426160847394</v>
+        <v>88.65229864358398</v>
       </c>
       <c r="AH43" t="n">
-        <v>214.3894564093903</v>
+        <v>-12.41823516298427</v>
       </c>
       <c r="AI43" t="n">
-        <v>222.2204794783233</v>
+        <v>-512.9205145544258</v>
       </c>
       <c r="AJ43" t="n">
-        <v>494.4384554854809</v>
+        <v>19.60929352658669</v>
       </c>
       <c r="AK43" t="n">
-        <v>-1820.29408777109</v>
+        <v>-1.704846851627889</v>
       </c>
       <c r="AL43" t="n">
-        <v>57.04401470892481</v>
+        <v>-52.0288782873323</v>
       </c>
       <c r="AM43" t="n">
-        <v>-10.14264578377257</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>-38.8534729384313</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>-940.9623627983659</v>
+        <v>-747.1509457128338</v>
       </c>
     </row>
   </sheetData>

--- a/run.xlsx
+++ b/run.xlsx
@@ -6176,22 +6176,22 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>100.6212056481952</v>
+        <v>100.1311031549707</v>
       </c>
       <c r="E5" t="n">
-        <v>5.401828562254984</v>
+        <v>4.774365335751956</v>
       </c>
       <c r="F5" t="n">
-        <v>75.67638895094868</v>
+        <v>74.15477082793311</v>
       </c>
       <c r="G5" t="n">
-        <v>7385.22140171563</v>
+        <v>7545.09015577824</v>
       </c>
       <c r="H5" t="n">
-        <v>141310.8196502408</v>
+        <v>152042.7961906446</v>
       </c>
       <c r="I5" t="n">
-        <v>156131.1747713329</v>
+        <v>156926.9522805467</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -6203,91 +6203,91 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01459551830073624</v>
+        <v>1.600963078257559</v>
       </c>
       <c r="N5" t="n">
-        <v>9.172618665278893</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3598.357061563249</v>
+        <v>123.471195063976</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3.022480634487379</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.38846589904995</v>
+        <v>4.136184772035691</v>
       </c>
       <c r="R5" t="n">
-        <v>1665.844153115084</v>
+        <v>4680.368782951424</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5512141909966357</v>
+        <v>5.091125216180465</v>
       </c>
       <c r="T5" t="n">
-        <v>17.59609023750307</v>
+        <v>9.208326886425391</v>
       </c>
       <c r="U5" t="n">
-        <v>6054.067444744819</v>
+        <v>5249.749146647005</v>
       </c>
       <c r="V5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1036292248608845</v>
+        <v>0.03145840517031585</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.05341968263572835</v>
+        <v>0.02587127820296721</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.59560062713521</v>
+        <v>0.2261497971041629</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.06237934110865732</v>
+        <v>0.06171478503464616</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.07767661876341563</v>
+        <v>0.02568335713765304</v>
       </c>
       <c r="AE5" t="n">
-        <v>5.099089136779041</v>
+        <v>5.032611587134905</v>
       </c>
       <c r="AF5" t="n">
-        <v>75.05310362658381</v>
+        <v>75.02608222436835</v>
       </c>
       <c r="AG5" t="n">
-        <v>7582.946169118668</v>
+        <v>7500.225207034629</v>
       </c>
       <c r="AH5" t="n">
-        <v>150000.0650643435</v>
+        <v>150000.0611343715</v>
       </c>
       <c r="AI5" t="n">
-        <v>150000.0755414172</v>
+        <v>150000.0248897721</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.800518242870473</v>
+        <v>10.38446040172701</v>
       </c>
       <c r="AK5" t="n">
-        <v>-2.426641183035192</v>
+        <v>8.8461610185166</v>
       </c>
       <c r="AL5" t="n">
-        <v>-124.8975103488921</v>
+        <v>-76.19180843507667</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.01459551830073624</v>
+        <v>-1.42151755622982</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.784152766228944</v>
+        <v>-4.136184772035691</v>
       </c>
       <c r="AO5" t="n">
-        <v>1932.512908448164</v>
+        <v>-4556.897587887448</v>
       </c>
     </row>
     <row r="6">
@@ -6301,22 +6301,22 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>100.6212056481952</v>
+        <v>100.1311031549707</v>
       </c>
       <c r="E6" t="n">
-        <v>5.401828562254984</v>
+        <v>4.774365335751956</v>
       </c>
       <c r="F6" t="n">
-        <v>75.67638895094868</v>
+        <v>74.15477082793311</v>
       </c>
       <c r="G6" t="n">
-        <v>7385.22140171563</v>
+        <v>7545.09015577824</v>
       </c>
       <c r="H6" t="n">
-        <v>141310.8196502408</v>
+        <v>152042.7961906446</v>
       </c>
       <c r="I6" t="n">
-        <v>156131.1747713329</v>
+        <v>156926.9522805467</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -6328,91 +6328,91 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01459551830073624</v>
+        <v>1.600963078257559</v>
       </c>
       <c r="N6" t="n">
-        <v>9.172618665278893</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3598.357061563249</v>
+        <v>123.471195063976</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3.022480634487379</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.38846589904995</v>
+        <v>4.136184772035691</v>
       </c>
       <c r="R6" t="n">
-        <v>1665.844153115084</v>
+        <v>4680.368782951424</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5512141909966357</v>
+        <v>5.091125216180465</v>
       </c>
       <c r="T6" t="n">
-        <v>17.59609023750307</v>
+        <v>9.208326886425391</v>
       </c>
       <c r="U6" t="n">
-        <v>6054.067444744819</v>
+        <v>5249.749146647005</v>
       </c>
       <c r="V6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X6" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1036292248608845</v>
+        <v>0.03145840517031585</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.05341968263572835</v>
+        <v>0.02587127820296721</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.59560062713521</v>
+        <v>0.2261497971041629</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.06237934110865732</v>
+        <v>0.06171478503464616</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.07767661876341563</v>
+        <v>0.02568335713765304</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.099089136779041</v>
+        <v>5.032611587134905</v>
       </c>
       <c r="AF6" t="n">
-        <v>75.05310362658381</v>
+        <v>75.02608222436835</v>
       </c>
       <c r="AG6" t="n">
-        <v>7582.946169118668</v>
+        <v>7500.225207034629</v>
       </c>
       <c r="AH6" t="n">
-        <v>150000.0650643435</v>
+        <v>150000.0611343715</v>
       </c>
       <c r="AI6" t="n">
-        <v>150000.0755414172</v>
+        <v>150000.0248897721</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.800518242870473</v>
+        <v>10.38446040172701</v>
       </c>
       <c r="AK6" t="n">
-        <v>-2.426641183035192</v>
+        <v>8.8461610185166</v>
       </c>
       <c r="AL6" t="n">
-        <v>-124.8975103488921</v>
+        <v>-76.19180843507667</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.01459551830073624</v>
+        <v>-1.42151755622982</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.784152766228944</v>
+        <v>-4.136184772035691</v>
       </c>
       <c r="AO6" t="n">
-        <v>1932.512908448164</v>
+        <v>-4556.897587887448</v>
       </c>
     </row>
     <row r="7">
@@ -6426,22 +6426,22 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>100.829714937155</v>
+        <v>100.5223824774605</v>
       </c>
       <c r="E7" t="n">
-        <v>5.431575245881034</v>
+        <v>4.788607036511766</v>
       </c>
       <c r="F7" t="n">
-        <v>76.04958606083359</v>
+        <v>74.3432842845281</v>
       </c>
       <c r="G7" t="n">
-        <v>7385.22140171563</v>
+        <v>7646.967887865975</v>
       </c>
       <c r="H7" t="n">
-        <v>141310.8196502408</v>
+        <v>152042.7961906446</v>
       </c>
       <c r="I7" t="n">
-        <v>156131.1747713329</v>
+        <v>156943.7843086506</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -6453,91 +6453,91 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01459551830073624</v>
+        <v>1.600963078257559</v>
       </c>
       <c r="N7" t="n">
-        <v>9.172618665278893</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3598.357061563249</v>
+        <v>123.471195063976</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>3.022480634487379</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.38846589904995</v>
+        <v>4.136184772035691</v>
       </c>
       <c r="R7" t="n">
-        <v>1665.844153115084</v>
+        <v>4680.368782951424</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5512141909966357</v>
+        <v>5.091125216180465</v>
       </c>
       <c r="T7" t="n">
-        <v>17.59609023750307</v>
+        <v>9.208326886425391</v>
       </c>
       <c r="U7" t="n">
-        <v>6054.067444744819</v>
+        <v>5249.749146647005</v>
       </c>
       <c r="V7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X7" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1039664500360904</v>
+        <v>0.03180576372543314</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.06252205116950679</v>
+        <v>0.03046916738821044</v>
       </c>
       <c r="AB7" t="n">
-        <v>81.59560062713521</v>
+        <v>1.764631845193851</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.06237934110865732</v>
+        <v>0.06171478503464616</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.07767661876341563</v>
+        <v>0.2645760423505293</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.099426361954247</v>
+        <v>5.032958945690023</v>
       </c>
       <c r="AF7" t="n">
-        <v>75.06220599511758</v>
+        <v>75.03068011355359</v>
       </c>
       <c r="AG7" t="n">
-        <v>7582.946169118668</v>
+        <v>7501.76368908272</v>
       </c>
       <c r="AH7" t="n">
-        <v>150000.0650643435</v>
+        <v>150000.0611343715</v>
       </c>
       <c r="AI7" t="n">
-        <v>150000.0755414172</v>
+        <v>150000.2637824573</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.800518242870473</v>
+        <v>10.38446040172701</v>
       </c>
       <c r="AK7" t="n">
-        <v>-2.426641183035192</v>
+        <v>8.8461610185166</v>
       </c>
       <c r="AL7" t="n">
-        <v>-124.8975103488921</v>
+        <v>-76.19180843507667</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.01459551830073624</v>
+        <v>-1.42151755622982</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.784152766228944</v>
+        <v>-4.136184772035691</v>
       </c>
       <c r="AO7" t="n">
-        <v>1932.512908448164</v>
+        <v>-4556.897587887448</v>
       </c>
     </row>
     <row r="8">
@@ -6551,118 +6551,118 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>101.2560930766303</v>
+        <v>100.61164823309</v>
       </c>
       <c r="E8" t="n">
-        <v>5.459292752173794</v>
+        <v>4.745735034203812</v>
       </c>
       <c r="F8" t="n">
-        <v>75.37889807726853</v>
+        <v>75.61333748132741</v>
       </c>
       <c r="G8" t="n">
-        <v>7490.043650299348</v>
+        <v>7647.194046391945</v>
       </c>
       <c r="H8" t="n">
-        <v>143792.4870250069</v>
+        <v>152502.8743932671</v>
       </c>
       <c r="I8" t="n">
-        <v>157943.2159582173</v>
+        <v>156485.6769439238</v>
       </c>
       <c r="J8" t="n">
-        <v>-142.8257822291876</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-142.8257822291876</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.053306135354565</v>
+        <v>1.640111929619642</v>
       </c>
       <c r="N8" t="n">
-        <v>11.79825008962412</v>
+        <v>5.045995090535761</v>
       </c>
       <c r="O8" t="n">
-        <v>2086.374013696284</v>
+        <v>838.8967478983869</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07863103026933704</v>
+        <v>3.084751612351878</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.39857584372991</v>
+        <v>4.136184772035691</v>
       </c>
       <c r="R8" t="n">
-        <v>1665.844153115084</v>
+        <v>4691.66862754944</v>
       </c>
       <c r="S8" t="n">
-        <v>2.644966877929277</v>
+        <v>5.352707217566018</v>
       </c>
       <c r="T8" t="n">
-        <v>34.02813161505571</v>
+        <v>25.54058291128128</v>
       </c>
       <c r="U8" t="n">
-        <v>8094.667709181321</v>
+        <v>6211.744967856782</v>
       </c>
       <c r="V8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1958563393693986</v>
+        <v>0.0473139214338172</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.1301946292122643</v>
+        <v>0.08311252127097275</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.9988645354192</v>
+        <v>6.845353809167416</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.13464995982298</v>
+        <v>0.09315150698304675</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.1600888432594071</v>
+        <v>0.3163069119942412</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.187756366095453</v>
+        <v>5.049152261339883</v>
       </c>
       <c r="AF8" t="n">
-        <v>75.12970925284984</v>
+        <v>75.08305725185259</v>
       </c>
       <c r="AG8" t="n">
-        <v>7609.625657380957</v>
+        <v>7506.778389773957</v>
       </c>
       <c r="AH8" t="n">
-        <v>150000.1395189473</v>
+        <v>150000.0922099481</v>
       </c>
       <c r="AI8" t="n">
-        <v>150000.1550524388</v>
+        <v>150000.314012576</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15.49805955149948</v>
+        <v>60.43018514766881</v>
       </c>
       <c r="AK8" t="n">
-        <v>31.50583760126977</v>
+        <v>20.29330266760343</v>
       </c>
       <c r="AL8" t="n">
-        <v>227.9551831365299</v>
+        <v>98.24585100894521</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.9746751050852276</v>
+        <v>-1.444639682732236</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.6003257541057905</v>
+        <v>0.9098103185000694</v>
       </c>
       <c r="AO8" t="n">
-        <v>420.5298605811995</v>
+        <v>-3852.771879651054</v>
       </c>
     </row>
     <row r="9">
@@ -6676,118 +6676,118 @@
         <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>101.2560930766303</v>
+        <v>100.61164823309</v>
       </c>
       <c r="E9" t="n">
-        <v>5.459292752173794</v>
+        <v>4.745735034203812</v>
       </c>
       <c r="F9" t="n">
-        <v>75.37889807726853</v>
+        <v>75.61333748132741</v>
       </c>
       <c r="G9" t="n">
-        <v>7490.043650299348</v>
+        <v>7647.194046391945</v>
       </c>
       <c r="H9" t="n">
-        <v>143792.4870250069</v>
+        <v>152502.8743932671</v>
       </c>
       <c r="I9" t="n">
-        <v>157943.2159582173</v>
+        <v>156485.6769439238</v>
       </c>
       <c r="J9" t="n">
-        <v>-142.8257822291876</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-142.8257822291876</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.053306135354565</v>
+        <v>1.640111929619642</v>
       </c>
       <c r="N9" t="n">
-        <v>11.79825008962412</v>
+        <v>5.045995090535761</v>
       </c>
       <c r="O9" t="n">
-        <v>2086.374013696284</v>
+        <v>838.8967478983869</v>
       </c>
       <c r="P9" t="n">
-        <v>0.07863103026933704</v>
+        <v>3.084751612351878</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.39857584372991</v>
+        <v>4.136184772035691</v>
       </c>
       <c r="R9" t="n">
-        <v>1665.844153115084</v>
+        <v>4691.66862754944</v>
       </c>
       <c r="S9" t="n">
-        <v>2.644966877929277</v>
+        <v>5.352707217566018</v>
       </c>
       <c r="T9" t="n">
-        <v>34.02813161505571</v>
+        <v>25.54058291128128</v>
       </c>
       <c r="U9" t="n">
-        <v>8094.667709181321</v>
+        <v>6211.744967856782</v>
       </c>
       <c r="V9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1958563393693986</v>
+        <v>0.0473139214338172</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1301946292122643</v>
+        <v>0.08311252127097275</v>
       </c>
       <c r="AB9" t="n">
-        <v>107.9988645354192</v>
+        <v>6.845353809167416</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.13464995982298</v>
+        <v>0.09315150698304675</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1600888432594071</v>
+        <v>0.3163069119942412</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.187756366095453</v>
+        <v>5.049152261339883</v>
       </c>
       <c r="AF9" t="n">
-        <v>75.12970925284984</v>
+        <v>75.08305725185259</v>
       </c>
       <c r="AG9" t="n">
-        <v>7609.625657380957</v>
+        <v>7506.778389773957</v>
       </c>
       <c r="AH9" t="n">
-        <v>150000.1395189473</v>
+        <v>150000.0922099481</v>
       </c>
       <c r="AI9" t="n">
-        <v>150000.1550524388</v>
+        <v>150000.314012576</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15.49805955149948</v>
+        <v>60.43018514766881</v>
       </c>
       <c r="AK9" t="n">
-        <v>31.50583760126977</v>
+        <v>20.29330266760343</v>
       </c>
       <c r="AL9" t="n">
-        <v>227.9551831365299</v>
+        <v>98.24585100894521</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.9746751050852276</v>
+        <v>-1.444639682732236</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.6003257541057905</v>
+        <v>0.9098103185000694</v>
       </c>
       <c r="AO9" t="n">
-        <v>420.5298605811995</v>
+        <v>-3852.771879651054</v>
       </c>
     </row>
     <row r="10">
@@ -6801,118 +6801,118 @@
         <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>101.4693619438292</v>
+        <v>100.7407153450695</v>
       </c>
       <c r="E10" t="n">
-        <v>5.484265851294936</v>
+        <v>4.752677771171578</v>
       </c>
       <c r="F10" t="n">
-        <v>75.84400688270981</v>
+        <v>75.98994878124608</v>
       </c>
       <c r="G10" t="n">
-        <v>7490.043650299348</v>
+        <v>7647.194046391945</v>
       </c>
       <c r="H10" t="n">
-        <v>143792.4870250069</v>
+        <v>152502.8743932671</v>
       </c>
       <c r="I10" t="n">
-        <v>157943.2159582173</v>
+        <v>156528.7406019325</v>
       </c>
       <c r="J10" t="n">
-        <v>-142.8257822291876</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-142.8257822291876</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.053306135354565</v>
+        <v>1.640111929619642</v>
       </c>
       <c r="N10" t="n">
-        <v>11.79825008962412</v>
+        <v>5.045995090535761</v>
       </c>
       <c r="O10" t="n">
-        <v>2086.374013696284</v>
+        <v>838.8967478983869</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07863103026933704</v>
+        <v>3.084751612351878</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.39857584372991</v>
+        <v>4.136184772035691</v>
       </c>
       <c r="R10" t="n">
-        <v>1665.844153115084</v>
+        <v>4691.66862754944</v>
       </c>
       <c r="S10" t="n">
-        <v>2.644966877929277</v>
+        <v>5.352707217566018</v>
       </c>
       <c r="T10" t="n">
-        <v>34.02813161505571</v>
+        <v>25.54058291128128</v>
       </c>
       <c r="U10" t="n">
-        <v>8094.667709181321</v>
+        <v>6211.744967856782</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.1961396703902078</v>
+        <v>0.0474832564818115</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.141538746418149</v>
+        <v>0.09229816273240392</v>
       </c>
       <c r="AB10" t="n">
-        <v>107.9988645354192</v>
+        <v>6.845353809167416</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.13464995982298</v>
+        <v>0.09315150698304675</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.1600888432594071</v>
+        <v>0.9023414622679051</v>
       </c>
       <c r="AE10" t="n">
-        <v>5.188039697116262</v>
+        <v>5.049321596387876</v>
       </c>
       <c r="AF10" t="n">
-        <v>75.1410533700557</v>
+        <v>75.09224289331404</v>
       </c>
       <c r="AG10" t="n">
-        <v>7609.625657380957</v>
+        <v>7506.778389773957</v>
       </c>
       <c r="AH10" t="n">
-        <v>150000.1395189473</v>
+        <v>150000.0922099481</v>
       </c>
       <c r="AI10" t="n">
-        <v>150000.1550524388</v>
+        <v>150000.9000471262</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15.49805955149948</v>
+        <v>60.43018514766881</v>
       </c>
       <c r="AK10" t="n">
-        <v>31.50583760126977</v>
+        <v>20.29330266760343</v>
       </c>
       <c r="AL10" t="n">
-        <v>227.9551831365299</v>
+        <v>98.24585100894521</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.9746751050852276</v>
+        <v>-1.444639682732236</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.6003257541057905</v>
+        <v>0.9098103185000694</v>
       </c>
       <c r="AO10" t="n">
-        <v>420.5298605811995</v>
+        <v>-3852.771879651054</v>
       </c>
     </row>
     <row r="11">
@@ -6926,118 +6926,118 @@
         <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>102.0729235254945</v>
+        <v>100.9798570597164</v>
       </c>
       <c r="E11" t="n">
-        <v>5.720352773223464</v>
+        <v>4.773732634499806</v>
       </c>
       <c r="F11" t="n">
-        <v>82.24791727130426</v>
+        <v>77.50703367444878</v>
       </c>
       <c r="G11" t="n">
-        <v>7307.98266837029</v>
+        <v>7634.859039236122</v>
       </c>
       <c r="H11" t="n">
-        <v>135151.9507673274</v>
+        <v>148288.0383102474</v>
       </c>
       <c r="I11" t="n">
-        <v>158662.2150217087</v>
+        <v>160451.9367379796</v>
       </c>
       <c r="J11" t="n">
-        <v>-142.8257822291876</v>
+        <v>-148.1867469937656</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-142.8257822291876</v>
+        <v>-127.57546476762</v>
       </c>
       <c r="M11" t="n">
-        <v>5.536656689641502</v>
+        <v>1.457973487225351</v>
       </c>
       <c r="N11" t="n">
-        <v>24.21534201094361</v>
+        <v>17.80685632271151</v>
       </c>
       <c r="O11" t="n">
-        <v>5315.691546321284</v>
+        <v>1552.685539006092</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07863103026933704</v>
+        <v>3.109535614373474</v>
       </c>
       <c r="Q11" t="n">
-        <v>34.39147756331474</v>
+        <v>56.95841004887129</v>
       </c>
       <c r="R11" t="n">
-        <v>1888.478856627701</v>
+        <v>4949.483187809779</v>
       </c>
       <c r="S11" t="n">
-        <v>7.580488584600411</v>
+        <v>7.455744344166127</v>
       </c>
       <c r="T11" t="n">
-        <v>78.26986238989019</v>
+        <v>94.54089546975173</v>
       </c>
       <c r="U11" t="n">
-        <v>12343.93122620867</v>
+        <v>7513.038450524545</v>
       </c>
       <c r="V11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W11" t="n">
         <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2805006603371052</v>
+        <v>0.09573323378876</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2804555875831983</v>
+        <v>0.1491470535029136</v>
       </c>
       <c r="AB11" t="n">
-        <v>202.3262660741703</v>
+        <v>19.05300263699884</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.2217381304152757</v>
+        <v>0.1338637435048083</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.3004739039742466</v>
+        <v>0.9539373697533963</v>
       </c>
       <c r="AE11" t="n">
-        <v>5.267421949793673</v>
+        <v>5.099793963713434</v>
       </c>
       <c r="AF11" t="n">
-        <v>75.27166497446044</v>
+        <v>75.14787130298693</v>
       </c>
       <c r="AG11" t="n">
-        <v>7707.337786466969</v>
+        <v>7518.852074380977</v>
       </c>
       <c r="AH11" t="n">
-        <v>150000.2333045846</v>
+        <v>150000.1332512193</v>
       </c>
       <c r="AI11" t="n">
-        <v>150000.2900725925</v>
+        <v>150000.9492905512</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1106.574005625843</v>
+        <v>853.8923995428477</v>
       </c>
       <c r="AK11" t="n">
-        <v>331.4978724748513</v>
+        <v>125.6474282655006</v>
       </c>
       <c r="AL11" t="n">
-        <v>647.643251381689</v>
+        <v>734.6180030660041</v>
       </c>
       <c r="AM11" t="n">
-        <v>5.458025659372165</v>
+        <v>-1.651562127148123</v>
       </c>
       <c r="AN11" t="n">
-        <v>-10.17613555237113</v>
+        <v>-39.15155372615977</v>
       </c>
       <c r="AO11" t="n">
-        <v>3427.212689693582</v>
+        <v>-3396.797648803687</v>
       </c>
     </row>
     <row r="12">
@@ -7051,118 +7051,118 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>102.0729235254945</v>
+        <v>100.9798570597164</v>
       </c>
       <c r="E12" t="n">
-        <v>5.720352773223464</v>
+        <v>4.773732634499806</v>
       </c>
       <c r="F12" t="n">
-        <v>82.24791727130426</v>
+        <v>77.50703367444878</v>
       </c>
       <c r="G12" t="n">
-        <v>7307.98266837029</v>
+        <v>7634.859039236122</v>
       </c>
       <c r="H12" t="n">
-        <v>135151.9507673274</v>
+        <v>148288.0383102474</v>
       </c>
       <c r="I12" t="n">
-        <v>158662.2150217087</v>
+        <v>160451.9367379796</v>
       </c>
       <c r="J12" t="n">
-        <v>-142.8257822291876</v>
+        <v>-148.1867469937656</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-142.8257822291876</v>
+        <v>-127.57546476762</v>
       </c>
       <c r="M12" t="n">
-        <v>5.536656689641502</v>
+        <v>1.457973487225351</v>
       </c>
       <c r="N12" t="n">
-        <v>24.21534201094361</v>
+        <v>17.80685632271151</v>
       </c>
       <c r="O12" t="n">
-        <v>5315.691546321284</v>
+        <v>1552.685539006092</v>
       </c>
       <c r="P12" t="n">
-        <v>0.07863103026933704</v>
+        <v>3.109535614373474</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.39147756331474</v>
+        <v>56.95841004887129</v>
       </c>
       <c r="R12" t="n">
-        <v>1888.478856627701</v>
+        <v>4949.483187809779</v>
       </c>
       <c r="S12" t="n">
-        <v>7.580488584600411</v>
+        <v>7.455744344166127</v>
       </c>
       <c r="T12" t="n">
-        <v>78.26986238989019</v>
+        <v>94.54089546975173</v>
       </c>
       <c r="U12" t="n">
-        <v>12343.93122620867</v>
+        <v>7513.038450524545</v>
       </c>
       <c r="V12" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W12" t="n">
         <v>12</v>
       </c>
       <c r="X12" t="n">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.2805006603371052</v>
+        <v>0.09573323378876</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2804555875831983</v>
+        <v>0.1491470535029136</v>
       </c>
       <c r="AB12" t="n">
-        <v>202.3262660741703</v>
+        <v>19.05300263699884</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2217381304152757</v>
+        <v>0.1338637435048083</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.3004739039742466</v>
+        <v>0.9539373697533963</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.267421949793673</v>
+        <v>5.099793963713434</v>
       </c>
       <c r="AF12" t="n">
-        <v>75.27166497446044</v>
+        <v>75.14787130298693</v>
       </c>
       <c r="AG12" t="n">
-        <v>7707.337786466969</v>
+        <v>7518.852074380977</v>
       </c>
       <c r="AH12" t="n">
-        <v>150000.2333045846</v>
+        <v>150000.1332512193</v>
       </c>
       <c r="AI12" t="n">
-        <v>150000.2900725925</v>
+        <v>150000.9492905512</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1106.574005625843</v>
+        <v>853.8923995428477</v>
       </c>
       <c r="AK12" t="n">
-        <v>331.4978724748513</v>
+        <v>125.6474282655006</v>
       </c>
       <c r="AL12" t="n">
-        <v>647.643251381689</v>
+        <v>734.6180030660041</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.458025659372165</v>
+        <v>-1.651562127148123</v>
       </c>
       <c r="AN12" t="n">
-        <v>-10.17613555237113</v>
+        <v>-39.15155372615977</v>
       </c>
       <c r="AO12" t="n">
-        <v>3427.212689693582</v>
+        <v>-3396.797648803687</v>
       </c>
     </row>
     <row r="13">
@@ -7176,118 +7176,118 @@
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>102.3680442417596</v>
+        <v>101.1666542227922</v>
       </c>
       <c r="E13" t="n">
-        <v>5.741503823742036</v>
+        <v>4.79530277638374</v>
       </c>
       <c r="F13" t="n">
-        <v>83.09535189120265</v>
+        <v>77.89637125133621</v>
       </c>
       <c r="G13" t="n">
-        <v>7307.98266837029</v>
+        <v>7634.859039236122</v>
       </c>
       <c r="H13" t="n">
-        <v>135151.9507673274</v>
+        <v>148288.0383102474</v>
       </c>
       <c r="I13" t="n">
-        <v>158663.5604877642</v>
+        <v>160493.8491427411</v>
       </c>
       <c r="J13" t="n">
-        <v>-142.8257822291876</v>
+        <v>-148.1867469937656</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-142.8257822291876</v>
+        <v>-127.57546476762</v>
       </c>
       <c r="M13" t="n">
-        <v>5.536656689641502</v>
+        <v>1.457973487225351</v>
       </c>
       <c r="N13" t="n">
-        <v>24.21534201094361</v>
+        <v>17.80685632271151</v>
       </c>
       <c r="O13" t="n">
-        <v>5315.691546321284</v>
+        <v>1552.685539006092</v>
       </c>
       <c r="P13" t="n">
-        <v>0.07863103026933704</v>
+        <v>3.109535614373474</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.39147756331474</v>
+        <v>56.95841004887129</v>
       </c>
       <c r="R13" t="n">
-        <v>1888.478856627701</v>
+        <v>4949.483187809779</v>
       </c>
       <c r="S13" t="n">
-        <v>7.580488584600411</v>
+        <v>7.455744344166127</v>
       </c>
       <c r="T13" t="n">
-        <v>78.26986238989019</v>
+        <v>94.54089546975173</v>
       </c>
       <c r="U13" t="n">
-        <v>12343.93122620867</v>
+        <v>7513.038450524545</v>
       </c>
       <c r="V13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W13" t="n">
         <v>12</v>
       </c>
       <c r="X13" t="n">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.2807965751471985</v>
+        <v>0.09625933481031933</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.290924933977333</v>
+        <v>0.1586430919635823</v>
       </c>
       <c r="AB13" t="n">
-        <v>202.3262660741703</v>
+        <v>19.05300263699884</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2217381304152757</v>
+        <v>0.1338637435048083</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.3177970078082542</v>
+        <v>1.604068822276821</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.267717864603766</v>
+        <v>5.100320064734992</v>
       </c>
       <c r="AF13" t="n">
-        <v>75.28213432085457</v>
+        <v>75.15736734144758</v>
       </c>
       <c r="AG13" t="n">
-        <v>7707.337786466969</v>
+        <v>7518.852074380977</v>
       </c>
       <c r="AH13" t="n">
-        <v>150000.2333045846</v>
+        <v>150000.1332512193</v>
       </c>
       <c r="AI13" t="n">
-        <v>150000.3073956963</v>
+        <v>150001.5994220038</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1106.574005625843</v>
+        <v>853.8923995428477</v>
       </c>
       <c r="AK13" t="n">
-        <v>331.4978724748513</v>
+        <v>125.6474282655006</v>
       </c>
       <c r="AL13" t="n">
-        <v>647.643251381689</v>
+        <v>734.6180030660041</v>
       </c>
       <c r="AM13" t="n">
-        <v>5.458025659372165</v>
+        <v>-1.651562127148123</v>
       </c>
       <c r="AN13" t="n">
-        <v>-10.17613555237113</v>
+        <v>-39.15155372615977</v>
       </c>
       <c r="AO13" t="n">
-        <v>3427.212689693582</v>
+        <v>-3396.797648803687</v>
       </c>
     </row>
     <row r="14">
@@ -7301,118 +7301,118 @@
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>103.2330238752974</v>
+        <v>101.3110944501207</v>
       </c>
       <c r="E14" t="n">
-        <v>6.003532816458775</v>
+        <v>4.917533179190073</v>
       </c>
       <c r="F14" t="n">
-        <v>81.13140399292162</v>
+        <v>75.45682890272131</v>
       </c>
       <c r="G14" t="n">
-        <v>7391.823936268728</v>
+        <v>7583.712983993607</v>
       </c>
       <c r="H14" t="n">
-        <v>136840.2651678578</v>
+        <v>140911.9372886674</v>
       </c>
       <c r="I14" t="n">
-        <v>162700.3415853952</v>
+        <v>172110.9360210762</v>
       </c>
       <c r="J14" t="n">
-        <v>-1740.79844382559</v>
+        <v>-148.1867469937656</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-786.3352324448576</v>
+        <v>-127.57546476762</v>
       </c>
       <c r="M14" t="n">
-        <v>3.122046634417345</v>
+        <v>1.564336286388154</v>
       </c>
       <c r="N14" t="n">
-        <v>32.69102016126169</v>
+        <v>20.57825734089305</v>
       </c>
       <c r="O14" t="n">
-        <v>1795.464464951062</v>
+        <v>2211.686492712681</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1075081731744819</v>
+        <v>3.190760250597694</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.57182060854325</v>
+        <v>56.95841004887129</v>
       </c>
       <c r="R14" t="n">
-        <v>1891.551485161543</v>
+        <v>4985.417410977501</v>
       </c>
       <c r="S14" t="n">
-        <v>13.90320189489749</v>
+        <v>7.965797810253977</v>
       </c>
       <c r="T14" t="n">
-        <v>106.5351446650101</v>
+        <v>101.7444949563986</v>
       </c>
       <c r="U14" t="n">
-        <v>16355.86591418666</v>
+        <v>8350.379705728617</v>
       </c>
       <c r="V14" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="W14" t="n">
         <v>15</v>
       </c>
       <c r="X14" t="n">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.4549078314750341</v>
+        <v>0.1220947201357904</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.3509229885854465</v>
+        <v>0.2179735184582232</v>
       </c>
       <c r="AB14" t="n">
-        <v>288.3722435616961</v>
+        <v>29.32278882716108</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3250032694678407</v>
+        <v>0.1743810269216393</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.435985774924823</v>
+        <v>1.65019216793175</v>
       </c>
       <c r="AE14" t="n">
-        <v>5.428896280203078</v>
+        <v>5.126900359403179</v>
       </c>
       <c r="AF14" t="n">
-        <v>75.33912358088581</v>
+        <v>75.21655592897622</v>
       </c>
       <c r="AG14" t="n">
-        <v>7796.497583321323</v>
+        <v>7529.067177676104</v>
       </c>
       <c r="AH14" t="n">
-        <v>150000.3435214965</v>
+        <v>150000.175597739</v>
       </c>
       <c r="AI14" t="n">
-        <v>150005.1459912593</v>
+        <v>150001.641397857</v>
       </c>
       <c r="AJ14" t="n">
-        <v>523.7244624725425</v>
+        <v>1132.62014723939</v>
       </c>
       <c r="AK14" t="n">
-        <v>695.5264913860959</v>
+        <v>485.5278444680193</v>
       </c>
       <c r="AL14" t="n">
-        <v>906.0257952407834</v>
+        <v>1312.342028112476</v>
       </c>
       <c r="AM14" t="n">
-        <v>3.014538461242863</v>
+        <v>-1.62642396420954</v>
       </c>
       <c r="AN14" t="n">
-        <v>-15.88080044728155</v>
+        <v>-36.38015270797823</v>
       </c>
       <c r="AO14" t="n">
-        <v>-96.08702021048069</v>
+        <v>-2773.73091826482</v>
       </c>
     </row>
     <row r="15">
@@ -7426,118 +7426,118 @@
         <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>103.2330238752974</v>
+        <v>101.3110944501207</v>
       </c>
       <c r="E15" t="n">
-        <v>6.003532816458775</v>
+        <v>4.917533179190073</v>
       </c>
       <c r="F15" t="n">
-        <v>81.13140399292162</v>
+        <v>75.45682890272131</v>
       </c>
       <c r="G15" t="n">
-        <v>7391.823936268728</v>
+        <v>7583.712983993607</v>
       </c>
       <c r="H15" t="n">
-        <v>136840.2651678578</v>
+        <v>140911.9372886674</v>
       </c>
       <c r="I15" t="n">
-        <v>162700.3415853952</v>
+        <v>172110.9360210762</v>
       </c>
       <c r="J15" t="n">
-        <v>-1740.79844382559</v>
+        <v>-148.1867469937656</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-786.3352324448576</v>
+        <v>-127.57546476762</v>
       </c>
       <c r="M15" t="n">
-        <v>3.122046634417345</v>
+        <v>1.564336286388154</v>
       </c>
       <c r="N15" t="n">
-        <v>32.69102016126169</v>
+        <v>20.57825734089305</v>
       </c>
       <c r="O15" t="n">
-        <v>1795.464464951062</v>
+        <v>2211.686492712681</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1075081731744819</v>
+        <v>3.190760250597694</v>
       </c>
       <c r="Q15" t="n">
-        <v>48.57182060854325</v>
+        <v>56.95841004887129</v>
       </c>
       <c r="R15" t="n">
-        <v>1891.551485161543</v>
+        <v>4985.417410977501</v>
       </c>
       <c r="S15" t="n">
-        <v>13.90320189489749</v>
+        <v>7.965797810253977</v>
       </c>
       <c r="T15" t="n">
-        <v>106.5351446650101</v>
+        <v>101.7444949563986</v>
       </c>
       <c r="U15" t="n">
-        <v>16355.86591418666</v>
+        <v>8350.379705728617</v>
       </c>
       <c r="V15" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="W15" t="n">
         <v>15</v>
       </c>
       <c r="X15" t="n">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.4549078314750341</v>
+        <v>0.1220947201357904</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.3509229885854465</v>
+        <v>0.2179735184582232</v>
       </c>
       <c r="AB15" t="n">
-        <v>288.3722435616961</v>
+        <v>29.32278882716108</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.3250032694678407</v>
+        <v>0.1743810269216393</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.435985774924823</v>
+        <v>1.65019216793175</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.428896280203078</v>
+        <v>5.126900359403179</v>
       </c>
       <c r="AF15" t="n">
-        <v>75.33912358088581</v>
+        <v>75.21655592897622</v>
       </c>
       <c r="AG15" t="n">
-        <v>7796.497583321323</v>
+        <v>7529.067177676104</v>
       </c>
       <c r="AH15" t="n">
-        <v>150000.3435214965</v>
+        <v>150000.175597739</v>
       </c>
       <c r="AI15" t="n">
-        <v>150005.1459912593</v>
+        <v>150001.641397857</v>
       </c>
       <c r="AJ15" t="n">
-        <v>523.7244624725425</v>
+        <v>1132.62014723939</v>
       </c>
       <c r="AK15" t="n">
-        <v>695.5264913860959</v>
+        <v>485.5278444680193</v>
       </c>
       <c r="AL15" t="n">
-        <v>906.0257952407834</v>
+        <v>1312.342028112476</v>
       </c>
       <c r="AM15" t="n">
-        <v>3.014538461242863</v>
+        <v>-1.62642396420954</v>
       </c>
       <c r="AN15" t="n">
-        <v>-15.88080044728155</v>
+        <v>-36.38015270797823</v>
       </c>
       <c r="AO15" t="n">
-        <v>-96.08702021048069</v>
+        <v>-2773.73091826482</v>
       </c>
     </row>
     <row r="16">
@@ -7551,118 +7551,118 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>103.7924791058153</v>
+        <v>101.4612594361892</v>
       </c>
       <c r="E16" t="n">
-        <v>6.044392960632732</v>
+        <v>4.928460339755362</v>
       </c>
       <c r="F16" t="n">
-        <v>81.48446100844559</v>
+        <v>75.86595594439707</v>
       </c>
       <c r="G16" t="n">
-        <v>7391.823936268728</v>
+        <v>7583.712983993607</v>
       </c>
       <c r="H16" t="n">
-        <v>136840.2651678578</v>
+        <v>140911.9372886674</v>
       </c>
       <c r="I16" t="n">
-        <v>165096.1163842495</v>
+        <v>172144.3211404419</v>
       </c>
       <c r="J16" t="n">
-        <v>-1740.79844382559</v>
+        <v>-148.1867469937656</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-786.3352324448576</v>
+        <v>-127.57546476762</v>
       </c>
       <c r="M16" t="n">
-        <v>3.122046634417345</v>
+        <v>1.564336286388154</v>
       </c>
       <c r="N16" t="n">
-        <v>32.69102016126169</v>
+        <v>20.57825734089305</v>
       </c>
       <c r="O16" t="n">
-        <v>1795.464464951062</v>
+        <v>2211.686492712681</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1075081731744819</v>
+        <v>3.190760250597694</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.57182060854325</v>
+        <v>56.95841004887129</v>
       </c>
       <c r="R16" t="n">
-        <v>1891.551485161543</v>
+        <v>4985.417410977501</v>
       </c>
       <c r="S16" t="n">
-        <v>13.90320189489749</v>
+        <v>7.965797810253977</v>
       </c>
       <c r="T16" t="n">
-        <v>106.5351446650101</v>
+        <v>101.7444949563986</v>
       </c>
       <c r="U16" t="n">
-        <v>16355.86591418666</v>
+        <v>8350.379705728617</v>
       </c>
       <c r="V16" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="W16" t="n">
         <v>15</v>
       </c>
       <c r="X16" t="n">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.4555832592948622</v>
+        <v>0.1223612362471389</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.3595341353055434</v>
+        <v>0.2279522267917779</v>
       </c>
       <c r="AB16" t="n">
-        <v>288.3722435616961</v>
+        <v>29.32278882716108</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3250032694678407</v>
+        <v>0.1743810269216393</v>
       </c>
       <c r="AD16" t="n">
-        <v>40.67263977226556</v>
+        <v>2.362922144246532</v>
       </c>
       <c r="AE16" t="n">
-        <v>5.429571708022905</v>
+        <v>5.127166875514527</v>
       </c>
       <c r="AF16" t="n">
-        <v>75.3477347276059</v>
+        <v>75.2265346373098</v>
       </c>
       <c r="AG16" t="n">
-        <v>7796.497583321323</v>
+        <v>7529.067177676104</v>
       </c>
       <c r="AH16" t="n">
-        <v>150000.3435214965</v>
+        <v>150000.175597739</v>
       </c>
       <c r="AI16" t="n">
-        <v>150040.3826452566</v>
+        <v>150002.3541278333</v>
       </c>
       <c r="AJ16" t="n">
-        <v>523.7244624725425</v>
+        <v>1132.62014723939</v>
       </c>
       <c r="AK16" t="n">
-        <v>695.5264913860959</v>
+        <v>485.5278444680193</v>
       </c>
       <c r="AL16" t="n">
-        <v>906.0257952407834</v>
+        <v>1312.342028112476</v>
       </c>
       <c r="AM16" t="n">
-        <v>3.014538461242863</v>
+        <v>-1.62642396420954</v>
       </c>
       <c r="AN16" t="n">
-        <v>-15.88080044728155</v>
+        <v>-36.38015270797823</v>
       </c>
       <c r="AO16" t="n">
-        <v>-96.08702021048069</v>
+        <v>-2773.73091826482</v>
       </c>
     </row>
     <row r="17">
@@ -7676,118 +7676,118 @@
         <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>104.106372644287</v>
+        <v>101.6837558523039</v>
       </c>
       <c r="E17" t="n">
-        <v>6.17796412503689</v>
+        <v>4.603099055207601</v>
       </c>
       <c r="F17" t="n">
-        <v>83.59271372141758</v>
+        <v>81.15699964082332</v>
       </c>
       <c r="G17" t="n">
-        <v>7245.749634241623</v>
+        <v>7676.031037956992</v>
       </c>
       <c r="H17" t="n">
-        <v>136462.5849083168</v>
+        <v>138424.3067151364</v>
       </c>
       <c r="I17" t="n">
-        <v>164694.8873470958</v>
+        <v>174492.1199610041</v>
       </c>
       <c r="J17" t="n">
-        <v>-1747.849795857108</v>
+        <v>-290.1491274539597</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-786.3352324448576</v>
+        <v>-137.7300919108943</v>
       </c>
       <c r="M17" t="n">
-        <v>3.389523243836959</v>
+        <v>1.56972328693077</v>
       </c>
       <c r="N17" t="n">
-        <v>33.83467076107048</v>
+        <v>14.88983846379447</v>
       </c>
       <c r="O17" t="n">
-        <v>3329.114936869754</v>
+        <v>2361.378920044001</v>
       </c>
       <c r="P17" t="n">
-        <v>0.9483009560733722</v>
+        <v>3.190760250597694</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.3180252934286</v>
+        <v>56.96195852663377</v>
       </c>
       <c r="R17" t="n">
-        <v>3884.79181005694</v>
+        <v>5052.502970111347</v>
       </c>
       <c r="S17" t="n">
-        <v>15.21603527674504</v>
+        <v>8.359065781174404</v>
       </c>
       <c r="T17" t="n">
-        <v>115.8051408989582</v>
+        <v>126.3043679376245</v>
       </c>
       <c r="U17" t="n">
-        <v>21249.56865510852</v>
+        <v>9072.454473280082</v>
       </c>
       <c r="V17" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W17" t="n">
         <v>19</v>
       </c>
       <c r="X17" t="n">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.5072863758499848</v>
+        <v>0.1526296150817016</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.4699389447426602</v>
+        <v>0.6035324782760899</v>
       </c>
       <c r="AB17" t="n">
-        <v>325.7846251767172</v>
+        <v>31.25977760423014</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.432785901550637</v>
+        <v>0.5031753493689888</v>
       </c>
       <c r="AD17" t="n">
-        <v>40.77526690042675</v>
+        <v>3.698519038770817</v>
       </c>
       <c r="AE17" t="n">
-        <v>5.477059617484919</v>
+        <v>5.159971034043966</v>
       </c>
       <c r="AF17" t="n">
-        <v>75.45057655971749</v>
+        <v>75.58365253906831</v>
       </c>
       <c r="AG17" t="n">
-        <v>7836.011012229155</v>
+        <v>7530.97844037607</v>
       </c>
       <c r="AH17" t="n">
-        <v>150000.4587889755</v>
+        <v>150000.523639535</v>
       </c>
       <c r="AI17" t="n">
-        <v>150040.4788801981</v>
+        <v>150003.5585138048</v>
       </c>
       <c r="AJ17" t="n">
-        <v>563.9237302845248</v>
+        <v>719.4716736748323</v>
       </c>
       <c r="AK17" t="n">
-        <v>671.0660190404907</v>
+        <v>174.878623278951</v>
       </c>
       <c r="AL17" t="n">
-        <v>643.588199362988</v>
+        <v>1182.160249182032</v>
       </c>
       <c r="AM17" t="n">
-        <v>2.441222287763587</v>
+        <v>-1.621036963666923</v>
       </c>
       <c r="AN17" t="n">
-        <v>-16.48335453235811</v>
+        <v>-42.0721200628393</v>
       </c>
       <c r="AO17" t="n">
-        <v>-555.6768731871855</v>
+        <v>-2691.124050067347</v>
       </c>
     </row>
     <row r="18">
@@ -7801,118 +7801,118 @@
         <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>104.106372644287</v>
+        <v>101.6837558523039</v>
       </c>
       <c r="E18" t="n">
-        <v>6.17796412503689</v>
+        <v>4.603099055207601</v>
       </c>
       <c r="F18" t="n">
-        <v>83.59271372141758</v>
+        <v>81.15699964082332</v>
       </c>
       <c r="G18" t="n">
-        <v>7245.749634241623</v>
+        <v>7676.031037956992</v>
       </c>
       <c r="H18" t="n">
-        <v>136462.5849083168</v>
+        <v>138424.3067151364</v>
       </c>
       <c r="I18" t="n">
-        <v>164694.8873470958</v>
+        <v>174492.1199610041</v>
       </c>
       <c r="J18" t="n">
-        <v>-1747.849795857108</v>
+        <v>-290.1491274539597</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-786.3352324448576</v>
+        <v>-137.7300919108943</v>
       </c>
       <c r="M18" t="n">
-        <v>3.389523243836959</v>
+        <v>1.56972328693077</v>
       </c>
       <c r="N18" t="n">
-        <v>33.83467076107048</v>
+        <v>14.88983846379447</v>
       </c>
       <c r="O18" t="n">
-        <v>3329.114936869754</v>
+        <v>2361.378920044001</v>
       </c>
       <c r="P18" t="n">
-        <v>0.9483009560733722</v>
+        <v>3.190760250597694</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.3180252934286</v>
+        <v>56.96195852663377</v>
       </c>
       <c r="R18" t="n">
-        <v>3884.79181005694</v>
+        <v>5052.502970111347</v>
       </c>
       <c r="S18" t="n">
-        <v>15.21603527674504</v>
+        <v>8.359065781174404</v>
       </c>
       <c r="T18" t="n">
-        <v>115.8051408989582</v>
+        <v>126.3043679376245</v>
       </c>
       <c r="U18" t="n">
-        <v>21249.56865510852</v>
+        <v>9072.454473280082</v>
       </c>
       <c r="V18" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W18" t="n">
         <v>19</v>
       </c>
       <c r="X18" t="n">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.5072863758499848</v>
+        <v>0.1526296150817016</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.4699389447426602</v>
+        <v>0.6035324782760899</v>
       </c>
       <c r="AB18" t="n">
-        <v>325.7846251767172</v>
+        <v>31.25977760423014</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.432785901550637</v>
+        <v>0.5031753493689888</v>
       </c>
       <c r="AD18" t="n">
-        <v>40.77526690042675</v>
+        <v>3.698519038770817</v>
       </c>
       <c r="AE18" t="n">
-        <v>5.477059617484919</v>
+        <v>5.159971034043966</v>
       </c>
       <c r="AF18" t="n">
-        <v>75.45057655971749</v>
+        <v>75.58365253906831</v>
       </c>
       <c r="AG18" t="n">
-        <v>7836.011012229155</v>
+        <v>7530.97844037607</v>
       </c>
       <c r="AH18" t="n">
-        <v>150000.4587889755</v>
+        <v>150000.523639535</v>
       </c>
       <c r="AI18" t="n">
-        <v>150040.4788801981</v>
+        <v>150003.5585138048</v>
       </c>
       <c r="AJ18" t="n">
-        <v>563.9237302845248</v>
+        <v>719.4716736748323</v>
       </c>
       <c r="AK18" t="n">
-        <v>671.0660190404907</v>
+        <v>174.878623278951</v>
       </c>
       <c r="AL18" t="n">
-        <v>643.588199362988</v>
+        <v>1182.160249182032</v>
       </c>
       <c r="AM18" t="n">
-        <v>2.441222287763587</v>
+        <v>-1.621036963666923</v>
       </c>
       <c r="AN18" t="n">
-        <v>-16.48335453235811</v>
+        <v>-42.0721200628393</v>
       </c>
       <c r="AO18" t="n">
-        <v>-555.6768731871855</v>
+        <v>-2691.124050067347</v>
       </c>
     </row>
     <row r="19">
@@ -7926,118 +7926,118 @@
         <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>104.3008717220873</v>
+        <v>106.2995226555439</v>
       </c>
       <c r="E19" t="n">
-        <v>6.188832775141717</v>
+        <v>4.616618177292591</v>
       </c>
       <c r="F19" t="n">
-        <v>84.20330292654486</v>
+        <v>83.49473166765414</v>
       </c>
       <c r="G19" t="n">
-        <v>7245.749634241623</v>
+        <v>8799.015991970467</v>
       </c>
       <c r="H19" t="n">
-        <v>136462.5849083168</v>
+        <v>139289.1053011534</v>
       </c>
       <c r="I19" t="n">
-        <v>164694.8873470958</v>
+        <v>179894.9300176396</v>
       </c>
       <c r="J19" t="n">
-        <v>-1747.849795857108</v>
+        <v>-290.1491274539597</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-786.3352324448576</v>
+        <v>-137.7300919108943</v>
       </c>
       <c r="M19" t="n">
-        <v>3.389523243836959</v>
+        <v>1.56972328693077</v>
       </c>
       <c r="N19" t="n">
-        <v>33.83467076107048</v>
+        <v>14.88983846379447</v>
       </c>
       <c r="O19" t="n">
-        <v>3329.114936869754</v>
+        <v>2361.378920044001</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9483009560733722</v>
+        <v>3.190760250597694</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.3180252934286</v>
+        <v>56.96195852663377</v>
       </c>
       <c r="R19" t="n">
-        <v>3884.79181005694</v>
+        <v>5052.502970111347</v>
       </c>
       <c r="S19" t="n">
-        <v>15.21603527674504</v>
+        <v>8.359065781174404</v>
       </c>
       <c r="T19" t="n">
-        <v>115.8051408989582</v>
+        <v>126.3043679376245</v>
       </c>
       <c r="U19" t="n">
-        <v>21249.56865510852</v>
+        <v>9072.454473280082</v>
       </c>
       <c r="V19" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W19" t="n">
         <v>19</v>
       </c>
       <c r="X19" t="n">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.5074814988473784</v>
+        <v>0.1529593497667014</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.4768757569602587</v>
+        <v>0.6287022732929574</v>
       </c>
       <c r="AB19" t="n">
-        <v>325.7846251767172</v>
+        <v>51.80745844467642</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.432785901550637</v>
+        <v>21.59582378880827</v>
       </c>
       <c r="AD19" t="n">
-        <v>40.77526690042675</v>
+        <v>125.1909830373848</v>
       </c>
       <c r="AE19" t="n">
-        <v>5.477254740482312</v>
+        <v>5.160300768728964</v>
       </c>
       <c r="AF19" t="n">
-        <v>75.45751337193508</v>
+        <v>75.60882233408516</v>
       </c>
       <c r="AG19" t="n">
-        <v>7836.011012229155</v>
+        <v>7551.526121216516</v>
       </c>
       <c r="AH19" t="n">
-        <v>150000.4587889755</v>
+        <v>150021.6162879744</v>
       </c>
       <c r="AI19" t="n">
-        <v>150040.4788801981</v>
+        <v>150125.0509778034</v>
       </c>
       <c r="AJ19" t="n">
-        <v>563.9237302845248</v>
+        <v>719.4716736748323</v>
       </c>
       <c r="AK19" t="n">
-        <v>671.0660190404907</v>
+        <v>174.878623278951</v>
       </c>
       <c r="AL19" t="n">
-        <v>643.588199362988</v>
+        <v>1182.160249182032</v>
       </c>
       <c r="AM19" t="n">
-        <v>2.441222287763587</v>
+        <v>-1.621036963666923</v>
       </c>
       <c r="AN19" t="n">
-        <v>-16.48335453235811</v>
+        <v>-42.0721200628393</v>
       </c>
       <c r="AO19" t="n">
-        <v>-555.6768731871855</v>
+        <v>-2691.124050067347</v>
       </c>
     </row>
     <row r="20">
@@ -8051,118 +8051,118 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>104.5623624565006</v>
+        <v>106.5453165403014</v>
       </c>
       <c r="E20" t="n">
-        <v>6.475535503675895</v>
+        <v>4.956925913422555</v>
       </c>
       <c r="F20" t="n">
-        <v>84.92634399686582</v>
+        <v>82.38823206789245</v>
       </c>
       <c r="G20" t="n">
-        <v>6966.660495158281</v>
+        <v>8804.148820362749</v>
       </c>
       <c r="H20" t="n">
-        <v>129896.5358326253</v>
+        <v>135339.372623261</v>
       </c>
       <c r="I20" t="n">
-        <v>171690.5783426957</v>
+        <v>179492.3474102015</v>
       </c>
       <c r="J20" t="n">
-        <v>-1705.264163119503</v>
+        <v>-336.801886187409</v>
       </c>
       <c r="K20" t="n">
-        <v>28.12593467888716</v>
+        <v>12.07929441155155</v>
       </c>
       <c r="L20" t="n">
-        <v>-779.4440162642189</v>
+        <v>-137.7300919108943</v>
       </c>
       <c r="M20" t="n">
-        <v>3.498940010891187</v>
+        <v>1.643596938652033</v>
       </c>
       <c r="N20" t="n">
-        <v>34.52774091854048</v>
+        <v>17.66014272164847</v>
       </c>
       <c r="O20" t="n">
-        <v>3329.114936869754</v>
+        <v>2127.655891696956</v>
       </c>
       <c r="P20" t="n">
-        <v>1.338704511829849</v>
+        <v>3.301831682149591</v>
       </c>
       <c r="Q20" t="n">
-        <v>47.38401140960949</v>
+        <v>57.75830179239154</v>
       </c>
       <c r="R20" t="n">
-        <v>3688.305048964361</v>
+        <v>5297.618263581924</v>
       </c>
       <c r="S20" t="n">
-        <v>16.63944415233978</v>
+        <v>8.891714791090093</v>
       </c>
       <c r="T20" t="n">
-        <v>124.5300650585278</v>
+        <v>144.0452906049836</v>
       </c>
       <c r="U20" t="n">
-        <v>22527.74311193211</v>
+        <v>10446.22112452545</v>
       </c>
       <c r="V20" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W20" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X20" t="n">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.5801427220269432</v>
+        <v>0.1965872497008857</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.5364676401728048</v>
+        <v>0.7772161517584119</v>
       </c>
       <c r="AB20" t="n">
-        <v>325.8899189986162</v>
+        <v>65.08047202211489</v>
       </c>
       <c r="AC20" t="n">
-        <v>11.56341431142305</v>
+        <v>22.02749345788912</v>
       </c>
       <c r="AD20" t="n">
-        <v>40.85008130781353</v>
+        <v>131.4748879400646</v>
       </c>
       <c r="AE20" t="n">
-        <v>5.542371405100932</v>
+        <v>5.205390890407387</v>
       </c>
       <c r="AF20" t="n">
-        <v>75.51247108182001</v>
+        <v>75.74889785390651</v>
       </c>
       <c r="AG20" t="n">
-        <v>7836.125504567348</v>
+        <v>7563.485608182114</v>
       </c>
       <c r="AH20" t="n">
-        <v>150012.7959119929</v>
+        <v>150022.0807391484</v>
       </c>
       <c r="AI20" t="n">
-        <v>150040.5470907753</v>
+        <v>150130.6152704977</v>
       </c>
       <c r="AJ20" t="n">
-        <v>334.2706270989698</v>
+        <v>592.416881068885</v>
       </c>
       <c r="AK20" t="n">
-        <v>493.5919785519711</v>
+        <v>145.9067002325339</v>
       </c>
       <c r="AL20" t="n">
-        <v>138.1842138211846</v>
+        <v>895.6239549194696</v>
       </c>
       <c r="AM20" t="n">
-        <v>2.160235499061337</v>
+        <v>-1.658234743497558</v>
       </c>
       <c r="AN20" t="n">
-        <v>-12.85627049106899</v>
+        <v>-40.09815907074307</v>
       </c>
       <c r="AO20" t="n">
-        <v>-359.1901120946071</v>
+        <v>-3169.96237188497</v>
       </c>
     </row>
     <row r="21">
@@ -8176,118 +8176,118 @@
         <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>104.5623624565006</v>
+        <v>106.5453165403014</v>
       </c>
       <c r="E21" t="n">
-        <v>6.475535503675895</v>
+        <v>4.956925913422555</v>
       </c>
       <c r="F21" t="n">
-        <v>84.92634399686582</v>
+        <v>82.38823206789245</v>
       </c>
       <c r="G21" t="n">
-        <v>6966.660495158281</v>
+        <v>8804.148820362749</v>
       </c>
       <c r="H21" t="n">
-        <v>129896.5358326253</v>
+        <v>135339.372623261</v>
       </c>
       <c r="I21" t="n">
-        <v>171690.5783426957</v>
+        <v>179492.3474102015</v>
       </c>
       <c r="J21" t="n">
-        <v>-1705.264163119503</v>
+        <v>-336.801886187409</v>
       </c>
       <c r="K21" t="n">
-        <v>28.12593467888716</v>
+        <v>12.07929441155155</v>
       </c>
       <c r="L21" t="n">
-        <v>-779.4440162642189</v>
+        <v>-137.7300919108943</v>
       </c>
       <c r="M21" t="n">
-        <v>3.498940010891187</v>
+        <v>1.643596938652033</v>
       </c>
       <c r="N21" t="n">
-        <v>34.52774091854048</v>
+        <v>17.66014272164847</v>
       </c>
       <c r="O21" t="n">
-        <v>3329.114936869754</v>
+        <v>2127.655891696956</v>
       </c>
       <c r="P21" t="n">
-        <v>1.338704511829849</v>
+        <v>3.301831682149591</v>
       </c>
       <c r="Q21" t="n">
-        <v>47.38401140960949</v>
+        <v>57.75830179239154</v>
       </c>
       <c r="R21" t="n">
-        <v>3688.305048964361</v>
+        <v>5297.618263581924</v>
       </c>
       <c r="S21" t="n">
-        <v>16.63944415233978</v>
+        <v>8.891714791090093</v>
       </c>
       <c r="T21" t="n">
-        <v>124.5300650585278</v>
+        <v>144.0452906049836</v>
       </c>
       <c r="U21" t="n">
-        <v>22527.74311193211</v>
+        <v>10446.22112452545</v>
       </c>
       <c r="V21" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W21" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X21" t="n">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.5801427220269432</v>
+        <v>0.1965872497008857</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.5364676401728048</v>
+        <v>0.7772161517584119</v>
       </c>
       <c r="AB21" t="n">
-        <v>325.8899189986162</v>
+        <v>65.08047202211489</v>
       </c>
       <c r="AC21" t="n">
-        <v>11.56341431142305</v>
+        <v>22.02749345788912</v>
       </c>
       <c r="AD21" t="n">
-        <v>40.85008130781353</v>
+        <v>131.4748879400646</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.542371405100932</v>
+        <v>5.205390890407387</v>
       </c>
       <c r="AF21" t="n">
-        <v>75.51247108182001</v>
+        <v>75.74889785390651</v>
       </c>
       <c r="AG21" t="n">
-        <v>7836.125504567348</v>
+        <v>7563.485608182114</v>
       </c>
       <c r="AH21" t="n">
-        <v>150012.7959119929</v>
+        <v>150022.0807391484</v>
       </c>
       <c r="AI21" t="n">
-        <v>150040.5470907753</v>
+        <v>150130.6152704977</v>
       </c>
       <c r="AJ21" t="n">
-        <v>334.2706270989698</v>
+        <v>592.416881068885</v>
       </c>
       <c r="AK21" t="n">
-        <v>493.5919785519711</v>
+        <v>145.9067002325339</v>
       </c>
       <c r="AL21" t="n">
-        <v>138.1842138211846</v>
+        <v>895.6239549194696</v>
       </c>
       <c r="AM21" t="n">
-        <v>2.160235499061337</v>
+        <v>-1.658234743497558</v>
       </c>
       <c r="AN21" t="n">
-        <v>-12.85627049106899</v>
+        <v>-40.09815907074307</v>
       </c>
       <c r="AO21" t="n">
-        <v>-359.1901120946071</v>
+        <v>-3169.96237188497</v>
       </c>
     </row>
     <row r="22">
@@ -8301,118 +8301,118 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>104.7553046647774</v>
+        <v>106.9664400617769</v>
       </c>
       <c r="E22" t="n">
-        <v>6.489892160489587</v>
+        <v>4.974772490994734</v>
       </c>
       <c r="F22" t="n">
-        <v>85.23467562257487</v>
+        <v>83.16764077483255</v>
       </c>
       <c r="G22" t="n">
-        <v>6989.231581554047</v>
+        <v>8804.148820362749</v>
       </c>
       <c r="H22" t="n">
-        <v>129896.5358326253</v>
+        <v>136493.911911472</v>
       </c>
       <c r="I22" t="n">
-        <v>171690.5783426957</v>
+        <v>179492.3474102015</v>
       </c>
       <c r="J22" t="n">
-        <v>-1705.264163119503</v>
+        <v>-336.801886187409</v>
       </c>
       <c r="K22" t="n">
-        <v>28.12593467888716</v>
+        <v>12.07929441155155</v>
       </c>
       <c r="L22" t="n">
-        <v>-779.4440162642189</v>
+        <v>-137.7300919108943</v>
       </c>
       <c r="M22" t="n">
-        <v>3.498940010891187</v>
+        <v>1.643596938652033</v>
       </c>
       <c r="N22" t="n">
-        <v>34.52774091854048</v>
+        <v>17.66014272164847</v>
       </c>
       <c r="O22" t="n">
-        <v>3329.114936869754</v>
+        <v>2127.655891696956</v>
       </c>
       <c r="P22" t="n">
-        <v>1.338704511829849</v>
+        <v>3.301831682149591</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.38401140960949</v>
+        <v>57.75830179239154</v>
       </c>
       <c r="R22" t="n">
-        <v>3688.305048964361</v>
+        <v>5297.618263581924</v>
       </c>
       <c r="S22" t="n">
-        <v>16.63944415233978</v>
+        <v>8.891714791090093</v>
       </c>
       <c r="T22" t="n">
-        <v>124.5300650585278</v>
+        <v>144.0452906049836</v>
       </c>
       <c r="U22" t="n">
-        <v>22527.74311193211</v>
+        <v>10446.22112452545</v>
       </c>
       <c r="V22" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W22" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X22" t="n">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.5804513470219036</v>
+        <v>0.1970225320806949</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.5401316704132325</v>
+        <v>0.7962261202203658</v>
       </c>
       <c r="AB22" t="n">
-        <v>326.4404333009519</v>
+        <v>65.08047202211489</v>
       </c>
       <c r="AC22" t="n">
-        <v>11.56341431142305</v>
+        <v>50.18698829230505</v>
       </c>
       <c r="AD22" t="n">
-        <v>40.85008130781353</v>
+        <v>131.4748879400646</v>
       </c>
       <c r="AE22" t="n">
-        <v>5.542680030095892</v>
+        <v>5.205826172787197</v>
       </c>
       <c r="AF22" t="n">
-        <v>75.51613511206044</v>
+        <v>75.76790782236847</v>
       </c>
       <c r="AG22" t="n">
-        <v>7836.676018869683</v>
+        <v>7563.485608182114</v>
       </c>
       <c r="AH22" t="n">
-        <v>150012.7959119929</v>
+        <v>150050.2402339828</v>
       </c>
       <c r="AI22" t="n">
-        <v>150040.5470907753</v>
+        <v>150130.6152704977</v>
       </c>
       <c r="AJ22" t="n">
-        <v>334.2706270989698</v>
+        <v>592.416881068885</v>
       </c>
       <c r="AK22" t="n">
-        <v>493.5919785519711</v>
+        <v>145.9067002325339</v>
       </c>
       <c r="AL22" t="n">
-        <v>138.1842138211846</v>
+        <v>895.6239549194696</v>
       </c>
       <c r="AM22" t="n">
-        <v>2.160235499061337</v>
+        <v>-1.658234743497558</v>
       </c>
       <c r="AN22" t="n">
-        <v>-12.85627049106899</v>
+        <v>-40.09815907074307</v>
       </c>
       <c r="AO22" t="n">
-        <v>-359.1901120946071</v>
+        <v>-3169.96237188497</v>
       </c>
     </row>
     <row r="23">
@@ -8426,118 +8426,118 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>105.1290295445207</v>
+        <v>107.1951166406952</v>
       </c>
       <c r="E23" t="n">
-        <v>6.579735051792313</v>
+        <v>5.071517610044857</v>
       </c>
       <c r="F23" t="n">
-        <v>86.66624686875116</v>
+        <v>87.47920340617635</v>
       </c>
       <c r="G23" t="n">
-        <v>7073.237276954144</v>
+        <v>8882.111190578802</v>
       </c>
       <c r="H23" t="n">
-        <v>126488.2502916196</v>
+        <v>130816.9607274339</v>
       </c>
       <c r="I23" t="n">
-        <v>172792.1136655809</v>
+        <v>175883.7077259324</v>
       </c>
       <c r="J23" t="n">
-        <v>-2065.766615156058</v>
+        <v>-347.2510634674647</v>
       </c>
       <c r="K23" t="n">
-        <v>28.12593467888716</v>
+        <v>1.635854125226</v>
       </c>
       <c r="L23" t="n">
-        <v>-779.4440162642189</v>
+        <v>-137.7300919108943</v>
       </c>
       <c r="M23" t="n">
-        <v>2.644998133249516</v>
+        <v>1.653352308389339</v>
       </c>
       <c r="N23" t="n">
-        <v>37.95026081595392</v>
+        <v>21.56459463617691</v>
       </c>
       <c r="O23" t="n">
-        <v>3035.375282387977</v>
+        <v>2133.852426079755</v>
       </c>
       <c r="P23" t="n">
-        <v>1.550970911843008</v>
+        <v>3.311042412349094</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.42776973570673</v>
+        <v>57.82440244553927</v>
       </c>
       <c r="R23" t="n">
-        <v>3688.305048964361</v>
+        <v>5297.618263581924</v>
       </c>
       <c r="S23" t="n">
-        <v>18.67395619278295</v>
+        <v>9.425866784524796</v>
       </c>
       <c r="T23" t="n">
-        <v>140.2062063758802</v>
+        <v>156.0969864363324</v>
       </c>
       <c r="U23" t="n">
-        <v>23755.70502328844</v>
+        <v>10610.54160470012</v>
       </c>
       <c r="V23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="W23" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="X23" t="n">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.6586055460656505</v>
+        <v>0.245981166139772</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.8068207529488228</v>
+        <v>0.9279642887717208</v>
       </c>
       <c r="AB23" t="n">
-        <v>342.8379828116658</v>
+        <v>67.664370392137</v>
       </c>
       <c r="AC23" t="n">
-        <v>11.83487417125176</v>
+        <v>50.23444173410721</v>
       </c>
       <c r="AD23" t="n">
-        <v>40.91790294428423</v>
+        <v>131.494751569002</v>
       </c>
       <c r="AE23" t="n">
-        <v>5.61254747815328</v>
+        <v>5.255943885974109</v>
       </c>
       <c r="AF23" t="n">
-        <v>75.75912473641108</v>
+        <v>75.88737777746678</v>
       </c>
       <c r="AG23" t="n">
-        <v>7854.335470742677</v>
+        <v>7565.801294964596</v>
       </c>
       <c r="AH23" t="n">
-        <v>150013.1027129195</v>
+        <v>150050.2925712041</v>
       </c>
       <c r="AI23" t="n">
-        <v>150040.6086613614</v>
+        <v>150130.6330982089</v>
       </c>
       <c r="AJ23" t="n">
-        <v>395.5151560135424</v>
+        <v>886.1093069131379</v>
       </c>
       <c r="AK23" t="n">
-        <v>450.5822644396765</v>
+        <v>657.5394738406615</v>
       </c>
       <c r="AL23" t="n">
-        <v>468.6670738763695</v>
+        <v>822.5517670103823</v>
       </c>
       <c r="AM23" t="n">
-        <v>1.094027221406507</v>
+        <v>-1.657690103959755</v>
       </c>
       <c r="AN23" t="n">
-        <v>-5.477508919752797</v>
+        <v>-36.25980780936236</v>
       </c>
       <c r="AO23" t="n">
-        <v>-652.9297665763839</v>
+        <v>-3163.76583750217</v>
       </c>
     </row>
     <row r="24">
@@ -8551,118 +8551,118 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>105.1290295445207</v>
+        <v>107.1951166406952</v>
       </c>
       <c r="E24" t="n">
-        <v>6.579735051792313</v>
+        <v>5.071517610044857</v>
       </c>
       <c r="F24" t="n">
-        <v>86.66624686875116</v>
+        <v>87.47920340617635</v>
       </c>
       <c r="G24" t="n">
-        <v>7073.237276954144</v>
+        <v>8882.111190578802</v>
       </c>
       <c r="H24" t="n">
-        <v>126488.2502916196</v>
+        <v>130816.9607274339</v>
       </c>
       <c r="I24" t="n">
-        <v>172792.1136655809</v>
+        <v>175883.7077259324</v>
       </c>
       <c r="J24" t="n">
-        <v>-2065.766615156058</v>
+        <v>-347.2510634674647</v>
       </c>
       <c r="K24" t="n">
-        <v>28.12593467888716</v>
+        <v>1.635854125226</v>
       </c>
       <c r="L24" t="n">
-        <v>-779.4440162642189</v>
+        <v>-137.7300919108943</v>
       </c>
       <c r="M24" t="n">
-        <v>2.644998133249516</v>
+        <v>1.653352308389339</v>
       </c>
       <c r="N24" t="n">
-        <v>37.95026081595392</v>
+        <v>21.56459463617691</v>
       </c>
       <c r="O24" t="n">
-        <v>3035.375282387977</v>
+        <v>2133.852426079755</v>
       </c>
       <c r="P24" t="n">
-        <v>1.550970911843008</v>
+        <v>3.311042412349094</v>
       </c>
       <c r="Q24" t="n">
-        <v>43.42776973570673</v>
+        <v>57.82440244553927</v>
       </c>
       <c r="R24" t="n">
-        <v>3688.305048964361</v>
+        <v>5297.618263581924</v>
       </c>
       <c r="S24" t="n">
-        <v>18.67395619278295</v>
+        <v>9.425866784524796</v>
       </c>
       <c r="T24" t="n">
-        <v>140.2062063758802</v>
+        <v>156.0969864363324</v>
       </c>
       <c r="U24" t="n">
-        <v>23755.70502328844</v>
+        <v>10610.54160470012</v>
       </c>
       <c r="V24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="W24" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="X24" t="n">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.6586055460656505</v>
+        <v>0.245981166139772</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.8068207529488228</v>
+        <v>0.9279642887717208</v>
       </c>
       <c r="AB24" t="n">
-        <v>342.8379828116658</v>
+        <v>67.664370392137</v>
       </c>
       <c r="AC24" t="n">
-        <v>11.83487417125176</v>
+        <v>50.23444173410721</v>
       </c>
       <c r="AD24" t="n">
-        <v>40.91790294428423</v>
+        <v>131.494751569002</v>
       </c>
       <c r="AE24" t="n">
-        <v>5.61254747815328</v>
+        <v>5.255943885974109</v>
       </c>
       <c r="AF24" t="n">
-        <v>75.75912473641108</v>
+        <v>75.88737777746678</v>
       </c>
       <c r="AG24" t="n">
-        <v>7854.335470742677</v>
+        <v>7565.801294964596</v>
       </c>
       <c r="AH24" t="n">
-        <v>150013.1027129195</v>
+        <v>150050.2925712041</v>
       </c>
       <c r="AI24" t="n">
-        <v>150040.6086613614</v>
+        <v>150130.6330982089</v>
       </c>
       <c r="AJ24" t="n">
-        <v>395.5151560135424</v>
+        <v>886.1093069131379</v>
       </c>
       <c r="AK24" t="n">
-        <v>450.5822644396765</v>
+        <v>657.5394738406615</v>
       </c>
       <c r="AL24" t="n">
-        <v>468.6670738763695</v>
+        <v>822.5517670103823</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.094027221406507</v>
+        <v>-1.657690103959755</v>
       </c>
       <c r="AN24" t="n">
-        <v>-5.477508919752797</v>
+        <v>-36.25980780936236</v>
       </c>
       <c r="AO24" t="n">
-        <v>-652.9297665763839</v>
+        <v>-3163.76583750217</v>
       </c>
     </row>
     <row r="25">
@@ -8676,118 +8676,118 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>105.521040399197</v>
+        <v>108.3943116506947</v>
       </c>
       <c r="E25" t="n">
-        <v>6.594602410912118</v>
+        <v>5.09077609993195</v>
       </c>
       <c r="F25" t="n">
-        <v>88.00952166756424</v>
+        <v>88.08484963296443</v>
       </c>
       <c r="G25" t="n">
-        <v>7073.237276954144</v>
+        <v>9232.151089759662</v>
       </c>
       <c r="H25" t="n">
-        <v>126488.2502916196</v>
+        <v>130816.9607274339</v>
       </c>
       <c r="I25" t="n">
-        <v>172792.1136655809</v>
+        <v>175888.4946964243</v>
       </c>
       <c r="J25" t="n">
-        <v>-2065.766615156058</v>
+        <v>-347.2510634674647</v>
       </c>
       <c r="K25" t="n">
-        <v>28.12593467888716</v>
+        <v>1.635854125226</v>
       </c>
       <c r="L25" t="n">
-        <v>-779.4440162642189</v>
+        <v>-137.7300919108943</v>
       </c>
       <c r="M25" t="n">
-        <v>2.644998133249516</v>
+        <v>1.653352308389339</v>
       </c>
       <c r="N25" t="n">
-        <v>37.95026081595392</v>
+        <v>21.56459463617691</v>
       </c>
       <c r="O25" t="n">
-        <v>3035.375282387977</v>
+        <v>2133.852426079755</v>
       </c>
       <c r="P25" t="n">
-        <v>1.550970911843008</v>
+        <v>3.311042412349094</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.42776973570673</v>
+        <v>57.82440244553927</v>
       </c>
       <c r="R25" t="n">
-        <v>3688.305048964361</v>
+        <v>5297.618263581924</v>
       </c>
       <c r="S25" t="n">
-        <v>18.67395619278295</v>
+        <v>9.425866784524796</v>
       </c>
       <c r="T25" t="n">
-        <v>140.2062063758802</v>
+        <v>156.0969864363324</v>
       </c>
       <c r="U25" t="n">
-        <v>23755.70502328844</v>
+        <v>10610.54160470012</v>
       </c>
       <c r="V25" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="W25" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="X25" t="n">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.6589332032366946</v>
+        <v>0.2464508854053108</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.8246339004056995</v>
+        <v>0.9357672199019732</v>
       </c>
       <c r="AB25" t="n">
-        <v>342.8379828116658</v>
+        <v>75.74668455631571</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.83487417125176</v>
+        <v>50.23444173410721</v>
       </c>
       <c r="AD25" t="n">
-        <v>40.91790294428423</v>
+        <v>131.5796058230605</v>
       </c>
       <c r="AE25" t="n">
-        <v>5.612875135324323</v>
+        <v>5.256413605239648</v>
       </c>
       <c r="AF25" t="n">
-        <v>75.77693788386796</v>
+        <v>75.89518070859701</v>
       </c>
       <c r="AG25" t="n">
-        <v>7854.335470742677</v>
+        <v>7573.883609128775</v>
       </c>
       <c r="AH25" t="n">
-        <v>150013.1027129195</v>
+        <v>150050.2925712041</v>
       </c>
       <c r="AI25" t="n">
-        <v>150040.6086613614</v>
+        <v>150130.7179524629</v>
       </c>
       <c r="AJ25" t="n">
-        <v>395.5151560135424</v>
+        <v>886.1093069131379</v>
       </c>
       <c r="AK25" t="n">
-        <v>450.5822644396765</v>
+        <v>657.5394738406615</v>
       </c>
       <c r="AL25" t="n">
-        <v>468.6670738763695</v>
+        <v>822.5517670103823</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.094027221406507</v>
+        <v>-1.657690103959755</v>
       </c>
       <c r="AN25" t="n">
-        <v>-5.477508919752797</v>
+        <v>-36.25980780936236</v>
       </c>
       <c r="AO25" t="n">
-        <v>-652.9297665763839</v>
+        <v>-3163.76583750217</v>
       </c>
     </row>
     <row r="26">
@@ -8801,118 +8801,118 @@
         <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>106.1337460868663</v>
+        <v>108.7581813700226</v>
       </c>
       <c r="E26" t="n">
-        <v>6.658994218017538</v>
+        <v>5.098190128618961</v>
       </c>
       <c r="F26" t="n">
-        <v>87.23345021616699</v>
+        <v>88.87622003371396</v>
       </c>
       <c r="G26" t="n">
-        <v>7233.428203365659</v>
+        <v>9345.736021560966</v>
       </c>
       <c r="H26" t="n">
-        <v>120858.2202784197</v>
+        <v>133143.6091148894</v>
       </c>
       <c r="I26" t="n">
-        <v>181089.1620439317</v>
+        <v>173146.513024302</v>
       </c>
       <c r="J26" t="n">
-        <v>-2549.617178645465</v>
+        <v>-453.1021534668865</v>
       </c>
       <c r="K26" t="n">
-        <v>27.25187611565545</v>
+        <v>163.4977670923801</v>
       </c>
       <c r="L26" t="n">
-        <v>-786.3163337542259</v>
+        <v>-204.2089262510808</v>
       </c>
       <c r="M26" t="n">
-        <v>2.610304314394298</v>
+        <v>0.9648950681047247</v>
       </c>
       <c r="N26" t="n">
-        <v>52.20891125965233</v>
+        <v>22.00767996362464</v>
       </c>
       <c r="O26" t="n">
-        <v>1960.45568636983</v>
+        <v>2168.04031784872</v>
       </c>
       <c r="P26" t="n">
-        <v>2.578321733160844</v>
+        <v>3.430363025835736</v>
       </c>
       <c r="Q26" t="n">
-        <v>31.04319913116197</v>
+        <v>57.82440244553927</v>
       </c>
       <c r="R26" t="n">
-        <v>3688.305048964361</v>
+        <v>4679.684026913143</v>
       </c>
       <c r="S26" t="n">
-        <v>20.29746497986192</v>
+        <v>10.40357209685558</v>
       </c>
       <c r="T26" t="n">
-        <v>223.8629858960362</v>
+        <v>157.2932424188009</v>
       </c>
       <c r="U26" t="n">
-        <v>25713.97685940828</v>
+        <v>13613.69838657148</v>
       </c>
       <c r="V26" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="W26" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="X26" t="n">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.706090088851327</v>
+        <v>0.3181589665088905</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.910639071003767</v>
+        <v>0.9555320270876329</v>
       </c>
       <c r="AB26" t="n">
-        <v>410.2828908179885</v>
+        <v>101.6958472659312</v>
       </c>
       <c r="AC26" t="n">
-        <v>12.31004656134916</v>
+        <v>110.0519407887028</v>
       </c>
       <c r="AD26" t="n">
-        <v>41.38039682071768</v>
+        <v>131.6319900650123</v>
       </c>
       <c r="AE26" t="n">
-        <v>5.654966816045505</v>
+        <v>5.330226487064233</v>
       </c>
       <c r="AF26" t="n">
-        <v>76.76846716054821</v>
+        <v>75.91292643163347</v>
       </c>
       <c r="AG26" t="n">
-        <v>7926.202539865151</v>
+        <v>7596.417011115237</v>
       </c>
       <c r="AH26" t="n">
-        <v>150013.6581255038</v>
+        <v>150115.4439990958</v>
       </c>
       <c r="AI26" t="n">
-        <v>150041.0156479791</v>
+        <v>150130.7654624257</v>
       </c>
       <c r="AJ26" t="n">
-        <v>451.8639451752691</v>
+        <v>1033.319421622687</v>
       </c>
       <c r="AK26" t="n">
-        <v>395.9061700215473</v>
+        <v>440.5315073378797</v>
       </c>
       <c r="AL26" t="n">
-        <v>419.6293078381286</v>
+        <v>939.046064785244</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.03198258123345354</v>
+        <v>-2.465467957731012</v>
       </c>
       <c r="AN26" t="n">
-        <v>21.16571212849036</v>
+        <v>-35.81672248191463</v>
       </c>
       <c r="AO26" t="n">
-        <v>-1727.849362594531</v>
+        <v>-2511.643709064424</v>
       </c>
     </row>
     <row r="27">
@@ -8926,118 +8926,118 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>106.1337460868663</v>
+        <v>108.7581813700226</v>
       </c>
       <c r="E27" t="n">
-        <v>6.658994218017538</v>
+        <v>5.098190128618961</v>
       </c>
       <c r="F27" t="n">
-        <v>87.23345021616699</v>
+        <v>88.87622003371396</v>
       </c>
       <c r="G27" t="n">
-        <v>7233.428203365659</v>
+        <v>9345.736021560966</v>
       </c>
       <c r="H27" t="n">
-        <v>120858.2202784197</v>
+        <v>133143.6091148894</v>
       </c>
       <c r="I27" t="n">
-        <v>181089.1620439317</v>
+        <v>173146.513024302</v>
       </c>
       <c r="J27" t="n">
-        <v>-2549.617178645465</v>
+        <v>-453.1021534668865</v>
       </c>
       <c r="K27" t="n">
-        <v>27.25187611565545</v>
+        <v>163.4977670923801</v>
       </c>
       <c r="L27" t="n">
-        <v>-786.3163337542259</v>
+        <v>-204.2089262510808</v>
       </c>
       <c r="M27" t="n">
-        <v>2.610304314394298</v>
+        <v>0.9648950681047247</v>
       </c>
       <c r="N27" t="n">
-        <v>52.20891125965233</v>
+        <v>22.00767996362464</v>
       </c>
       <c r="O27" t="n">
-        <v>1960.45568636983</v>
+        <v>2168.04031784872</v>
       </c>
       <c r="P27" t="n">
-        <v>2.578321733160844</v>
+        <v>3.430363025835736</v>
       </c>
       <c r="Q27" t="n">
-        <v>31.04319913116197</v>
+        <v>57.82440244553927</v>
       </c>
       <c r="R27" t="n">
-        <v>3688.305048964361</v>
+        <v>4679.684026913143</v>
       </c>
       <c r="S27" t="n">
-        <v>20.29746497986192</v>
+        <v>10.40357209685558</v>
       </c>
       <c r="T27" t="n">
-        <v>223.8629858960362</v>
+        <v>157.2932424188009</v>
       </c>
       <c r="U27" t="n">
-        <v>25713.97685940828</v>
+        <v>13613.69838657148</v>
       </c>
       <c r="V27" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="W27" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="X27" t="n">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.706090088851327</v>
+        <v>0.3181589665088905</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.910639071003767</v>
+        <v>0.9555320270876329</v>
       </c>
       <c r="AB27" t="n">
-        <v>410.2828908179885</v>
+        <v>101.6958472659312</v>
       </c>
       <c r="AC27" t="n">
-        <v>12.31004656134916</v>
+        <v>110.0519407887028</v>
       </c>
       <c r="AD27" t="n">
-        <v>41.38039682071768</v>
+        <v>131.6319900650123</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.654966816045505</v>
+        <v>5.330226487064233</v>
       </c>
       <c r="AF27" t="n">
-        <v>76.76846716054821</v>
+        <v>75.91292643163347</v>
       </c>
       <c r="AG27" t="n">
-        <v>7926.202539865151</v>
+        <v>7596.417011115237</v>
       </c>
       <c r="AH27" t="n">
-        <v>150013.6581255038</v>
+        <v>150115.4439990958</v>
       </c>
       <c r="AI27" t="n">
-        <v>150041.0156479791</v>
+        <v>150130.7654624257</v>
       </c>
       <c r="AJ27" t="n">
-        <v>451.8639451752691</v>
+        <v>1033.319421622687</v>
       </c>
       <c r="AK27" t="n">
-        <v>395.9061700215473</v>
+        <v>440.5315073378797</v>
       </c>
       <c r="AL27" t="n">
-        <v>419.6293078381286</v>
+        <v>939.046064785244</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.03198258123345354</v>
+        <v>-2.465467957731012</v>
       </c>
       <c r="AN27" t="n">
-        <v>21.16571212849036</v>
+        <v>-35.81672248191463</v>
       </c>
       <c r="AO27" t="n">
-        <v>-1727.849362594531</v>
+        <v>-2511.643709064424</v>
       </c>
     </row>
     <row r="28">
@@ -9051,118 +9051,118 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>107.4932150231984</v>
+        <v>108.8848120854947</v>
       </c>
       <c r="E28" t="n">
-        <v>6.667598919646493</v>
+        <v>5.125766611862722</v>
       </c>
       <c r="F28" t="n">
-        <v>92.17135164634169</v>
+        <v>88.95854156407539</v>
       </c>
       <c r="G28" t="n">
-        <v>7233.428203365659</v>
+        <v>9345.736021560966</v>
       </c>
       <c r="H28" t="n">
-        <v>121144.2111730714</v>
+        <v>133143.6091148894</v>
       </c>
       <c r="I28" t="n">
-        <v>181494.409405366</v>
+        <v>173166.5084259908</v>
       </c>
       <c r="J28" t="n">
-        <v>-2549.617178645465</v>
+        <v>-453.1021534668865</v>
       </c>
       <c r="K28" t="n">
-        <v>27.25187611565545</v>
+        <v>163.4977670923801</v>
       </c>
       <c r="L28" t="n">
-        <v>-786.3163337542259</v>
+        <v>-204.2089262510808</v>
       </c>
       <c r="M28" t="n">
-        <v>2.610304314394298</v>
+        <v>0.9648950681047247</v>
       </c>
       <c r="N28" t="n">
-        <v>52.20891125965233</v>
+        <v>22.00767996362464</v>
       </c>
       <c r="O28" t="n">
-        <v>1960.45568636983</v>
+        <v>2168.04031784872</v>
       </c>
       <c r="P28" t="n">
-        <v>2.578321733160844</v>
+        <v>3.430363025835736</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.04319913116197</v>
+        <v>57.82440244553927</v>
       </c>
       <c r="R28" t="n">
-        <v>3688.305048964361</v>
+        <v>4679.684026913143</v>
       </c>
       <c r="S28" t="n">
-        <v>20.29746497986192</v>
+        <v>10.40357209685558</v>
       </c>
       <c r="T28" t="n">
-        <v>223.8629858960362</v>
+        <v>157.2932424188009</v>
       </c>
       <c r="U28" t="n">
-        <v>25713.97685940828</v>
+        <v>13613.69838657148</v>
       </c>
       <c r="V28" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="W28" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="X28" t="n">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.7062762788720354</v>
+        <v>0.3188315636611773</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.981077714539664</v>
+        <v>0.9566069829382592</v>
       </c>
       <c r="AB28" t="n">
-        <v>410.2828908179885</v>
+        <v>101.6958472659312</v>
       </c>
       <c r="AC28" t="n">
-        <v>19.28543423577922</v>
+        <v>110.0519407887028</v>
       </c>
       <c r="AD28" t="n">
-        <v>49.39373269628367</v>
+        <v>131.9354101010163</v>
       </c>
       <c r="AE28" t="n">
-        <v>5.655153006066213</v>
+        <v>5.33089908421652</v>
       </c>
       <c r="AF28" t="n">
-        <v>76.83890580408411</v>
+        <v>75.91400138748411</v>
       </c>
       <c r="AG28" t="n">
-        <v>7926.202539865151</v>
+        <v>7596.417011115237</v>
       </c>
       <c r="AH28" t="n">
-        <v>150020.6335131783</v>
+        <v>150115.4439990958</v>
       </c>
       <c r="AI28" t="n">
-        <v>150049.0289838547</v>
+        <v>150131.0688824617</v>
       </c>
       <c r="AJ28" t="n">
-        <v>451.8639451752691</v>
+        <v>1033.319421622687</v>
       </c>
       <c r="AK28" t="n">
-        <v>395.9061700215473</v>
+        <v>440.5315073378797</v>
       </c>
       <c r="AL28" t="n">
-        <v>419.6293078381286</v>
+        <v>939.046064785244</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.03198258123345354</v>
+        <v>-2.465467957731012</v>
       </c>
       <c r="AN28" t="n">
-        <v>21.16571212849036</v>
+        <v>-35.81672248191463</v>
       </c>
       <c r="AO28" t="n">
-        <v>-1727.849362594531</v>
+        <v>-2511.643709064424</v>
       </c>
     </row>
     <row r="29">
@@ -9176,118 +9176,118 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>108.0254814182334</v>
+        <v>109.1342114905554</v>
       </c>
       <c r="E29" t="n">
-        <v>6.797108747363052</v>
+        <v>5.176615303981092</v>
       </c>
       <c r="F29" t="n">
-        <v>95.88812046216367</v>
+        <v>91.11170356818458</v>
       </c>
       <c r="G29" t="n">
-        <v>7336.057457369185</v>
+        <v>9103.165830461832</v>
       </c>
       <c r="H29" t="n">
-        <v>122924.7122814879</v>
+        <v>135710.6470349164</v>
       </c>
       <c r="I29" t="n">
-        <v>172898.3291942231</v>
+        <v>172364.159464509</v>
       </c>
       <c r="J29" t="n">
-        <v>-2598.148992851468</v>
+        <v>-566.7428225865381</v>
       </c>
       <c r="K29" t="n">
-        <v>109.3362726595455</v>
+        <v>154.1693038294664</v>
       </c>
       <c r="L29" t="n">
-        <v>-786.3163337542259</v>
+        <v>-204.2089262510808</v>
       </c>
       <c r="M29" t="n">
-        <v>0.9495036312630152</v>
+        <v>0.5528926238621457</v>
       </c>
       <c r="N29" t="n">
-        <v>54.31190029517229</v>
+        <v>21.71896965302037</v>
       </c>
       <c r="O29" t="n">
-        <v>3969.486198698623</v>
+        <v>2606.199751414691</v>
       </c>
       <c r="P29" t="n">
-        <v>2.070383608399534</v>
+        <v>4.547551650525914</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.47361517009962</v>
+        <v>57.14161722067352</v>
       </c>
       <c r="R29" t="n">
-        <v>2750.336715780114</v>
+        <v>5334.459630067157</v>
       </c>
       <c r="S29" t="n">
-        <v>23.31067307031432</v>
+        <v>12.43794073661344</v>
       </c>
       <c r="T29" t="n">
-        <v>242.7657055573052</v>
+        <v>176.8155256781495</v>
       </c>
       <c r="U29" t="n">
-        <v>29899.81039502742</v>
+        <v>15345.65827494581</v>
       </c>
       <c r="V29" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W29" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="X29" t="n">
-        <v>336</v>
+        <v>166</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.8123245887277115</v>
+        <v>0.3562290602287929</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.089730645051387</v>
+        <v>1.235324461498784</v>
       </c>
       <c r="AB29" t="n">
-        <v>460.3712247622585</v>
+        <v>115.3641434945949</v>
       </c>
       <c r="AC29" t="n">
-        <v>54.64212190008327</v>
+        <v>110.0916919629839</v>
       </c>
       <c r="AD29" t="n">
-        <v>79.27613135293443</v>
+        <v>132.2090520187656</v>
       </c>
       <c r="AE29" t="n">
-        <v>5.749318466767431</v>
+        <v>5.369222182951314</v>
       </c>
       <c r="AF29" t="n">
-        <v>76.93249258687113</v>
+        <v>76.16048589064285</v>
       </c>
       <c r="AG29" t="n">
-        <v>7979.309626110965</v>
+        <v>7608.510099016507</v>
       </c>
       <c r="AH29" t="n">
-        <v>150061.4531374959</v>
+        <v>150115.4867038061</v>
       </c>
       <c r="AI29" t="n">
-        <v>150076.148957581</v>
+        <v>150131.3178167776</v>
       </c>
       <c r="AJ29" t="n">
-        <v>143.2850470822776</v>
+        <v>880.4559925680576</v>
       </c>
       <c r="AK29" t="n">
-        <v>-123.3547486702244</v>
+        <v>115.311990409489</v>
       </c>
       <c r="AL29" t="n">
-        <v>-29.26116227374487</v>
+        <v>568.2983967719695</v>
       </c>
       <c r="AM29" t="n">
-        <v>-1.12087997713652</v>
+        <v>-3.99465902666377</v>
       </c>
       <c r="AN29" t="n">
-        <v>12.83828512507268</v>
+        <v>-35.42264756765315</v>
       </c>
       <c r="AO29" t="n">
-        <v>1219.149482918509</v>
+        <v>-2728.259878652469</v>
       </c>
     </row>
     <row r="30">
@@ -9301,118 +9301,118 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>108.0254814182334</v>
+        <v>109.1342114905554</v>
       </c>
       <c r="E30" t="n">
-        <v>6.797108747363052</v>
+        <v>5.176615303981092</v>
       </c>
       <c r="F30" t="n">
-        <v>95.88812046216367</v>
+        <v>91.11170356818458</v>
       </c>
       <c r="G30" t="n">
-        <v>7336.057457369185</v>
+        <v>9103.165830461832</v>
       </c>
       <c r="H30" t="n">
-        <v>122924.7122814879</v>
+        <v>135710.6470349164</v>
       </c>
       <c r="I30" t="n">
-        <v>172898.3291942231</v>
+        <v>172364.159464509</v>
       </c>
       <c r="J30" t="n">
-        <v>-2598.148992851468</v>
+        <v>-566.7428225865381</v>
       </c>
       <c r="K30" t="n">
-        <v>109.3362726595455</v>
+        <v>154.1693038294664</v>
       </c>
       <c r="L30" t="n">
-        <v>-786.3163337542259</v>
+        <v>-204.2089262510808</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9495036312630152</v>
+        <v>0.5528926238621457</v>
       </c>
       <c r="N30" t="n">
-        <v>54.31190029517229</v>
+        <v>21.71896965302037</v>
       </c>
       <c r="O30" t="n">
-        <v>3969.486198698623</v>
+        <v>2606.199751414691</v>
       </c>
       <c r="P30" t="n">
-        <v>2.070383608399534</v>
+        <v>4.547551650525914</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.47361517009962</v>
+        <v>57.14161722067352</v>
       </c>
       <c r="R30" t="n">
-        <v>2750.336715780114</v>
+        <v>5334.459630067157</v>
       </c>
       <c r="S30" t="n">
-        <v>23.31067307031432</v>
+        <v>12.43794073661344</v>
       </c>
       <c r="T30" t="n">
-        <v>242.7657055573052</v>
+        <v>176.8155256781495</v>
       </c>
       <c r="U30" t="n">
-        <v>29899.81039502742</v>
+        <v>15345.65827494581</v>
       </c>
       <c r="V30" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W30" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="X30" t="n">
-        <v>336</v>
+        <v>166</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.8123245887277115</v>
+        <v>0.3562290602287929</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.089730645051387</v>
+        <v>1.235324461498784</v>
       </c>
       <c r="AB30" t="n">
-        <v>460.3712247622585</v>
+        <v>115.3641434945949</v>
       </c>
       <c r="AC30" t="n">
-        <v>54.64212190008327</v>
+        <v>110.0916919629839</v>
       </c>
       <c r="AD30" t="n">
-        <v>79.27613135293443</v>
+        <v>132.2090520187656</v>
       </c>
       <c r="AE30" t="n">
-        <v>5.749318466767431</v>
+        <v>5.369222182951314</v>
       </c>
       <c r="AF30" t="n">
-        <v>76.93249258687113</v>
+        <v>76.16048589064285</v>
       </c>
       <c r="AG30" t="n">
-        <v>7979.309626110965</v>
+        <v>7608.510099016507</v>
       </c>
       <c r="AH30" t="n">
-        <v>150061.4531374959</v>
+        <v>150115.4867038061</v>
       </c>
       <c r="AI30" t="n">
-        <v>150076.148957581</v>
+        <v>150131.3178167776</v>
       </c>
       <c r="AJ30" t="n">
-        <v>143.2850470822776</v>
+        <v>880.4559925680576</v>
       </c>
       <c r="AK30" t="n">
-        <v>-123.3547486702244</v>
+        <v>115.311990409489</v>
       </c>
       <c r="AL30" t="n">
-        <v>-29.26116227374487</v>
+        <v>568.2983967719695</v>
       </c>
       <c r="AM30" t="n">
-        <v>-1.12087997713652</v>
+        <v>-3.99465902666377</v>
       </c>
       <c r="AN30" t="n">
-        <v>12.83828512507268</v>
+        <v>-35.42264756765315</v>
       </c>
       <c r="AO30" t="n">
-        <v>1219.149482918509</v>
+        <v>-2728.259878652469</v>
       </c>
     </row>
     <row r="31">
@@ -9426,118 +9426,118 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>108.159854033805</v>
+        <v>109.4987489017061</v>
       </c>
       <c r="E31" t="n">
-        <v>6.815873621557748</v>
+        <v>5.190241140939259</v>
       </c>
       <c r="F31" t="n">
-        <v>96.14946673816924</v>
+        <v>92.28010455685018</v>
       </c>
       <c r="G31" t="n">
-        <v>7336.057457369185</v>
+        <v>9103.165830461832</v>
       </c>
       <c r="H31" t="n">
-        <v>122924.7122814879</v>
+        <v>135710.6470349164</v>
       </c>
       <c r="I31" t="n">
-        <v>172898.3291942231</v>
+        <v>172484.9680500196</v>
       </c>
       <c r="J31" t="n">
-        <v>-2598.148992851468</v>
+        <v>-566.7428225865381</v>
       </c>
       <c r="K31" t="n">
-        <v>109.3362726595455</v>
+        <v>154.1693038294664</v>
       </c>
       <c r="L31" t="n">
-        <v>-786.3163337542259</v>
+        <v>-204.2089262510808</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9495036312630152</v>
+        <v>0.5528926238621457</v>
       </c>
       <c r="N31" t="n">
-        <v>54.31190029517229</v>
+        <v>21.71896965302037</v>
       </c>
       <c r="O31" t="n">
-        <v>3969.486198698623</v>
+        <v>2606.199751414691</v>
       </c>
       <c r="P31" t="n">
-        <v>2.070383608399534</v>
+        <v>4.547551650525914</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.47361517009962</v>
+        <v>57.14161722067352</v>
       </c>
       <c r="R31" t="n">
-        <v>2750.336715780114</v>
+        <v>5334.459630067157</v>
       </c>
       <c r="S31" t="n">
-        <v>23.31067307031432</v>
+        <v>12.43794073661344</v>
       </c>
       <c r="T31" t="n">
-        <v>242.7657055573052</v>
+        <v>176.8155256781495</v>
       </c>
       <c r="U31" t="n">
-        <v>29899.81039502742</v>
+        <v>15345.65827494581</v>
       </c>
       <c r="V31" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W31" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="X31" t="n">
-        <v>336</v>
+        <v>166</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.8127402603373357</v>
+        <v>0.3565613977155774</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.094624040628608</v>
+        <v>1.253224854616867</v>
       </c>
       <c r="AB31" t="n">
-        <v>460.3712247622585</v>
+        <v>115.3641434945949</v>
       </c>
       <c r="AC31" t="n">
-        <v>54.64212190008327</v>
+        <v>110.0916919629839</v>
       </c>
       <c r="AD31" t="n">
-        <v>79.27613135293443</v>
+        <v>133.9572800142575</v>
       </c>
       <c r="AE31" t="n">
-        <v>5.749734138377056</v>
+        <v>5.369554520438099</v>
       </c>
       <c r="AF31" t="n">
-        <v>76.93738598244836</v>
+        <v>76.17838628376096</v>
       </c>
       <c r="AG31" t="n">
-        <v>7979.309626110965</v>
+        <v>7608.510099016507</v>
       </c>
       <c r="AH31" t="n">
-        <v>150061.4531374959</v>
+        <v>150115.4867038061</v>
       </c>
       <c r="AI31" t="n">
-        <v>150076.148957581</v>
+        <v>150133.0660447731</v>
       </c>
       <c r="AJ31" t="n">
-        <v>143.2850470822776</v>
+        <v>880.4559925680576</v>
       </c>
       <c r="AK31" t="n">
-        <v>-123.3547486702244</v>
+        <v>115.311990409489</v>
       </c>
       <c r="AL31" t="n">
-        <v>-29.26116227374487</v>
+        <v>568.2983967719695</v>
       </c>
       <c r="AM31" t="n">
-        <v>-1.12087997713652</v>
+        <v>-3.99465902666377</v>
       </c>
       <c r="AN31" t="n">
-        <v>12.83828512507268</v>
+        <v>-35.42264756765315</v>
       </c>
       <c r="AO31" t="n">
-        <v>1219.149482918509</v>
+        <v>-2728.259878652469</v>
       </c>
     </row>
     <row r="32">
@@ -9551,118 +9551,118 @@
         <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>108.4580371423007</v>
+        <v>109.7003203911764</v>
       </c>
       <c r="E32" t="n">
-        <v>6.933556076335752</v>
+        <v>5.282114417098753</v>
       </c>
       <c r="F32" t="n">
-        <v>96.12313013725513</v>
+        <v>93.09138778538333</v>
       </c>
       <c r="G32" t="n">
-        <v>7120.105552864122</v>
+        <v>9039.333945140677</v>
       </c>
       <c r="H32" t="n">
-        <v>127879.0790839742</v>
+        <v>131559.7446790495</v>
       </c>
       <c r="I32" t="n">
-        <v>173702.573432149</v>
+        <v>176143.6193898306</v>
       </c>
       <c r="J32" t="n">
-        <v>-2597.11199371415</v>
+        <v>-145.7781223326163</v>
       </c>
       <c r="K32" t="n">
-        <v>109.3362726595455</v>
+        <v>418.9092970449603</v>
       </c>
       <c r="L32" t="n">
-        <v>-786.3163337542259</v>
+        <v>-204.2089262510808</v>
       </c>
       <c r="M32" t="n">
-        <v>1.633137651692947</v>
+        <v>0.6551359199195305</v>
       </c>
       <c r="N32" t="n">
-        <v>54.40048726588251</v>
+        <v>30.04522650121256</v>
       </c>
       <c r="O32" t="n">
-        <v>4386.630926159241</v>
+        <v>2606.604091938812</v>
       </c>
       <c r="P32" t="n">
-        <v>2.309498759355312</v>
+        <v>4.531461803098673</v>
       </c>
       <c r="Q32" t="n">
-        <v>41.47361517009962</v>
+        <v>57.3935916372839</v>
       </c>
       <c r="R32" t="n">
-        <v>2750.336715780114</v>
+        <v>1890.454639808062</v>
       </c>
       <c r="S32" t="n">
-        <v>24.90146205610501</v>
+        <v>12.59687417317053</v>
       </c>
       <c r="T32" t="n">
-        <v>244.8777556665615</v>
+        <v>186.4846262220847</v>
       </c>
       <c r="U32" t="n">
-        <v>30739.33211462224</v>
+        <v>18988.74818596078</v>
       </c>
       <c r="V32" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="W32" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="X32" t="n">
-        <v>359</v>
+        <v>185</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.8887658499625383</v>
+        <v>0.3978849834730046</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.167147160611724</v>
+        <v>1.29775771776444</v>
       </c>
       <c r="AB32" t="n">
-        <v>470.5220943605112</v>
+        <v>115.4278622929554</v>
       </c>
       <c r="AC32" t="n">
-        <v>54.65156753551004</v>
+        <v>321.9929019215176</v>
       </c>
       <c r="AD32" t="n">
-        <v>79.31341200761305</v>
+        <v>135.6777450578755</v>
       </c>
       <c r="AE32" t="n">
-        <v>5.816967356987369</v>
+        <v>5.411527005317279</v>
       </c>
       <c r="AF32" t="n">
-        <v>76.99979569611968</v>
+        <v>76.21726315144865</v>
       </c>
       <c r="AG32" t="n">
-        <v>7990.326901183623</v>
+        <v>7608.566757829382</v>
       </c>
       <c r="AH32" t="n">
-        <v>150061.463730064</v>
+        <v>150348.5302979825</v>
       </c>
       <c r="AI32" t="n">
-        <v>150076.1826886885</v>
+        <v>150134.6086771999</v>
       </c>
       <c r="AJ32" t="n">
-        <v>398.6965259367187</v>
+        <v>1336.313817573414</v>
       </c>
       <c r="AK32" t="n">
-        <v>106.9109482651543</v>
+        <v>336.3283433595865</v>
       </c>
       <c r="AL32" t="n">
-        <v>-153.5801815200925</v>
+        <v>329.9708005620618</v>
       </c>
       <c r="AM32" t="n">
-        <v>-0.6763611076623652</v>
+        <v>-3.876325883179144</v>
       </c>
       <c r="AN32" t="n">
-        <v>12.9268720957829</v>
+        <v>-27.34836513607133</v>
       </c>
       <c r="AO32" t="n">
-        <v>1636.294210379127</v>
+        <v>716.1494521307479</v>
       </c>
     </row>
     <row r="33">
@@ -9676,118 +9676,118 @@
         <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>108.4580371423007</v>
+        <v>109.7003203911764</v>
       </c>
       <c r="E33" t="n">
-        <v>6.933556076335752</v>
+        <v>5.282114417098753</v>
       </c>
       <c r="F33" t="n">
-        <v>96.12313013725513</v>
+        <v>93.09138778538333</v>
       </c>
       <c r="G33" t="n">
-        <v>7120.105552864122</v>
+        <v>9039.333945140677</v>
       </c>
       <c r="H33" t="n">
-        <v>127879.0790839742</v>
+        <v>131559.7446790495</v>
       </c>
       <c r="I33" t="n">
-        <v>173702.573432149</v>
+        <v>176143.6193898306</v>
       </c>
       <c r="J33" t="n">
-        <v>-2597.11199371415</v>
+        <v>-145.7781223326163</v>
       </c>
       <c r="K33" t="n">
-        <v>109.3362726595455</v>
+        <v>418.9092970449603</v>
       </c>
       <c r="L33" t="n">
-        <v>-786.3163337542259</v>
+        <v>-204.2089262510808</v>
       </c>
       <c r="M33" t="n">
-        <v>1.633137651692947</v>
+        <v>0.6551359199195305</v>
       </c>
       <c r="N33" t="n">
-        <v>54.40048726588251</v>
+        <v>30.04522650121256</v>
       </c>
       <c r="O33" t="n">
-        <v>4386.630926159241</v>
+        <v>2606.604091938812</v>
       </c>
       <c r="P33" t="n">
-        <v>2.309498759355312</v>
+        <v>4.531461803098673</v>
       </c>
       <c r="Q33" t="n">
-        <v>41.47361517009962</v>
+        <v>57.3935916372839</v>
       </c>
       <c r="R33" t="n">
-        <v>2750.336715780114</v>
+        <v>1890.454639808062</v>
       </c>
       <c r="S33" t="n">
-        <v>24.90146205610501</v>
+        <v>12.59687417317053</v>
       </c>
       <c r="T33" t="n">
-        <v>244.8777556665615</v>
+        <v>186.4846262220847</v>
       </c>
       <c r="U33" t="n">
-        <v>30739.33211462224</v>
+        <v>18988.74818596078</v>
       </c>
       <c r="V33" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="W33" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="X33" t="n">
-        <v>359</v>
+        <v>185</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.8887658499625383</v>
+        <v>0.3978849834730046</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.167147160611724</v>
+        <v>1.29775771776444</v>
       </c>
       <c r="AB33" t="n">
-        <v>470.5220943605112</v>
+        <v>115.4278622929554</v>
       </c>
       <c r="AC33" t="n">
-        <v>54.65156753551004</v>
+        <v>321.9929019215176</v>
       </c>
       <c r="AD33" t="n">
-        <v>79.31341200761305</v>
+        <v>135.6777450578755</v>
       </c>
       <c r="AE33" t="n">
-        <v>5.816967356987369</v>
+        <v>5.411527005317279</v>
       </c>
       <c r="AF33" t="n">
-        <v>76.99979569611968</v>
+        <v>76.21726315144865</v>
       </c>
       <c r="AG33" t="n">
-        <v>7990.326901183623</v>
+        <v>7608.566757829382</v>
       </c>
       <c r="AH33" t="n">
-        <v>150061.463730064</v>
+        <v>150348.5302979825</v>
       </c>
       <c r="AI33" t="n">
-        <v>150076.1826886885</v>
+        <v>150134.6086771999</v>
       </c>
       <c r="AJ33" t="n">
-        <v>398.6965259367187</v>
+        <v>1336.313817573414</v>
       </c>
       <c r="AK33" t="n">
-        <v>106.9109482651543</v>
+        <v>336.3283433595865</v>
       </c>
       <c r="AL33" t="n">
-        <v>-153.5801815200925</v>
+        <v>329.9708005620618</v>
       </c>
       <c r="AM33" t="n">
-        <v>-0.6763611076623652</v>
+        <v>-3.876325883179144</v>
       </c>
       <c r="AN33" t="n">
-        <v>12.9268720957829</v>
+        <v>-27.34836513607133</v>
       </c>
       <c r="AO33" t="n">
-        <v>1636.294210379127</v>
+        <v>716.1494521307479</v>
       </c>
     </row>
   </sheetData>

--- a/run.xlsx
+++ b/run.xlsx
@@ -5885,17 +5885,17 @@
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>pool_pnl_btc</t>
+          <t>pool_open_pnl_btc</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>pool_pnl_eth</t>
+          <t>pool_open_pnl_eth</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>pool_pnl_sol</t>
+          <t>pool_open_pnl_sol</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
@@ -5920,28 +5920,28 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="H3" t="n">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="I3" t="n">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -6007,19 +6007,19 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="AH3" t="n">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="AI3" t="n">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -6045,28 +6045,28 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="H4" t="n">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="I4" t="n">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -6132,19 +6132,19 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF4" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="AH4" t="n">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="AI4" t="n">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
@@ -6170,28 +6170,28 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>100.1311031549707</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>4.774365335751956</v>
+        <v>0.9868655866026561</v>
       </c>
       <c r="F5" t="n">
-        <v>74.15477082793311</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>7545.09015577824</v>
+        <v>1500</v>
       </c>
       <c r="H5" t="n">
-        <v>152042.7961906446</v>
+        <v>30000</v>
       </c>
       <c r="I5" t="n">
-        <v>156926.9522805467</v>
+        <v>30514.38803374478</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -6203,91 +6203,91 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.600963078257559</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="O5" t="n">
-        <v>123.471195063976</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3.022480634487379</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.136184772035691</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>4680.368782951424</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>5.091125216180465</v>
+        <v>0.01908094073799865</v>
       </c>
       <c r="T5" t="n">
-        <v>9.208326886425391</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="U5" t="n">
-        <v>5249.749146647005</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.03145840517031585</v>
+        <v>0.005108512528815376</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.02587127820296721</v>
+        <v>0.0004036815296313987</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2261497971041629</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.06171478503464616</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.02568335713765304</v>
+        <v>0.005240377076574677</v>
       </c>
       <c r="AE5" t="n">
-        <v>5.032611587134905</v>
+        <v>1.005150552470514</v>
       </c>
       <c r="AF5" t="n">
-        <v>75.02608222436835</v>
+        <v>15.00040367924821</v>
       </c>
       <c r="AG5" t="n">
-        <v>7500.225207034629</v>
+        <v>1500</v>
       </c>
       <c r="AH5" t="n">
-        <v>150000.0611343715</v>
+        <v>30000</v>
       </c>
       <c r="AI5" t="n">
-        <v>150000.0248897721</v>
+        <v>30000.00517854012</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10.38446040172701</v>
+        <v>0.002277540482484546</v>
       </c>
       <c r="AK5" t="n">
-        <v>8.8461610185166</v>
+        <v>2.552981005966018</v>
       </c>
       <c r="AL5" t="n">
-        <v>-76.19180843507667</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>-1.42151755622982</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="AN5" t="n">
-        <v>-4.136184772035691</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="AO5" t="n">
-        <v>-4556.897587887448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6295,28 +6295,28 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>100.1311031549707</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>4.774365335751956</v>
+        <v>0.9868655866026561</v>
       </c>
       <c r="F6" t="n">
-        <v>74.15477082793311</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>7545.09015577824</v>
+        <v>1500</v>
       </c>
       <c r="H6" t="n">
-        <v>152042.7961906446</v>
+        <v>30000</v>
       </c>
       <c r="I6" t="n">
-        <v>156926.9522805467</v>
+        <v>30514.38803374478</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -6328,91 +6328,91 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.600963078257559</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="O6" t="n">
-        <v>123.471195063976</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>3.022480634487379</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.136184772035691</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4680.368782951424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>5.091125216180465</v>
+        <v>0.01908094073799865</v>
       </c>
       <c r="T6" t="n">
-        <v>9.208326886425391</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="U6" t="n">
-        <v>5249.749146647005</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.03145840517031585</v>
+        <v>0.005108512528815376</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.02587127820296721</v>
+        <v>0.0004036815296313987</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.2261497971041629</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.06171478503464616</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.02568335713765304</v>
+        <v>0.005240377076574677</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.032611587134905</v>
+        <v>1.005150552470514</v>
       </c>
       <c r="AF6" t="n">
-        <v>75.02608222436835</v>
+        <v>15.00040367924821</v>
       </c>
       <c r="AG6" t="n">
-        <v>7500.225207034629</v>
+        <v>1500</v>
       </c>
       <c r="AH6" t="n">
-        <v>150000.0611343715</v>
+        <v>30000</v>
       </c>
       <c r="AI6" t="n">
-        <v>150000.0248897721</v>
+        <v>30000.00517854012</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.38446040172701</v>
+        <v>0.002277540482484546</v>
       </c>
       <c r="AK6" t="n">
-        <v>8.8461610185166</v>
+        <v>2.552981005966018</v>
       </c>
       <c r="AL6" t="n">
-        <v>-76.19180843507667</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>-1.42151755622982</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="AN6" t="n">
-        <v>-4.136184772035691</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="AO6" t="n">
-        <v>-4556.897587887448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6420,28 +6420,28 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>100.5223824774605</v>
+        <v>100.0141656496659</v>
       </c>
       <c r="E7" t="n">
-        <v>4.788607036511766</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F7" t="n">
-        <v>74.3432842845281</v>
+        <v>15.00164160912757</v>
       </c>
       <c r="G7" t="n">
-        <v>7646.967887865975</v>
+        <v>1500</v>
       </c>
       <c r="H7" t="n">
-        <v>152042.7961906446</v>
+        <v>30000</v>
       </c>
       <c r="I7" t="n">
-        <v>156943.7843086506</v>
+        <v>30514.38803374478</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -6453,91 +6453,91 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.600963078257559</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="O7" t="n">
-        <v>123.471195063976</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3.022480634487379</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.136184772035691</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>4680.368782951424</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5.091125216180465</v>
+        <v>0.01908094073799865</v>
       </c>
       <c r="T7" t="n">
-        <v>9.208326886425391</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="U7" t="n">
-        <v>5249.749146647005</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.03180576372543314</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03046916738821044</v>
+        <v>0.0004447217578205645</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.764631845193851</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.06171478503464616</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.2645760423505293</v>
+        <v>0.005240377076574677</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.032958945690023</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF7" t="n">
-        <v>75.03068011355359</v>
+        <v>15.0004447194764</v>
       </c>
       <c r="AG7" t="n">
-        <v>7501.76368908272</v>
+        <v>1500</v>
       </c>
       <c r="AH7" t="n">
-        <v>150000.0611343715</v>
+        <v>30000</v>
       </c>
       <c r="AI7" t="n">
-        <v>150000.2637824573</v>
+        <v>30000.00517854012</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.38446040172701</v>
+        <v>0.002277540482484546</v>
       </c>
       <c r="AK7" t="n">
-        <v>8.8461610185166</v>
+        <v>2.552981005966018</v>
       </c>
       <c r="AL7" t="n">
-        <v>-76.19180843507667</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>-1.42151755622982</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="AN7" t="n">
-        <v>-4.136184772035691</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="AO7" t="n">
-        <v>-4556.897587887448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6545,28 +6545,28 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>100.61164823309</v>
+        <v>100.0141656496659</v>
       </c>
       <c r="E8" t="n">
-        <v>4.745735034203812</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F8" t="n">
-        <v>75.61333748132741</v>
+        <v>15.00164160912757</v>
       </c>
       <c r="G8" t="n">
-        <v>7647.194046391945</v>
+        <v>1500</v>
       </c>
       <c r="H8" t="n">
-        <v>152502.8743932671</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I8" t="n">
-        <v>156485.6769439238</v>
+        <v>30943.96536384695</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -6578,91 +6578,91 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.640111929619642</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N8" t="n">
-        <v>5.045995090535761</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="O8" t="n">
-        <v>838.8967478983869</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>3.084751612351878</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.136184772035691</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>4691.66862754944</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S8" t="n">
-        <v>5.352707217566018</v>
+        <v>0.01908094073799865</v>
       </c>
       <c r="T8" t="n">
-        <v>25.54058291128128</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="U8" t="n">
-        <v>6211.744967856782</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0473139214338172</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.08311252127097275</v>
+        <v>0.0004447217578205645</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.845353809167416</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.09315150698304675</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.3163069119942412</v>
+        <v>0.01034622783602919</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.049152261339883</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF8" t="n">
-        <v>75.08305725185259</v>
+        <v>15.0004447194764</v>
       </c>
       <c r="AG8" t="n">
-        <v>7506.778389773957</v>
+        <v>1500</v>
       </c>
       <c r="AH8" t="n">
-        <v>150000.0922099481</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI8" t="n">
-        <v>150000.314012576</v>
+        <v>30000.01017536064</v>
       </c>
       <c r="AJ8" t="n">
-        <v>60.43018514766881</v>
+        <v>0.06794207789718476</v>
       </c>
       <c r="AK8" t="n">
-        <v>20.29330266760343</v>
+        <v>2.774303208760299</v>
       </c>
       <c r="AL8" t="n">
-        <v>98.24585100894521</v>
+        <v>-3.988713784559223</v>
       </c>
       <c r="AM8" t="n">
-        <v>-1.444639682732236</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.9098103185000694</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="AO8" t="n">
-        <v>-3852.771879651054</v>
+        <v>-56.16681352473402</v>
       </c>
     </row>
     <row r="9">
@@ -6670,28 +6670,28 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>100.61164823309</v>
+        <v>100.0141656496659</v>
       </c>
       <c r="E9" t="n">
-        <v>4.745735034203812</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F9" t="n">
-        <v>75.61333748132741</v>
+        <v>15.00164160912757</v>
       </c>
       <c r="G9" t="n">
-        <v>7647.194046391945</v>
+        <v>1500</v>
       </c>
       <c r="H9" t="n">
-        <v>152502.8743932671</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I9" t="n">
-        <v>156485.6769439238</v>
+        <v>30943.96536384695</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6703,91 +6703,91 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.640111929619642</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N9" t="n">
-        <v>5.045995090535761</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="O9" t="n">
-        <v>838.8967478983869</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.084751612351878</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.136184772035691</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4691.66862754944</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S9" t="n">
-        <v>5.352707217566018</v>
+        <v>0.01908094073799865</v>
       </c>
       <c r="T9" t="n">
-        <v>25.54058291128128</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="U9" t="n">
-        <v>6211.744967856782</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="V9" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0473139214338172</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.08311252127097275</v>
+        <v>0.0004447217578205645</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.845353809167416</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.09315150698304675</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.3163069119942412</v>
+        <v>0.01034622783602919</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.049152261339883</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF9" t="n">
-        <v>75.08305725185259</v>
+        <v>15.0004447194764</v>
       </c>
       <c r="AG9" t="n">
-        <v>7506.778389773957</v>
+        <v>1500</v>
       </c>
       <c r="AH9" t="n">
-        <v>150000.0922099481</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI9" t="n">
-        <v>150000.314012576</v>
+        <v>30000.01017536064</v>
       </c>
       <c r="AJ9" t="n">
-        <v>60.43018514766881</v>
+        <v>0.06794207789718476</v>
       </c>
       <c r="AK9" t="n">
-        <v>20.29330266760343</v>
+        <v>2.774303208760299</v>
       </c>
       <c r="AL9" t="n">
-        <v>98.24585100894521</v>
+        <v>-3.988713784559223</v>
       </c>
       <c r="AM9" t="n">
-        <v>-1.444639682732236</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.9098103185000694</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="AO9" t="n">
-        <v>-3852.771879651054</v>
+        <v>-56.16681352473402</v>
       </c>
     </row>
     <row r="10">
@@ -6795,28 +6795,28 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>100.7407153450695</v>
+        <v>100.0141656496659</v>
       </c>
       <c r="E10" t="n">
-        <v>4.752677771171578</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F10" t="n">
-        <v>75.98994878124608</v>
+        <v>15.00164160912757</v>
       </c>
       <c r="G10" t="n">
-        <v>7647.194046391945</v>
+        <v>1500</v>
       </c>
       <c r="H10" t="n">
-        <v>152502.8743932671</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I10" t="n">
-        <v>156528.7406019325</v>
+        <v>30943.96536384695</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -6828,91 +6828,91 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.640111929619642</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N10" t="n">
-        <v>5.045995090535761</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="O10" t="n">
-        <v>838.8967478983869</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3.084751612351878</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.136184772035691</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>4691.66862754944</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S10" t="n">
-        <v>5.352707217566018</v>
+        <v>0.01908094073799865</v>
       </c>
       <c r="T10" t="n">
-        <v>25.54058291128128</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="U10" t="n">
-        <v>6211.744967856782</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="V10" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0474832564818115</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.09229816273240392</v>
+        <v>0.0004447217578205645</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.845353809167416</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.09315150698304675</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.9023414622679051</v>
+        <v>0.01034622783602919</v>
       </c>
       <c r="AE10" t="n">
-        <v>5.049321596387876</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF10" t="n">
-        <v>75.09224289331404</v>
+        <v>15.0004447194764</v>
       </c>
       <c r="AG10" t="n">
-        <v>7506.778389773957</v>
+        <v>1500</v>
       </c>
       <c r="AH10" t="n">
-        <v>150000.0922099481</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI10" t="n">
-        <v>150000.9000471262</v>
+        <v>30000.01017536064</v>
       </c>
       <c r="AJ10" t="n">
-        <v>60.43018514766881</v>
+        <v>0.06794207789718476</v>
       </c>
       <c r="AK10" t="n">
-        <v>20.29330266760343</v>
+        <v>2.774303208760299</v>
       </c>
       <c r="AL10" t="n">
-        <v>98.24585100894521</v>
+        <v>-3.988713784559223</v>
       </c>
       <c r="AM10" t="n">
-        <v>-1.444639682732236</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.9098103185000694</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="AO10" t="n">
-        <v>-3852.771879651054</v>
+        <v>-56.16681352473402</v>
       </c>
     </row>
     <row r="11">
@@ -6920,124 +6920,124 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>100.9798570597164</v>
+        <v>100.0141656496659</v>
       </c>
       <c r="E11" t="n">
-        <v>4.773732634499806</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F11" t="n">
-        <v>77.50703367444878</v>
+        <v>15.00164160912757</v>
       </c>
       <c r="G11" t="n">
-        <v>7634.859039236122</v>
+        <v>1440.691820497846</v>
       </c>
       <c r="H11" t="n">
-        <v>148288.0383102474</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I11" t="n">
-        <v>160451.9367379796</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J11" t="n">
-        <v>-148.1867469937656</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-127.57546476762</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.457973487225351</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N11" t="n">
-        <v>17.80685632271151</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="O11" t="n">
-        <v>1552.685539006092</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.109535614373474</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.95841004887129</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4949.483187809779</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S11" t="n">
-        <v>7.455744344166127</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T11" t="n">
-        <v>94.54089546975173</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="U11" t="n">
-        <v>7513.038450524545</v>
+        <v>115.4800930070805</v>
       </c>
       <c r="V11" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.09573323378876</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.1491470535029136</v>
+        <v>0.0004447217578205645</v>
       </c>
       <c r="AB11" t="n">
-        <v>19.05300263699884</v>
+        <v>0.005099980192310499</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1338637435048083</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.9539373697533963</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE11" t="n">
-        <v>5.099793963713434</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF11" t="n">
-        <v>75.14787130298693</v>
+        <v>15.0004447194764</v>
       </c>
       <c r="AG11" t="n">
-        <v>7518.852074380977</v>
+        <v>1500.005246940086</v>
       </c>
       <c r="AH11" t="n">
-        <v>150000.1332512193</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI11" t="n">
-        <v>150000.9492905512</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ11" t="n">
-        <v>853.8923995428477</v>
+        <v>7.324543500394178</v>
       </c>
       <c r="AK11" t="n">
-        <v>125.6474282655006</v>
+        <v>24.14181996175169</v>
       </c>
       <c r="AL11" t="n">
-        <v>734.6180030660041</v>
+        <v>1.270593729890753</v>
       </c>
       <c r="AM11" t="n">
-        <v>-1.651562127148123</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN11" t="n">
-        <v>-39.15155372615977</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="AO11" t="n">
-        <v>-3396.797648803687</v>
+        <v>-56.16681352473402</v>
       </c>
     </row>
     <row r="12">
@@ -7045,124 +7045,124 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>100.9798570597164</v>
+        <v>100.0141656496659</v>
       </c>
       <c r="E12" t="n">
-        <v>4.773732634499806</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F12" t="n">
-        <v>77.50703367444878</v>
+        <v>15.00164160912757</v>
       </c>
       <c r="G12" t="n">
-        <v>7634.859039236122</v>
+        <v>1440.691820497846</v>
       </c>
       <c r="H12" t="n">
-        <v>148288.0383102474</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I12" t="n">
-        <v>160451.9367379796</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J12" t="n">
-        <v>-148.1867469937656</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-127.57546476762</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.457973487225351</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N12" t="n">
-        <v>17.80685632271151</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="O12" t="n">
-        <v>1552.685539006092</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.109535614373474</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.95841004887129</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>4949.483187809779</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S12" t="n">
-        <v>7.455744344166127</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T12" t="n">
-        <v>94.54089546975173</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="U12" t="n">
-        <v>7513.038450524545</v>
+        <v>115.4800930070805</v>
       </c>
       <c r="V12" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.09573323378876</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.1491470535029136</v>
+        <v>0.0004447217578205645</v>
       </c>
       <c r="AB12" t="n">
-        <v>19.05300263699884</v>
+        <v>0.005099980192310499</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.1338637435048083</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.9539373697533963</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.099793963713434</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF12" t="n">
-        <v>75.14787130298693</v>
+        <v>15.0004447194764</v>
       </c>
       <c r="AG12" t="n">
-        <v>7518.852074380977</v>
+        <v>1500.005246940086</v>
       </c>
       <c r="AH12" t="n">
-        <v>150000.1332512193</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI12" t="n">
-        <v>150000.9492905512</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ12" t="n">
-        <v>853.8923995428477</v>
+        <v>7.324543500394178</v>
       </c>
       <c r="AK12" t="n">
-        <v>125.6474282655006</v>
+        <v>24.14181996175169</v>
       </c>
       <c r="AL12" t="n">
-        <v>734.6180030660041</v>
+        <v>1.270593729890753</v>
       </c>
       <c r="AM12" t="n">
-        <v>-1.651562127148123</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN12" t="n">
-        <v>-39.15155372615977</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="AO12" t="n">
-        <v>-3396.797648803687</v>
+        <v>-56.16681352473402</v>
       </c>
     </row>
     <row r="13">
@@ -7170,124 +7170,124 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>101.1666542227922</v>
+        <v>100.0141656496659</v>
       </c>
       <c r="E13" t="n">
-        <v>4.79530277638374</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F13" t="n">
-        <v>77.89637125133621</v>
+        <v>15.00164160912757</v>
       </c>
       <c r="G13" t="n">
-        <v>7634.859039236122</v>
+        <v>1440.691820497846</v>
       </c>
       <c r="H13" t="n">
-        <v>148288.0383102474</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I13" t="n">
-        <v>160493.8491427411</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J13" t="n">
-        <v>-148.1867469937656</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-127.57546476762</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.457973487225351</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N13" t="n">
-        <v>17.80685632271151</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="O13" t="n">
-        <v>1552.685539006092</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>3.109535614373474</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.95841004887129</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4949.483187809779</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S13" t="n">
-        <v>7.455744344166127</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T13" t="n">
-        <v>94.54089546975173</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="U13" t="n">
-        <v>7513.038450524545</v>
+        <v>115.4800930070805</v>
       </c>
       <c r="V13" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.09625933481031933</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1586430919635823</v>
+        <v>0.0004447217578205645</v>
       </c>
       <c r="AB13" t="n">
-        <v>19.05300263699884</v>
+        <v>0.005099980192310499</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.1338637435048083</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.604068822276821</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.100320064734992</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF13" t="n">
-        <v>75.15736734144758</v>
+        <v>15.0004447194764</v>
       </c>
       <c r="AG13" t="n">
-        <v>7518.852074380977</v>
+        <v>1500.005246940086</v>
       </c>
       <c r="AH13" t="n">
-        <v>150000.1332512193</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI13" t="n">
-        <v>150001.5994220038</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ13" t="n">
-        <v>853.8923995428477</v>
+        <v>7.324543500394178</v>
       </c>
       <c r="AK13" t="n">
-        <v>125.6474282655006</v>
+        <v>24.14181996175169</v>
       </c>
       <c r="AL13" t="n">
-        <v>734.6180030660041</v>
+        <v>1.270593729890753</v>
       </c>
       <c r="AM13" t="n">
-        <v>-1.651562127148123</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN13" t="n">
-        <v>-39.15155372615977</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="AO13" t="n">
-        <v>-3396.797648803687</v>
+        <v>-56.16681352473402</v>
       </c>
     </row>
     <row r="14">
@@ -7295,124 +7295,124 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>101.3110944501207</v>
+        <v>100.0141656496659</v>
       </c>
       <c r="E14" t="n">
-        <v>4.917533179190073</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F14" t="n">
-        <v>75.45682890272131</v>
+        <v>14.1556532939692</v>
       </c>
       <c r="G14" t="n">
-        <v>7583.712983993607</v>
+        <v>1519.30670317655</v>
       </c>
       <c r="H14" t="n">
-        <v>140911.9372886674</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I14" t="n">
-        <v>172110.9360210762</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J14" t="n">
-        <v>-148.1867469937656</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-127.57546476762</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.564336286388154</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N14" t="n">
-        <v>20.57825734089305</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O14" t="n">
-        <v>2211.686492712681</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P14" t="n">
-        <v>3.190760250597694</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.95841004887129</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4985.417410977501</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S14" t="n">
-        <v>7.965797810253977</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T14" t="n">
-        <v>101.7444949563986</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U14" t="n">
-        <v>8350.379705728617</v>
+        <v>284.0419179745861</v>
       </c>
       <c r="V14" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="W14" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1220947201357904</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.2179735184582232</v>
+        <v>0.0161263896098296</v>
       </c>
       <c r="AB14" t="n">
-        <v>29.32278882716108</v>
+        <v>0.09990313982808534</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.1743810269216393</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.65019216793175</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE14" t="n">
-        <v>5.126900359403179</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF14" t="n">
-        <v>75.21655592897622</v>
+        <v>15.01677749773196</v>
       </c>
       <c r="AG14" t="n">
-        <v>7529.067177676104</v>
+        <v>1500.099205554689</v>
       </c>
       <c r="AH14" t="n">
-        <v>150000.175597739</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI14" t="n">
-        <v>150001.641397857</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1132.62014723939</v>
+        <v>11.99741497596777</v>
       </c>
       <c r="AK14" t="n">
-        <v>485.5278444680193</v>
+        <v>40.52441133764631</v>
       </c>
       <c r="AL14" t="n">
-        <v>1312.342028112476</v>
+        <v>18.23435964712217</v>
       </c>
       <c r="AM14" t="n">
-        <v>-1.62642396420954</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN14" t="n">
-        <v>-36.38015270797823</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO14" t="n">
-        <v>-2773.73091826482</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="15">
@@ -7420,124 +7420,124 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>101.3110944501207</v>
+        <v>100.0141656496659</v>
       </c>
       <c r="E15" t="n">
-        <v>4.917533179190073</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F15" t="n">
-        <v>75.45682890272131</v>
+        <v>14.1556532939692</v>
       </c>
       <c r="G15" t="n">
-        <v>7583.712983993607</v>
+        <v>1519.30670317655</v>
       </c>
       <c r="H15" t="n">
-        <v>140911.9372886674</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I15" t="n">
-        <v>172110.9360210762</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J15" t="n">
-        <v>-148.1867469937656</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-127.57546476762</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.564336286388154</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N15" t="n">
-        <v>20.57825734089305</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O15" t="n">
-        <v>2211.686492712681</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P15" t="n">
-        <v>3.190760250597694</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.95841004887129</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>4985.417410977501</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S15" t="n">
-        <v>7.965797810253977</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T15" t="n">
-        <v>101.7444949563986</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U15" t="n">
-        <v>8350.379705728617</v>
+        <v>284.0419179745861</v>
       </c>
       <c r="V15" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="W15" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.1220947201357904</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.2179735184582232</v>
+        <v>0.0161263896098296</v>
       </c>
       <c r="AB15" t="n">
-        <v>29.32278882716108</v>
+        <v>0.09990313982808534</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1743810269216393</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.65019216793175</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.126900359403179</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF15" t="n">
-        <v>75.21655592897622</v>
+        <v>15.01677749773196</v>
       </c>
       <c r="AG15" t="n">
-        <v>7529.067177676104</v>
+        <v>1500.099205554689</v>
       </c>
       <c r="AH15" t="n">
-        <v>150000.175597739</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI15" t="n">
-        <v>150001.641397857</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1132.62014723939</v>
+        <v>11.99741497596777</v>
       </c>
       <c r="AK15" t="n">
-        <v>485.5278444680193</v>
+        <v>40.52441133764631</v>
       </c>
       <c r="AL15" t="n">
-        <v>1312.342028112476</v>
+        <v>18.23435964712217</v>
       </c>
       <c r="AM15" t="n">
-        <v>-1.62642396420954</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN15" t="n">
-        <v>-36.38015270797823</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO15" t="n">
-        <v>-2773.73091826482</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="16">
@@ -7545,124 +7545,124 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>101.4612594361892</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E16" t="n">
-        <v>4.928460339755362</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F16" t="n">
-        <v>75.86595594439707</v>
+        <v>14.2401604779001</v>
       </c>
       <c r="G16" t="n">
-        <v>7583.712983993607</v>
+        <v>1523.925621748481</v>
       </c>
       <c r="H16" t="n">
-        <v>140911.9372886674</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I16" t="n">
-        <v>172144.3211404419</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J16" t="n">
-        <v>-148.1867469937656</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-127.57546476762</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.564336286388154</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N16" t="n">
-        <v>20.57825734089305</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O16" t="n">
-        <v>2211.686492712681</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P16" t="n">
-        <v>3.190760250597694</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.95841004887129</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4985.417410977501</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S16" t="n">
-        <v>7.965797810253977</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T16" t="n">
-        <v>101.7444949563986</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U16" t="n">
-        <v>8350.379705728617</v>
+        <v>284.0419179745861</v>
       </c>
       <c r="V16" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="W16" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.1223612362471389</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.2279522267917779</v>
+        <v>0.01823906920810199</v>
       </c>
       <c r="AB16" t="n">
-        <v>29.32278882716108</v>
+        <v>0.1693724732280507</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1743810269216393</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.362922144246532</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE16" t="n">
-        <v>5.127166875514527</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF16" t="n">
-        <v>75.2265346373098</v>
+        <v>15.01889017733023</v>
       </c>
       <c r="AG16" t="n">
-        <v>7529.067177676104</v>
+        <v>1500.168674888089</v>
       </c>
       <c r="AH16" t="n">
-        <v>150000.175597739</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI16" t="n">
-        <v>150002.3541278333</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1132.62014723939</v>
+        <v>11.99741497596777</v>
       </c>
       <c r="AK16" t="n">
-        <v>485.5278444680193</v>
+        <v>40.52441133764631</v>
       </c>
       <c r="AL16" t="n">
-        <v>1312.342028112476</v>
+        <v>18.23435964712217</v>
       </c>
       <c r="AM16" t="n">
-        <v>-1.62642396420954</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN16" t="n">
-        <v>-36.38015270797823</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO16" t="n">
-        <v>-2773.73091826482</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="17">
@@ -7670,124 +7670,124 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>101.6837558523039</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E17" t="n">
-        <v>4.603099055207601</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F17" t="n">
-        <v>81.15699964082332</v>
+        <v>14.2401604779001</v>
       </c>
       <c r="G17" t="n">
-        <v>7676.031037956992</v>
+        <v>1523.925621748481</v>
       </c>
       <c r="H17" t="n">
-        <v>138424.3067151364</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I17" t="n">
-        <v>174492.1199610041</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J17" t="n">
-        <v>-290.1491274539597</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-137.7300919108943</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.56972328693077</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N17" t="n">
-        <v>14.88983846379447</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O17" t="n">
-        <v>2361.378920044001</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P17" t="n">
-        <v>3.190760250597694</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.96195852663377</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>5052.502970111347</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S17" t="n">
-        <v>8.359065781174404</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T17" t="n">
-        <v>126.3043679376245</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U17" t="n">
-        <v>9072.454473280082</v>
+        <v>284.0419179745861</v>
       </c>
       <c r="V17" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="W17" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1526296150817016</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.6035324782760899</v>
+        <v>0.01823906920810199</v>
       </c>
       <c r="AB17" t="n">
-        <v>31.25977760423014</v>
+        <v>0.1693724732280507</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5031753493689888</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD17" t="n">
-        <v>3.698519038770817</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE17" t="n">
-        <v>5.159971034043966</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF17" t="n">
-        <v>75.58365253906831</v>
+        <v>15.01889017733023</v>
       </c>
       <c r="AG17" t="n">
-        <v>7530.97844037607</v>
+        <v>1500.168674888089</v>
       </c>
       <c r="AH17" t="n">
-        <v>150000.523639535</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI17" t="n">
-        <v>150003.5585138048</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ17" t="n">
-        <v>719.4716736748323</v>
+        <v>6.445289936336669</v>
       </c>
       <c r="AK17" t="n">
-        <v>174.878623278951</v>
+        <v>49.60860706447098</v>
       </c>
       <c r="AL17" t="n">
-        <v>1182.160249182032</v>
+        <v>19.78454434670416</v>
       </c>
       <c r="AM17" t="n">
-        <v>-1.621036963666923</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN17" t="n">
-        <v>-42.0721200628393</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO17" t="n">
-        <v>-2691.124050067347</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="18">
@@ -7795,124 +7795,124 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>101.6837558523039</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E18" t="n">
-        <v>4.603099055207601</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F18" t="n">
-        <v>81.15699964082332</v>
+        <v>14.2401604779001</v>
       </c>
       <c r="G18" t="n">
-        <v>7676.031037956992</v>
+        <v>1523.925621748481</v>
       </c>
       <c r="H18" t="n">
-        <v>138424.3067151364</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I18" t="n">
-        <v>174492.1199610041</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J18" t="n">
-        <v>-290.1491274539597</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-137.7300919108943</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.56972328693077</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N18" t="n">
-        <v>14.88983846379447</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O18" t="n">
-        <v>2361.378920044001</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P18" t="n">
-        <v>3.190760250597694</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.96195852663377</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5052.502970111347</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S18" t="n">
-        <v>8.359065781174404</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T18" t="n">
-        <v>126.3043679376245</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U18" t="n">
-        <v>9072.454473280082</v>
+        <v>284.0419179745861</v>
       </c>
       <c r="V18" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="W18" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.1526296150817016</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.6035324782760899</v>
+        <v>0.01823906920810199</v>
       </c>
       <c r="AB18" t="n">
-        <v>31.25977760423014</v>
+        <v>0.1693724732280507</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.5031753493689888</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD18" t="n">
-        <v>3.698519038770817</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE18" t="n">
-        <v>5.159971034043966</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF18" t="n">
-        <v>75.58365253906831</v>
+        <v>15.01889017733023</v>
       </c>
       <c r="AG18" t="n">
-        <v>7530.97844037607</v>
+        <v>1500.168674888089</v>
       </c>
       <c r="AH18" t="n">
-        <v>150000.523639535</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI18" t="n">
-        <v>150003.5585138048</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ18" t="n">
-        <v>719.4716736748323</v>
+        <v>6.445289936336669</v>
       </c>
       <c r="AK18" t="n">
-        <v>174.878623278951</v>
+        <v>49.60860706447098</v>
       </c>
       <c r="AL18" t="n">
-        <v>1182.160249182032</v>
+        <v>19.78454434670416</v>
       </c>
       <c r="AM18" t="n">
-        <v>-1.621036963666923</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN18" t="n">
-        <v>-42.0721200628393</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO18" t="n">
-        <v>-2691.124050067347</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="19">
@@ -7920,124 +7920,124 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>106.2995226555439</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E19" t="n">
-        <v>4.616618177292591</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F19" t="n">
-        <v>83.49473166765414</v>
+        <v>14.2401604779001</v>
       </c>
       <c r="G19" t="n">
-        <v>8799.015991970467</v>
+        <v>1523.925621748481</v>
       </c>
       <c r="H19" t="n">
-        <v>139289.1053011534</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I19" t="n">
-        <v>179894.9300176396</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J19" t="n">
-        <v>-290.1491274539597</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-137.7300919108943</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.56972328693077</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N19" t="n">
-        <v>14.88983846379447</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O19" t="n">
-        <v>2361.378920044001</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P19" t="n">
-        <v>3.190760250597694</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.96195852663377</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>5052.502970111347</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S19" t="n">
-        <v>8.359065781174404</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T19" t="n">
-        <v>126.3043679376245</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U19" t="n">
-        <v>9072.454473280082</v>
+        <v>284.0419179745861</v>
       </c>
       <c r="V19" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="W19" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.1529593497667014</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.6287022732929574</v>
+        <v>0.01823906920810199</v>
       </c>
       <c r="AB19" t="n">
-        <v>51.80745844467642</v>
+        <v>0.1693724732280507</v>
       </c>
       <c r="AC19" t="n">
-        <v>21.59582378880827</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD19" t="n">
-        <v>125.1909830373848</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE19" t="n">
-        <v>5.160300768728964</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF19" t="n">
-        <v>75.60882233408516</v>
+        <v>15.01889017733023</v>
       </c>
       <c r="AG19" t="n">
-        <v>7551.526121216516</v>
+        <v>1500.168674888089</v>
       </c>
       <c r="AH19" t="n">
-        <v>150021.6162879744</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI19" t="n">
-        <v>150125.0509778034</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ19" t="n">
-        <v>719.4716736748323</v>
+        <v>6.445289936336669</v>
       </c>
       <c r="AK19" t="n">
-        <v>174.878623278951</v>
+        <v>49.60860706447098</v>
       </c>
       <c r="AL19" t="n">
-        <v>1182.160249182032</v>
+        <v>19.78454434670416</v>
       </c>
       <c r="AM19" t="n">
-        <v>-1.621036963666923</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN19" t="n">
-        <v>-42.0721200628393</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO19" t="n">
-        <v>-2691.124050067347</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="20">
@@ -8045,124 +8045,124 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>106.5453165403014</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E20" t="n">
-        <v>4.956925913422555</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F20" t="n">
-        <v>82.38823206789245</v>
+        <v>14.2401604779001</v>
       </c>
       <c r="G20" t="n">
-        <v>8804.148820362749</v>
+        <v>1523.982501940821</v>
       </c>
       <c r="H20" t="n">
-        <v>135339.372623261</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I20" t="n">
-        <v>179492.3474102015</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J20" t="n">
-        <v>-336.801886187409</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>12.07929441155155</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-137.7300919108943</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.643596938652033</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N20" t="n">
-        <v>17.66014272164847</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O20" t="n">
-        <v>2127.655891696956</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P20" t="n">
-        <v>3.301831682149591</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q20" t="n">
-        <v>57.75830179239154</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>5297.618263581924</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S20" t="n">
-        <v>8.891714791090093</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T20" t="n">
-        <v>144.0452906049836</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U20" t="n">
-        <v>10446.22112452545</v>
+        <v>360.9982581087459</v>
       </c>
       <c r="V20" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="W20" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.1965872497008857</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.7772161517584119</v>
+        <v>0.01823906920810199</v>
       </c>
       <c r="AB20" t="n">
-        <v>65.08047202211489</v>
+        <v>0.1799160726009524</v>
       </c>
       <c r="AC20" t="n">
-        <v>22.02749345788912</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD20" t="n">
-        <v>131.4748879400646</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE20" t="n">
-        <v>5.205390890407387</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF20" t="n">
-        <v>75.74889785390651</v>
+        <v>15.01889017733023</v>
       </c>
       <c r="AG20" t="n">
-        <v>7563.485608182114</v>
+        <v>1500.179102326896</v>
       </c>
       <c r="AH20" t="n">
-        <v>150022.0807391484</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI20" t="n">
-        <v>150130.6152704977</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ20" t="n">
-        <v>592.416881068885</v>
+        <v>3.783365855773332</v>
       </c>
       <c r="AK20" t="n">
-        <v>145.9067002325339</v>
+        <v>41.37576077397031</v>
       </c>
       <c r="AL20" t="n">
-        <v>895.6239549194696</v>
+        <v>7.761669461629675</v>
       </c>
       <c r="AM20" t="n">
-        <v>-1.658234743497558</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN20" t="n">
-        <v>-40.09815907074307</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO20" t="n">
-        <v>-3169.96237188497</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="21">
@@ -8170,124 +8170,124 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>106.5453165403014</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E21" t="n">
-        <v>4.956925913422555</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F21" t="n">
-        <v>82.38823206789245</v>
+        <v>14.2401604779001</v>
       </c>
       <c r="G21" t="n">
-        <v>8804.148820362749</v>
+        <v>1523.982501940821</v>
       </c>
       <c r="H21" t="n">
-        <v>135339.372623261</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I21" t="n">
-        <v>179492.3474102015</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J21" t="n">
-        <v>-336.801886187409</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>12.07929441155155</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-137.7300919108943</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.643596938652033</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N21" t="n">
-        <v>17.66014272164847</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O21" t="n">
-        <v>2127.655891696956</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P21" t="n">
-        <v>3.301831682149591</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.75830179239154</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>5297.618263581924</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S21" t="n">
-        <v>8.891714791090093</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T21" t="n">
-        <v>144.0452906049836</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U21" t="n">
-        <v>10446.22112452545</v>
+        <v>360.9982581087459</v>
       </c>
       <c r="V21" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="W21" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.1965872497008857</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.7772161517584119</v>
+        <v>0.01823906920810199</v>
       </c>
       <c r="AB21" t="n">
-        <v>65.08047202211489</v>
+        <v>0.1799160726009524</v>
       </c>
       <c r="AC21" t="n">
-        <v>22.02749345788912</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD21" t="n">
-        <v>131.4748879400646</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.205390890407387</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF21" t="n">
-        <v>75.74889785390651</v>
+        <v>15.01889017733023</v>
       </c>
       <c r="AG21" t="n">
-        <v>7563.485608182114</v>
+        <v>1500.179102326896</v>
       </c>
       <c r="AH21" t="n">
-        <v>150022.0807391484</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI21" t="n">
-        <v>150130.6152704977</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ21" t="n">
-        <v>592.416881068885</v>
+        <v>3.783365855773332</v>
       </c>
       <c r="AK21" t="n">
-        <v>145.9067002325339</v>
+        <v>41.37576077397031</v>
       </c>
       <c r="AL21" t="n">
-        <v>895.6239549194696</v>
+        <v>7.761669461629675</v>
       </c>
       <c r="AM21" t="n">
-        <v>-1.658234743497558</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN21" t="n">
-        <v>-40.09815907074307</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO21" t="n">
-        <v>-3169.96237188497</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="22">
@@ -8295,124 +8295,124 @@
         <v>19</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>106.9664400617769</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E22" t="n">
-        <v>4.974772490994734</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F22" t="n">
-        <v>83.16764077483255</v>
+        <v>14.2401604779001</v>
       </c>
       <c r="G22" t="n">
-        <v>8804.148820362749</v>
+        <v>1523.982501940821</v>
       </c>
       <c r="H22" t="n">
-        <v>136493.911911472</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I22" t="n">
-        <v>179492.3474102015</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J22" t="n">
-        <v>-336.801886187409</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.07929441155155</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-137.7300919108943</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.643596938652033</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N22" t="n">
-        <v>17.66014272164847</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O22" t="n">
-        <v>2127.655891696956</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P22" t="n">
-        <v>3.301831682149591</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.75830179239154</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>5297.618263581924</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S22" t="n">
-        <v>8.891714791090093</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T22" t="n">
-        <v>144.0452906049836</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U22" t="n">
-        <v>10446.22112452545</v>
+        <v>360.9982581087459</v>
       </c>
       <c r="V22" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.1970225320806949</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.7962261202203658</v>
+        <v>0.01823906920810199</v>
       </c>
       <c r="AB22" t="n">
-        <v>65.08047202211489</v>
+        <v>0.1799160726009524</v>
       </c>
       <c r="AC22" t="n">
-        <v>50.18698829230505</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD22" t="n">
-        <v>131.4748879400646</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE22" t="n">
-        <v>5.205826172787197</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF22" t="n">
-        <v>75.76790782236847</v>
+        <v>15.01889017733023</v>
       </c>
       <c r="AG22" t="n">
-        <v>7563.485608182114</v>
+        <v>1500.179102326896</v>
       </c>
       <c r="AH22" t="n">
-        <v>150050.2402339828</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI22" t="n">
-        <v>150130.6152704977</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ22" t="n">
-        <v>592.416881068885</v>
+        <v>3.783365855773332</v>
       </c>
       <c r="AK22" t="n">
-        <v>145.9067002325339</v>
+        <v>41.37576077397031</v>
       </c>
       <c r="AL22" t="n">
-        <v>895.6239549194696</v>
+        <v>7.761669461629675</v>
       </c>
       <c r="AM22" t="n">
-        <v>-1.658234743497558</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN22" t="n">
-        <v>-40.09815907074307</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO22" t="n">
-        <v>-3169.96237188497</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="23">
@@ -8420,124 +8420,124 @@
         <v>20</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>107.1951166406952</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E23" t="n">
-        <v>5.071517610044857</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F23" t="n">
-        <v>87.47920340617635</v>
+        <v>14.2401604779001</v>
       </c>
       <c r="G23" t="n">
-        <v>8882.111190578802</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H23" t="n">
-        <v>130816.9607274339</v>
+        <v>29347.12899362927</v>
       </c>
       <c r="I23" t="n">
-        <v>175883.7077259324</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J23" t="n">
-        <v>-347.2510634674647</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.635854125226</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-137.7300919108943</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.653352308389339</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N23" t="n">
-        <v>21.56459463617691</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O23" t="n">
-        <v>2133.852426079755</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P23" t="n">
-        <v>3.311042412349094</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q23" t="n">
-        <v>57.82440244553927</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>5297.618263581924</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S23" t="n">
-        <v>9.425866784524796</v>
+        <v>0.1334807804953928</v>
       </c>
       <c r="T23" t="n">
-        <v>156.0969864363324</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U23" t="n">
-        <v>10610.54160470012</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V23" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="W23" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="X23" t="n">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.245981166139772</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.9279642887717208</v>
+        <v>0.01823906920810199</v>
       </c>
       <c r="AB23" t="n">
-        <v>67.664370392137</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC23" t="n">
-        <v>50.23444173410721</v>
+        <v>0.01027682348322337</v>
       </c>
       <c r="AD23" t="n">
-        <v>131.494751569002</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE23" t="n">
-        <v>5.255943885974109</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF23" t="n">
-        <v>75.88737777746678</v>
+        <v>15.01889017733023</v>
       </c>
       <c r="AG23" t="n">
-        <v>7565.801294964596</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH23" t="n">
-        <v>150050.2925712041</v>
+        <v>30000.0104093061</v>
       </c>
       <c r="AI23" t="n">
-        <v>150130.6330982089</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ23" t="n">
-        <v>886.1093069131379</v>
+        <v>2.396395530032418</v>
       </c>
       <c r="AK23" t="n">
-        <v>657.5394738406615</v>
+        <v>69.42176720978748</v>
       </c>
       <c r="AL23" t="n">
-        <v>822.5517670103823</v>
+        <v>15.10559892929553</v>
       </c>
       <c r="AM23" t="n">
-        <v>-1.657690103959755</v>
+        <v>-0.1135533601494756</v>
       </c>
       <c r="AN23" t="n">
-        <v>-36.25980780936236</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO23" t="n">
-        <v>-3163.76583750217</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="24">
@@ -8545,124 +8545,124 @@
         <v>21</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>107.1951166406952</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E24" t="n">
-        <v>5.071517610044857</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F24" t="n">
-        <v>87.47920340617635</v>
+        <v>14.2401604779001</v>
       </c>
       <c r="G24" t="n">
-        <v>8882.111190578802</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H24" t="n">
-        <v>130816.9607274339</v>
+        <v>29347.12899362927</v>
       </c>
       <c r="I24" t="n">
-        <v>175883.7077259324</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J24" t="n">
-        <v>-347.2510634674647</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.635854125226</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-137.7300919108943</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.653352308389339</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N24" t="n">
-        <v>21.56459463617691</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O24" t="n">
-        <v>2133.852426079755</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P24" t="n">
-        <v>3.311042412349094</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.82440244553927</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>5297.618263581924</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S24" t="n">
-        <v>9.425866784524796</v>
+        <v>0.1334807804953928</v>
       </c>
       <c r="T24" t="n">
-        <v>156.0969864363324</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U24" t="n">
-        <v>10610.54160470012</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V24" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="W24" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="X24" t="n">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.245981166139772</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.9279642887717208</v>
+        <v>0.01823906920810199</v>
       </c>
       <c r="AB24" t="n">
-        <v>67.664370392137</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC24" t="n">
-        <v>50.23444173410721</v>
+        <v>0.01027682348322337</v>
       </c>
       <c r="AD24" t="n">
-        <v>131.494751569002</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE24" t="n">
-        <v>5.255943885974109</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF24" t="n">
-        <v>75.88737777746678</v>
+        <v>15.01889017733023</v>
       </c>
       <c r="AG24" t="n">
-        <v>7565.801294964596</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH24" t="n">
-        <v>150050.2925712041</v>
+        <v>30000.0104093061</v>
       </c>
       <c r="AI24" t="n">
-        <v>150130.6330982089</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ24" t="n">
-        <v>886.1093069131379</v>
+        <v>2.396395530032418</v>
       </c>
       <c r="AK24" t="n">
-        <v>657.5394738406615</v>
+        <v>69.42176720978748</v>
       </c>
       <c r="AL24" t="n">
-        <v>822.5517670103823</v>
+        <v>15.10559892929553</v>
       </c>
       <c r="AM24" t="n">
-        <v>-1.657690103959755</v>
+        <v>-0.1135533601494756</v>
       </c>
       <c r="AN24" t="n">
-        <v>-36.25980780936236</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO24" t="n">
-        <v>-3163.76583750217</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="25">
@@ -8670,124 +8670,124 @@
         <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>108.3943116506947</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E25" t="n">
-        <v>5.09077609993195</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F25" t="n">
-        <v>88.08484963296443</v>
+        <v>14.2401604779001</v>
       </c>
       <c r="G25" t="n">
-        <v>9232.151089759662</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H25" t="n">
-        <v>130816.9607274339</v>
+        <v>29347.12899362927</v>
       </c>
       <c r="I25" t="n">
-        <v>175888.4946964243</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J25" t="n">
-        <v>-347.2510634674647</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.635854125226</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-137.7300919108943</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.653352308389339</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N25" t="n">
-        <v>21.56459463617691</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O25" t="n">
-        <v>2133.852426079755</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P25" t="n">
-        <v>3.311042412349094</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.82440244553927</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5297.618263581924</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S25" t="n">
-        <v>9.425866784524796</v>
+        <v>0.1334807804953928</v>
       </c>
       <c r="T25" t="n">
-        <v>156.0969864363324</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U25" t="n">
-        <v>10610.54160470012</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V25" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="W25" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.2464508854053108</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.9357672199019732</v>
+        <v>0.01823906920810199</v>
       </c>
       <c r="AB25" t="n">
-        <v>75.74668455631571</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC25" t="n">
-        <v>50.23444173410721</v>
+        <v>0.01027682348322337</v>
       </c>
       <c r="AD25" t="n">
-        <v>131.5796058230605</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE25" t="n">
-        <v>5.256413605239648</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF25" t="n">
-        <v>75.89518070859701</v>
+        <v>15.01889017733023</v>
       </c>
       <c r="AG25" t="n">
-        <v>7573.883609128775</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH25" t="n">
-        <v>150050.2925712041</v>
+        <v>30000.0104093061</v>
       </c>
       <c r="AI25" t="n">
-        <v>150130.7179524629</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ25" t="n">
-        <v>886.1093069131379</v>
+        <v>2.396395530032418</v>
       </c>
       <c r="AK25" t="n">
-        <v>657.5394738406615</v>
+        <v>69.42176720978748</v>
       </c>
       <c r="AL25" t="n">
-        <v>822.5517670103823</v>
+        <v>15.10559892929553</v>
       </c>
       <c r="AM25" t="n">
-        <v>-1.657690103959755</v>
+        <v>-0.1135533601494756</v>
       </c>
       <c r="AN25" t="n">
-        <v>-36.25980780936236</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO25" t="n">
-        <v>-3163.76583750217</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="26">
@@ -8795,124 +8795,124 @@
         <v>23</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>108.7581813700226</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E26" t="n">
-        <v>5.098190128618961</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F26" t="n">
-        <v>88.87622003371396</v>
+        <v>14.03600436849887</v>
       </c>
       <c r="G26" t="n">
-        <v>9345.736021560966</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H26" t="n">
-        <v>133143.6091148894</v>
+        <v>29745.65383217112</v>
       </c>
       <c r="I26" t="n">
-        <v>173146.513024302</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J26" t="n">
-        <v>-453.1021534668865</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>163.4977670923801</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-204.2089262510808</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.9648950681047247</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N26" t="n">
-        <v>22.00767996362464</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O26" t="n">
-        <v>2168.04031784872</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P26" t="n">
-        <v>3.430363025835736</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.82440244553927</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4679.684026913143</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S26" t="n">
-        <v>10.40357209685558</v>
+        <v>0.1334807804953928</v>
       </c>
       <c r="T26" t="n">
-        <v>157.2932424188009</v>
+        <v>4.895304970434609</v>
       </c>
       <c r="U26" t="n">
-        <v>13613.69838657148</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V26" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="W26" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="X26" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.3181589665088905</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.9555320270876329</v>
+        <v>0.02334226781600324</v>
       </c>
       <c r="AB26" t="n">
-        <v>101.6958472659312</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC26" t="n">
-        <v>110.0519407887028</v>
+        <v>0.01540105419617925</v>
       </c>
       <c r="AD26" t="n">
-        <v>131.6319900650123</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE26" t="n">
-        <v>5.330226487064233</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF26" t="n">
-        <v>75.91292643163347</v>
+        <v>15.02423832840262</v>
       </c>
       <c r="AG26" t="n">
-        <v>7596.417011115237</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH26" t="n">
-        <v>150115.4439990958</v>
+        <v>30000.01556420766</v>
       </c>
       <c r="AI26" t="n">
-        <v>150130.7654624257</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1033.319421622687</v>
+        <v>7.257651995819164</v>
       </c>
       <c r="AK26" t="n">
-        <v>440.5315073378797</v>
+        <v>72.96230488309065</v>
       </c>
       <c r="AL26" t="n">
-        <v>939.046064785244</v>
+        <v>14.99668951414447</v>
       </c>
       <c r="AM26" t="n">
-        <v>-2.465467957731012</v>
+        <v>-0.1135533601494756</v>
       </c>
       <c r="AN26" t="n">
-        <v>-35.81672248191463</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO26" t="n">
-        <v>-2511.643709064424</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="27">
@@ -8920,124 +8920,124 @@
         <v>24</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>108.7581813700226</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E27" t="n">
-        <v>5.098190128618961</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F27" t="n">
-        <v>88.87622003371396</v>
+        <v>14.03600436849887</v>
       </c>
       <c r="G27" t="n">
-        <v>9345.736021560966</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H27" t="n">
-        <v>133143.6091148894</v>
+        <v>29745.65383217112</v>
       </c>
       <c r="I27" t="n">
-        <v>173146.513024302</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J27" t="n">
-        <v>-453.1021534668865</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>163.4977670923801</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-204.2089262510808</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9648950681047247</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N27" t="n">
-        <v>22.00767996362464</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O27" t="n">
-        <v>2168.04031784872</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P27" t="n">
-        <v>3.430363025835736</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.82440244553927</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4679.684026913143</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S27" t="n">
-        <v>10.40357209685558</v>
+        <v>0.1334807804953928</v>
       </c>
       <c r="T27" t="n">
-        <v>157.2932424188009</v>
+        <v>4.895304970434609</v>
       </c>
       <c r="U27" t="n">
-        <v>13613.69838657148</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V27" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="W27" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="X27" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.3181589665088905</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.9555320270876329</v>
+        <v>0.02334226781600324</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.6958472659312</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC27" t="n">
-        <v>110.0519407887028</v>
+        <v>0.01540105419617925</v>
       </c>
       <c r="AD27" t="n">
-        <v>131.6319900650123</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.330226487064233</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF27" t="n">
-        <v>75.91292643163347</v>
+        <v>15.02423832840262</v>
       </c>
       <c r="AG27" t="n">
-        <v>7596.417011115237</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH27" t="n">
-        <v>150115.4439990958</v>
+        <v>30000.01556420766</v>
       </c>
       <c r="AI27" t="n">
-        <v>150130.7654624257</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1033.319421622687</v>
+        <v>7.257651995819164</v>
       </c>
       <c r="AK27" t="n">
-        <v>440.5315073378797</v>
+        <v>72.96230488309065</v>
       </c>
       <c r="AL27" t="n">
-        <v>939.046064785244</v>
+        <v>14.99668951414447</v>
       </c>
       <c r="AM27" t="n">
-        <v>-2.465467957731012</v>
+        <v>-0.1135533601494756</v>
       </c>
       <c r="AN27" t="n">
-        <v>-35.81672248191463</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO27" t="n">
-        <v>-2511.643709064424</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="28">
@@ -9045,124 +9045,124 @@
         <v>25</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>108.8848120854947</v>
+        <v>100.2210062787335</v>
       </c>
       <c r="E28" t="n">
-        <v>5.125766611862722</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F28" t="n">
-        <v>88.95854156407539</v>
+        <v>14.06244710223352</v>
       </c>
       <c r="G28" t="n">
-        <v>9345.736021560966</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H28" t="n">
-        <v>133143.6091148894</v>
+        <v>29745.65383217112</v>
       </c>
       <c r="I28" t="n">
-        <v>173166.5084259908</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J28" t="n">
-        <v>-453.1021534668865</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>163.4977670923801</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-204.2089262510808</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.9648950681047247</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N28" t="n">
-        <v>22.00767996362464</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O28" t="n">
-        <v>2168.04031784872</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P28" t="n">
-        <v>3.430363025835736</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.82440244553927</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>4679.684026913143</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S28" t="n">
-        <v>10.40357209685558</v>
+        <v>0.1334807804953928</v>
       </c>
       <c r="T28" t="n">
-        <v>157.2932424188009</v>
+        <v>4.895304970434609</v>
       </c>
       <c r="U28" t="n">
-        <v>13613.69838657148</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V28" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="W28" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.3188315636611773</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.9566069829382592</v>
+        <v>0.02400333615936955</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.6958472659312</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC28" t="n">
-        <v>110.0519407887028</v>
+        <v>0.01540105419617925</v>
       </c>
       <c r="AD28" t="n">
-        <v>131.9354101010163</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE28" t="n">
-        <v>5.33089908421652</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF28" t="n">
-        <v>75.91400138748411</v>
+        <v>15.02489939674599</v>
       </c>
       <c r="AG28" t="n">
-        <v>7596.417011115237</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH28" t="n">
-        <v>150115.4439990958</v>
+        <v>30000.01556420766</v>
       </c>
       <c r="AI28" t="n">
-        <v>150131.0688824617</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1033.319421622687</v>
+        <v>7.257651995819164</v>
       </c>
       <c r="AK28" t="n">
-        <v>440.5315073378797</v>
+        <v>72.96230488309065</v>
       </c>
       <c r="AL28" t="n">
-        <v>939.046064785244</v>
+        <v>14.99668951414447</v>
       </c>
       <c r="AM28" t="n">
-        <v>-2.465467957731012</v>
+        <v>-0.1135533601494756</v>
       </c>
       <c r="AN28" t="n">
-        <v>-35.81672248191463</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO28" t="n">
-        <v>-2511.643709064424</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="29">
@@ -9170,124 +9170,124 @@
         <v>26</v>
       </c>
       <c r="B29" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>109.1342114905554</v>
+        <v>100.2210062787335</v>
       </c>
       <c r="E29" t="n">
-        <v>5.176615303981092</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F29" t="n">
-        <v>91.11170356818458</v>
+        <v>14.06244710223352</v>
       </c>
       <c r="G29" t="n">
-        <v>9103.165830461832</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H29" t="n">
-        <v>135710.6470349164</v>
+        <v>29745.65383217112</v>
       </c>
       <c r="I29" t="n">
-        <v>172364.159464509</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J29" t="n">
-        <v>-566.7428225865381</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>154.1693038294664</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-204.2089262510808</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5528926238621457</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N29" t="n">
-        <v>21.71896965302037</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O29" t="n">
-        <v>2606.199751414691</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P29" t="n">
-        <v>4.547551650525914</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.14161722067352</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>5334.459630067157</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S29" t="n">
-        <v>12.43794073661344</v>
+        <v>0.1334807804953928</v>
       </c>
       <c r="T29" t="n">
-        <v>176.8155256781495</v>
+        <v>4.895304970434609</v>
       </c>
       <c r="U29" t="n">
-        <v>15345.65827494581</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V29" t="n">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="W29" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="X29" t="n">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.3562290602287929</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.235324461498784</v>
+        <v>0.02400333615936955</v>
       </c>
       <c r="AB29" t="n">
-        <v>115.3641434945949</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC29" t="n">
-        <v>110.0916919629839</v>
+        <v>0.01540105419617925</v>
       </c>
       <c r="AD29" t="n">
-        <v>132.2090520187656</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE29" t="n">
-        <v>5.369222182951314</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF29" t="n">
-        <v>76.16048589064285</v>
+        <v>15.02489939674599</v>
       </c>
       <c r="AG29" t="n">
-        <v>7608.510099016507</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH29" t="n">
-        <v>150115.4867038061</v>
+        <v>30000.01556420766</v>
       </c>
       <c r="AI29" t="n">
-        <v>150131.3178167776</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ29" t="n">
-        <v>880.4559925680576</v>
+        <v>12.0045425158113</v>
       </c>
       <c r="AK29" t="n">
-        <v>115.311990409489</v>
+        <v>51.4278928031248</v>
       </c>
       <c r="AL29" t="n">
-        <v>568.2983967719695</v>
+        <v>16.64376130115787</v>
       </c>
       <c r="AM29" t="n">
-        <v>-3.99465902666377</v>
+        <v>-0.1135533601494756</v>
       </c>
       <c r="AN29" t="n">
-        <v>-35.42264756765315</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO29" t="n">
-        <v>-2728.259878652469</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="30">
@@ -9295,124 +9295,124 @@
         <v>27</v>
       </c>
       <c r="B30" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>109.1342114905554</v>
+        <v>100.2210062787335</v>
       </c>
       <c r="E30" t="n">
-        <v>5.176615303981092</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F30" t="n">
-        <v>91.11170356818458</v>
+        <v>14.06244710223352</v>
       </c>
       <c r="G30" t="n">
-        <v>9103.165830461832</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H30" t="n">
-        <v>135710.6470349164</v>
+        <v>29745.65383217112</v>
       </c>
       <c r="I30" t="n">
-        <v>172364.159464509</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J30" t="n">
-        <v>-566.7428225865381</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>154.1693038294664</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-204.2089262510808</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5528926238621457</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N30" t="n">
-        <v>21.71896965302037</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O30" t="n">
-        <v>2606.199751414691</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P30" t="n">
-        <v>4.547551650525914</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.14161722067352</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>5334.459630067157</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S30" t="n">
-        <v>12.43794073661344</v>
+        <v>0.1334807804953928</v>
       </c>
       <c r="T30" t="n">
-        <v>176.8155256781495</v>
+        <v>4.895304970434609</v>
       </c>
       <c r="U30" t="n">
-        <v>15345.65827494581</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V30" t="n">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="W30" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="X30" t="n">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.3562290602287929</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.235324461498784</v>
+        <v>0.02400333615936955</v>
       </c>
       <c r="AB30" t="n">
-        <v>115.3641434945949</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC30" t="n">
-        <v>110.0916919629839</v>
+        <v>0.01540105419617925</v>
       </c>
       <c r="AD30" t="n">
-        <v>132.2090520187656</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE30" t="n">
-        <v>5.369222182951314</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF30" t="n">
-        <v>76.16048589064285</v>
+        <v>15.02489939674599</v>
       </c>
       <c r="AG30" t="n">
-        <v>7608.510099016507</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH30" t="n">
-        <v>150115.4867038061</v>
+        <v>30000.01556420766</v>
       </c>
       <c r="AI30" t="n">
-        <v>150131.3178167776</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ30" t="n">
-        <v>880.4559925680576</v>
+        <v>12.0045425158113</v>
       </c>
       <c r="AK30" t="n">
-        <v>115.311990409489</v>
+        <v>51.4278928031248</v>
       </c>
       <c r="AL30" t="n">
-        <v>568.2983967719695</v>
+        <v>16.64376130115787</v>
       </c>
       <c r="AM30" t="n">
-        <v>-3.99465902666377</v>
+        <v>-0.1135533601494756</v>
       </c>
       <c r="AN30" t="n">
-        <v>-35.42264756765315</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO30" t="n">
-        <v>-2728.259878652469</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="31">
@@ -9420,124 +9420,124 @@
         <v>28</v>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>109.4987489017061</v>
+        <v>100.2210062787335</v>
       </c>
       <c r="E31" t="n">
-        <v>5.190241140939259</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F31" t="n">
-        <v>92.28010455685018</v>
+        <v>14.06244710223352</v>
       </c>
       <c r="G31" t="n">
-        <v>9103.165830461832</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H31" t="n">
-        <v>135710.6470349164</v>
+        <v>29745.65383217112</v>
       </c>
       <c r="I31" t="n">
-        <v>172484.9680500196</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J31" t="n">
-        <v>-566.7428225865381</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>154.1693038294664</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-204.2089262510808</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5528926238621457</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N31" t="n">
-        <v>21.71896965302037</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O31" t="n">
-        <v>2606.199751414691</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P31" t="n">
-        <v>4.547551650525914</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.14161722067352</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5334.459630067157</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S31" t="n">
-        <v>12.43794073661344</v>
+        <v>0.1334807804953928</v>
       </c>
       <c r="T31" t="n">
-        <v>176.8155256781495</v>
+        <v>4.895304970434609</v>
       </c>
       <c r="U31" t="n">
-        <v>15345.65827494581</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V31" t="n">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="W31" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="X31" t="n">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.3565613977155774</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.253224854616867</v>
+        <v>0.02400333615936955</v>
       </c>
       <c r="AB31" t="n">
-        <v>115.3641434945949</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC31" t="n">
-        <v>110.0916919629839</v>
+        <v>0.01540105419617925</v>
       </c>
       <c r="AD31" t="n">
-        <v>133.9572800142575</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE31" t="n">
-        <v>5.369554520438099</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF31" t="n">
-        <v>76.17838628376096</v>
+        <v>15.02489939674599</v>
       </c>
       <c r="AG31" t="n">
-        <v>7608.510099016507</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH31" t="n">
-        <v>150115.4867038061</v>
+        <v>30000.01556420766</v>
       </c>
       <c r="AI31" t="n">
-        <v>150133.0660447731</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ31" t="n">
-        <v>880.4559925680576</v>
+        <v>12.0045425158113</v>
       </c>
       <c r="AK31" t="n">
-        <v>115.311990409489</v>
+        <v>51.4278928031248</v>
       </c>
       <c r="AL31" t="n">
-        <v>568.2983967719695</v>
+        <v>16.64376130115787</v>
       </c>
       <c r="AM31" t="n">
-        <v>-3.99465902666377</v>
+        <v>-0.1135533601494756</v>
       </c>
       <c r="AN31" t="n">
-        <v>-35.42264756765315</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO31" t="n">
-        <v>-2728.259878652469</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="32">
@@ -9545,124 +9545,124 @@
         <v>29</v>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>109.7003203911764</v>
+        <v>100.2210062787335</v>
       </c>
       <c r="E32" t="n">
-        <v>5.282114417098753</v>
+        <v>0.9875112816296717</v>
       </c>
       <c r="F32" t="n">
-        <v>93.09138778538333</v>
+        <v>14.06244710223352</v>
       </c>
       <c r="G32" t="n">
-        <v>9039.333945140677</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H32" t="n">
-        <v>131559.7446790495</v>
+        <v>29745.65383217112</v>
       </c>
       <c r="I32" t="n">
-        <v>176143.6193898306</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J32" t="n">
-        <v>-145.7781223326163</v>
+        <v>-0.3261637215973484</v>
       </c>
       <c r="K32" t="n">
-        <v>418.9092970449603</v>
+        <v>-0.3261637215973484</v>
       </c>
       <c r="L32" t="n">
-        <v>-204.2089262510808</v>
+        <v>-0.3261637215973484</v>
       </c>
       <c r="M32" t="n">
-        <v>0.6551359199195305</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>30.04522650121256</v>
+        <v>5.488697610427739</v>
       </c>
       <c r="O32" t="n">
-        <v>2606.604091938812</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P32" t="n">
-        <v>4.531461803098673</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q32" t="n">
-        <v>57.3935916372839</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1890.454639808062</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S32" t="n">
-        <v>12.59687417317053</v>
+        <v>0.1343272601033113</v>
       </c>
       <c r="T32" t="n">
-        <v>186.4846262220847</v>
+        <v>6.549127469715363</v>
       </c>
       <c r="U32" t="n">
-        <v>18988.74818596078</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V32" t="n">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="W32" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="X32" t="n">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.3978849834730046</v>
+        <v>0.005137457452901795</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.29775771776444</v>
+        <v>0.05690188194976385</v>
       </c>
       <c r="AB32" t="n">
-        <v>115.4278622929554</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC32" t="n">
-        <v>321.9929019215176</v>
+        <v>0.01540105419617925</v>
       </c>
       <c r="AD32" t="n">
-        <v>135.6777450578755</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE32" t="n">
-        <v>5.411527005317279</v>
+        <v>1.005179613288244</v>
       </c>
       <c r="AF32" t="n">
-        <v>76.21726315144865</v>
+        <v>15.05931713778705</v>
       </c>
       <c r="AG32" t="n">
-        <v>7608.566757829382</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH32" t="n">
-        <v>150348.5302979825</v>
+        <v>30000.01556420766</v>
       </c>
       <c r="AI32" t="n">
-        <v>150134.6086771999</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1336.313817573414</v>
+        <v>5.358351238001876</v>
       </c>
       <c r="AK32" t="n">
-        <v>336.3283433595865</v>
+        <v>59.714003842259</v>
       </c>
       <c r="AL32" t="n">
-        <v>329.9708005620618</v>
+        <v>9.284961481968686</v>
       </c>
       <c r="AM32" t="n">
-        <v>-3.876325883179144</v>
+        <v>-0.1143998397573941</v>
       </c>
       <c r="AN32" t="n">
-        <v>-27.34836513607133</v>
+        <v>5.488697610427739</v>
       </c>
       <c r="AO32" t="n">
-        <v>716.1494521307479</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="33">
@@ -9670,124 +9670,124 @@
         <v>30</v>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>109.7003203911764</v>
+        <v>100.2210062787335</v>
       </c>
       <c r="E33" t="n">
-        <v>5.282114417098753</v>
+        <v>0.9875112816296717</v>
       </c>
       <c r="F33" t="n">
-        <v>93.09138778538333</v>
+        <v>14.06244710223352</v>
       </c>
       <c r="G33" t="n">
-        <v>9039.333945140677</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H33" t="n">
-        <v>131559.7446790495</v>
+        <v>29745.65383217112</v>
       </c>
       <c r="I33" t="n">
-        <v>176143.6193898306</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J33" t="n">
-        <v>-145.7781223326163</v>
+        <v>-0.3261637215973484</v>
       </c>
       <c r="K33" t="n">
-        <v>418.9092970449603</v>
+        <v>-0.3261637215973484</v>
       </c>
       <c r="L33" t="n">
-        <v>-204.2089262510808</v>
+        <v>-0.3261637215973484</v>
       </c>
       <c r="M33" t="n">
-        <v>0.6551359199195305</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>30.04522650121256</v>
+        <v>5.488697610427739</v>
       </c>
       <c r="O33" t="n">
-        <v>2606.604091938812</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P33" t="n">
-        <v>4.531461803098673</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.3935916372839</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1890.454639808062</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S33" t="n">
-        <v>12.59687417317053</v>
+        <v>0.1343272601033113</v>
       </c>
       <c r="T33" t="n">
-        <v>186.4846262220847</v>
+        <v>6.549127469715363</v>
       </c>
       <c r="U33" t="n">
-        <v>18988.74818596078</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V33" t="n">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="W33" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.3978849834730046</v>
+        <v>0.005137457452901795</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.29775771776444</v>
+        <v>0.05690188194976385</v>
       </c>
       <c r="AB33" t="n">
-        <v>115.4278622929554</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC33" t="n">
-        <v>321.9929019215176</v>
+        <v>0.01540105419617925</v>
       </c>
       <c r="AD33" t="n">
-        <v>135.6777450578755</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE33" t="n">
-        <v>5.411527005317279</v>
+        <v>1.005179613288244</v>
       </c>
       <c r="AF33" t="n">
-        <v>76.21726315144865</v>
+        <v>15.05931713778705</v>
       </c>
       <c r="AG33" t="n">
-        <v>7608.566757829382</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH33" t="n">
-        <v>150348.5302979825</v>
+        <v>30000.01556420766</v>
       </c>
       <c r="AI33" t="n">
-        <v>150134.6086771999</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1336.313817573414</v>
+        <v>5.358351238001876</v>
       </c>
       <c r="AK33" t="n">
-        <v>336.3283433595865</v>
+        <v>59.714003842259</v>
       </c>
       <c r="AL33" t="n">
-        <v>329.9708005620618</v>
+        <v>9.284961481968686</v>
       </c>
       <c r="AM33" t="n">
-        <v>-3.876325883179144</v>
+        <v>-0.1143998397573941</v>
       </c>
       <c r="AN33" t="n">
-        <v>-27.34836513607133</v>
+        <v>5.488697610427739</v>
       </c>
       <c r="AO33" t="n">
-        <v>716.1494521307479</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
   </sheetData>
